--- a/NCDK-Excel/ExcelNCDK-Test.xlsx
+++ b/NCDK-Excel/ExcelNCDK-Test.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978CF66D-DDAD-4894-A908-CD8869D39611}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE9978B-A6F9-4AF0-9DD3-74C73212D95A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="239" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptors" sheetId="2" r:id="rId1"/>
+    <sheet name="SDF" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="164">
   <si>
     <t>CC(=O)O</t>
     <phoneticPr fontId="1"/>
@@ -478,6 +479,1328 @@
   </si>
   <si>
     <t>c1ccccc1C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Molecular</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261443
+  CDK     05281903162D
+ 20 22  0  0  1  0  0  0  0  0999 V2000
+    0.5185    2.9762    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.2330    2.5637    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    1.2330    1.7387    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.5185    1.3262    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.2661    1.5812    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.7510    0.9137    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.2661    0.2463    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.5210   -0.5383    0.0000 C   0  0  2  0  0  0  0  0  0  0  0  0
+   -1.3056   -0.7933    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.3056   -1.6183    0.0000 C   0  0  2  0  0  0  0  0  0  0  0  0
+   -1.9731   -2.1032    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.7268   -1.7676    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.5210   -1.8732    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.2661   -2.6578    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.0361   -1.2058    0.0000 C   0  0  1  0  0  0  0  0  0  0  0  0
+    0.7889   -1.2058    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    0.5185    0.5012    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.2330    0.0887    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    1.9475    0.5012    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.9475    1.3262    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  1  0  0  0  0 
+  2  3  1  0  0  0  0 
+  3  4  2  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  2  0  0  0  0 
+  6  7  1  0  0  0  0 
+  7  8  1  0  0  0  0 
+  8  9  1  1  0  0  0 
+  9 10  1  0  0  0  0 
+ 10 11  1  1  0  0  0 
+ 11 12  1  0  0  0  0 
+ 10 13  1  0  0  0  0 
+ 13 14  1  0  0  0  0 
+ 13 15  1  0  0  0  0 
+  8 15  1  0  0  0  0 
+ 15 16  1  6  0  0  0 
+  7 17  1  0  0  0  0 
+  4 17  1  0  0  0  0 
+ 17 18  2  0  0  0  0 
+ 18 19  1  0  0  0  0 
+ 19 20  2  0  0  0  0 
+  3 20  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261443</t>
+  </si>
+  <si>
+    <t>Compound ID</t>
+  </si>
+  <si>
+    <t>Compound Batch ID</t>
+  </si>
+  <si>
+    <t>NCGC00261443-01</t>
+  </si>
+  <si>
+    <t>NR-AR</t>
+  </si>
+  <si>
+    <t>NR-AR-LBD</t>
+  </si>
+  <si>
+    <t>NR-AhR</t>
+  </si>
+  <si>
+    <t>NR-ER</t>
+  </si>
+  <si>
+    <t>NR-ER-LBD</t>
+  </si>
+  <si>
+    <t>NR-PPAR-gamma</t>
+  </si>
+  <si>
+    <t>SR-ARE</t>
+  </si>
+  <si>
+    <t>SR-ATAD5</t>
+  </si>
+  <si>
+    <t>SR-HSE</t>
+  </si>
+  <si>
+    <t>SR-MMP</t>
+  </si>
+  <si>
+    <t>SR-p53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261600
+  CDK     05281903162D
+ 18 19  0  0  0  0  0  0  0  0999 V2000
+   -1.7862   -2.3604    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.7862   -1.5354    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.0717   -1.1229    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.0717   -0.2979    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.3572    0.1146    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.3572   -0.2979    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.0717    0.1146    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.7862   -0.2979    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.5006    0.1146    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.5006    0.9396    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.2151    1.3521    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    1.7862    1.3521    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.7862    2.1771    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    1.0717    0.9396    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.7862    0.1146    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.5006   -0.2979    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.2151    0.1146    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.5006   -1.1229    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  1  0  0  0  0 
+  2  3  2  0  0  0  0 
+  3  4  1  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  2  0  0  0  0 
+  6  7  1  0  0  0  0 
+  7  8  2  0  0  0  0 
+  8  9  1  0  0  0  0 
+  9 10  2  0  0  0  0 
+ 10 11  1  0  0  0  0 
+ 10 12  1  0  0  0  0 
+ 12 13  1  0  0  0  0 
+ 12 14  2  0  0  0  0 
+  7 14  1  0  0  0  0 
+  4 15  2  0  0  0  0 
+ 15 16  1  0  0  0  0 
+ 16 17  1  0  0  0  0 
+ 16 18  2  0  0  0  0 
+  2 18  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261600</t>
+  </si>
+  <si>
+    <t>NCGC00261600-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00260926
+  CDK     05281903162D
+ 27 30  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 Cl  0  5  0  0  0  0  0  0  0  0  0  0
+    9.3498   -0.7615    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    8.6353   -1.1740    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    7.9208   -0.7615    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    7.9208    0.0635    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    7.2064    0.4760    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    6.4919    0.0635    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.7774    0.4760    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.7774    1.3010    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.0630    1.7135    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.3485    1.3010    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.6340    1.7135    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.9195    1.3010    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.1349    1.5559    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6500    0.8885    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.1349    0.2210    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    2.9195    0.4760    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.6340    0.0635    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.3485    0.4760    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.0630    0.0635    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.0630   -0.7615    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+    4.3485   -1.1740    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.7774   -1.1740    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    6.4919   -0.7615    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    7.2064   -1.1740    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    7.2064   -1.9990    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    6.4919   -2.4115    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  2  3  1  0  0  0  0 
+  3  4  1  0  0  0  0 
+  4  5  2  0  0  0  0 
+  5  6  1  0  0  0  0 
+  6  7  2  0  0  0  0 
+  7  8  1  0  0  0  0 
+  8  9  2  0  0  0  0 
+  9 10  1  0  0  0  0 
+ 10 11  2  0  0  0  0 
+ 11 12  1  0  0  0  0 
+ 12 13  2  0  0  0  0 
+ 13 14  1  0  0  0  0 
+ 14 15  1  0  0  0  0 
+ 15 16  1  0  0  0  0 
+ 16 17  1  0  0  0  0 
+ 13 17  1  0  0  0  0 
+ 17 18  2  0  0  0  0 
+ 18 19  1  0  0  0  0 
+ 11 19  1  0  0  0  0 
+ 19 20  2  0  0  0  0 
+  8 20  1  0  0  0  0 
+ 20 21  1  0  0  0  0 
+ 21 22  1  0  0  0  0 
+ 21 23  2  0  0  0  0 
+ 23 24  1  0  0  0  0 
+  7 24  1  0  0  0  0 
+ 24 25  2  0  0  0  0 
+  4 25  1  0  0  0  0 
+ 25 26  1  0  0  0  0 
+ 26 27  1  0  0  0  0 
+M  CHG  1   1  -1
+M  CHG  1  21   1
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00260926</t>
+  </si>
+  <si>
+    <t>NCGC00260926-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261266
+  CDK     05281903162D
+ 14 13  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 Br  0  0  0  0  0  0  0  0  0  0  0  0
+    4.1074    1.3050    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.6618    0.6940    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.4933   -0.1136    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.7410   -0.4520    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0717    0.0304    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.1548    0.8512    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    2.3193   -0.3081    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.2362   -1.1289    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6500    0.1743    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    5.2094   -0.5233    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.2988   -1.3435    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    5.8204    0.0310    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    5.4819    0.7834    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+  2  3  1  0  0  0  0 
+  3  4  2  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  1  0  0  0  0 
+  6  7  1  0  0  0  0 
+  6  8  1  0  0  0  0 
+  8  9  1  0  0  0  0 
+  8 10  2  0  0  0  0 
+  4 11  1  0  0  0  0 
+ 11 12  1  0  0  0  0 
+ 11 13  2  0  0  0  0 
+ 13 14  1  0  0  0  0 
+  3 14  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261266</t>
+  </si>
+  <si>
+    <t>NCGC00261266-01</t>
+  </si>
+  <si>
+    <t>NR-Aromatase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261897
+  CDK     05281903162D
+ 18 19  0  0  0  0  0  0  0  0999 V2000
+    0.9923   -2.7729    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    0.9923   -1.9479    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.7068   -1.5354    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    1.7068   -0.7104    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.4213   -0.2979    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    0.9923   -0.2979    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.9923    0.5271    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    1.7068    0.9396    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    0.2778   -0.7104    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.4366   -0.2979    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.4366    0.5271    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.1511    0.9396    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.1511    1.7646    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.8656    2.1771    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.5800    1.7646    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.5800    0.9396    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.8656    0.5271    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.2778   -1.5354    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  1  0  0  0  0 
+  2  3  2  0  0  0  0 
+  3  4  1  0  0  0  0 
+  4  5  1  0  0  0  0 
+  4  6  2  0  0  0  0 
+  6  7  1  0  0  0  0 
+  7  8  2  0  0  0  0 
+  6  9  1  0  0  0  0 
+  9 10  1  0  0  0  0 
+ 10 11  1  0  0  0  0 
+ 11 12  1  0  0  0  0 
+ 12 13  1  0  0  0  0 
+ 13 14  1  0  0  0  0 
+ 14 15  1  0  0  0  0 
+ 15 16  1  0  0  0  0 
+ 16 17  1  0  0  0  0 
+ 12 17  1  0  0  0  0 
+  9 18  2  0  0  0  0 
+  2 18  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261897</t>
+  </si>
+  <si>
+    <t>NCGC00261897-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261559
+  CDK     05281903162D
+ 25 29  0  0  0  0  0  0  0  0999 V2000
+   -2.0160   -0.9532    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.5310   -0.2858    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.0160    0.3817    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.8006    0.1267    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.8006   -0.6983    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.5151   -1.1108    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.2295   -0.6983    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.2295    0.1267    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.5151    0.5392    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.7060   -0.2858    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.2935   -1.0003    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.5315   -1.0003    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.9440   -0.2858    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    0.5315    0.4287    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.2935    0.4287    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.7690   -0.2858    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.1815   -1.0003    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0065   -1.0003    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.4190   -0.2858    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0065    0.4287    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.1815    0.4287    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.7690    1.1432    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    2.1815    1.8576    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0065    1.8576    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.4190    1.1432    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  1  0  0  0  0 
+  2  3  1  0  0  0  0 
+  3  4  1  0  0  0  0 
+  4  5  2  0  0  0  0 
+  1  5  1  0  0  0  0 
+  5  6  1  0  0  0  0 
+  6  7  2  0  0  0  0 
+  7  8  1  0  0  0  0 
+  8  9  2  0  0  0  0 
+  4  9  1  0  0  0  0 
+  2 10  1  0  0  0  0 
+ 10 11  1  0  0  0  0 
+ 11 12  1  0  0  0  0 
+ 12 13  1  0  0  0  0 
+ 13 14  1  0  0  0  0 
+ 14 15  1  0  0  0  0 
+ 10 15  1  0  0  0  0 
+ 13 16  1  0  0  0  0 
+ 16 17  2  0  0  0  0 
+ 17 18  1  0  0  0  0 
+ 18 19  2  0  0  0  0 
+ 19 20  1  0  0  0  0 
+ 20 21  2  0  0  0  0 
+ 16 21  1  0  0  0  0 
+ 21 22  1  0  0  0  0 
+ 22 23  1  0  0  0  0 
+ 23 24  1  0  0  0  0 
+ 24 25  1  0  0  0  0 
+ 20 25  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261559</t>
+  </si>
+  <si>
+    <t>NCGC00261559-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261121
+  CDK     05281903162D
+ 20 21  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 Cl  0  0  0  0  0  0  0  0  0  0  0  0
+    5.6007    1.6257    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    4.8862    1.2132    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.1718    1.6257    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.4573    1.2132    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.4573    0.3882    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.1718   -0.0243    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.8862    0.3882    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.6007   -0.0243    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    2.8123   -0.1262    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.0080    0.0574    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6500    0.8007    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    2.0080    1.5440    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.8123    1.7276    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.9958   -0.9305    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.3911   -1.4916    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.5747   -2.2960    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.3630   -2.5391    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.9678   -1.9780    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.7842   -1.1737    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  2  3  1  0  0  0  0 
+  3  4  2  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  2  0  0  0  0 
+  6  7  1  0  0  0  0 
+  7  8  2  0  0  0  0 
+  3  8  1  0  0  0  0 
+  8  9  1  0  0  0  0 
+  6 10  1  0  0  0  0 
+ 10 11  1  0  0  0  0 
+ 11 12  1  0  0  0  0 
+ 12 13  1  0  0  0  0 
+ 13 14  1  0  0  0  0 
+  5 14  1  0  0  0  0 
+ 10 15  1  0  0  0  0 
+ 15 16  2  0  0  0  0 
+ 16 17  1  0  0  0  0 
+ 17 18  2  0  0  0  0 
+ 18 19  1  0  0  0  0 
+ 19 20  2  0  0  0  0 
+ 15 20  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261121</t>
+  </si>
+  <si>
+    <t>NCGC00261121-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261374
+  CDK     05281903162D
+ 15 14  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 Cl  0  0  0  0  0  0  0  0  0  0  0  0
+    1.6500   -2.3866    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    2.3645   -1.9741    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0789   -2.3866    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    2.3645   -1.1491    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0789   -0.7366    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0789    0.0884    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.3645    0.5009    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.3645    1.3259    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0789    1.7384    0.0000 S   0  0  0  0  0  0  0  0  0  0  0  0
+    2.6664    2.4529    0.0000 F   0  0  0  0  0  0  0  0  0  0  0  0
+    3.4914    1.0239    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    3.7934    2.1509    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6500    0.0884    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6500   -0.7366    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  2  3  1  0  0  0  0 
+  3  4  2  0  0  0  0 
+  3  5  1  0  0  0  0 
+  5  6  2  0  0  0  0 
+  6  7  1  0  0  0  0 
+  7  8  2  0  0  0  0 
+  8  9  1  0  0  0  0 
+  9 10  1  0  0  0  0 
+ 10 11  1  0  0  0  0 
+ 10 12  2  0  0  0  0 
+ 10 13  2  0  0  0  0 
+  8 14  1  0  0  0  0 
+ 14 15  2  0  0  0  0 
+  5 15  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261374</t>
+  </si>
+  <si>
+    <t>NCGC00261374-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261612
+  CDK     05281903162D
+ 24 25  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 Cl  0  0  0  0  0  0  0  0  0  0  0  0
+    3.5133   -0.3785    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    3.8701    0.3654    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.6927    0.4284    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    5.1585   -0.2525    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.9811   -0.1896    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    6.4469   -0.8705    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    6.0902   -1.6143    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    6.5560   -2.2952    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    7.3786   -2.2323    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    7.7354   -1.4884    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    7.2695   -0.8075    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.4043    1.0463    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.1187    1.4588    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.1187    2.2838    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.4043    2.6963    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.6898    2.2838    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.6898    1.4588    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.9384    0.3654    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.1158    0.4284    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6500   -0.2525    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.0068   -0.9964    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.8294   -1.0594    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.2952   -0.3785    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  2  3  2  0  0  0  0 
+  3  4  1  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  1  0  0  0  0 
+  6  7  1  0  0  0  0 
+  7  8  1  0  0  0  0 
+  8  9  1  0  0  0  0 
+  9 10  1  0  0  0  0 
+ 10 11  1  0  0  0  0 
+ 11 12  1  0  0  0  0 
+  7 12  1  0  0  0  0 
+  3 13  1  0  0  0  0 
+ 13 14  1  0  0  0  0 
+ 14 15  1  0  0  0  0 
+ 15 16  1  0  0  0  0 
+ 16 17  1  0  0  0  0 
+ 17 18  1  0  0  0  0 
+ 13 18  1  0  0  0  0 
+ 13 19  1  0  0  0  0 
+ 19 20  2  0  0  0  0 
+ 20 21  1  0  0  0  0 
+ 21 22  2  0  0  0  0 
+ 22 23  1  0  0  0  0 
+ 23 24  2  0  0  0  0 
+ 19 24  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261612</t>
+  </si>
+  <si>
+    <t>NCGC00261612-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261002
+  CDK     05281903162D
+ 38 42  0  0  1  0  0  0  0  0999 V2000
+    2.4714    0.4876    0.0000 C   0  0  1  0  0  0  0  0  0  0  0  0
+    1.6464    0.4876    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    1.2339   -0.2269    0.0000 C   0  0  2  0  0  0  0  0  0  0  0  0
+    0.8214    0.4876    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.0036    0.4876    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.4161   -0.2269    0.0000 C   0  0  1  0  0  0  0  0  0  0  0  0
+   -1.2411   -0.2269    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.0036   -0.9414    0.0000 C   0  0  1  0  0  0  0  0  0  0  0  0
+   -0.4161   -1.6558    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.2411   -1.6558    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.7261   -0.9884    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.5107   -1.2433    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.5107   -2.0683    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.7261   -2.3233    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.2251   -2.4808    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.9396   -2.0683    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.9396   -1.2433    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.6541   -0.8308    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+   -5.3686   -1.2433    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.2251   -0.8308    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.2251   -0.0058    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.5107    0.4067    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.9396    0.4067    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    0.8214   -0.9414    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6464   -0.9414    0.0000 C   0  0  2  0  0  0  0  0  0  0  0  0
+    1.2339   -1.6558    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.4714   -0.9414    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.8839   -0.2269    0.0000 C   0  0  1  0  0  0  0  0  0  0  0  0
+    3.7089   -0.2269    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.8839    1.2020    0.0000 C   0  0  2  0  0  0  0  0  0  0  0  0
+    3.7089    1.2020    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.4714    1.9165    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6464    1.9165    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    2.8839    2.6310    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.7043    2.7172    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.8759    3.5242    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.1614    3.9367    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.5483    3.3847    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  1  6  0  0  0 
+  3  2  1  1  0  0  0 
+  3  4  1  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  1  0  0  0  0 
+  6  7  1  6  0  0  0 
+  6  8  1  0  0  0  0 
+  8  9  1  6  0  0  0 
+  9 10  1  0  0  0  0 
+ 10 11  2  0  0  0  0 
+ 11 12  1  0  0  0  0 
+ 12 13  2  0  0  0  0 
+ 13 14  1  0  0  0  0 
+ 10 14  1  0  0  0  0 
+ 13 15  1  0  0  0  0 
+ 15 16  2  0  0  0  0 
+ 16 17  1  0  0  0  0 
+ 17 18  1  0  0  0  0 
+ 18 19  1  0  0  0  0 
+ 17 20  2  0  0  0  0 
+ 12 20  1  0  0  0  0 
+ 20 21  1  0  0  0  0 
+ 21 22  1  0  0  0  0 
+ 21 23  2  0  0  0  0 
+  8 24  1  0  0  0  0 
+  3 24  1  0  0  0  0 
+  3 25  1  0  0  0  0 
+ 25 26  1  1  0  0  0 
+ 25 27  1  0  0  0  0 
+ 27 28  1  0  0  0  0 
+  1 28  1  0  0  0  0 
+ 28 29  1  6  0  0  0 
+  1 30  1  0  0  0  0 
+ 30 31  1  1  0  0  0 
+ 30 32  1  0  0  0  0 
+ 32 33  2  0  0  0  0 
+ 32 34  1  0  0  0  0 
+ 34 35  2  0  0  0  0 
+ 35 36  1  0  0  0  0 
+ 36 37  2  0  0  0  0 
+ 37 38  1  0  0  0  0 
+ 34 38  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261002</t>
+  </si>
+  <si>
+    <t>NCGC00261002-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261311
+  CDK     05281903162D
+ 18 17  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 K   0  3  0  0  0  0  0  0  0  0  0  0
+    5.2224   -1.9412    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.5079   -1.5287    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    4.5079   -0.7037    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.2224   -0.2912    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.2224    0.5338    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.5079    0.9463    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.7934    0.5338    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.7934   -0.2912    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0789   -0.7037    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    2.3645   -0.2912    0.0000 S   0  0  0  0  0  0  0  0  0  0  0  0
+    1.9520   -1.0056    0.0000 O   0  5  0  0  0  0  0  0  0  0  0  0
+    2.7770    0.4233    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6500    0.1213    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    5.9368    0.9463    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.9368    1.7713    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    6.6513    0.5338    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    7.3658    0.9463    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+  2  3  1  0  0  0  0 
+  3  4  1  0  0  0  0 
+  4  5  2  0  0  0  0 
+  5  6  1  0  0  0  0 
+  6  7  2  0  0  0  0 
+  7  8  1  0  0  0  0 
+  8  9  2  0  0  0  0 
+  4  9  1  0  0  0  0 
+  9 10  1  0  0  0  0 
+ 10 11  1  0  0  0  0 
+ 11 12  1  0  0  0  0 
+ 11 13  2  0  0  0  0 
+ 11 14  2  0  0  0  0 
+  6 15  1  0  0  0  0 
+ 15 16  1  0  0  0  0 
+ 15 17  1  0  0  0  0 
+ 17 18  1  0  0  0  0 
+M  CHG  1   1   1
+M  CHG  1  12  -1
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261311</t>
+  </si>
+  <si>
+    <t>NCGC00261311-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261257
+  CDK     05281903162D
+ 35 36  0  0  0  0  0  0  0  0999 V2000
+    0.4125    1.4289    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    0.8250    0.7145    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6500    0.7145    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    0.4125    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.4125    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.8250   -0.7145    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.4125   -1.4289    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.6500   -0.7145    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    6.8479   -3.9107    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    6.8479   -3.0857    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    6.1334   -2.6732    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.4190   -3.0857    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    6.1334   -1.8482    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    6.8479   -1.4357    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    6.8479   -0.6107    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    6.1334   -0.1982    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    5.4190   -0.6107    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.7045   -0.1982    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.2920   -0.9127    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    3.4715   -0.9989    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.3000   -1.8059    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.0145   -2.2184    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.6276   -1.6663    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.4190   -1.4357    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    6.1334    0.6268    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.4190    1.0393    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    6.8479    1.0393    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    6.8479    1.8643    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    7.5624    2.2768    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    7.5624    3.1018    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    6.8479    3.5143    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    6.8479    4.3393    0.0000 Cl  0  0  0  0  0  0  0  0  0  0  0  0
+    6.1334    3.1018    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.4190    3.5143    0.0000 Cl  0  0  0  0  0  0  0  0  0  0  0  0
+    6.1334    2.2768    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  1  0  0  0  0 
+  2  3  2  0  0  0  0 
+  2  4  1  0  0  0  0 
+  4  5  2  0  0  0  0 
+  5  6  1  0  0  0  0 
+  6  7  1  0  0  0  0 
+  6  8  2  0  0  0  0 
+  9 10  1  0  0  0  0 
+ 10 11  1  0  0  0  0 
+ 11 12  2  0  0  0  0 
+ 11 13  1  0  0  0  0 
+ 13 14  1  0  0  0  0 
+ 14 15  1  0  0  0  0 
+ 15 16  1  0  0  0  0 
+ 16 17  1  0  0  0  0 
+ 17 18  1  0  0  0  0 
+ 18 19  1  0  0  0  0 
+ 19 20  1  0  0  0  0 
+ 20 21  1  0  0  0  0 
+ 21 22  1  0  0  0  0 
+ 22 23  1  0  0  0  0 
+ 19 23  1  0  0  0  0 
+ 17 24  1  0  0  0  0 
+ 13 24  1  0  0  0  0 
+ 16 25  1  0  0  0  0 
+ 25 26  2  0  0  0  0 
+ 25 27  1  0  0  0  0 
+ 27 28  1  0  0  0  0 
+ 28 29  2  0  0  0  0 
+ 29 30  1  0  0  0  0 
+ 30 31  2  0  0  0  0 
+ 31 32  1  0  0  0  0 
+ 31 33  1  0  0  0  0 
+ 33 34  1  0  0  0  0 
+ 33 35  2  0  0  0  0 
+ 28 35  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261257</t>
+  </si>
+  <si>
+    <t>NCGC00261257-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00260836
+  CDK     05281903162D
+ 13 13  0  0  1  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 Cl  0  0  0  0  0  0  0  0  0  0  0  0
+    4.6420   -1.4058    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.8969   -0.6212    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    5.6815   -0.3663    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.6815    0.4587    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.8969    0.7137    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.4120    0.0462    0.0000 C   0  0  1  0  0  0  0  0  0  0  0  0
+    3.5870    0.0462    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.1021    0.7137    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.3174    0.4587    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6500    0.9436    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.3174   -0.3663    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    3.1021   -0.6212    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+  2  3  1  0  0  0  0 
+  3  4  1  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  1  0  0  0  0 
+  6  7  1  0  0  0  0 
+  7  3  1  6  0  0  0 
+  7  8  1  0  0  0  0 
+  8  9  2  0  0  0  0 
+  9 10  1  0  0  0  0 
+ 10 11  1  0  0  0  0 
+ 10 12  2  0  0  0  0 
+ 12 13  1  0  0  0  0 
+  8 13  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00260836</t>
+  </si>
+  <si>
+    <t>NCGC00260836-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261756
+  CDK     05281903162D
+ 25 18  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 Cl  0  5  0  0  0  0  0  0  0  0  0  0
+    1.6500    0.0000    0.0000 Cl  0  5  0  0  0  0  0  0  0  0  0  0
+    3.3000    0.0000    0.0000 Cl  0  5  0  0  0  0  0  0  0  0  0  0
+    0.0000   -1.6500    0.0000 Cl  0  5  0  0  0  0  0  0  0  0  0  0
+    1.6500   -1.6500    0.0000 Cl  0  5  0  0  0  0  0  0  0  0  0  0
+    3.3000   -1.6500    0.0000 Cl  0  5  0  0  0  0  0  0  0  0  0  0
+   -2.1713   -4.3802    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+   -1.3918   -4.6502    0.0000 Ru  0  0  0  0  0  0  0  0  0  0  0  0
+   -1.5477   -3.8401    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+   -0.6122   -4.9203    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+   -1.2359   -5.4604    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+   -2.0154   -5.1903    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+   -0.7681   -4.1101    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0114   -4.3802    0.0000 Ru  0  0  0  0  0  0  0  0  0  0  0  0
+   -0.1445   -3.5700    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+    0.7910   -4.6502    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+    0.1673   -5.1903    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+   -0.7987   -4.5361    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+    0.6351   -3.8401    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    1.4146   -4.1101    0.0000 Ru  0  0  0  0  0  0  0  0  0  0  0  0
+    1.2587   -3.3000    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+    2.1942   -4.3802    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+    1.5705   -4.9203    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+    0.6045   -4.2660    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+    2.0383   -3.5700    0.0000 N   0  3  0  0  0  0  0  0  0  0  0  0
+  7  8  1  0  0  0  0 
+  8  9  1  0  0  0  0 
+  8 10  1  0  0  0  0 
+  8 11  1  0  0  0  0 
+  8 12  1  0  0  0  0 
+  8 13  1  0  0  0  0 
+ 13 14  1  0  0  0  0 
+ 14 15  1  0  0  0  0 
+ 14 16  1  0  0  0  0 
+ 14 17  1  0  0  0  0 
+ 14 18  1  0  0  0  0 
+ 14 19  1  0  0  0  0 
+ 19 20  1  0  0  0  0 
+ 20 21  1  0  0  0  0 
+ 20 22  1  0  0  0  0 
+ 20 23  1  0  0  0  0 
+ 20 24  1  0  0  0  0 
+ 20 25  1  0  0  0  0 
+M  CHG  1   1  -1
+M  CHG  1   2  -1
+M  CHG  1   3  -1
+M  CHG  1   4  -1
+M  CHG  1   5  -1
+M  CHG  1   6  -1
+M  CHG  1   7   1
+M  CHG  1   9   1
+M  CHG  1  10   1
+M  CHG  1  11   1
+M  CHG  1  12   1
+M  CHG  1  15   1
+M  CHG  1  16   1
+M  CHG  1  17   1
+M  CHG  1  18   1
+M  CHG  1  21   1
+M  CHG  1  22   1
+M  CHG  1  23   1
+M  CHG  1  24   1
+M  CHG  1  25   1
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261756</t>
+  </si>
+  <si>
+    <t>NCGC00261756-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261491
+  CDK     05281903162D
+ 51 61  0  0  1  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 Cl  0  0  0  0  0  0  0  0  0  0  0  0
+    1.6451    0.0000    0.0000 Cl  0  0  0  0  0  0  0  0  0  0  0  0
+   -3.6563   -1.6451    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.3051   -2.3899    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.0005   -2.8358    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.9567   -3.6617    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.2151   -4.0444    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.0594   -4.8880    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.2704   -5.2140    0.0000 C   0  0  1  0  0  0  0  0  0  0  0  0
+   -3.0692   -5.3092    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.8868   -5.5493    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.4440   -6.1809    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -5.2273   -6.4440    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.6134   -6.9896    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.3369   -4.5204    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.7375   -3.9128    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.8681   -3.8733    0.0000 C   0  0  1  0  0  0  0  0  0  0  0  0
+   -1.3262   -3.2653    0.0000 C   0  0  1  0  0  0  0  0  0  0  0  0
+   -1.7647   -2.5588    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.5695   -2.7661    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.5695   -3.5707    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.5422   -3.4547    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.2984   -4.2476    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.8607   -4.8453    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.6644   -4.6594    0.0000 C   0  0  1  0  0  0  0  0  0  0  0  0
+   -1.4902   -5.4748    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    0.5098   -4.2561    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.7720   -3.4672    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.1199   -2.9809    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    1.5610   -3.2960    0.0000 C   0  0  2  0  0  0  0  0  0  0  0  0
+    2.0177   -2.6013    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    2.8169   -2.8273    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.7977   -3.6329    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.4302   -4.1209    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.2516   -4.9608    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.4511   -5.2658    0.0000 C   0  0  1  0  0  0  0  0  0  0  0  0
+    3.2372   -5.3871    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    3.8573   -5.9549    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.5926   -6.7437    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.9620   -7.2749    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.7339   -7.5561    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.5362   -4.6052    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.9585   -3.9819    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.0866   -3.9155    0.0000 C   0  0  1  0  0  0  0  0  0  0  0  0
+    1.8638   -4.6980    0.0000 C   0  0  2  0  0  0  0  0  0  0  0  0
+    1.6359   -5.4978    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    1.0580   -4.8668    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.1799   -3.7548    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.2462   -2.9324    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.5619   -2.4701    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.4947   -1.6493    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+  3  4  1  0  0  0  0 
+  4  5  2  0  0  0  0 
+  5  6  1  0  0  0  0 
+  6  7  2  0  0  0  0 
+  7  8  1  0  0  0  0 
+  9  8  1  0  0  0  0 
+  9 10  1  6  0  0  0 
+ 10 11  1  0  0  0  0 
+ 11 12  1  0  0  0  0 
+ 12 13  1  0  0  0  0 
+ 13 14  1  0  0  0  0 
+ 12 14  1  0  0  0  0 
+ 10 15  1  0  0  0  0 
+ 15 16  1  0  0  0  0 
+ 17 16  1  0  0  0  0 
+ 17 18  1  0  0  0  0 
+ 18 19  1  1  0  0  0 
+ 19 20  1  0  0  0  0 
+  4 20  1  0  0  0  0 
+ 20 21  2  0  0  0  0 
+  7 21  1  0  0  0  0 
+ 17 21  1  1  0  0  0 
+ 18 22  1  0  0  0  0 
+ 22 23  2  0  0  0  0 
+ 23 24  1  0  0  0  0 
+ 25 24  1  0  0  0  0 
+ 25  9  1  0  0  0  0 
+ 17 25  1  0  0  0  0 
+ 25 26  1  6  0  0  0 
+ 23 27  1  0  0  0  0 
+ 27 28  2  0  0  0  0 
+ 28 29  1  0  0  0  0 
+ 22 29  1  0  0  0  0 
+ 30 28  1  0  0  0  0 
+ 30 31  1  6  0  0  0 
+ 31 32  1  0  0  0  0 
+ 32 33  2  0  0  0  0 
+ 33 34  1  0  0  0  0 
+ 34 35  1  0  0  0  0 
+ 36 35  1  0  0  0  0 
+ 36 37  1  1  0  0  0 
+ 37 38  1  0  0  0  0 
+ 38 39  1  0  0  0  0 
+ 39 40  1  0  0  0  0 
+ 40 41  1  0  0  0  0 
+ 39 41  1  0  0  0  0 
+ 37 42  1  0  0  0  0 
+ 42 43  1  0  0  0  0 
+ 44 43  1  0  0  0  0 
+ 44 30  1  0  0  0  0 
+ 44 33  1  6  0  0  0 
+ 44 45  1  0  0  0  0 
+ 45 36  1  0  0  0  0 
+ 45 46  1  1  0  0  0 
+ 45 47  1  0  0  0  0 
+ 27 47  1  0  0  0  0 
+ 34 48  2  0  0  0  0 
+ 48 49  1  0  0  0  0 
+ 49 50  2  0  0  0  0 
+ 32 50  1  0  0  0  0 
+ 50 51  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261491</t>
+  </si>
+  <si>
+    <t>NCGC00261491-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261502
+  CDK     05281903162D
+ 22 21  0  0  1  0  0  0  0  0999 V2000
+    3.0203    1.4062    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0203    0.5812    0.0000 C   0  0  1  0  0  0  0  0  0  0  0  0
+    2.3058    0.1687    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.5913    0.5812    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.8769    0.1687    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.8769   -0.6563    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    0.1624    0.5812    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.5521    0.1688    0.0000 C   0  0  2  0  0  0  0  0  0  0  0  0
+   -0.5521   -0.6562    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.2666   -1.0687    0.0000 S   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.2666   -1.8937    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.9810   -2.3062    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.2666    0.5813    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.2666    1.4063    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.9810    0.1688    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.6955    0.5813    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.4100    0.1688    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.4100   -0.6562    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.1244    0.5813    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    3.7347    0.1687    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.7347   -0.6563    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    4.4492    0.5812    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+  2  1  1  6  0  0  0 
+  2  3  1  0  0  0  0 
+  3  4  1  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  2  0  0  0  0 
+  5  7  1  0  0  0  0 
+  8  7  1  6  0  0  0 
+  8  9  1  0  0  0  0 
+  9 10  1  0  0  0  0 
+ 10 11  1  0  0  0  0 
+ 11 12  2  0  0  0  0 
+  8 13  1  0  0  0  0 
+ 13 14  2  0  0  0  0 
+ 13 15  1  0  0  0  0 
+ 15 16  1  0  0  0  0 
+ 16 17  1  0  0  0  0 
+ 17 18  1  0  0  0  0 
+ 17 19  2  0  0  0  0 
+  2 20  1  0  0  0  0 
+ 20 21  1  0  0  0  0 
+ 20 22  2  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261502</t>
+  </si>
+  <si>
+    <t>NCGC00261502-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261552
+  CDK     05281903162D
+ 32 33  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 Cl  0  0  0  0  0  0  0  0  0  0  0  0
+    1.6500    0.0000    0.0000 Cl  0  0  0  0  0  0  0  0  0  0  0  0
+    0.3572   -4.5375    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.3572   -4.1250    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.0717   -4.5375    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.7862   -4.1250    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.7862   -3.3000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.0717   -2.8875    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.0717   -2.0625    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.7862   -1.6500    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.5006   -2.0625    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.5006   -2.8875    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.5006   -4.5375    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.2151   -4.1250    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.9296   -4.5375    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.9296   -5.3625    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.2151   -5.7750    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.5006   -5.3625    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.0717   -4.1250    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    1.7862   -4.5375    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.7862   -5.3625    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.0717   -5.7750    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.0717   -6.6000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.7862   -7.0125    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.5006   -6.6000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.5006   -5.7750    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.5006   -4.1250    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.2151   -4.5375    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.9296   -4.1250    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.9296   -3.3000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.2151   -2.8875    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.5006   -3.3000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  3  4  1  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  1  0  0  0  0 
+  6  7  1  0  0  0  0 
+  7  8  2  0  0  0  0 
+  8  9  1  0  0  0  0 
+  9 10  2  0  0  0  0 
+ 10 11  1  0  0  0  0 
+ 11 12  2  0  0  0  0 
+  7 12  1  0  0  0  0 
+  6 13  1  0  0  0  0 
+ 13 14  2  0  0  0  0 
+ 14 15  1  0  0  0  0 
+ 15 16  2  0  0  0  0 
+ 16 17  1  0  0  0  0 
+ 17 18  2  0  0  0  0 
+ 13 18  1  0  0  0  0 
+  3 19  1  0  0  0  0 
+ 19 20  1  0  0  0  0 
+ 20 21  1  0  0  0  0 
+ 21 22  2  0  0  0  0 
+ 22 23  1  0  0  0  0 
+ 23 24  2  0  0  0  0 
+ 24 25  1  0  0  0  0 
+ 25 26  2  0  0  0  0 
+ 21 26  1  0  0  0  0 
+ 20 27  1  0  0  0  0 
+ 27 28  2  0  0  0  0 
+ 28 29  1  0  0  0  0 
+ 29 30  2  0  0  0  0 
+ 30 31  1  0  0  0  0 
+ 31 32  2  0  0  0  0 
+ 27 32  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261552</t>
+  </si>
+  <si>
+    <t>NCGC00261552-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00261763
+  CDK     05281903162D
+ 20 21  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 Br  0  0  0  0  0  0  0  0  0  0  0  0
+    3.2639   -3.0229    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.7119   -2.4098    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    2.9668   -1.6252    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.7515   -1.3702    0.0000 S   0  0  0  0  0  0  0  0  0  0  0  0
+    3.7515   -0.5452    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    2.9668   -0.2903    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.4819   -0.9577    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    2.7119    0.4943    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.2639    1.1074    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0090    1.8920    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.2020    2.0636    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6500    1.4505    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.9049    0.6659    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.4189   -0.0603    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.1726   -0.3959    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.8400    0.0891    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.7538    0.9095    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.0001    1.2451    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.3327    0.7602    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  2  3  1  0  0  0  0 
+  3  4  2  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  1  0  0  0  0 
+  6  7  1  0  0  0  0 
+  7  8  2  0  0  0  0 
+  4  8  1  0  0  0  0 
+  7  9  1  0  0  0  0 
+  9 10  2  0  0  0  0 
+ 10 11  1  0  0  0  0 
+ 11 12  2  0  0  0  0 
+ 12 13  1  0  0  0  0 
+ 13 14  2  0  0  0  0 
+  9 14  1  0  0  0  0 
+  6 15  1  0  0  0  0 
+ 15 16  2  0  0  0  0 
+ 16 17  1  0  0  0  0 
+ 17 18  2  0  0  0  0 
+ 18 19  1  0  0  0  0 
+ 19 20  2  0  0  0  0 
+ 15 20  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00261763</t>
+  </si>
+  <si>
+    <t>NCGC00261763-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00260832
+  CDK     05281903162D
+ 21 22  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 Cl  0  0  0  0  0  0  0  0  0  0  0  0
+    6.2619   -2.8232    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    6.0070   -2.0386    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    6.4919   -1.3711    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    6.0070   -0.7037    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.2224   -0.9586    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.5079   -0.5461    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.7934   -0.9586    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0789   -0.5461    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0789    0.2789    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.7934    0.6914    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    2.3645    0.6914    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    2.3645    1.5164    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0789    1.9289    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0789    2.7539    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.3645    3.1664    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6500    2.7539    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6500    1.9289    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.7934   -1.7836    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.5079   -2.1961    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.2224   -1.7836    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  2  3  1  0  0  0  0 
+  3  4  1  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  1  0  0  0  0 
+  6  7  2  0  0  0  0 
+  7  8  1  0  0  0  0 
+  8  9  1  0  0  0  0 
+  9 10  1  0  0  0  0 
+ 10 11  2  0  0  0  0 
+ 10 12  1  0  0  0  0 
+ 12 13  1  0  0  0  0 
+ 13 14  2  0  0  0  0 
+ 14 15  1  0  0  0  0 
+ 15 16  2  0  0  0  0 
+ 16 17  1  0  0  0  0 
+ 17 18  2  0  0  0  0 
+ 13 18  1  0  0  0  0 
+  8 19  2  0  0  0  0 
+ 19 20  1  0  0  0  0 
+ 20 21  2  0  0  0  0 
+  3 21  1  0  0  0  0 
+  6 21  1  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00260832</t>
+  </si>
+  <si>
+    <t>NCGC00260832-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCGC00260772
+  CDK     05281903162D
+ 26 28  0  0  0  0  0  0  0  0999 V2000
+   -0.0590   -1.2534    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.1960   -0.4688    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.2890    0.1986    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.1960    0.8661    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    0.9806    0.6111    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.9806   -0.2139    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6950   -0.6264    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6950   -1.4514    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    2.4095   -0.2139    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    3.1240   -0.6264    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.1240   -1.4514    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.8385   -1.8639    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.4095    0.6111    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.1240    1.0236    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6950    1.0236    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    1.6950    1.8486    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.1140    0.1986    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.5265    0.9131    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.3515    0.9131    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.7640    0.1986    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.3515   -0.5158    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.5265   -0.5158    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.5890    0.1986    0.0000 S   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.5890   -0.6264    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.5890    1.0236    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.4140    0.1986    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  1  0  0  0  0 
+  2  3  1  0  0  0  0 
+  3  4  2  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  2  0  0  0  0 
+  2  6  1  0  0  0  0 
+  6  7  1  0  0  0  0 
+  7  8  2  0  0  0  0 
+  7  9  1  0  0  0  0 
+  9 10  1  0  0  0  0 
+ 10 11  1  0  0  0  0 
+ 11 12  2  0  0  0  0 
+  9 13  1  0  0  0  0 
+ 13 14  2  0  0  0  0 
+ 13 15  1  0  0  0  0 
+  5 15  1  0  0  0  0 
+ 15 16  1  0  0  0  0 
+  3 17  1  0  0  0  0 
+ 17 18  2  0  0  0  0 
+ 18 19  1  0  0  0  0 
+ 19 20  2  0  0  0  0 
+ 20 21  1  0  0  0  0 
+ 21 22  2  0  0  0  0 
+ 17 22  1  0  0  0  0 
+ 20 23  1  0  0  0  0 
+ 23 24  1  0  0  0  0 
+ 23 25  2  0  0  0  0 
+ 23 26  2  0  0  0  0 
+M  END
+</t>
+  </si>
+  <si>
+    <t>NCGC00260772</t>
+  </si>
+  <si>
+    <t>NCGC00260772-01</t>
+  </si>
+  <si>
+    <t>Text</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -806,21 +2129,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B185B08-1BAB-4052-951E-1A2BC1F97D8F}">
-  <dimension ref="A1:BT11"/>
+  <dimension ref="A1:BU11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="11.08203125" customWidth="1"/>
-    <col min="4" max="21" width="6.5" customWidth="1"/>
-    <col min="23" max="24" width="8.6640625" customWidth="1"/>
+    <col min="1" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" customWidth="1"/>
+    <col min="5" max="22" width="6.5" customWidth="1"/>
+    <col min="24" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -828,3088 +2151,3177 @@
         <v>49</v>
       </c>
       <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>73</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>74</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>75</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>76</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>77</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>78</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>80</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>81</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>82</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>83</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>66</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>50</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>8</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>10</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>12</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>17</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>18</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>20</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>21</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>22</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>23</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>24</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>25</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>26</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>27</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>28</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>29</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>30</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>31</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>61</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>32</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>33</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>34</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>35</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>36</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>37</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>38</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>39</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>40</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>65</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>41</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>42</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>43</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>44</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>45</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>46</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="C2">
-        <f>_xll.NCDK_Tanimoto($F2,$F3)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" t="str">
+      <c r="C2" t="str">
+        <f>_xll.NCDK_MolText(B2)</f>
+        <v xml:space="preserve">
+  CDK     0603191242
+ 18 19  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  2  0  0  0  0 
+  2  3  1  0  0  0  0 
+  3  4  1  0  0  0  0 
+  4  5  2  0  0  0  0 
+  4  6  1  0  0  0  0 
+  6  7  1  0  0  0  0 
+  7  8  2  0  0  0  0 
+  7  9  1  0  0  0  0 
+  2  9  1  0  0  0  0 
+  9 10  1  0  0  0  0 
+ 10 11  2  0  0  0  0 
+ 11 12  1  0  0  0  0 
+ 12 13  1  0  0  0  0 
+ 13 14  1  0  0  0  0 
+ 14 15  1  0  0  0  0 
+ 15 16  1  0  0  0  0 
+ 10 16  1  0  0  0  0 
+  9 17  1  0  0  0  0 
+ 17 18  1  0  0  0  0 
+M  END
+</v>
+      </c>
+      <c r="D2">
+        <f>_xll.NCDK_Tanimoto($G2,$G3)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
         <f>_xll.NCDK_ECFP0($B2)</f>
         <v>0000000000000010000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <f>_xll.NCDK_ECFP2($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000010000000000000100000000000010000010000001000000000000000000000000000100</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <f>_xll.NCDK_ECFP4($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010010000000000000000000000000000000000000000000000000000000000000010001000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000000000000000000000000000101000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000010000000000000100000000000010100010000001000000000000000000000000000100</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <f>_xll.NCDK_ECFP6($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000010000000000000100000000000000000010010000000000000000000000000000000000000000000000000000000000000010001000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000001000000000001000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000000000000000000000000000101000000000000000000000000000000000000000000000100001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000001001000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000010000000000000100000000000010100010000001000010000000000000000000000100</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <f>_xll.NCDK_FCFP0($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>_xll.NCDK_FCFP2($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>_xll.NCDK_FCFP4($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000001000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000001000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000100100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000100000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>_xll.NCDK_FCFP0($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B2)</f>
         <v>111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000110000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000010000000001000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B2)</f>
         <v>0000001010100001001000010000000000100000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B2)</f>
         <v>000000000000001000000000000000001000000000010000000000000000001000000100000001000000000000000010000000000000000000000100000000000000000000001000001000000000000000000000000000000000100100100000000000000000000000010000000000000001010000000000000000000000010100010000000000000000000001100000000000001000000000000000000000000000010000000000000010000000000010000000000000000000000000000000000000000000000000001000011100000000000000100000000000001000001000010100000100000000000000010100000100000000000000000001000000000000000110000000000000100000000000000010000010000000000000000000010000000000001100000000010001100010100010000010000000000000000001000000000000000000000000000001000000000000000100000000000000000000000010000000001000000000000000000010000000001000100100000000100010001000000000110000000000000000000000010000000000000000000000100000000010001000000001000000000000000000100000100000000000000000000000000000000000100000000010000000000010010000010000000000101100010000000000010000000100000001000000000000011001</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B2)</f>
         <v>0000010000000000010000000011000000000010000000000000000010010000000000000001010000001011000000000000000000001010000000000010010010000000000000000000100000000000000001000001000010000100000000000000000000000010100000000100000000010000000001100000000000000000000000000000000000000000000000001000000000001000000000000000000100000000000000100100000000000100000000000000001100000000000000000000000110000000000000000001000000000000000000000000000000010000100000101000000000001011001000000000000000000000000010100100000100000000001000000000000000000011010001100000000000000000000000000000000000001000000001000100000000000000000000100000000000000100000000101000000000000000000000000010000000000100000000000000000000000001000001000000000000000000000001110001000010000000100000000000000000000000000000000000000000000000000000000000000000000010000000000000001000100000000000010100000000000000000000000000000000000000000000001000000000001000000000100000000000001000010000000000000000000000000010000000000000000000110001000000001000000000</v>
       </c>
-      <c r="P2" t="str">
+      <c r="Q2" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B2)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000010010110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000100000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000001101000000000000000000000000000001000001000000000000000000001010000000000000000000000000000000000000000010000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000011000000001011000100010010000000000000000000011000000010000110100110000110110011001000101000010100000001000000000000000000000010000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000010100001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000010001000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="R2" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B2)</f>
         <v>0010000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000100000000100100000000000000000100000000000000000000000000000000000000000000000000000001000100000000000001000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000001000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000</v>
       </c>
-      <c r="R2" t="str">
+      <c r="S2" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B2)</f>
         <v>0000000000000000001000000000000000001000001000000100100000000100010000000001100100000000111100001110000001010101010011011000001110100001100001100110011001110111101110</v>
       </c>
-      <c r="S2" t="str">
+      <c r="T2" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B2)</f>
         <v>0100000000000100100000000000000010000000110000000010000110000000101110100000000000100000000000000000000000100000000100001000100001000000000010000000000000001000000000000000000000000110000000000000100000000000001001000000000011000001001000000000000010000000000000001000100000000000000000010100000000000000100000000000000000000000000000000010000000000000000010000100000000000000000000000000000000000000000000110000000000000100000100000000010000000000010000000011010000000000000000000001011000000000000000010100000000000000100000000000010001001100000000000000000000000001000000000000100000000010000000000001000000000010000000000000000000000000000000000100010000000000000001000000100010000000100101001001000001001110001100010000000000000000000000000000000000000000000000100010000000000000001010000000000000000000000010000000000000000001110000000000000010000000000000100000000100100000000000000000011100000010000000000000000000000000000000000000000000000000000100000000000000100000000000000000000000101010000000101000000000000000</v>
       </c>
-      <c r="T2" t="str">
+      <c r="U2" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B2)</f>
         <v>1101100000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000010100001</v>
       </c>
-      <c r="U2" t="str">
+      <c r="V2" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B2)</f>
         <v>00000000011100110011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000001111000000000000100000000000000000000000000000000111000000000100000011000000000000000000000110000000000000010110000000000000000000000100010000000001000100001010100100001000000000000000000000000000000000000001000000000000000000000000000000000100000000001000000000000000000001000100000000000000000011010000010001100000100000000000001000000000000000000000010001000010100100010000010000000000000000011000110001000100011000000100011110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <f>_xll.NCDK_AcidicGroupCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <f>_xll.NCDK_ALogP(B2)</f>
         <v>-1.2114000000000014</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <f>_xll.NCDK_AMolarRefractivity(B2)</f>
         <v>59.947099999999999</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <f>_xll.NCDK_APol(B2)</f>
         <v>39.488274000000011</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f>_xll.NCDK_AromaticAtomsCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <f>_xll.NCDK_AromaticBondsCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <f>_xll.NCDK_AtomCount(B2)</f>
         <v>36</v>
       </c>
-      <c r="AC2" t="str">
+      <c r="AD2" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B2)</f>
         <v>0.482364049323966, -0.239230483102807, 0.193743260003086, -0.422975414094056, 0.245070516996786</v>
       </c>
-      <c r="AD2" t="str">
+      <c r="AE2" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B2)</f>
         <v>21.0433677091758, 20.6610036641195, 30.570374510169, 39.3180113704083, 36.7520657397667</v>
       </c>
-      <c r="AE2" t="str">
+      <c r="AF2" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B2)</f>
         <v>1236.72445709937, 1455.26096710327, 2067.09825744824, 2452.45202784668, 1776.45546782422</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <f>_xll.NCDK_BasicGroupCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AG2" t="str">
+      <c r="AH2" t="str">
         <f>_xll.NCDK_BCUT(B2)</f>
         <v>11.89, 15.9969274797474, -0.279527566151374, 0.285306450703295, 4.45516607690972, 12.225254833975</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <f>_xll.NCDK_BondCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <f>_xll.NCDK_BPol(B2)</f>
         <v>23.871725999999995</v>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AK2" t="str">
         <f>_xll.NCDK_CarbonTypes(B2)</f>
         <v>0, 0, 2, 1, 1, 1, 6, 0, 1</v>
       </c>
-      <c r="AK2" t="str">
+      <c r="AL2" t="str">
         <f>_xll.NCDK_ChiChain(B2)</f>
         <v>0, 0, 0, 0.0481125224324688, 0.206136035947173, 0, 0, 0, 0.015625, 0.0379976820715334</v>
       </c>
-      <c r="AL2" t="str">
+      <c r="AM2" t="str">
         <f>_xll.NCDK_ChiCluster(B2)</f>
         <v>1.29103942781429, 0.0680413817439772, 0.635379749451514, 0.130245735736926, 0.58282022448487, 0.0441941738241592, 0.195368603605389, 0.0360843918243516</v>
       </c>
-      <c r="AM2" t="str">
+      <c r="AN2" t="str">
         <f>_xll.NCDK_ChiPathCluster(B2)</f>
         <v>3.75820832838601, 7.24003474940441, 9.47142848690227, 1.60201233255417, 2.48389505922722, 2.76623804293011</v>
       </c>
-      <c r="AN2" t="str">
+      <c r="AO2" t="str">
         <f>_xll.NCDK_ChiPath(B2)</f>
         <v>13.1733621074374, 8.60822612591632, 7.53308445980525, 6.57446305443147, 5.83502554474493, 3.66414268256136, 2.81639208561656, 1.24750715936873, 10.5447358277005, 6.47350942312757, 4.82495377161152, 3.84884458919458, 2.7963481600948, 1.78170696456175, 1.19223951604789, 0.520731228864019</v>
       </c>
-      <c r="AO2" t="str">
+      <c r="AP2" t="str">
         <f>_xll.NCDK_CPSA(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <f>_xll.NCDK_EccentricConnectivityIndex(B2)</f>
         <v>226</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <f>_xll.NCDK_FMF(B2)</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <f>_xll.NCDK_FractionalPSA(B2)</f>
         <v>0.30092142334124705</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <f>_xll.NCDK_FragmentComplexity(B2)</f>
         <v>1063.05</v>
       </c>
-      <c r="AT2" t="str">
+      <c r="AU2" t="str">
         <f>_xll.NCDK_GravitationalIndex(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <f>_xll.NCDK_HBondAcceptorCount(B2)</f>
         <v>5</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <f>_xll.NCDK_HBondDonorCount(B2)</f>
         <v>2</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <f>_xll.NCDK_HybridizationRatio(B2)</f>
         <v>0.61538461538461542</v>
       </c>
-      <c r="AX2" t="str">
+      <c r="AY2" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B2)</f>
         <v>14.409972299169, 5.96982167352538, 2.65927977839335</v>
       </c>
-      <c r="AY2" t="str">
+      <c r="AZ2" t="str">
         <f>_xll.NCDK_KierHallSmarts(B2)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 6, 0, 1, 0, 0, 0, 0, 4, 0, 0, 1, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <f>_xll.NCDK_LargestChain(B2)</f>
         <v>9</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <f>_xll.NCDK_LargestPiSystem(B2)</f>
         <v>8</v>
       </c>
-      <c r="BB2" t="str">
+      <c r="BC2" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <f>_xll.NCDK_LongestAliphaticChain(B2)</f>
         <v>2</v>
       </c>
-      <c r="BD2">
+      <c r="BE2">
         <f>_xll.NCDK_MannholdLogP(B2)</f>
         <v>2.34</v>
       </c>
-      <c r="BE2" t="str">
+      <c r="BF2" t="str">
         <f>_xll.NCDK_MDE(B2)</f>
         <v>0, 1.78256861348341, 1.17348231572452, 0.5, 9.28105720195319, 8.27801156561087, 2.82326712400687, 2.67269615442102, 3.03934274260637, 0, 0.75, 0, 0, 0, 0, 0, 0.5, 0, 0</v>
       </c>
-      <c r="BF2" t="str">
+      <c r="BG2" t="str">
         <f>_xll.NCDK_MomentOfInertia(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <f>_xll.NCDK_PetitjeanNumber(B2)</f>
         <v>0.5</v>
       </c>
-      <c r="BH2" t="str">
+      <c r="BI2" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI2">
+      <c r="BJ2">
         <f>_xll.NCDK_RotatableBondsCount(B2)</f>
         <v>2</v>
       </c>
-      <c r="BJ2">
+      <c r="BK2">
         <f>_xll.NCDK_RuleOfFive(B2)</f>
         <v>0</v>
       </c>
-      <c r="BK2" t="str">
+      <c r="BL2" t="str">
         <f>_xll.NCDK_SmallRing(B2)</f>
         <v>2, 0, 2, 0, 0, 0, 0, 1, 1, 0, 0</v>
       </c>
-      <c r="BL2">
+      <c r="BM2">
         <f>_xll.NCDK_TPSA(B2)</f>
         <v>75.27000000000001</v>
       </c>
-      <c r="BM2">
+      <c r="BN2">
         <f>_xll.NCDK_VABC(B2)</f>
         <v>246.50970715028382</v>
       </c>
-      <c r="BN2">
+      <c r="BO2">
         <f>_xll.NCDK_VAdjMa(B2)</f>
         <v>5.2479275134435852</v>
       </c>
-      <c r="BO2">
+      <c r="BP2">
         <f>_xll.NCDK_Weight(B2)</f>
         <v>250.131742436</v>
       </c>
-      <c r="BP2" t="str">
+      <c r="BQ2" t="str">
         <f>_xll.NCDK_WeightedPath(B2)</f>
         <v>35.9822147160759, 1.99901192867088, 13.5466431850826, 7.60403910050065, 5.94260408458194</v>
       </c>
-      <c r="BQ2" t="str">
+      <c r="BR2" t="str">
         <f>_xll.NCDK_WHIM(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BR2" t="str">
+      <c r="BS2" t="str">
         <f>_xll.NCDK_WienerNumbers(B2)</f>
         <v>537, 35</v>
       </c>
-      <c r="BS2">
+      <c r="BT2">
         <f>_xll.NCDK_XLogP(B2)</f>
         <v>2.1759999999999997</v>
       </c>
-      <c r="BT2">
+      <c r="BU2">
         <f>_xll.NCDK_ZagrebIndex(B2)</f>
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="C3">
-        <f>_xll.NCDK_Tanimoto($F3,$F4)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" t="str">
+      <c r="C3" t="str">
+        <f>_xll.NCDK_MolText(B3)</f>
+        <v xml:space="preserve">
+  CDK     0603191242
+  1  0  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+M  END
+</v>
+      </c>
+      <c r="D3">
+        <f>_xll.NCDK_Tanimoto($G3,$G4)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
         <f>_xll.NCDK_ECFP0($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <f>_xll.NCDK_ECFP2($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <f>_xll.NCDK_ECFP4($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <f>_xll.NCDK_ECFP6($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <f>_xll.NCDK_FCFP0($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <f>_xll.NCDK_FCFP2($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>_xll.NCDK_FCFP4($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f>_xll.NCDK_FCFP0($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="R3" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R3" t="str">
+      <c r="S3" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
       </c>
-      <c r="S3" t="str">
+      <c r="T3" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T3" t="str">
+      <c r="U3" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U3" t="str">
+      <c r="V3" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B3)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <f>_xll.NCDK_AcidicGroupCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <f>_xll.NCDK_ALogP(B3)</f>
         <v>0</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <f>_xll.NCDK_AMolarRefractivity(B3)</f>
         <v>0</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <f>_xll.NCDK_APol(B3)</f>
         <v>4.4271719999999997</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <f>_xll.NCDK_AromaticAtomsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <f>_xll.NCDK_AromaticBondsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <f>_xll.NCDK_AtomCount(B3)</f>
         <v>5</v>
       </c>
-      <c r="AC3" t="str">
+      <c r="AD3" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B3)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AD3" t="str">
+      <c r="AE3" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B3)</f>
         <v>1, 0, 0, 0, 0</v>
       </c>
-      <c r="AE3" t="str">
+      <c r="AF3" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B3)</f>
         <v>6.822544, 0, 0, 0, 0</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <f>_xll.NCDK_BasicGroupCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AG3" t="str">
+      <c r="AH3" t="str">
         <f>_xll.NCDK_BCUT(B3)</f>
         <v>12, 12, -0.0779229231460157, -0.0779229231460157, 2.612, 2.612</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <f>_xll.NCDK_BondCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <f>_xll.NCDK_BPol(B3)</f>
         <v>4.3728280000000002</v>
       </c>
-      <c r="AJ3" t="str">
+      <c r="AK3" t="str">
         <f>_xll.NCDK_CarbonTypes(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AK3" t="str">
+      <c r="AL3" t="str">
         <f>_xll.NCDK_ChiChain(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AL3" t="str">
+      <c r="AM3" t="str">
         <f>_xll.NCDK_ChiCluster(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AM3" t="str">
+      <c r="AN3" t="str">
         <f>_xll.NCDK_ChiPathCluster(B3)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AN3" t="str">
+      <c r="AO3" t="str">
         <f>_xll.NCDK_ChiPath(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AO3" t="str">
+      <c r="AP3" t="str">
         <f>_xll.NCDK_CPSA(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <f>_xll.NCDK_EccentricConnectivityIndex(B3)</f>
         <v>0</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <f>_xll.NCDK_FMF(B3)</f>
         <v>0</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <f>_xll.NCDK_FractionalPSA(B3)</f>
         <v>0</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <f>_xll.NCDK_FragmentComplexity(B3)</f>
         <v>16</v>
       </c>
-      <c r="AT3" t="str">
+      <c r="AU3" t="str">
         <f>_xll.NCDK_GravitationalIndex(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <f>_xll.NCDK_HBondAcceptorCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <f>_xll.NCDK_HBondDonorCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <f>_xll.NCDK_HybridizationRatio(B3)</f>
         <v>1</v>
       </c>
-      <c r="AX3" t="str">
+      <c r="AY3" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B3)</f>
         <v>0, 0, 0</v>
       </c>
-      <c r="AY3" t="str">
+      <c r="AZ3" t="str">
         <f>_xll.NCDK_KierHallSmarts(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <f>_xll.NCDK_LargestChain(B3)</f>
         <v>0</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <f>_xll.NCDK_LargestPiSystem(B3)</f>
         <v>0</v>
       </c>
-      <c r="BB3" t="str">
+      <c r="BC3" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC3">
+      <c r="BD3">
         <f>_xll.NCDK_LongestAliphaticChain(B3)</f>
         <v>0</v>
       </c>
-      <c r="BD3">
+      <c r="BE3">
         <f>_xll.NCDK_MannholdLogP(B3)</f>
         <v>1.57</v>
       </c>
-      <c r="BE3" t="str">
+      <c r="BF3" t="str">
         <f>_xll.NCDK_MDE(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BF3" t="str">
+      <c r="BG3" t="str">
         <f>_xll.NCDK_MomentOfInertia(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <f>_xll.NCDK_PetitjeanNumber(B3)</f>
         <v>0</v>
       </c>
-      <c r="BH3" t="str">
+      <c r="BI3" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI3">
+      <c r="BJ3">
         <f>_xll.NCDK_RotatableBondsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="BJ3">
+      <c r="BK3">
         <f>_xll.NCDK_RuleOfFive(B3)</f>
         <v>0</v>
       </c>
-      <c r="BK3" t="str">
+      <c r="BL3" t="str">
         <f>_xll.NCDK_SmallRing(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BL3">
+      <c r="BM3">
         <f>_xll.NCDK_TPSA(B3)</f>
         <v>0</v>
       </c>
-      <c r="BM3">
+      <c r="BN3">
         <f>_xll.NCDK_VABC(B3)</f>
         <v>25.852443326666702</v>
       </c>
-      <c r="BN3">
+      <c r="BO3">
         <f>_xll.NCDK_VAdjMa(B3)</f>
         <v>0</v>
       </c>
-      <c r="BO3">
+      <c r="BP3">
         <f>_xll.NCDK_Weight(B3)</f>
         <v>16.031300127999998</v>
       </c>
-      <c r="BP3" t="str">
+      <c r="BQ3" t="str">
         <f>_xll.NCDK_WeightedPath(B3)</f>
         <v>1, 1, 0, 0, 0</v>
       </c>
-      <c r="BQ3" t="str">
+      <c r="BR3" t="str">
         <f>_xll.NCDK_WHIM(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BR3" t="str">
+      <c r="BS3" t="str">
         <f>_xll.NCDK_WienerNumbers(B3)</f>
         <v>0, 0</v>
       </c>
-      <c r="BS3">
+      <c r="BT3">
         <f>_xll.NCDK_XLogP(B3)</f>
         <v>0.73899999999999999</v>
       </c>
-      <c r="BT3">
+      <c r="BU3">
         <f>_xll.NCDK_ZagrebIndex(B3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
-        <f>_xll.NCDK_Tanimoto($F4,$F5)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" t="str">
+      <c r="C4" t="str">
+        <f>_xll.NCDK_InChI(B4)</f>
+        <v>InChI=1S/C2H4O2/c1-2(3)4/h1H3,(H,3,4)</v>
+      </c>
+      <c r="D4">
+        <f>_xll.NCDK_Tanimoto($G4,$G5)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
         <f>_xll.NCDK_ECFP0($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <f>_xll.NCDK_ECFP2($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f>_xll.NCDK_ECFP4($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <f>_xll.NCDK_ECFP6($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <f>_xll.NCDK_FCFP0($B4)</f>
         <v>1010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f>_xll.NCDK_FCFP2($B4)</f>
         <v>1010000010000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f>_xll.NCDK_FCFP4($B4)</f>
         <v>1010000010000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f>_xll.NCDK_FCFP0($B4)</f>
         <v>1010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B4)</f>
         <v>101000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B4)</f>
         <v>0000001000000001000000000000000001100000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B4)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010010000000000000000000000000000000000000000001000</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000001010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B4)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000010000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="R4" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B4)</f>
         <v>0000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R4" t="str">
+      <c r="S4" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000000000001001011000100</v>
       </c>
-      <c r="S4" t="str">
+      <c r="T4" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000100000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000010000000000000001000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000</v>
       </c>
-      <c r="T4" t="str">
+      <c r="U4" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B4)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000010000000</v>
       </c>
-      <c r="U4" t="str">
+      <c r="V4" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B4)</f>
         <v>00000000010000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000000000000000100000001000000000000000000000100000100000000000000000000000001000000000000010000000000000000000100100000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <f>_xll.NCDK_AcidicGroupCount(B4)</f>
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <f>_xll.NCDK_ALogP(B4)</f>
         <v>-0.22990000000000016</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <f>_xll.NCDK_AMolarRefractivity(B4)</f>
         <v>12.643699999999999</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <f>_xll.NCDK_APol(B4)</f>
         <v>7.7911719999999995</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f>_xll.NCDK_AromaticAtomsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <f>_xll.NCDK_AromaticBondsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <f>_xll.NCDK_AtomCount(B4)</f>
         <v>8</v>
       </c>
-      <c r="AC4" t="str">
+      <c r="AD4" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B4)</f>
         <v>0.194598407923705, -0.0910121789036757, -0.00628702505817703, 0, 0</v>
       </c>
-      <c r="AD4" t="str">
+      <c r="AE4" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B4)</f>
         <v>5.54893807108189, 3.66418395426513, 4.43865298980608, 0, 0</v>
       </c>
-      <c r="AE4" t="str">
+      <c r="AF4" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B4)</f>
         <v>58.780575625, 47.106336, 38.8410481875, 0, 0</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <f>_xll.NCDK_BasicGroupCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AG4" t="str">
+      <c r="AH4" t="str">
         <f>_xll.NCDK_BCUT(B4)</f>
         <v>11.9966879762366, 15.9982572603197, -0.351666803410558, 0.275648439067482, 3.09299617864267, 4.35788090208676</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <f>_xll.NCDK_BondCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <f>_xll.NCDK_BPol(B4)</f>
         <v>5.3308280000000003</v>
       </c>
-      <c r="AJ4" t="str">
+      <c r="AK4" t="str">
         <f>_xll.NCDK_CarbonTypes(B4)</f>
         <v>0, 0, 1, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="AK4" t="str">
+      <c r="AL4" t="str">
         <f>_xll.NCDK_ChiChain(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AL4" t="str">
+      <c r="AM4" t="str">
         <f>_xll.NCDK_ChiCluster(B4)</f>
         <v>0.577350269189626, 0, 0, 0, 0.0912870929175277, 0, 0, 0</v>
       </c>
-      <c r="AM4" t="str">
+      <c r="AN4" t="str">
         <f>_xll.NCDK_ChiPathCluster(B4)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AN4" t="str">
+      <c r="AO4" t="str">
         <f>_xll.NCDK_ChiPath(B4)</f>
         <v>3.57735026918963, 1.73205080756888, 1.73205080756888, 0, 0, 0, 0, 0, 2.35546188596382, 0.927730942981911, 0.519018035899438, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AO4" t="str">
+      <c r="AP4" t="str">
         <f>_xll.NCDK_CPSA(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <f>_xll.NCDK_EccentricConnectivityIndex(B4)</f>
         <v>9</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <f>_xll.NCDK_FMF(B4)</f>
         <v>0</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <f>_xll.NCDK_FractionalPSA(B4)</f>
         <v>0.62144781967398288</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <f>_xll.NCDK_FragmentComplexity(B4)</f>
         <v>37.020000000000003</v>
       </c>
-      <c r="AT4" t="str">
+      <c r="AU4" t="str">
         <f>_xll.NCDK_GravitationalIndex(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <f>_xll.NCDK_HBondAcceptorCount(B4)</f>
         <v>2</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <f>_xll.NCDK_HBondDonorCount(B4)</f>
         <v>1</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <f>_xll.NCDK_HybridizationRatio(B4)</f>
         <v>0.5</v>
       </c>
-      <c r="AX4" t="str">
+      <c r="AY4" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B4)</f>
         <v>4, 1.33333333333333, #N/A</v>
       </c>
-      <c r="AY4" t="str">
+      <c r="AZ4" t="str">
         <f>_xll.NCDK_KierHallSmarts(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <f>_xll.NCDK_LargestChain(B4)</f>
         <v>3</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <f>_xll.NCDK_LargestPiSystem(B4)</f>
         <v>2</v>
       </c>
-      <c r="BB4" t="str">
+      <c r="BC4" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <f>_xll.NCDK_LongestAliphaticChain(B4)</f>
         <v>2</v>
       </c>
-      <c r="BD4">
+      <c r="BE4">
         <f>_xll.NCDK_MannholdLogP(B4)</f>
         <v>1.46</v>
       </c>
-      <c r="BE4" t="str">
+      <c r="BF4" t="str">
         <f>_xll.NCDK_MDE(B4)</f>
         <v>0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0.5, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BF4" t="str">
+      <c r="BG4" t="str">
         <f>_xll.NCDK_MomentOfInertia(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <f>_xll.NCDK_PetitjeanNumber(B4)</f>
         <v>0.5</v>
       </c>
-      <c r="BH4" t="str">
+      <c r="BI4" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI4">
+      <c r="BJ4">
         <f>_xll.NCDK_RotatableBondsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="BJ4">
+      <c r="BK4">
         <f>_xll.NCDK_RuleOfFive(B4)</f>
         <v>0</v>
       </c>
-      <c r="BK4" t="str">
+      <c r="BL4" t="str">
         <f>_xll.NCDK_SmallRing(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BL4">
+      <c r="BM4">
         <f>_xll.NCDK_TPSA(B4)</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="BM4">
+      <c r="BN4">
         <f>_xll.NCDK_VABC(B4)</f>
         <v>58.092422652855603</v>
       </c>
-      <c r="BN4">
+      <c r="BO4">
         <f>_xll.NCDK_VAdjMa(B4)</f>
         <v>2.5849625007211561</v>
       </c>
-      <c r="BO4">
+      <c r="BP4">
         <f>_xll.NCDK_Weight(B4)</f>
         <v>60.021129368000004</v>
       </c>
-      <c r="BP4" t="str">
+      <c r="BQ4" t="str">
         <f>_xll.NCDK_WeightedPath(B4)</f>
         <v>6.73205080756888, 1.68301270189222, 4.48803387171259, 4.48803387171259, 0</v>
       </c>
-      <c r="BQ4" t="str">
+      <c r="BR4" t="str">
         <f>_xll.NCDK_WHIM(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BR4" t="str">
+      <c r="BS4" t="str">
         <f>_xll.NCDK_WienerNumbers(B4)</f>
         <v>9, 0</v>
       </c>
-      <c r="BS4">
+      <c r="BT4">
         <f>_xll.NCDK_XLogP(B4)</f>
         <v>-0.08</v>
       </c>
-      <c r="BT4">
+      <c r="BU4">
         <f>_xll.NCDK_ZagrebIndex(B4)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="C5">
-        <f>_xll.NCDK_Tanimoto($F5,$F6)</f>
+      <c r="C5" t="str">
+        <f>_xll.NCDK_InChI(B5)</f>
+        <v>InChI=1S/C6H6/c1-2-4-6-5-3-1/h1-6H</v>
+      </c>
+      <c r="D5">
+        <f>_xll.NCDK_Tanimoto($G5,$G6)</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <f>_xll.NCDK_ECFP0($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="E5" t="str">
+      <c r="F5" t="str">
         <f>_xll.NCDK_ECFP2($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f>_xll.NCDK_ECFP4($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <f>_xll.NCDK_ECFP6($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <f>_xll.NCDK_FCFP0($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f>_xll.NCDK_FCFP2($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>_xll.NCDK_FCFP4($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>_xll.NCDK_FCFP0($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B5)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B5)</f>
         <v>0000000000010000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B5)</f>
         <v>000000000000000000000000000000000000000000000000000001000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000010000000000000000000000000000000000000000000000000000000000010001</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B5)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="R5" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B5)</f>
         <v>0000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000</v>
       </c>
-      <c r="R5" t="str">
+      <c r="S5" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
       </c>
-      <c r="S5" t="str">
+      <c r="T5" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001</v>
       </c>
-      <c r="T5" t="str">
+      <c r="U5" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001</v>
       </c>
-      <c r="U5" t="str">
+      <c r="V5" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B5)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001100000000000000000000000000000000000000000000000100000000000100000000001000000000000001100000000000010000000000000000000000000000000100000000000000000100000010000100000000000000000000000100000000000000000001000000000000000000000000010001000100000000000000000000000000010001000000010000010000000100010100000000001000100010000100000000010000000000000001000001000000000000000000010001000100000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <f>_xll.NCDK_AcidicGroupCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f>_xll.NCDK_ALogP(B5)</f>
         <v>1.8299999999999996</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f>_xll.NCDK_AMolarRefractivity(B5)</f>
         <v>26.058</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <f>_xll.NCDK_APol(B5)</f>
         <v>14.560758</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <f>_xll.NCDK_AromaticAtomsCount(B5)</f>
         <v>6</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <f>_xll.NCDK_AromaticBondsCount(B5)</f>
         <v>6</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <f>_xll.NCDK_AtomCount(B5)</f>
         <v>12</v>
       </c>
-      <c r="AC5" t="str">
+      <c r="AD5" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B5)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AD5" t="str">
+      <c r="AE5" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B5)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AE5" t="str">
+      <c r="AF5" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B5)</f>
         <v>233.87838834375, 233.87838834375, 233.87838834375, 116.939194171875, 0</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <f>_xll.NCDK_BasicGroupCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AG5" t="str">
+      <c r="AH5" t="str">
         <f>_xll.NCDK_BCUT(B5)</f>
         <v>11.85, 12.1500544016358, -0.211758152069243, 0.0882962495665529, 6.093375, 6.3934294016358</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <f>_xll.NCDK_BondCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <f>_xll.NCDK_BPol(B5)</f>
         <v>6.5592419999999994</v>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AK5" t="str">
         <f>_xll.NCDK_CarbonTypes(B5)</f>
         <v>0, 0, 0, 6, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AK5" t="str">
+      <c r="AL5" t="str">
         <f>_xll.NCDK_ChiChain(B5)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.037037037037037, 0</v>
       </c>
-      <c r="AL5" t="str">
+      <c r="AM5" t="str">
         <f>_xll.NCDK_ChiCluster(B5)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AM5" t="str">
+      <c r="AN5" t="str">
         <f>_xll.NCDK_ChiPathCluster(B5)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AN5" t="str">
+      <c r="AO5" t="str">
         <f>_xll.NCDK_ChiPath(B5)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 3.46410161513775, 2, 1.15470053837925, 0.666666666666667, 0.384900179459751, 0.222222222222222, 0, 0</v>
       </c>
-      <c r="AO5" t="str">
+      <c r="AP5" t="str">
         <f>_xll.NCDK_CPSA(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <f>_xll.NCDK_EccentricConnectivityIndex(B5)</f>
         <v>36</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <f>_xll.NCDK_FMF(B5)</f>
         <v>1</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <f>_xll.NCDK_FractionalPSA(B5)</f>
         <v>0</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <f>_xll.NCDK_FragmentComplexity(B5)</f>
         <v>114</v>
       </c>
-      <c r="AT5" t="str">
+      <c r="AU5" t="str">
         <f>_xll.NCDK_GravitationalIndex(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <f>_xll.NCDK_HBondAcceptorCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <f>_xll.NCDK_HBondDonorCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <f>_xll.NCDK_HybridizationRatio(B5)</f>
         <v>0</v>
       </c>
-      <c r="AX5" t="str">
+      <c r="AY5" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B5)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="AY5" t="str">
+      <c r="AZ5" t="str">
         <f>_xll.NCDK_KierHallSmarts(B5)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <f>_xll.NCDK_LargestChain(B5)</f>
         <v>4</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <f>_xll.NCDK_LargestPiSystem(B5)</f>
         <v>6</v>
       </c>
-      <c r="BB5" t="str">
+      <c r="BC5" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC5">
+      <c r="BD5">
         <f>_xll.NCDK_LongestAliphaticChain(B5)</f>
         <v>0</v>
       </c>
-      <c r="BD5">
+      <c r="BE5">
         <f>_xll.NCDK_MannholdLogP(B5)</f>
         <v>2.12</v>
       </c>
-      <c r="BE5" t="str">
+      <c r="BF5" t="str">
         <f>_xll.NCDK_MDE(B5)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BF5" t="str">
+      <c r="BG5" t="str">
         <f>_xll.NCDK_MomentOfInertia(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <f>_xll.NCDK_PetitjeanNumber(B5)</f>
         <v>0</v>
       </c>
-      <c r="BH5" t="str">
+      <c r="BI5" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI5">
+      <c r="BJ5">
         <f>_xll.NCDK_RotatableBondsCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="BJ5">
+      <c r="BK5">
         <f>_xll.NCDK_RuleOfFive(B5)</f>
         <v>0</v>
       </c>
-      <c r="BK5" t="str">
+      <c r="BL5" t="str">
         <f>_xll.NCDK_SmallRing(B5)</f>
         <v>1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BL5">
+      <c r="BM5">
         <f>_xll.NCDK_TPSA(B5)</f>
         <v>0</v>
       </c>
-      <c r="BM5">
+      <c r="BN5">
         <f>_xll.NCDK_VABC(B5)</f>
         <v>81.166531652800174</v>
       </c>
-      <c r="BN5">
+      <c r="BO5">
         <f>_xll.NCDK_VAdjMa(B5)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BO5">
+      <c r="BP5">
         <f>_xll.NCDK_Weight(B5)</f>
         <v>78.046950191999997</v>
       </c>
-      <c r="BP5" t="str">
+      <c r="BQ5" t="str">
         <f>_xll.NCDK_WeightedPath(B5)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BQ5" t="str">
+      <c r="BR5" t="str">
         <f>_xll.NCDK_WHIM(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BR5" t="str">
+      <c r="BS5" t="str">
         <f>_xll.NCDK_WienerNumbers(B5)</f>
         <v>27, 3</v>
       </c>
-      <c r="BS5">
+      <c r="BT5">
         <f>_xll.NCDK_XLogP(B5)</f>
         <v>2.0220000000000002</v>
       </c>
-      <c r="BT5">
+      <c r="BU5">
         <f>_xll.NCDK_ZagrebIndex(B5)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="C6">
-        <f>_xll.NCDK_Tanimoto($F6,$F7)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" t="str">
+      <c r="C6" t="str">
+        <f>_xll.NCDK_InChI(B6)</f>
+        <v>InChI=1S/C7H8/c1-7-5-3-2-4-6-7/h2-6H,1H3</v>
+      </c>
+      <c r="D6">
+        <f>_xll.NCDK_Tanimoto($G6,$G7)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
         <f>_xll.NCDK_ECFP0($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="E6" t="str">
+      <c r="F6" t="str">
         <f>_xll.NCDK_ECFP2($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <f>_xll.NCDK_ECFP4($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000010000000000000000000000000</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f>_xll.NCDK_ECFP6($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010100000000001000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000010000000000000000000000000</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
         <f>_xll.NCDK_FCFP0($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f>_xll.NCDK_FCFP2($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f>_xll.NCDK_FCFP4($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f>_xll.NCDK_FCFP0($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B6)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B6)</f>
         <v>0000001000010000100000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B6)</f>
         <v>000000000000000000000000000000000000000001000000000001000000010000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000010010000000000000000000000000000000000000000000000000001000000001000000000000000000000000000000100000000000000000100000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B6)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="R6" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B6)</f>
         <v>0000000000000000000000001000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000</v>
       </c>
-      <c r="R6" t="str">
+      <c r="S6" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011010</v>
       </c>
-      <c r="S6" t="str">
+      <c r="T6" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000100000000000000000100000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000001000000000001000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101</v>
       </c>
-      <c r="T6" t="str">
+      <c r="U6" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B6)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001</v>
       </c>
-      <c r="U6" t="str">
+      <c r="V6" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B6)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001100000000000000000000000000000000000000000000000110000000000100000000001100000000000001100100000000010000000000000000000000000000000100000000000001000100000010000100000000000000000000000100000000000000000001000000000000000000000000010001000100000000000000000000000000010001000000010000010000000100010100000000001000100010000100000000010000000000000001000001000000000000000000010001000100000000111000000001000000000000000000011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <f>_xll.NCDK_AcidicGroupCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f>_xll.NCDK_ALogP(B6)</f>
         <v>2.3162000000000003</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f>_xll.NCDK_AMolarRefractivity(B6)</f>
         <v>31.0992</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f>_xll.NCDK_APol(B6)</f>
         <v>17.654343999999998</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <f>_xll.NCDK_AromaticAtomsCount(B6)</f>
         <v>6</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <f>_xll.NCDK_AromaticBondsCount(B6)</f>
         <v>6</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <f>_xll.NCDK_AtomCount(B6)</f>
         <v>15</v>
       </c>
-      <c r="AC6" t="str">
+      <c r="AD6" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B6)</f>
         <v>0.00145821501522747, -0.000488055819316601, -0.000225165712015084, -1.53979004755717E-05, -4.88075806479512E-07</v>
       </c>
-      <c r="AD6" t="str">
+      <c r="AE6" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B6)</f>
         <v>7, 7, 8, 5, 1</v>
       </c>
-      <c r="AE6" t="str">
+      <c r="AF6" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B6)</f>
         <v>310.962687273438, 320.438287539063, 355.858255328125, 213.793837835938, 36.9196446054688</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <f>_xll.NCDK_BasicGroupCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AG6" t="str">
+      <c r="AH6" t="str">
         <f>_xll.NCDK_BCUT(B6)</f>
         <v>11.89, 12.1100942558098, -0.155208136358149, 0.0651359477608963, 5.76122693815409, 7.50783741355056</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <f>_xll.NCDK_BondCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <f>_xll.NCDK_BPol(B6)</f>
         <v>8.7456560000000003</v>
       </c>
-      <c r="AJ6" t="str">
+      <c r="AK6" t="str">
         <f>_xll.NCDK_CarbonTypes(B6)</f>
         <v>0, 0, 0, 5, 1, 1, 0, 0, 0</v>
       </c>
-      <c r="AK6" t="str">
+      <c r="AL6" t="str">
         <f>_xll.NCDK_ChiChain(B6)</f>
         <v>0, 0, 0, 0.102062072615966, 0.102062072615966, 0, 0, 0, 0.0320750149549792, 0.0320750149549792</v>
       </c>
-      <c r="AL6" t="str">
+      <c r="AM6" t="str">
         <f>_xll.NCDK_ChiCluster(B6)</f>
         <v>0.288675134594813, 0, 0, 0, 0.166666666666667, 0, 0, 0</v>
       </c>
-      <c r="AM6" t="str">
+      <c r="AN6" t="str">
         <f>_xll.NCDK_ChiPathCluster(B6)</f>
         <v>0.408248290463863, 0.433012701892219, 0.408248290463863, 0.192450089729875, 0.166666666666667, 0.128300059819917</v>
       </c>
-      <c r="AN6" t="str">
+      <c r="AO6" t="str">
         <f>_xll.NCDK_ChiPath(B6)</f>
         <v>5.11288417512236, 3.39384685011735, 2.74318215649199, 1.89384685011735, 1.30671282224753, 0.901047570290607, 0.204124145231932, 0, 4.38675134594813, 2.41068360252296, 1.65470053837925, 0.940455735015306, 0.534377897417612, 0.303561200840986, 0.0641500299099584, 0</v>
       </c>
-      <c r="AO6" t="str">
+      <c r="AP6" t="str">
         <f>_xll.NCDK_CPSA(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <f>_xll.NCDK_EccentricConnectivityIndex(B6)</f>
         <v>45</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <f>_xll.NCDK_FMF(B6)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <f>_xll.NCDK_FractionalPSA(B6)</f>
         <v>0</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <f>_xll.NCDK_FragmentComplexity(B6)</f>
         <v>183</v>
       </c>
-      <c r="AT6" t="str">
+      <c r="AU6" t="str">
         <f>_xll.NCDK_GravitationalIndex(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <f>_xll.NCDK_HBondAcceptorCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <f>_xll.NCDK_HBondDonorCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AW6">
+      <c r="AX6">
         <f>_xll.NCDK_HybridizationRatio(B6)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AX6" t="str">
+      <c r="AY6" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B6)</f>
         <v>5.14285714285714, 2.34375, 1.5</v>
       </c>
-      <c r="AY6" t="str">
+      <c r="AZ6" t="str">
         <f>_xll.NCDK_KierHallSmarts(B6)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 5, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <f>_xll.NCDK_LargestChain(B6)</f>
         <v>0</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <f>_xll.NCDK_LargestPiSystem(B6)</f>
         <v>6</v>
       </c>
-      <c r="BB6" t="str">
+      <c r="BC6" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC6">
+      <c r="BD6">
         <f>_xll.NCDK_LongestAliphaticChain(B6)</f>
         <v>0</v>
       </c>
-      <c r="BD6">
+      <c r="BE6">
         <f>_xll.NCDK_MannholdLogP(B6)</f>
         <v>2.23</v>
       </c>
-      <c r="BE6" t="str">
+      <c r="BF6" t="str">
         <f>_xll.NCDK_MDE(B6)</f>
         <v>0, 1.85053586243577, 1, 0, 6.08364341893206, 3.04182170946603, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BF6" t="str">
+      <c r="BG6" t="str">
         <f>_xll.NCDK_MomentOfInertia(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <f>_xll.NCDK_PetitjeanNumber(B6)</f>
         <v>0.25</v>
       </c>
-      <c r="BH6" t="str">
+      <c r="BI6" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI6">
+      <c r="BJ6">
         <f>_xll.NCDK_RotatableBondsCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="BJ6">
+      <c r="BK6">
         <f>_xll.NCDK_RuleOfFive(B6)</f>
         <v>0</v>
       </c>
-      <c r="BK6" t="str">
+      <c r="BL6" t="str">
         <f>_xll.NCDK_SmallRing(B6)</f>
         <v>1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BL6">
+      <c r="BM6">
         <f>_xll.NCDK_TPSA(B6)</f>
         <v>0</v>
       </c>
-      <c r="BM6">
+      <c r="BN6">
         <f>_xll.NCDK_VABC(B6)</f>
         <v>98.462516278666868</v>
       </c>
-      <c r="BN6">
+      <c r="BO6">
         <f>_xll.NCDK_VAdjMa(B6)</f>
         <v>3.8073549220576042</v>
       </c>
-      <c r="BO6">
+      <c r="BP6">
         <f>_xll.NCDK_Weight(B6)</f>
         <v>92.062600255999996</v>
       </c>
-      <c r="BP6" t="str">
+      <c r="BQ6" t="str">
         <f>_xll.NCDK_WeightedPath(B6)</f>
         <v>13.6768253204364, 1.95383218863377, 0, 0, 0</v>
       </c>
-      <c r="BQ6" t="str">
+      <c r="BR6" t="str">
         <f>_xll.NCDK_WHIM(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BR6" t="str">
+      <c r="BS6" t="str">
         <f>_xll.NCDK_WienerNumbers(B6)</f>
         <v>42, 5</v>
       </c>
-      <c r="BS6">
+      <c r="BT6">
         <f>_xll.NCDK_XLogP(B6)</f>
         <v>2.4590000000000001</v>
       </c>
-      <c r="BT6">
+      <c r="BU6">
         <f>_xll.NCDK_ZagrebIndex(B6)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C7">
-        <f>_xll.NCDK_Tanimoto($F7,$F8)</f>
+      <c r="C7" t="str">
+        <f>_xll.NCDK_SMILES(B7)</f>
+        <v>[C]1[C][C][C][C][C]1</v>
+      </c>
+      <c r="D7">
+        <f>_xll.NCDK_Tanimoto($G7,$G8)</f>
         <v>1</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <f>_xll.NCDK_ECFP0($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="E7" t="str">
+      <c r="F7" t="str">
         <f>_xll.NCDK_ECFP2($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <f>_xll.NCDK_ECFP4($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <f>_xll.NCDK_ECFP6($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
         <f>_xll.NCDK_FCFP0($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f>_xll.NCDK_FCFP2($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f>_xll.NCDK_FCFP4($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f>_xll.NCDK_FCFP0($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B7)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B7)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B7)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000010000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="R7" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R7" t="str">
+      <c r="S7" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
       </c>
-      <c r="S7" t="str">
+      <c r="T7" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T7" t="str">
+      <c r="U7" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U7" t="str">
+      <c r="V7" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B7)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <f>_xll.NCDK_AcidicGroupCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f>_xll.NCDK_ALogP(B7)</f>
         <v>-1.7280000000000006</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <f>_xll.NCDK_AMolarRefractivity(B7)</f>
         <v>17.4696</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <f>_xll.NCDK_APol(B7)</f>
         <v>10.56</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <f>_xll.NCDK_AromaticAtomsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <f>_xll.NCDK_AromaticBondsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <f>_xll.NCDK_AtomCount(B7)</f>
         <v>6</v>
       </c>
-      <c r="AC7" t="str">
+      <c r="AD7" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B7)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AD7" t="str">
+      <c r="AE7" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B7)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AE7" t="str">
+      <c r="AF7" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B7)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <f>_xll.NCDK_BasicGroupCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AG7" t="str">
+      <c r="AH7" t="str">
         <f>_xll.NCDK_BCUT(B7)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <f>_xll.NCDK_BondCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <f>_xll.NCDK_BPol(B7)</f>
         <v>0</v>
       </c>
-      <c r="AJ7" t="str">
+      <c r="AK7" t="str">
         <f>_xll.NCDK_CarbonTypes(B7)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AK7" t="str">
+      <c r="AL7" t="str">
         <f>_xll.NCDK_ChiChain(B7)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AL7" t="str">
+      <c r="AM7" t="str">
         <f>_xll.NCDK_ChiCluster(B7)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AM7" t="str">
+      <c r="AN7" t="str">
         <f>_xll.NCDK_ChiPathCluster(B7)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AN7" t="str">
+      <c r="AO7" t="str">
         <f>_xll.NCDK_ChiPath(B7)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AO7" t="str">
+      <c r="AP7" t="str">
         <f>_xll.NCDK_CPSA(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <f>_xll.NCDK_EccentricConnectivityIndex(B7)</f>
         <v>36</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <f>_xll.NCDK_FMF(B7)</f>
         <v>1</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <f>_xll.NCDK_FractionalPSA(B7)</f>
         <v>0</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <f>_xll.NCDK_FragmentComplexity(B7)</f>
         <v>6</v>
       </c>
-      <c r="AT7" t="str">
+      <c r="AU7" t="str">
         <f>_xll.NCDK_GravitationalIndex(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <f>_xll.NCDK_HBondAcceptorCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <f>_xll.NCDK_HBondDonorCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
         <f>_xll.NCDK_HybridizationRatio(B7)</f>
         <v>1</v>
       </c>
-      <c r="AX7" t="str">
+      <c r="AY7" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B7)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="AY7" t="str">
+      <c r="AZ7" t="str">
         <f>_xll.NCDK_KierHallSmarts(B7)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <f>_xll.NCDK_LargestChain(B7)</f>
         <v>4</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <f>_xll.NCDK_LargestPiSystem(B7)</f>
         <v>0</v>
       </c>
-      <c r="BB7" t="str">
+      <c r="BC7" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC7">
+      <c r="BD7">
         <f>_xll.NCDK_LongestAliphaticChain(B7)</f>
         <v>0</v>
       </c>
-      <c r="BD7">
+      <c r="BE7">
         <f>_xll.NCDK_MannholdLogP(B7)</f>
         <v>2.12</v>
       </c>
-      <c r="BE7" t="str">
+      <c r="BF7" t="str">
         <f>_xll.NCDK_MDE(B7)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BF7" t="str">
+      <c r="BG7" t="str">
         <f>_xll.NCDK_MomentOfInertia(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <f>_xll.NCDK_PetitjeanNumber(B7)</f>
         <v>0</v>
       </c>
-      <c r="BH7" t="str">
+      <c r="BI7" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI7">
+      <c r="BJ7">
         <f>_xll.NCDK_RotatableBondsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="BJ7">
+      <c r="BK7">
         <f>_xll.NCDK_RuleOfFive(B7)</f>
         <v>0</v>
       </c>
-      <c r="BK7" t="str">
+      <c r="BL7" t="str">
         <f>_xll.NCDK_SmallRing(B7)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BL7">
+      <c r="BM7">
         <f>_xll.NCDK_TPSA(B7)</f>
         <v>0</v>
       </c>
-      <c r="BM7">
+      <c r="BN7">
         <f>_xll.NCDK_VABC(B7)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BN7">
+      <c r="BO7">
         <f>_xll.NCDK_VAdjMa(B7)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BO7">
+      <c r="BP7">
         <f>_xll.NCDK_Weight(B7)</f>
         <v>72</v>
       </c>
-      <c r="BP7" t="str">
+      <c r="BQ7" t="str">
         <f>_xll.NCDK_WeightedPath(B7)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BQ7" t="str">
+      <c r="BR7" t="str">
         <f>_xll.NCDK_WHIM(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BR7" t="str">
+      <c r="BS7" t="str">
         <f>_xll.NCDK_WienerNumbers(B7)</f>
         <v>27, 3</v>
       </c>
-      <c r="BS7">
+      <c r="BT7">
         <f>_xll.NCDK_XLogP(B7)</f>
         <v>3.4139999999999997</v>
       </c>
-      <c r="BT7">
+      <c r="BU7">
         <f>_xll.NCDK_ZagrebIndex(B7)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="C8">
-        <f>_xll.NCDK_Tanimoto($F8,$F9)</f>
+      <c r="C8" t="str">
+        <f>_xll.NCDK_InChIKey(B8)</f>
+        <v>PXCDDPIOUAJVRE-UHFFFAOYSA-N</v>
+      </c>
+      <c r="D8">
+        <f>_xll.NCDK_Tanimoto($G8,$G9)</f>
         <v>1</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <f>_xll.NCDK_ECFP0($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="E8" t="str">
+      <c r="F8" t="str">
         <f>_xll.NCDK_ECFP2($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <f>_xll.NCDK_ECFP4($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <f>_xll.NCDK_ECFP6($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
         <f>_xll.NCDK_FCFP0($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f>_xll.NCDK_FCFP2($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f>_xll.NCDK_FCFP4($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f>_xll.NCDK_FCFP0($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B8)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B8)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B8)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000010000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="R8" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R8" t="str">
+      <c r="S8" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
       </c>
-      <c r="S8" t="str">
+      <c r="T8" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T8" t="str">
+      <c r="U8" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U8" t="str">
+      <c r="V8" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B8)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <f>_xll.NCDK_AcidicGroupCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <f>_xll.NCDK_ALogP(B8)</f>
         <v>-1.7280000000000006</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <f>_xll.NCDK_AMolarRefractivity(B8)</f>
         <v>17.4696</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <f>_xll.NCDK_APol(B8)</f>
         <v>10.56</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <f>_xll.NCDK_AromaticAtomsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <f>_xll.NCDK_AromaticBondsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <f>_xll.NCDK_AtomCount(B8)</f>
         <v>18</v>
       </c>
-      <c r="AC8" t="str">
+      <c r="AD8" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B8)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AD8" t="str">
+      <c r="AE8" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B8)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AE8" t="str">
+      <c r="AF8" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B8)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <f>_xll.NCDK_BasicGroupCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AG8" t="str">
+      <c r="AH8" t="str">
         <f>_xll.NCDK_BCUT(B8)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <f>_xll.NCDK_BondCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <f>_xll.NCDK_BPol(B8)</f>
         <v>13.118483999999999</v>
       </c>
-      <c r="AJ8" t="str">
+      <c r="AK8" t="str">
         <f>_xll.NCDK_CarbonTypes(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AK8" t="str">
+      <c r="AL8" t="str">
         <f>_xll.NCDK_ChiChain(B8)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AL8" t="str">
+      <c r="AM8" t="str">
         <f>_xll.NCDK_ChiCluster(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AM8" t="str">
+      <c r="AN8" t="str">
         <f>_xll.NCDK_ChiPathCluster(B8)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AN8" t="str">
+      <c r="AO8" t="str">
         <f>_xll.NCDK_ChiPath(B8)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AO8" t="str">
+      <c r="AP8" t="str">
         <f>_xll.NCDK_CPSA(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <f>_xll.NCDK_EccentricConnectivityIndex(B8)</f>
         <v>36</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <f>_xll.NCDK_FMF(B8)</f>
         <v>1</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <f>_xll.NCDK_FractionalPSA(B8)</f>
         <v>0</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <f>_xll.NCDK_FragmentComplexity(B8)</f>
         <v>294</v>
       </c>
-      <c r="AT8" t="str">
+      <c r="AU8" t="str">
         <f>_xll.NCDK_GravitationalIndex(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <f>_xll.NCDK_HBondAcceptorCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <f>_xll.NCDK_HBondDonorCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <f>_xll.NCDK_HybridizationRatio(B8)</f>
         <v>1</v>
       </c>
-      <c r="AX8" t="str">
+      <c r="AY8" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B8)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="AY8" t="str">
+      <c r="AZ8" t="str">
         <f>_xll.NCDK_KierHallSmarts(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <f>_xll.NCDK_LargestChain(B8)</f>
         <v>4</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <f>_xll.NCDK_LargestPiSystem(B8)</f>
         <v>0</v>
       </c>
-      <c r="BB8" t="str">
+      <c r="BC8" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC8">
+      <c r="BD8">
         <f>_xll.NCDK_LongestAliphaticChain(B8)</f>
         <v>0</v>
       </c>
-      <c r="BD8">
+      <c r="BE8">
         <f>_xll.NCDK_MannholdLogP(B8)</f>
         <v>2.12</v>
       </c>
-      <c r="BE8" t="str">
+      <c r="BF8" t="str">
         <f>_xll.NCDK_MDE(B8)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BF8" t="str">
+      <c r="BG8" t="str">
         <f>_xll.NCDK_MomentOfInertia(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <f>_xll.NCDK_PetitjeanNumber(B8)</f>
         <v>0</v>
       </c>
-      <c r="BH8" t="str">
+      <c r="BI8" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI8">
+      <c r="BJ8">
         <f>_xll.NCDK_RotatableBondsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="BJ8">
+      <c r="BK8">
         <f>_xll.NCDK_RuleOfFive(B8)</f>
         <v>0</v>
       </c>
-      <c r="BK8" t="str">
+      <c r="BL8" t="str">
         <f>_xll.NCDK_SmallRing(B8)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BL8">
+      <c r="BM8">
         <f>_xll.NCDK_TPSA(B8)</f>
         <v>0</v>
       </c>
-      <c r="BM8">
+      <c r="BN8">
         <f>_xll.NCDK_VABC(B8)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BN8">
+      <c r="BO8">
         <f>_xll.NCDK_VAdjMa(B8)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BO8">
+      <c r="BP8">
         <f>_xll.NCDK_Weight(B8)</f>
         <v>84.093900383999994</v>
       </c>
-      <c r="BP8" t="str">
+      <c r="BQ8" t="str">
         <f>_xll.NCDK_WeightedPath(B8)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BQ8" t="str">
+      <c r="BR8" t="str">
         <f>_xll.NCDK_WHIM(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BR8" t="str">
+      <c r="BS8" t="str">
         <f>_xll.NCDK_WienerNumbers(B8)</f>
         <v>27, 3</v>
       </c>
-      <c r="BS8">
+      <c r="BT8">
         <f>_xll.NCDK_XLogP(B8)</f>
         <v>3.4139999999999997</v>
       </c>
-      <c r="BT8">
+      <c r="BU8">
         <f>_xll.NCDK_ZagrebIndex(B8)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9">
-        <f>_xll.NCDK_Tanimoto($F9,$F10)</f>
+      <c r="C9" t="str">
+        <f>_xll.NCDK_InChIKey(B9)</f>
+        <v>PXCDDPIOUAJVRE-UHFFFAOYSA-N</v>
+      </c>
+      <c r="D9">
+        <f>_xll.NCDK_Tanimoto($G9,$G10)</f>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <f>_xll.NCDK_ECFP0($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="E9" t="str">
+      <c r="F9" t="str">
         <f>_xll.NCDK_ECFP2($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <f>_xll.NCDK_ECFP4($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <f>_xll.NCDK_ECFP6($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H9" t="str">
+      <c r="I9" t="str">
         <f>_xll.NCDK_FCFP0($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f>_xll.NCDK_FCFP2($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f>_xll.NCDK_FCFP4($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f>_xll.NCDK_FCFP0($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B9)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B9)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B9)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000010000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="R9" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R9" t="str">
+      <c r="S9" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
       </c>
-      <c r="S9" t="str">
+      <c r="T9" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T9" t="str">
+      <c r="U9" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U9" t="str">
+      <c r="V9" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B9)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <f>_xll.NCDK_AcidicGroupCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f>_xll.NCDK_ALogP(B9)</f>
         <v>-1.7280000000000006</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <f>_xll.NCDK_AMolarRefractivity(B9)</f>
         <v>17.4696</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <f>_xll.NCDK_APol(B9)</f>
         <v>10.56</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <f>_xll.NCDK_AromaticAtomsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <f>_xll.NCDK_AromaticBondsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <f>_xll.NCDK_AtomCount(B9)</f>
         <v>18</v>
       </c>
-      <c r="AC9" t="str">
+      <c r="AD9" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B9)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AD9" t="str">
+      <c r="AE9" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B9)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AE9" t="str">
+      <c r="AF9" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B9)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <f>_xll.NCDK_BasicGroupCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AG9" t="str">
+      <c r="AH9" t="str">
         <f>_xll.NCDK_BCUT(B9)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <f>_xll.NCDK_BondCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <f>_xll.NCDK_BPol(B9)</f>
         <v>13.118483999999999</v>
       </c>
-      <c r="AJ9" t="str">
+      <c r="AK9" t="str">
         <f>_xll.NCDK_CarbonTypes(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AK9" t="str">
+      <c r="AL9" t="str">
         <f>_xll.NCDK_ChiChain(B9)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AL9" t="str">
+      <c r="AM9" t="str">
         <f>_xll.NCDK_ChiCluster(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AM9" t="str">
+      <c r="AN9" t="str">
         <f>_xll.NCDK_ChiPathCluster(B9)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AN9" t="str">
+      <c r="AO9" t="str">
         <f>_xll.NCDK_ChiPath(B9)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AO9" t="str">
+      <c r="AP9" t="str">
         <f>_xll.NCDK_CPSA(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <f>_xll.NCDK_EccentricConnectivityIndex(B9)</f>
         <v>36</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <f>_xll.NCDK_FMF(B9)</f>
         <v>1</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <f>_xll.NCDK_FractionalPSA(B9)</f>
         <v>0</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <f>_xll.NCDK_FragmentComplexity(B9)</f>
         <v>294</v>
       </c>
-      <c r="AT9" t="str">
+      <c r="AU9" t="str">
         <f>_xll.NCDK_GravitationalIndex(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <f>_xll.NCDK_HBondAcceptorCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <f>_xll.NCDK_HBondDonorCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AW9">
+      <c r="AX9">
         <f>_xll.NCDK_HybridizationRatio(B9)</f>
         <v>1</v>
       </c>
-      <c r="AX9" t="str">
+      <c r="AY9" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B9)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="AY9" t="str">
+      <c r="AZ9" t="str">
         <f>_xll.NCDK_KierHallSmarts(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <f>_xll.NCDK_LargestChain(B9)</f>
         <v>4</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <f>_xll.NCDK_LargestPiSystem(B9)</f>
         <v>0</v>
       </c>
-      <c r="BB9" t="str">
+      <c r="BC9" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC9">
+      <c r="BD9">
         <f>_xll.NCDK_LongestAliphaticChain(B9)</f>
         <v>0</v>
       </c>
-      <c r="BD9">
+      <c r="BE9">
         <f>_xll.NCDK_MannholdLogP(B9)</f>
         <v>2.12</v>
       </c>
-      <c r="BE9" t="str">
+      <c r="BF9" t="str">
         <f>_xll.NCDK_MDE(B9)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BF9" t="str">
+      <c r="BG9" t="str">
         <f>_xll.NCDK_MomentOfInertia(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <f>_xll.NCDK_PetitjeanNumber(B9)</f>
         <v>0</v>
       </c>
-      <c r="BH9" t="str">
+      <c r="BI9" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI9">
+      <c r="BJ9">
         <f>_xll.NCDK_RotatableBondsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="BJ9">
+      <c r="BK9">
         <f>_xll.NCDK_RuleOfFive(B9)</f>
         <v>0</v>
       </c>
-      <c r="BK9" t="str">
+      <c r="BL9" t="str">
         <f>_xll.NCDK_SmallRing(B9)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BL9">
+      <c r="BM9">
         <f>_xll.NCDK_TPSA(B9)</f>
         <v>0</v>
       </c>
-      <c r="BM9">
+      <c r="BN9">
         <f>_xll.NCDK_VABC(B9)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BN9">
+      <c r="BO9">
         <f>_xll.NCDK_VAdjMa(B9)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BO9">
+      <c r="BP9">
         <f>_xll.NCDK_Weight(B9)</f>
         <v>84.093900383999994</v>
       </c>
-      <c r="BP9" t="str">
+      <c r="BQ9" t="str">
         <f>_xll.NCDK_WeightedPath(B9)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BQ9" t="str">
+      <c r="BR9" t="str">
         <f>_xll.NCDK_WHIM(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BR9" t="str">
+      <c r="BS9" t="str">
         <f>_xll.NCDK_WienerNumbers(B9)</f>
         <v>27, 3</v>
       </c>
-      <c r="BS9">
+      <c r="BT9">
         <f>_xll.NCDK_XLogP(B9)</f>
         <v>3.4139999999999997</v>
       </c>
-      <c r="BT9">
+      <c r="BU9">
         <f>_xll.NCDK_ZagrebIndex(B9)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:72" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:73" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C10">
-        <f>_xll.NCDK_Tanimoto($F10,$F11)</f>
+      <c r="C10" t="str">
+        <f>_xll.NCDK_SMILES(B10)</f>
+        <v>[C@@]12(C(C([C@](O[H])(C(C1=C(C([C@@]3([C@]2([H])C(C([C@]4([C@@]3([H])C(C([C@]4([H])[C@](C([H])([H])[H])(C(C(C(C(C([H])([H])[H])(C([H])([H])[H])[H])([H])[H])([H])[H])([H])[H])[H])([H])[H])([H])[H])C([H])([H])[H])([H])[H])([H])[H])[H])([H])[H])[H])([H])[H])[H])([H])[H])([H])[H])C([H])([H])[H]</v>
+      </c>
+      <c r="D10">
+        <f>_xll.NCDK_Tanimoto($G10,$G11)</f>
         <v>0.47761194029850745</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <f>_xll.NCDK_ECFP0($B10)</f>
         <v>0000000000000010000000000100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="E10" t="str">
+      <c r="F10" t="str">
         <f>_xll.NCDK_ECFP2($B10)</f>
         <v>0000000000000010000000001100000000000000000000001000000000000000000000000001000000001000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000000000000010000000010000000000000000000000000000000000000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000000000000000000000000000000000000000010000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100010000000000001000001000000000000000000000001000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <f>_xll.NCDK_ECFP4($B10)</f>
         <v>0000000000000010000000001100000000000000000100001000000000010000000000000001000000001010100000000000000000000000000000000000000000000100000000010000000010000000000000000000000000000000000000000000000000000010000000000000010000000010000000000000000000000000000000000000000001000000000010000000001000000000000000100000010000000000000000000000000000000010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000100000000000100000000000000000000000010000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000010100000000000000000000000000000000000000000000000000000000000000100010000000000001000001000000000000000000000011000000000000010100000000000000000000000000000000000000000100000000000000000000000000000100000000000001000010000000000000000000000000010000000000010000000000000000000100000001000000000000000100000000000000000000000000000000</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <f>_xll.NCDK_ECFP6($B10)</f>
         <v>0000000000001010001000001100000000000000000100001000000000010000000000000001000000001010100000000000000000000000000000000000000000000100000000010000000010000000000000000000000000000000000000000000000000001010000001100000011000000010000000000000000000000000000000000000000001000000000010000000001000000000000000110000010000000000000000000000000000000010000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000100000000000100000000000000000000000010000000000000000000000000100000000000000001000000000010000000000000000001000000000000100000000000000000000000000010000010000000000000000000000000000010100000001000000000000000000000000000000000000000000000000000000100010000000000001010001000000000000000000000011000000000000010100000000000000000000011000000010000000000100000000000000000000000000000100010000000001000010000000000000000000000000010000000000010000000000000001000100000001000000010000000100000000000000000000000000000000</v>
       </c>
-      <c r="H10" t="str">
+      <c r="I10" t="str">
         <f>_xll.NCDK_FCFP0($B10)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f>_xll.NCDK_FCFP2($B10)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f>_xll.NCDK_FCFP4($B10)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000001100000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000010000000000000000000000000000000000000000000000000001000100000000000000000000000000000000000000000000000000000000000000100000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000100000000000010000000000000010000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001000000000000000000000</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f>_xll.NCDK_FCFP0($B10)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B10)</f>
         <v>101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B10)</f>
         <v>0000000000000001001000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B10)</f>
         <v>000000000000000000001000000010000000000000000000000000000000100001000000010000000000010000000010010001010000000110001110000000000000000010000000001000001001000000000000001010000000100000000000010000000000000000000000000000000000000100000010000000000010000001010000000000010000100001000000000000101000001000000000000000001000000000000011000000000000000000000000000000000000001000100000000000000000000000001100100100000000000010000001000000101000000000000100000000000000000101000000010000000000100000000001000000000000000000000010000000000000000000000000000000000000000000101000000000000000001000000000010000100010000000000000000000000000001000010000000000000000100001000001000000000010000100000000000000001010000000000000000000010000000000000000001000001000000000111000000010000000000000010000000010000010010010010000000000010000000000010000000000101000000000000000000001000000000010100100000010000010000000100000010000000000000100000000000000000010110000000001011000010010000000000000000010000001000000000000011111111</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B10)</f>
         <v>0000010000000001001000000000000000000010000000000000000000100000000000000001100000000001000000000000000000000000000000000000000100001100000000000000110000000010000000000100100000110000000000000000000000000010000000000000000000000000000000000000000000000000010000000000000000000000001010000000000001001000000000000001100000000100000000000000000100000000000000000000010000000000000000000000000010000000000001001100000000000010000000000000000000010000000010000100000000000000001000000000010000000000011011100100101000000000001000000000011010000010010000000000000000000000001000100000000000001000000000000000000000000000011001000000000000000100000010000000000000011000000000000000010000000000000000000000000000010000000000011000000000000000000001110101000010000000000000000000000000000100000000000000000000001100000000000000000000000010000000001010001000100000000100010100000010000000000000000000000000000000000000000000000010000000010000000000000000000001000000000000000000010000000000000000000000000000000000000000001000000000</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B10)</f>
         <v>110000010000010011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001111000000100000000000000000010000000000000011010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000010000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001000000000000000000100000100000000000001000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000100000000000000001011000000010000000000000000000000010000000000000100000100000010010000100100000010000001000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="R10" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B10)</f>
         <v>0000010000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000100000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000011000000000000000000000000000000010000000010000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000</v>
       </c>
-      <c r="R10" t="str">
+      <c r="S10" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B10)</f>
         <v>0000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010000110010001001101000000011110010000001010101010110100101001001110</v>
       </c>
-      <c r="S10" t="str">
+      <c r="T10" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B10)</f>
         <v>1011001000010001010001111111000100000001000000000011011110010100101010100100000000001100000010100101000010010000011110100100000000010100010101000100000010000001000001010100000001100010000100000001100001000110100001000000001011000010101101010011010010001000010001000010001111000100011000000100101010110000110000010010110001100100010000000001000000010010110000000000010010111010010001101010010011000000101100000000100101101011000110100001100000100010010001010000000000010000010100001011001010001100010000010001111001100000101000010100010001001010000001000010011000111110010010000000110101011010001011001010000110000000000100000000010011000100000000011000010000000101000100000000100000000000010100000000010001000110100100000000000000010000001010000000010001000000101000010110000000101000011010011100011001110000000011100000001000000010101000001001001000010000111100010010010001110100100100001000010101000101000010010110010000000011001010010000000010011001101010100101001100000001011000001011001001101100000100100010000000000000</v>
       </c>
-      <c r="T10" t="str">
+      <c r="U10" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B10)</f>
         <v>1111100000010110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000100001</v>
       </c>
-      <c r="U10" t="str">
+      <c r="V10" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B10)</f>
         <v>11110000011110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000001100100110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000111100010100101000001000000000000010000000100000000000000000000000000000001000000000100000000000001000100000010000100000000000000000000000000000000000000000001000000000000000000000000000000000100000000000000000000000000000001000000000000001000000000010000000000000000100000000000000000100000000000000000001001100000000000000000010000000000000000011100000001100000011110000000011111000000000000000000000000000000000000000000000000000000000000000110000000000000000000100000000000000000000100000000000000000000100000000000000000000100000000000000000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <f>_xll.NCDK_AcidicGroupCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <f>_xll.NCDK_ALogP(B10)</f>
         <v>1.5548000000000011</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <f>_xll.NCDK_AMolarRefractivity(B10)</f>
         <v>115.17460000000001</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <f>_xll.NCDK_APol(B10)</f>
         <v>78.99447799999993</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <f>_xll.NCDK_AromaticAtomsCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <f>_xll.NCDK_AromaticBondsCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <f>_xll.NCDK_AtomCount(B10)</f>
         <v>74</v>
       </c>
-      <c r="AC10" t="str">
+      <c r="AD10" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B10)</f>
         <v>0.0827991713427503, -0.0229631507285856, -0.0270969061556759, 0.00647128770548948, 0.00909713625645344</v>
       </c>
-      <c r="AD10" t="str">
+      <c r="AE10" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B10)</f>
         <v>28.7744690355409, 31.3320919771326, 48.6641839542651, 54.6641839542651, 49.6641839542651</v>
       </c>
-      <c r="AE10" t="str">
+      <c r="AF10" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B10)</f>
         <v>2589.35165284459, 3179.06049775734, 4922.9791073968, 5328.87269506555, 4616.91714731414</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <f>_xll.NCDK_BasicGroupCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AG10" t="str">
+      <c r="AH10" t="str">
         <f>_xll.NCDK_BCUT(B10)</f>
         <v>11.89, 15.9949214370833, -0.392219399090072, 0.0596280868632924, 5.23875003301361, 12.6475909449557</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <f>_xll.NCDK_BondCount(B10)</f>
         <v>46</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <f>_xll.NCDK_BPol(B10)</f>
         <v>50.287521999999989</v>
       </c>
-      <c r="AJ10" t="str">
+      <c r="AK10" t="str">
         <f>_xll.NCDK_CarbonTypes(B10)</f>
         <v>0, 0, 0, 1, 1, 5, 12, 6, 2</v>
       </c>
-      <c r="AK10" t="str">
+      <c r="AL10" t="str">
         <f>_xll.NCDK_ChiChain(B10)</f>
         <v>0, 0, 0.0833333333333333, 0.393634553260967, 0.976046921839545, 0, 0, 0.0833333333333333, 0.37164819290959, 0.863165765466815</v>
       </c>
-      <c r="AL10" t="str">
+      <c r="AM10" t="str">
         <f>_xll.NCDK_ChiCluster(B10)</f>
         <v>2.9521315814894, 0.235702260395516, 1.02234106177579, 0.203263132396285, 2.68481479020038, 0.219913202813724, 0.935219433730957, 0.179558378198271</v>
       </c>
-      <c r="AM10" t="str">
+      <c r="AN10" t="str">
         <f>_xll.NCDK_ChiPathCluster(B10)</f>
         <v>6.93012787723299, 11.9183161832455, 18.084244169983, 6.31056734345633, 10.8246614459309, 15.7948474414898</v>
       </c>
-      <c r="AN10" t="str">
+      <c r="AO10" t="str">
         <f>_xll.NCDK_ChiPath(B10)</f>
         <v>20.1040835277556, 13.2536913009629, 13.0668536638687, 11.1291235227258, 9.49703814548855, 7.69096408557495, 5.93907638185732, 4.4721666474432, 19.344190342069, 12.6298450216499, 12.1863667747532, 10.2790812759586, 8.6662445789686, 6.67875288189192, 5.16344144011131, 3.80610378452706</v>
       </c>
-      <c r="AO10" t="str">
+      <c r="AP10" t="str">
         <f>_xll.NCDK_CPSA(B10)</f>
         <v>740.518679745203, 1141.6281036277, 24.7477735904141, 216.516577646307, -333.794969260415, -24.5734427697376, 524.002102098896, 1475.42307288811, 49.3212163601517, 0.773763217212662, 1.19287988066324, 0.0258587898400593, 0.226236782787338, -0.348780221713257, -0.025676632684061, 708.702485273172, 1092.57834600072, 23.6844918679688, 207.213998617263, -319.453554322133, -23.5176511261314, 0.136302900713605, 0.25436791475781, 2.7228153119618, 9.4535627888125, 899.894129431074, 57.1411279604366, 0.940293602018195, 0.0597063979818049</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <f>_xll.NCDK_EccentricConnectivityIndex(B10)</f>
         <v>669</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <f>_xll.NCDK_FMF(B10)</f>
         <v>0.22972972972972974</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <f>_xll.NCDK_FractionalPSA(B10)</f>
         <v>5.2361188574192148E-2</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <f>_xll.NCDK_FragmentComplexity(B10)</f>
         <v>5173.01</v>
       </c>
-      <c r="AT10" t="str">
+      <c r="AU10" t="str">
         <f>_xll.NCDK_GravitationalIndex(B10)</f>
         <v>1941.85812139388, 44.0665192793109, 12.4759176252409, 2394.88950905792, 48.9376083299737, 13.37914910667, 4535.65140656394, 67.3472449812458, 16.5531209985441</v>
       </c>
-      <c r="AU10">
+      <c r="AV10">
         <f>_xll.NCDK_HBondAcceptorCount(B10)</f>
         <v>1</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <f>_xll.NCDK_HBondDonorCount(B10)</f>
         <v>1</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <f>_xll.NCDK_HybridizationRatio(B10)</f>
         <v>0.92592592592592593</v>
       </c>
-      <c r="AX10" t="str">
+      <c r="AY10" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B10)</f>
         <v>21.2403746097815, 7.921875, 3.65484429065744</v>
       </c>
-      <c r="AY10" t="str">
+      <c r="AZ10" t="str">
         <f>_xll.NCDK_KierHallSmarts(B10)</f>
         <v>0, 0, 0, 0, 0, 0, 5, 0, 11, 0, 1, 0, 7, 0, 0, 1, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <f>_xll.NCDK_LargestChain(B10)</f>
         <v>7</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <f>_xll.NCDK_LargestPiSystem(B10)</f>
         <v>2</v>
       </c>
-      <c r="BB10" t="str">
+      <c r="BC10" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B10)</f>
         <v>3.502934717034, 3.502934717034</v>
       </c>
-      <c r="BC10">
+      <c r="BD10">
         <f>_xll.NCDK_LongestAliphaticChain(B10)</f>
         <v>7</v>
       </c>
-      <c r="BD10">
+      <c r="BE10">
         <f>_xll.NCDK_MannholdLogP(B10)</f>
         <v>4.3199999999999994</v>
       </c>
-      <c r="BE10" t="str">
+      <c r="BF10" t="str">
         <f>_xll.NCDK_MDE(B10)</f>
         <v>2.79346109096649, 16.5925259846737, 11.5560895487586, 3.39888423642021, 17.7527182855433, 29.2401176288661, 7.64127863367805, 8.77423090217006, 6.5802347918611, 0.5, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BF10" t="str">
+      <c r="BG10" t="str">
         <f>_xll.NCDK_MomentOfInertia(B10)</f>
         <v>10068.4095883237, 9731.07167302841, 773.613761142664, 1.03466606008362, 13.0147757111406, 12.5787210127379, 8.29661608019916</v>
       </c>
-      <c r="BG10">
+      <c r="BH10">
         <f>_xll.NCDK_PetitjeanNumber(B10)</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="BH10" t="str">
+      <c r="BI10" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B10)</f>
         <v>0.875, 0.940550174456362</v>
       </c>
-      <c r="BI10">
+      <c r="BJ10">
         <f>_xll.NCDK_RotatableBondsCount(B10)</f>
         <v>5</v>
       </c>
-      <c r="BJ10">
+      <c r="BK10">
         <f>_xll.NCDK_RuleOfFive(B10)</f>
         <v>1</v>
       </c>
-      <c r="BK10" t="str">
+      <c r="BL10" t="str">
         <f>_xll.NCDK_SmallRing(B10)</f>
         <v>4, 0, 1, 0, 0, 0, 1, 3, 0, 0, 0</v>
       </c>
-      <c r="BL10">
+      <c r="BM10">
         <f>_xll.NCDK_TPSA(B10)</f>
         <v>20.23</v>
       </c>
-      <c r="BM10">
+      <c r="BN10">
         <f>_xll.NCDK_VABC(B10)</f>
         <v>432.2759767957632</v>
       </c>
-      <c r="BN10">
+      <c r="BO10">
         <f>_xll.NCDK_VAdjMa(B10)</f>
         <v>5.9541963103868758</v>
       </c>
-      <c r="BO10">
+      <c r="BP10">
         <f>_xll.NCDK_Weight(B10)</f>
         <v>386.35486609200063</v>
       </c>
-      <c r="BP10" t="str">
+      <c r="BQ10" t="str">
         <f>_xll.NCDK_WeightedPath(B10)</f>
         <v>57.2167299866347, 2.04345464237981, 2.54245315921217, 2.54245315921217, 0</v>
       </c>
-      <c r="BQ10" t="str">
+      <c r="BR10" t="str">
         <f>_xll.NCDK_WHIM(B10)</f>
         <v>1.22231276339169, 2.17046945111189, 25.8559001988821, 0.0417903530188526, 0.0742074265238894, #N/A, #N/A, #N/A, 0.0962638773185697, 0.00388857657057473, 66.8991567190677, 29.2486824133857, 90.3764308473927, 188.22062289613, 0.413001665342944, #N/A, 66.9993091729568</v>
       </c>
-      <c r="BR10" t="str">
+      <c r="BS10" t="str">
         <f>_xll.NCDK_WienerNumbers(B10)</f>
         <v>2022, 54</v>
       </c>
-      <c r="BS10">
+      <c r="BT10">
         <f>_xll.NCDK_XLogP(B10)</f>
         <v>10.518000000000004</v>
       </c>
-      <c r="BT10">
+      <c r="BU10">
         <f>_xll.NCDK_ZagrebIndex(B10)</f>
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:72" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:73" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="str">
+      <c r="C11" t="str">
+        <f>_xll.NCDK_InChI(B11)</f>
+        <v>InChI=1S/C27H46O/c1-18(2)7-6-8-19(3)23-11-12-24-22-10-9-20-17-21(28)13-15-26(20,4)25(22)14-16-27(23,24)5/h9,18-19,21-25,28H,6-8,10-17H2,1-5H3</v>
+      </c>
+      <c r="E11" t="str">
         <f>_xll.NCDK_ECFP0($B11)</f>
         <v>0000000000000010000000000100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="E11" t="str">
+      <c r="F11" t="str">
         <f>_xll.NCDK_ECFP2($B11)</f>
         <v>0000000000000010000000001100000000000000000000001000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000001000000010000000010000000000000000000000000000000000000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000001000000000000000000000000000000000000000010000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000001000000000000000000000001000100000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <f>_xll.NCDK_ECFP4($B11)</f>
         <v>0000000000000010000000001100000000000000000100001000100000010000000000000000000000000000100000000000000000000000000000000000000000000100000000010000000010000000000000000000000000000000000000000000000000000010000001000000010000000010000000000000000000000000000000000000000001000000000010010000000000000000000000000000000000000010000000000000001000000010000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000100100000000000000000010000001000000000000000100000000000000000000000010000001000000000000000000100000000000000000001000000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000000010000000000000000000000000000001000000000000001000001000100000000000010000001000100000000000100000000000000000000000000000000000000000000000000000001000000000000000000000000000001000000000000000000000000000000010000000000010000000000000000000100000000000000000000000100000000000000000000000000000000</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <f>_xll.NCDK_ECFP6($B11)</f>
         <v>0000000000001010000000001100000000000000000100001000100000010000000000000000000000000000100000000010000000000000001000000000000000000100000000010000000010000000000000000000000000000001000000000000000000001010000001000010010000000010000000000000000000000000000000000000100001000001000010010000000000000000000000000000000000000010001000000000001000000010000000000000000000000000000000000000100000000001000000000000000000000000000000000000000000000000000000000100000000000100100000000000000000010100001000000000000000100000000000000000000000010000001000000000000000000110000000000000000001000000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000000000000010000010100000000000000000000000000011000000000000000000000000000001000000000000001000001000100000000001010000001000100000000000100010000000000000000000000000000000000000000000000000001000000001000000000000000000001000000000000000000000000000000010000000100010000000000001000000100000000000000000000000100000000000000000000000000000000</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
         <f>_xll.NCDK_FCFP0($B11)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f>_xll.NCDK_FCFP2($B11)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f>_xll.NCDK_FCFP4($B11)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000100000001010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000001100000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000010000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000010000000000000000000000000100000000000010000000000000010000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f>_xll.NCDK_FCFP0($B11)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B11)</f>
         <v>101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B11)</f>
         <v>0000001010101001001000000000000001000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B11)</f>
         <v>000000000000000000000000000000000000000000000000000000000000100001000000000000000000000000000010000000000000000000000110000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000001000001000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000001000000100000000000000000000000000101000000000000100000000000000000100000000010000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000100010000000000000000000000000000000000000000000000000000000000001000000000000000100000000000000000000000000000000000000000000000000000000001000001000000000010000000010000000000000010000000010000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000001000010000000000000000000000000001000000000000011111111</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B11)</f>
         <v>0000010000000000000000000000000000000010000000000000000000000000000000000001100000000001000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000001000100000000000010000000000000000000010000000000000000000000000000001000000000010000000000000000000000000000000000001000000000001000000010000000000000000000000000000000100000000000001000000000000000000000000000000001000000000000000100000010000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001110001000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000100000000100010100000000000000000000000000000000000000000000000000000010000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B11)</f>
         <v>110000010000010011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001111000000100000000000000000010000000000000011010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000010000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001000000000000000000100000100000000000001000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000100000000000000001011000000010000000000000000000000010000000000000100000100000010010000100100000010000001000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="R11" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B11)</f>
         <v>0010000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000110000000100100000110000000000000000000000000000000000000000000000000000000000000000001000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
       </c>
-      <c r="R11" t="str">
+      <c r="S11" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B11)</f>
         <v>0000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010000110010001001101000000001110010000001010101010110100101001001110</v>
       </c>
-      <c r="S11" t="str">
+      <c r="T11" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B11)</f>
         <v>0000000000000000000001100001000000000000000000000001011100000100101000100000000000001000000000000000000010000000010100000000000000010100000000000100000000000000000000000000000001000000000000000001100000000000000001000000000001000000001001000001000010000000000000000010000010000000001000000100101000100000100000000000100000000000000000000000000000000000000000000000000000000000000000000010000001000000100000000000000100001011000100000001000000100000010000000000000000000000000000000001001000000100000000010000010000100000100000000000000000001010000000000000000000010100000000000000100000000010000010001000000110000000000100000000010010000000000000000000010000000100000100000000100000000000000000000000000001000010000100000000000000000000000000000000000000000000001000000100000000000000000000000000010000000000000010000000000000000010100000000000000000000000001100000000000000100100000000000000010100000000000010000000010000000000001000000000000010000001100000000000000100000000000000000000000000000100000000100000000000000000</v>
       </c>
-      <c r="T11" t="str">
+      <c r="U11" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B11)</f>
         <v>1111100000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000100001</v>
       </c>
-      <c r="U11" t="str">
+      <c r="V11" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B11)</f>
         <v>00000000011110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000001100100110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000111100010100101000001000000000000010000000100000000000000000000000000000001000000000100000000000001000100000010000100000000000000000000000000000000000000000001000000000000000000000000000000000100000000000000000000000000000001000000000000001000000000010000000000000000100000000000000000100000000000000000001001100000000000000000010000000000000000011100000001100000011110000000011111000000000000000000000000000000000000000000000000000000000000000110000000000000000000100000000000000000000100000000000000000000100000000000000000000100000000000000000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <f>_xll.NCDK_AcidicGroupCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <f>_xll.NCDK_ALogP(B11)</f>
         <v>1.5548000000000011</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <f>_xll.NCDK_AMolarRefractivity(B11)</f>
         <v>115.17460000000001</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <f>_xll.NCDK_APol(B11)</f>
         <v>78.994478000000029</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <f>_xll.NCDK_AromaticAtomsCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <f>_xll.NCDK_AromaticBondsCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <f>_xll.NCDK_AtomCount(B11)</f>
         <v>74</v>
       </c>
-      <c r="AC11" t="str">
+      <c r="AD11" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B11)</f>
         <v>0.0827991713427503, -0.0229631507285856, -0.0270969061556759, 0.00647128770548948, 0.00909713625645344</v>
       </c>
-      <c r="AD11" t="str">
+      <c r="AE11" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B11)</f>
         <v>28.7744690355409, 31.3320919771326, 48.6641839542651, 54.6641839542651, 49.6641839542651</v>
       </c>
-      <c r="AE11" t="str">
+      <c r="AF11" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B11)</f>
         <v>2589.35165284459, 3179.06049775734, 4922.9791073968, 5328.87269506555, 4616.91714731414</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <f>_xll.NCDK_BasicGroupCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AG11" t="str">
+      <c r="AH11" t="str">
         <f>_xll.NCDK_BCUT(B11)</f>
         <v>11.89, 15.9949214370832, -0.392219474278523, 0.0694748577202458, 5.23874992098634, 12.6503467270457</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <f>_xll.NCDK_BondCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <f>_xll.NCDK_BPol(B11)</f>
         <v>50.287521999999989</v>
       </c>
-      <c r="AJ11" t="str">
+      <c r="AK11" t="str">
         <f>_xll.NCDK_CarbonTypes(B11)</f>
         <v>0, 0, 0, 1, 1, 5, 12, 6, 2</v>
       </c>
-      <c r="AK11" t="str">
+      <c r="AL11" t="str">
         <f>_xll.NCDK_ChiChain(B11)</f>
         <v>0, 0, 0.0833333333333333, 0.393634553260967, 0.976046921839545, 0, 0, 0.0833333333333333, 0.37164819290959, 0.863165765466815</v>
       </c>
-      <c r="AL11" t="str">
+      <c r="AM11" t="str">
         <f>_xll.NCDK_ChiCluster(B11)</f>
         <v>2.9521315814894, 0.235702260395516, 1.02234106177579, 0.203263132396285, 2.68481479020038, 0.219913202813724, 0.935219433730957, 0.179558378198271</v>
       </c>
-      <c r="AM11" t="str">
+      <c r="AN11" t="str">
         <f>_xll.NCDK_ChiPathCluster(B11)</f>
         <v>6.93012787723299, 11.9183161832455, 18.084244169983, 6.31056734345633, 10.8246614459309, 15.7948474414898</v>
       </c>
-      <c r="AN11" t="str">
+      <c r="AO11" t="str">
         <f>_xll.NCDK_ChiPath(B11)</f>
         <v>20.1040835277556, 13.2536913009629, 13.0668536638687, 11.1291235227258, 9.49703814548855, 7.69096408557496, 5.93907638185732, 4.4721666474432, 19.344190342069, 12.6298450216499, 12.1863667747532, 10.2790812759586, 8.66624457896859, 6.67875288189192, 5.16344144011131, 3.80610378452706</v>
       </c>
-      <c r="AO11" t="str">
+      <c r="AP11" t="str">
         <f>_xll.NCDK_CPSA(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <f>_xll.NCDK_EccentricConnectivityIndex(B11)</f>
         <v>669</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <f>_xll.NCDK_FMF(B11)</f>
         <v>0.6071428571428571</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <f>_xll.NCDK_FractionalPSA(B11)</f>
         <v>5.2361188524318612E-2</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <f>_xll.NCDK_FragmentComplexity(B11)</f>
         <v>5173.01</v>
       </c>
-      <c r="AT11" t="str">
+      <c r="AU11" t="str">
         <f>_xll.NCDK_GravitationalIndex(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
         <f>_xll.NCDK_HBondAcceptorCount(B11)</f>
         <v>1</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
         <f>_xll.NCDK_HBondDonorCount(B11)</f>
         <v>1</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <f>_xll.NCDK_HybridizationRatio(B11)</f>
         <v>0.92592592592592593</v>
       </c>
-      <c r="AX11" t="str">
+      <c r="AY11" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B11)</f>
         <v>21.2403746097815, 7.921875, 3.65484429065744</v>
       </c>
-      <c r="AY11" t="str">
+      <c r="AZ11" t="str">
         <f>_xll.NCDK_KierHallSmarts(B11)</f>
         <v>0, 0, 0, 0, 0, 0, 5, 0, 11, 0, 1, 0, 7, 0, 0, 1, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <f>_xll.NCDK_LargestChain(B11)</f>
         <v>16</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <f>_xll.NCDK_LargestPiSystem(B11)</f>
         <v>2</v>
       </c>
-      <c r="BB11" t="str">
+      <c r="BC11" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC11">
+      <c r="BD11">
         <f>_xll.NCDK_LongestAliphaticChain(B11)</f>
         <v>7</v>
       </c>
-      <c r="BD11">
+      <c r="BE11">
         <f>_xll.NCDK_MannholdLogP(B11)</f>
         <v>4.3199999999999994</v>
       </c>
-      <c r="BE11" t="str">
+      <c r="BF11" t="str">
         <f>_xll.NCDK_MDE(B11)</f>
         <v>1.54697174276407, 11.0054221495714, 8.10399071027919, 2.24225976804296, 15.301585299106, 26.1301405209996, 7.46130267367364, 6.99912877305946, 5.73136198628621, 0.25, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BF11" t="str">
+      <c r="BG11" t="str">
         <f>_xll.NCDK_MomentOfInertia(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BG11">
+      <c r="BH11">
         <f>_xll.NCDK_PetitjeanNumber(B11)</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="BH11" t="str">
+      <c r="BI11" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI11">
+      <c r="BJ11">
         <f>_xll.NCDK_RotatableBondsCount(B11)</f>
         <v>5</v>
       </c>
-      <c r="BJ11">
+      <c r="BK11">
         <f>_xll.NCDK_RuleOfFive(B11)</f>
         <v>1</v>
       </c>
-      <c r="BK11" t="str">
+      <c r="BL11" t="str">
         <f>_xll.NCDK_SmallRing(B11)</f>
         <v>4, 0, 1, 0, 0, 0, 1, 3, 0, 0, 0</v>
       </c>
-      <c r="BL11">
+      <c r="BM11">
         <f>_xll.NCDK_TPSA(B11)</f>
         <v>20.23</v>
       </c>
-      <c r="BM11">
+      <c r="BN11">
         <f>_xll.NCDK_VABC(B11)</f>
         <v>432.27597679576252</v>
       </c>
-      <c r="BN11">
+      <c r="BO11">
         <f>_xll.NCDK_VAdjMa(B11)</f>
         <v>5.9541963103868758</v>
       </c>
-      <c r="BO11">
+      <c r="BP11">
         <f>_xll.NCDK_Weight(B11)</f>
         <v>386.35486609200007</v>
       </c>
-      <c r="BP11" t="str">
+      <c r="BQ11" t="str">
         <f>_xll.NCDK_WeightedPath(B11)</f>
         <v>57.2167299866347, 2.04345464237981, 2.54245315921218, 2.54245315921218, 0</v>
       </c>
-      <c r="BQ11" t="str">
+      <c r="BR11" t="str">
         <f>_xll.NCDK_WHIM(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BR11" t="str">
+      <c r="BS11" t="str">
         <f>_xll.NCDK_WienerNumbers(B11)</f>
         <v>2022, 54</v>
       </c>
-      <c r="BS11">
+      <c r="BT11">
         <f>_xll.NCDK_XLogP(B11)</f>
         <v>10.518000000000004</v>
       </c>
-      <c r="BT11">
+      <c r="BU11">
         <f>_xll.NCDK_ZagrebIndex(B11)</f>
         <v>158</v>
       </c>
@@ -3919,4 +5331,1060 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D78F5C-B236-40D1-A056-FD195DD12728}">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="5" max="16" width="4.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A2)</f>
+        <v>0000000000000000000000000000000000000100000000000000110010000100100000010010101101101000111110111100000010001100000010011100001000111010101101100101011110111111111110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A3)</f>
+        <v>0000000000000000000000000000000000000000000000000000110000000000000000010000000000000000100000000010000000000000100000000000101000100000001100111100010100001010011110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A4)</f>
+        <v>0000000000000000000000000001000000000000000000001000000010000000100000010010000000101000000010011100001010001000100000011110111000000100100110111101110110011111111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A5)</f>
+        <v>0000000000000000000000000000000000000000000001000000010010000000100000110000000000110000110101111000010100000110100110011011001000100100101101110100011101111111110111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A6)</f>
+        <v>0000000000000000000000001000000000000100000000000000100000000010100000100000101100010000100101101100010001001100100011111001011110101010100001111010011010111110111110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A7)</f>
+        <v>0000000000000000000000000000000000000000000000000000000010000100000000010010001000001100000000111101000010001010100001011100100110011010110001011011000110011110111110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A8)</f>
+        <v>0000000000000000001000000000000000000000000000000000010000000100000000010000000001000100001000000001001110000010100000001000101110100100111000111010011110001110111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A9)</f>
+        <v>0000000000000000000000000000001000000100011000000010001001011000001000001000110000010001000000000000011001100001000000100001000001110101000001000001001010110110111111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A10)</f>
+        <v>0000000000000000000000000000000000000000000000000000000010000100010000000010000000001100000000100101001000001011000001011110010110010100110000001111000011101110111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A11)</f>
+        <v>0000000000000000000000000000000000000000000000000000100010000000100000000000000100100000100110111100000010010111001110011010000110111011101111011110111101111111111110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A12)</f>
+        <v>0000000000000000000000000000000000100011000100011000011001011000001000011000000001000001000010000000010101001001100000000001011001110001001100110101010110101011011111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A13)</f>
+        <v>0000000000000000000000100000000000000000000000000000000000000000000000000010001100101110000110010111001001110110000011011110010110110101111101011111010011111111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A14)</f>
+        <v>0000000000000000000000000000000000000000000000000000000010000100100000100010000100101100000011111001011000010010001101011101000000000100100001000011110110010101110111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A15)</f>
+        <v>0000000010000000000000000000000000000000001100001000100000000000000010000000100100000000000001001000011001000001000010000001010001100100000001000001001000010010100101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A16)</f>
+        <v>0000000000000000000001000000000000000000000000000000000010000000110000010010000000101100111000110101101110000011100001011100101110110100111101111111001110111110111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A17)</f>
+        <v>0000000000000000000000000000000110000000000000000000010000000010001001100000001101010001011101100001010100000110000010100011000101110001011101000110001011111110100100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A18)</f>
+        <v>0000000000000000000000000000000000000000000000000000010000000000000000000000001001000000000000000001001100000010000000000000100000100100010001001010001010110100111011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A19)</f>
+        <v>0000000000000000000000000000000110010100000001100000000000000100101000000010111110100001000011010000000001000000000000111101100000001110100001011001010000010101111011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A20)</f>
+        <v>0000000000000000000000000000000000001000001000000000000000000000100000000010101000101100001010010101001011010110001110011100100000101110100001011011001011010101111111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>_xll.NCDK_MACCSFingerprinter($A21)</f>
+        <v>0000000000000000000000000000000001001111000000010010001001111101101010001010101110101001100110111111010011010101100010011101101001000001101101111101110011110111111110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NCDK-Excel/ExcelNCDK-Test.xlsx
+++ b/NCDK-Excel/ExcelNCDK-Test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE9978B-A6F9-4AF0-9DD3-74C73212D95A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537BAFEF-8018-4242-8110-D180D9DDC2B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="239" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,7 @@
     <sheet name="SDF" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="165">
   <si>
     <t>CC(=O)O</t>
     <phoneticPr fontId="1"/>
@@ -1801,6 +1802,10 @@
   </si>
   <si>
     <t>Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MACCSFingerprinter</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2129,21 +2134,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B185B08-1BAB-4052-951E-1A2BC1F97D8F}">
-  <dimension ref="A1:BU11"/>
+  <dimension ref="A1:BV11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="11.08203125" customWidth="1"/>
-    <col min="5" max="22" width="6.5" customWidth="1"/>
-    <col min="24" max="25" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="23" width="6.5" customWidth="1"/>
+    <col min="25" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -2157,214 +2163,217 @@
         <v>84</v>
       </c>
       <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>71</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>75</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>76</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>77</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>80</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>81</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>82</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>83</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>66</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>10</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>11</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>12</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>13</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>14</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>18</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>19</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>20</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>21</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>22</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>23</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>24</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>25</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>26</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>27</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>28</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>29</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>30</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>31</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>61</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>32</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>33</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>34</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>35</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>36</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>37</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>38</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>39</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>40</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>41</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>42</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>43</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>44</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>45</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>46</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -2417,287 +2426,291 @@
 </v>
       </c>
       <c r="D2">
-        <f>_xll.NCDK_Tanimoto($G2,$G3)</f>
+        <f>_xll.NCDK_Tanimoto($H2,$H3)</f>
         <v>0</v>
       </c>
       <c r="E2" t="str">
+        <f>_xll.NCDK(E$1,$B2)</f>
+        <v>0000000000000000001000000000000000001000001000000100100000000100010000000001100100000000111100001110000001010101010011011000001110100001100001100110011001110111101110</v>
+      </c>
+      <c r="F2" t="str">
         <f>_xll.NCDK_ECFP0($B2)</f>
         <v>0000000000000010000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <f>_xll.NCDK_ECFP2($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000010000000000000100000000000010000010000001000000000000000000000000000100</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <f>_xll.NCDK_ECFP4($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010010000000000000000000000000000000000000000000000000000000000000010001000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000000000000000000000000000101000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000010000000000000100000000000010100010000001000000000000000000000000000100</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <f>_xll.NCDK_ECFP6($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000010000000000000100000000000000000010010000000000000000000000000000000000000000000000000000000000000010001000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000001000000000001000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000000000000000000000000000101000000000000000000000000000000000000000000000100001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000001001000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000010000000000000100000000000010100010000001000010000000000000000000000100</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>_xll.NCDK_FCFP0($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>_xll.NCDK_FCFP2($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>_xll.NCDK_FCFP4($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000001000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000001000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000100100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000100000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>_xll.NCDK_FCFP0($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B2)</f>
         <v>111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000110000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000010000000001000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B2)</f>
         <v>0000001010100001001000010000000000100000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B2)</f>
         <v>000000000000001000000000000000001000000000010000000000000000001000000100000001000000000000000010000000000000000000000100000000000000000000001000001000000000000000000000000000000000100100100000000000000000000000010000000000000001010000000000000000000000010100010000000000000000000001100000000000001000000000000000000000000000010000000000000010000000000010000000000000000000000000000000000000000000000000001000011100000000000000100000000000001000001000010100000100000000000000010100000100000000000000000001000000000000000110000000000000100000000000000010000010000000000000000000010000000000001100000000010001100010100010000010000000000000000001000000000000000000000000000001000000000000000100000000000000000000000010000000001000000000000000000010000000001000100100000000100010001000000000110000000000000000000000010000000000000000000000100000000010001000000001000000000000000000100000100000000000000000000000000000000000100000000010000000000010010000010000000000101100010000000000010000000100000001000000000000011001</v>
       </c>
-      <c r="P2" t="str">
+      <c r="Q2" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B2)</f>
         <v>0000010000000000010000000011000000000010000000000000000010010000000000000001010000001011000000000000000000001010000000000010010010000000000000000000100000000000000001000001000010000100000000000000000000000010100000000100000000010000000001100000000000000000000000000000000000000000000000001000000000001000000000000000000100000000000000100100000000000100000000000000001100000000000000000000000110000000000000000001000000000000000000000000000000010000100000101000000000001011001000000000000000000000000010100100000100000000001000000000000000000011010001100000000000000000000000000000000000001000000001000100000000000000000000100000000000000100000000101000000000000000000000000010000000000100000000000000000000000001000001000000000000000000000001110001000010000000100000000000000000000000000000000000000000000000000000000000000000000010000000000000001000100000000000010100000000000000000000000000000000000000000000001000000000001000000000100000000000001000010000000000000000000000000010000000000000000000110001000000001000000000</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="R2" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B2)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000010010110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000100000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000001101000000000000000000000000000001000001000000000000000000001010000000000000000000000000000000000000000010000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000011000000001011000100010010000000000000000000011000000010000110100110000110110011001000101000010100000001000000000000000000000010000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000010100001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000010001000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R2" t="str">
+      <c r="S2" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B2)</f>
         <v>0010000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000100000000100100000000000000000100000000000000000000000000000000000000000000000000000001000100000000000001000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000001000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000</v>
       </c>
-      <c r="S2" t="str">
+      <c r="T2" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B2)</f>
         <v>0000000000000000001000000000000000001000001000000100100000000100010000000001100100000000111100001110000001010101010011011000001110100001100001100110011001110111101110</v>
       </c>
-      <c r="T2" t="str">
+      <c r="U2" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B2)</f>
         <v>0100000000000100100000000000000010000000110000000010000110000000101110100000000000100000000000000000000000100000000100001000100001000000000010000000000000001000000000000000000000000110000000000000100000000000001001000000000011000001001000000000000010000000000000001000100000000000000000010100000000000000100000000000000000000000000000000010000000000000000010000100000000000000000000000000000000000000000000110000000000000100000100000000010000000000010000000011010000000000000000000001011000000000000000010100000000000000100000000000010001001100000000000000000000000001000000000000100000000010000000000001000000000010000000000000000000000000000000000100010000000000000001000000100010000000100101001001000001001110001100010000000000000000000000000000000000000000000000100010000000000000001010000000000000000000000010000000000000000001110000000000000010000000000000100000000100100000000000000000011100000010000000000000000000000000000000000000000000000000000100000000000000100000000000000000000000101010000000101000000000000000</v>
       </c>
-      <c r="U2" t="str">
+      <c r="V2" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B2)</f>
         <v>1101100000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000010100001</v>
       </c>
-      <c r="V2" t="str">
+      <c r="W2" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B2)</f>
         <v>00000000011100110011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000001111000000000000100000000000000000000000000000000111000000000100000011000000000000000000000110000000000000010110000000000000000000000100010000000001000100001010100100001000000000000000000000000000000000000001000000000000000000000000000000000100000000001000000000000000000001000100000000000000000011010000010001100000100000000000001000000000000000000000010001000010100100010000010000000000000000011000110001000100011000000100011110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <f>_xll.NCDK_AcidicGroupCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <f>_xll.NCDK_ALogP(B2)</f>
         <v>-1.2114000000000014</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <f>_xll.NCDK_AMolarRefractivity(B2)</f>
         <v>59.947099999999999</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f>_xll.NCDK_APol(B2)</f>
         <v>39.488274000000011</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <f>_xll.NCDK_AromaticAtomsCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <f>_xll.NCDK_AromaticBondsCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <f>_xll.NCDK_AtomCount(B2)</f>
         <v>36</v>
       </c>
-      <c r="AD2" t="str">
+      <c r="AE2" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B2)</f>
         <v>0.482364049323966, -0.239230483102807, 0.193743260003086, -0.422975414094056, 0.245070516996786</v>
       </c>
-      <c r="AE2" t="str">
+      <c r="AF2" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B2)</f>
         <v>21.0433677091758, 20.6610036641195, 30.570374510169, 39.3180113704083, 36.7520657397667</v>
       </c>
-      <c r="AF2" t="str">
+      <c r="AG2" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B2)</f>
         <v>1236.72445709937, 1455.26096710327, 2067.09825744824, 2452.45202784668, 1776.45546782422</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <f>_xll.NCDK_BasicGroupCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AH2" t="str">
+      <c r="AI2" t="str">
         <f>_xll.NCDK_BCUT(B2)</f>
         <v>11.89, 15.9969274797474, -0.279527566151374, 0.285306450703295, 4.45516607690972, 12.225254833975</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <f>_xll.NCDK_BondCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <f>_xll.NCDK_BPol(B2)</f>
         <v>23.871725999999995</v>
       </c>
-      <c r="AK2" t="str">
+      <c r="AL2" t="str">
         <f>_xll.NCDK_CarbonTypes(B2)</f>
         <v>0, 0, 2, 1, 1, 1, 6, 0, 1</v>
       </c>
-      <c r="AL2" t="str">
+      <c r="AM2" t="str">
         <f>_xll.NCDK_ChiChain(B2)</f>
         <v>0, 0, 0, 0.0481125224324688, 0.206136035947173, 0, 0, 0, 0.015625, 0.0379976820715334</v>
       </c>
-      <c r="AM2" t="str">
+      <c r="AN2" t="str">
         <f>_xll.NCDK_ChiCluster(B2)</f>
         <v>1.29103942781429, 0.0680413817439772, 0.635379749451514, 0.130245735736926, 0.58282022448487, 0.0441941738241592, 0.195368603605389, 0.0360843918243516</v>
       </c>
-      <c r="AN2" t="str">
+      <c r="AO2" t="str">
         <f>_xll.NCDK_ChiPathCluster(B2)</f>
         <v>3.75820832838601, 7.24003474940441, 9.47142848690227, 1.60201233255417, 2.48389505922722, 2.76623804293011</v>
       </c>
-      <c r="AO2" t="str">
+      <c r="AP2" t="str">
         <f>_xll.NCDK_ChiPath(B2)</f>
         <v>13.1733621074374, 8.60822612591632, 7.53308445980525, 6.57446305443147, 5.83502554474493, 3.66414268256136, 2.81639208561656, 1.24750715936873, 10.5447358277005, 6.47350942312757, 4.82495377161152, 3.84884458919458, 2.7963481600948, 1.78170696456175, 1.19223951604789, 0.520731228864019</v>
       </c>
-      <c r="AP2" t="str">
+      <c r="AQ2" t="str">
         <f>_xll.NCDK_CPSA(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <f>_xll.NCDK_EccentricConnectivityIndex(B2)</f>
         <v>226</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <f>_xll.NCDK_FMF(B2)</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <f>_xll.NCDK_FractionalPSA(B2)</f>
         <v>0.30092142334124705</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <f>_xll.NCDK_FragmentComplexity(B2)</f>
         <v>1063.05</v>
       </c>
-      <c r="AU2" t="str">
+      <c r="AV2" t="str">
         <f>_xll.NCDK_GravitationalIndex(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <f>_xll.NCDK_HBondAcceptorCount(B2)</f>
         <v>5</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <f>_xll.NCDK_HBondDonorCount(B2)</f>
         <v>2</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <f>_xll.NCDK_HybridizationRatio(B2)</f>
         <v>0.61538461538461542</v>
       </c>
-      <c r="AY2" t="str">
+      <c r="AZ2" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B2)</f>
         <v>14.409972299169, 5.96982167352538, 2.65927977839335</v>
       </c>
-      <c r="AZ2" t="str">
+      <c r="BA2" t="str">
         <f>_xll.NCDK_KierHallSmarts(B2)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 6, 0, 1, 0, 0, 0, 0, 4, 0, 0, 1, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <f>_xll.NCDK_LargestChain(B2)</f>
         <v>9</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <f>_xll.NCDK_LargestPiSystem(B2)</f>
         <v>8</v>
       </c>
-      <c r="BC2" t="str">
+      <c r="BD2" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD2">
+      <c r="BE2">
         <f>_xll.NCDK_LongestAliphaticChain(B2)</f>
         <v>2</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <f>_xll.NCDK_MannholdLogP(B2)</f>
         <v>2.34</v>
       </c>
-      <c r="BF2" t="str">
+      <c r="BG2" t="str">
         <f>_xll.NCDK_MDE(B2)</f>
         <v>0, 1.78256861348341, 1.17348231572452, 0.5, 9.28105720195319, 8.27801156561087, 2.82326712400687, 2.67269615442102, 3.03934274260637, 0, 0.75, 0, 0, 0, 0, 0, 0.5, 0, 0</v>
       </c>
-      <c r="BG2" t="str">
+      <c r="BH2" t="str">
         <f>_xll.NCDK_MomentOfInertia(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <f>_xll.NCDK_PetitjeanNumber(B2)</f>
         <v>0.5</v>
       </c>
-      <c r="BI2" t="str">
+      <c r="BJ2" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ2">
+      <c r="BK2">
         <f>_xll.NCDK_RotatableBondsCount(B2)</f>
         <v>2</v>
       </c>
-      <c r="BK2">
+      <c r="BL2">
         <f>_xll.NCDK_RuleOfFive(B2)</f>
         <v>0</v>
       </c>
-      <c r="BL2" t="str">
+      <c r="BM2" t="str">
         <f>_xll.NCDK_SmallRing(B2)</f>
         <v>2, 0, 2, 0, 0, 0, 0, 1, 1, 0, 0</v>
       </c>
-      <c r="BM2">
+      <c r="BN2">
         <f>_xll.NCDK_TPSA(B2)</f>
         <v>75.27000000000001</v>
       </c>
-      <c r="BN2">
+      <c r="BO2">
         <f>_xll.NCDK_VABC(B2)</f>
         <v>246.50970715028382</v>
       </c>
-      <c r="BO2">
+      <c r="BP2">
         <f>_xll.NCDK_VAdjMa(B2)</f>
         <v>5.2479275134435852</v>
       </c>
-      <c r="BP2">
+      <c r="BQ2">
         <f>_xll.NCDK_Weight(B2)</f>
         <v>250.131742436</v>
       </c>
-      <c r="BQ2" t="str">
+      <c r="BR2" t="str">
         <f>_xll.NCDK_WeightedPath(B2)</f>
         <v>35.9822147160759, 1.99901192867088, 13.5466431850826, 7.60403910050065, 5.94260408458194</v>
       </c>
-      <c r="BR2" t="str">
+      <c r="BS2" t="str">
         <f>_xll.NCDK_WHIM(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BS2" t="str">
+      <c r="BT2" t="str">
         <f>_xll.NCDK_WienerNumbers(B2)</f>
         <v>537, 35</v>
       </c>
-      <c r="BT2">
+      <c r="BU2">
         <f>_xll.NCDK_XLogP(B2)</f>
         <v>2.1759999999999997</v>
       </c>
-      <c r="BU2">
+      <c r="BV2">
         <f>_xll.NCDK_ZagrebIndex(B2)</f>
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -2714,287 +2727,291 @@
 </v>
       </c>
       <c r="D3">
-        <f>_xll.NCDK_Tanimoto($G3,$G4)</f>
+        <f>_xll.NCDK_Tanimoto($H3,$H4)</f>
         <v>0</v>
       </c>
       <c r="E3" t="str">
+        <f>_xll.NCDK(E$1,$B3)</f>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
+      </c>
+      <c r="F3" t="str">
         <f>_xll.NCDK_ECFP0($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <f>_xll.NCDK_ECFP2($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <f>_xll.NCDK_ECFP4($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <f>_xll.NCDK_ECFP6($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <f>_xll.NCDK_FCFP0($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>_xll.NCDK_FCFP2($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f>_xll.NCDK_FCFP4($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>_xll.NCDK_FCFP0($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="R3" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R3" t="str">
+      <c r="S3" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S3" t="str">
+      <c r="T3" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
       </c>
-      <c r="T3" t="str">
+      <c r="U3" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U3" t="str">
+      <c r="V3" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V3" t="str">
+      <c r="W3" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B3)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <f>_xll.NCDK_AcidicGroupCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <f>_xll.NCDK_ALogP(B3)</f>
         <v>0</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <f>_xll.NCDK_AMolarRefractivity(B3)</f>
         <v>0</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <f>_xll.NCDK_APol(B3)</f>
         <v>4.4271719999999997</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <f>_xll.NCDK_AromaticAtomsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <f>_xll.NCDK_AromaticBondsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <f>_xll.NCDK_AtomCount(B3)</f>
         <v>5</v>
       </c>
-      <c r="AD3" t="str">
+      <c r="AE3" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B3)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AE3" t="str">
+      <c r="AF3" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B3)</f>
         <v>1, 0, 0, 0, 0</v>
       </c>
-      <c r="AF3" t="str">
+      <c r="AG3" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B3)</f>
         <v>6.822544, 0, 0, 0, 0</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <f>_xll.NCDK_BasicGroupCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AH3" t="str">
+      <c r="AI3" t="str">
         <f>_xll.NCDK_BCUT(B3)</f>
         <v>12, 12, -0.0779229231460157, -0.0779229231460157, 2.612, 2.612</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <f>_xll.NCDK_BondCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <f>_xll.NCDK_BPol(B3)</f>
         <v>4.3728280000000002</v>
       </c>
-      <c r="AK3" t="str">
+      <c r="AL3" t="str">
         <f>_xll.NCDK_CarbonTypes(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AL3" t="str">
+      <c r="AM3" t="str">
         <f>_xll.NCDK_ChiChain(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AM3" t="str">
+      <c r="AN3" t="str">
         <f>_xll.NCDK_ChiCluster(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AN3" t="str">
+      <c r="AO3" t="str">
         <f>_xll.NCDK_ChiPathCluster(B3)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AO3" t="str">
+      <c r="AP3" t="str">
         <f>_xll.NCDK_ChiPath(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AP3" t="str">
+      <c r="AQ3" t="str">
         <f>_xll.NCDK_CPSA(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <f>_xll.NCDK_EccentricConnectivityIndex(B3)</f>
         <v>0</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <f>_xll.NCDK_FMF(B3)</f>
         <v>0</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <f>_xll.NCDK_FractionalPSA(B3)</f>
         <v>0</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <f>_xll.NCDK_FragmentComplexity(B3)</f>
         <v>16</v>
       </c>
-      <c r="AU3" t="str">
+      <c r="AV3" t="str">
         <f>_xll.NCDK_GravitationalIndex(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <f>_xll.NCDK_HBondAcceptorCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <f>_xll.NCDK_HBondDonorCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <f>_xll.NCDK_HybridizationRatio(B3)</f>
         <v>1</v>
       </c>
-      <c r="AY3" t="str">
+      <c r="AZ3" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B3)</f>
         <v>0, 0, 0</v>
       </c>
-      <c r="AZ3" t="str">
+      <c r="BA3" t="str">
         <f>_xll.NCDK_KierHallSmarts(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <f>_xll.NCDK_LargestChain(B3)</f>
         <v>0</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <f>_xll.NCDK_LargestPiSystem(B3)</f>
         <v>0</v>
       </c>
-      <c r="BC3" t="str">
+      <c r="BD3" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD3">
+      <c r="BE3">
         <f>_xll.NCDK_LongestAliphaticChain(B3)</f>
         <v>0</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <f>_xll.NCDK_MannholdLogP(B3)</f>
         <v>1.57</v>
       </c>
-      <c r="BF3" t="str">
+      <c r="BG3" t="str">
         <f>_xll.NCDK_MDE(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG3" t="str">
+      <c r="BH3" t="str">
         <f>_xll.NCDK_MomentOfInertia(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <f>_xll.NCDK_PetitjeanNumber(B3)</f>
         <v>0</v>
       </c>
-      <c r="BI3" t="str">
+      <c r="BJ3" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ3">
+      <c r="BK3">
         <f>_xll.NCDK_RotatableBondsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="BK3">
+      <c r="BL3">
         <f>_xll.NCDK_RuleOfFive(B3)</f>
         <v>0</v>
       </c>
-      <c r="BL3" t="str">
+      <c r="BM3" t="str">
         <f>_xll.NCDK_SmallRing(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BM3">
+      <c r="BN3">
         <f>_xll.NCDK_TPSA(B3)</f>
         <v>0</v>
       </c>
-      <c r="BN3">
+      <c r="BO3">
         <f>_xll.NCDK_VABC(B3)</f>
         <v>25.852443326666702</v>
       </c>
-      <c r="BO3">
+      <c r="BP3">
         <f>_xll.NCDK_VAdjMa(B3)</f>
         <v>0</v>
       </c>
-      <c r="BP3">
+      <c r="BQ3">
         <f>_xll.NCDK_Weight(B3)</f>
         <v>16.031300127999998</v>
       </c>
-      <c r="BQ3" t="str">
+      <c r="BR3" t="str">
         <f>_xll.NCDK_WeightedPath(B3)</f>
         <v>1, 1, 0, 0, 0</v>
       </c>
-      <c r="BR3" t="str">
+      <c r="BS3" t="str">
         <f>_xll.NCDK_WHIM(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BS3" t="str">
+      <c r="BT3" t="str">
         <f>_xll.NCDK_WienerNumbers(B3)</f>
         <v>0, 0</v>
       </c>
-      <c r="BT3">
+      <c r="BU3">
         <f>_xll.NCDK_XLogP(B3)</f>
         <v>0.73899999999999999</v>
       </c>
-      <c r="BU3">
+      <c r="BV3">
         <f>_xll.NCDK_ZagrebIndex(B3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -3006,287 +3023,291 @@
         <v>InChI=1S/C2H4O2/c1-2(3)4/h1H3,(H,3,4)</v>
       </c>
       <c r="D4">
-        <f>_xll.NCDK_Tanimoto($G4,$G5)</f>
+        <f>_xll.NCDK_Tanimoto($H4,$H5)</f>
         <v>0</v>
       </c>
       <c r="E4" t="str">
+        <f>_xll.NCDK(E$1,$B4)</f>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000000000001001011000100</v>
+      </c>
+      <c r="F4" t="str">
         <f>_xll.NCDK_ECFP0($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f>_xll.NCDK_ECFP2($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <f>_xll.NCDK_ECFP4($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <f>_xll.NCDK_ECFP6($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f>_xll.NCDK_FCFP0($B4)</f>
         <v>1010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f>_xll.NCDK_FCFP2($B4)</f>
         <v>1010000010000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f>_xll.NCDK_FCFP4($B4)</f>
         <v>1010000010000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>_xll.NCDK_FCFP0($B4)</f>
         <v>1010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B4)</f>
         <v>101000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B4)</f>
         <v>0000001000000001000000000000000001100000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B4)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010010000000000000000000000000000000000000000001000</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000001010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="R4" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B4)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000010000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R4" t="str">
+      <c r="S4" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B4)</f>
         <v>0000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S4" t="str">
+      <c r="T4" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000000000001001011000100</v>
       </c>
-      <c r="T4" t="str">
+      <c r="U4" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000100000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000010000000000000001000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000</v>
       </c>
-      <c r="U4" t="str">
+      <c r="V4" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B4)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000010000000</v>
       </c>
-      <c r="V4" t="str">
+      <c r="W4" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B4)</f>
         <v>00000000010000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000000000000000100000001000000000000000000000100000100000000000000000000000001000000000000010000000000000000000100100000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <f>_xll.NCDK_AcidicGroupCount(B4)</f>
         <v>1</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <f>_xll.NCDK_ALogP(B4)</f>
         <v>-0.22990000000000016</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <f>_xll.NCDK_AMolarRefractivity(B4)</f>
         <v>12.643699999999999</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f>_xll.NCDK_APol(B4)</f>
         <v>7.7911719999999995</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <f>_xll.NCDK_AromaticAtomsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <f>_xll.NCDK_AromaticBondsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f>_xll.NCDK_AtomCount(B4)</f>
         <v>8</v>
       </c>
-      <c r="AD4" t="str">
+      <c r="AE4" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B4)</f>
         <v>0.194598407923705, -0.0910121789036757, -0.00628702505817703, 0, 0</v>
       </c>
-      <c r="AE4" t="str">
+      <c r="AF4" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B4)</f>
         <v>5.54893807108189, 3.66418395426513, 4.43865298980608, 0, 0</v>
       </c>
-      <c r="AF4" t="str">
+      <c r="AG4" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B4)</f>
         <v>58.780575625, 47.106336, 38.8410481875, 0, 0</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f>_xll.NCDK_BasicGroupCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AH4" t="str">
+      <c r="AI4" t="str">
         <f>_xll.NCDK_BCUT(B4)</f>
         <v>11.9966879762366, 15.9982572603197, -0.351666803410558, 0.275648439067482, 3.09299617864267, 4.35788090208676</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <f>_xll.NCDK_BondCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <f>_xll.NCDK_BPol(B4)</f>
         <v>5.3308280000000003</v>
       </c>
-      <c r="AK4" t="str">
+      <c r="AL4" t="str">
         <f>_xll.NCDK_CarbonTypes(B4)</f>
         <v>0, 0, 1, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="AL4" t="str">
+      <c r="AM4" t="str">
         <f>_xll.NCDK_ChiChain(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AM4" t="str">
+      <c r="AN4" t="str">
         <f>_xll.NCDK_ChiCluster(B4)</f>
         <v>0.577350269189626, 0, 0, 0, 0.0912870929175277, 0, 0, 0</v>
       </c>
-      <c r="AN4" t="str">
+      <c r="AO4" t="str">
         <f>_xll.NCDK_ChiPathCluster(B4)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AO4" t="str">
+      <c r="AP4" t="str">
         <f>_xll.NCDK_ChiPath(B4)</f>
         <v>3.57735026918963, 1.73205080756888, 1.73205080756888, 0, 0, 0, 0, 0, 2.35546188596382, 0.927730942981911, 0.519018035899438, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AP4" t="str">
+      <c r="AQ4" t="str">
         <f>_xll.NCDK_CPSA(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <f>_xll.NCDK_EccentricConnectivityIndex(B4)</f>
         <v>9</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <f>_xll.NCDK_FMF(B4)</f>
         <v>0</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <f>_xll.NCDK_FractionalPSA(B4)</f>
         <v>0.62144781967398288</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <f>_xll.NCDK_FragmentComplexity(B4)</f>
         <v>37.020000000000003</v>
       </c>
-      <c r="AU4" t="str">
+      <c r="AV4" t="str">
         <f>_xll.NCDK_GravitationalIndex(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <f>_xll.NCDK_HBondAcceptorCount(B4)</f>
         <v>2</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <f>_xll.NCDK_HBondDonorCount(B4)</f>
         <v>1</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <f>_xll.NCDK_HybridizationRatio(B4)</f>
         <v>0.5</v>
       </c>
-      <c r="AY4" t="str">
+      <c r="AZ4" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B4)</f>
         <v>4, 1.33333333333333, #N/A</v>
       </c>
-      <c r="AZ4" t="str">
+      <c r="BA4" t="str">
         <f>_xll.NCDK_KierHallSmarts(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <f>_xll.NCDK_LargestChain(B4)</f>
         <v>3</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <f>_xll.NCDK_LargestPiSystem(B4)</f>
         <v>2</v>
       </c>
-      <c r="BC4" t="str">
+      <c r="BD4" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD4">
+      <c r="BE4">
         <f>_xll.NCDK_LongestAliphaticChain(B4)</f>
         <v>2</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <f>_xll.NCDK_MannholdLogP(B4)</f>
         <v>1.46</v>
       </c>
-      <c r="BF4" t="str">
+      <c r="BG4" t="str">
         <f>_xll.NCDK_MDE(B4)</f>
         <v>0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0.5, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG4" t="str">
+      <c r="BH4" t="str">
         <f>_xll.NCDK_MomentOfInertia(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BH4">
+      <c r="BI4">
         <f>_xll.NCDK_PetitjeanNumber(B4)</f>
         <v>0.5</v>
       </c>
-      <c r="BI4" t="str">
+      <c r="BJ4" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ4">
+      <c r="BK4">
         <f>_xll.NCDK_RotatableBondsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="BK4">
+      <c r="BL4">
         <f>_xll.NCDK_RuleOfFive(B4)</f>
         <v>0</v>
       </c>
-      <c r="BL4" t="str">
+      <c r="BM4" t="str">
         <f>_xll.NCDK_SmallRing(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BM4">
+      <c r="BN4">
         <f>_xll.NCDK_TPSA(B4)</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="BN4">
+      <c r="BO4">
         <f>_xll.NCDK_VABC(B4)</f>
         <v>58.092422652855603</v>
       </c>
-      <c r="BO4">
+      <c r="BP4">
         <f>_xll.NCDK_VAdjMa(B4)</f>
         <v>2.5849625007211561</v>
       </c>
-      <c r="BP4">
+      <c r="BQ4">
         <f>_xll.NCDK_Weight(B4)</f>
         <v>60.021129368000004</v>
       </c>
-      <c r="BQ4" t="str">
+      <c r="BR4" t="str">
         <f>_xll.NCDK_WeightedPath(B4)</f>
         <v>6.73205080756888, 1.68301270189222, 4.48803387171259, 4.48803387171259, 0</v>
       </c>
-      <c r="BR4" t="str">
+      <c r="BS4" t="str">
         <f>_xll.NCDK_WHIM(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BS4" t="str">
+      <c r="BT4" t="str">
         <f>_xll.NCDK_WienerNumbers(B4)</f>
         <v>9, 0</v>
       </c>
-      <c r="BT4">
+      <c r="BU4">
         <f>_xll.NCDK_XLogP(B4)</f>
         <v>-0.08</v>
       </c>
-      <c r="BU4">
+      <c r="BV4">
         <f>_xll.NCDK_ZagrebIndex(B4)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3298,287 +3319,291 @@
         <v>InChI=1S/C6H6/c1-2-4-6-5-3-1/h1-6H</v>
       </c>
       <c r="D5">
-        <f>_xll.NCDK_Tanimoto($G5,$G6)</f>
+        <f>_xll.NCDK_Tanimoto($H5,$H6)</f>
         <v>0.27272727272727271</v>
       </c>
       <c r="E5" t="str">
+        <f>_xll.NCDK(E$1,$B5)</f>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
+      </c>
+      <c r="F5" t="str">
         <f>_xll.NCDK_ECFP0($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f>_xll.NCDK_ECFP2($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <f>_xll.NCDK_ECFP4($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <f>_xll.NCDK_ECFP6($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f>_xll.NCDK_FCFP0($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>_xll.NCDK_FCFP2($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>_xll.NCDK_FCFP4($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>_xll.NCDK_FCFP0($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B5)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B5)</f>
         <v>0000000000010000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B5)</f>
         <v>000000000000000000000000000000000000000000000000000001000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000010000000000000000000000000000000000000000000000000000000000010001</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="R5" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B5)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R5" t="str">
+      <c r="S5" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B5)</f>
         <v>0000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000</v>
       </c>
-      <c r="S5" t="str">
+      <c r="T5" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
       </c>
-      <c r="T5" t="str">
+      <c r="U5" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001</v>
       </c>
-      <c r="U5" t="str">
+      <c r="V5" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001</v>
       </c>
-      <c r="V5" t="str">
+      <c r="W5" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B5)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001100000000000000000000000000000000000000000000000100000000000100000000001000000000000001100000000000010000000000000000000000000000000100000000000000000100000010000100000000000000000000000100000000000000000001000000000000000000000000010001000100000000000000000000000000010001000000010000010000000100010100000000001000100010000100000000010000000000000001000001000000000000000000010001000100000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f>_xll.NCDK_AcidicGroupCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f>_xll.NCDK_ALogP(B5)</f>
         <v>1.8299999999999996</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <f>_xll.NCDK_AMolarRefractivity(B5)</f>
         <v>26.058</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <f>_xll.NCDK_APol(B5)</f>
         <v>14.560758</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <f>_xll.NCDK_AromaticAtomsCount(B5)</f>
         <v>6</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <f>_xll.NCDK_AromaticBondsCount(B5)</f>
         <v>6</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <f>_xll.NCDK_AtomCount(B5)</f>
         <v>12</v>
       </c>
-      <c r="AD5" t="str">
+      <c r="AE5" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B5)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AE5" t="str">
+      <c r="AF5" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B5)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AF5" t="str">
+      <c r="AG5" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B5)</f>
         <v>233.87838834375, 233.87838834375, 233.87838834375, 116.939194171875, 0</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f>_xll.NCDK_BasicGroupCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AH5" t="str">
+      <c r="AI5" t="str">
         <f>_xll.NCDK_BCUT(B5)</f>
         <v>11.85, 12.1500544016358, -0.211758152069243, 0.0882962495665529, 6.093375, 6.3934294016358</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <f>_xll.NCDK_BondCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <f>_xll.NCDK_BPol(B5)</f>
         <v>6.5592419999999994</v>
       </c>
-      <c r="AK5" t="str">
+      <c r="AL5" t="str">
         <f>_xll.NCDK_CarbonTypes(B5)</f>
         <v>0, 0, 0, 6, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AL5" t="str">
+      <c r="AM5" t="str">
         <f>_xll.NCDK_ChiChain(B5)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.037037037037037, 0</v>
       </c>
-      <c r="AM5" t="str">
+      <c r="AN5" t="str">
         <f>_xll.NCDK_ChiCluster(B5)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AN5" t="str">
+      <c r="AO5" t="str">
         <f>_xll.NCDK_ChiPathCluster(B5)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AO5" t="str">
+      <c r="AP5" t="str">
         <f>_xll.NCDK_ChiPath(B5)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 3.46410161513775, 2, 1.15470053837925, 0.666666666666667, 0.384900179459751, 0.222222222222222, 0, 0</v>
       </c>
-      <c r="AP5" t="str">
+      <c r="AQ5" t="str">
         <f>_xll.NCDK_CPSA(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <f>_xll.NCDK_EccentricConnectivityIndex(B5)</f>
         <v>36</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <f>_xll.NCDK_FMF(B5)</f>
         <v>1</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <f>_xll.NCDK_FractionalPSA(B5)</f>
         <v>0</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <f>_xll.NCDK_FragmentComplexity(B5)</f>
         <v>114</v>
       </c>
-      <c r="AU5" t="str">
+      <c r="AV5" t="str">
         <f>_xll.NCDK_GravitationalIndex(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <f>_xll.NCDK_HBondAcceptorCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <f>_xll.NCDK_HBondDonorCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <f>_xll.NCDK_HybridizationRatio(B5)</f>
         <v>0</v>
       </c>
-      <c r="AY5" t="str">
+      <c r="AZ5" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B5)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="AZ5" t="str">
+      <c r="BA5" t="str">
         <f>_xll.NCDK_KierHallSmarts(B5)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <f>_xll.NCDK_LargestChain(B5)</f>
         <v>4</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <f>_xll.NCDK_LargestPiSystem(B5)</f>
         <v>6</v>
       </c>
-      <c r="BC5" t="str">
+      <c r="BD5" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD5">
+      <c r="BE5">
         <f>_xll.NCDK_LongestAliphaticChain(B5)</f>
         <v>0</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <f>_xll.NCDK_MannholdLogP(B5)</f>
         <v>2.12</v>
       </c>
-      <c r="BF5" t="str">
+      <c r="BG5" t="str">
         <f>_xll.NCDK_MDE(B5)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG5" t="str">
+      <c r="BH5" t="str">
         <f>_xll.NCDK_MomentOfInertia(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BH5">
+      <c r="BI5">
         <f>_xll.NCDK_PetitjeanNumber(B5)</f>
         <v>0</v>
       </c>
-      <c r="BI5" t="str">
+      <c r="BJ5" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ5">
+      <c r="BK5">
         <f>_xll.NCDK_RotatableBondsCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="BK5">
+      <c r="BL5">
         <f>_xll.NCDK_RuleOfFive(B5)</f>
         <v>0</v>
       </c>
-      <c r="BL5" t="str">
+      <c r="BM5" t="str">
         <f>_xll.NCDK_SmallRing(B5)</f>
         <v>1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BM5">
+      <c r="BN5">
         <f>_xll.NCDK_TPSA(B5)</f>
         <v>0</v>
       </c>
-      <c r="BN5">
+      <c r="BO5">
         <f>_xll.NCDK_VABC(B5)</f>
         <v>81.166531652800174</v>
       </c>
-      <c r="BO5">
+      <c r="BP5">
         <f>_xll.NCDK_VAdjMa(B5)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BP5">
+      <c r="BQ5">
         <f>_xll.NCDK_Weight(B5)</f>
         <v>78.046950191999997</v>
       </c>
-      <c r="BQ5" t="str">
+      <c r="BR5" t="str">
         <f>_xll.NCDK_WeightedPath(B5)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BR5" t="str">
+      <c r="BS5" t="str">
         <f>_xll.NCDK_WHIM(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BS5" t="str">
+      <c r="BT5" t="str">
         <f>_xll.NCDK_WienerNumbers(B5)</f>
         <v>27, 3</v>
       </c>
-      <c r="BT5">
+      <c r="BU5">
         <f>_xll.NCDK_XLogP(B5)</f>
         <v>2.0220000000000002</v>
       </c>
-      <c r="BU5">
+      <c r="BV5">
         <f>_xll.NCDK_ZagrebIndex(B5)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -3590,287 +3615,291 @@
         <v>InChI=1S/C7H8/c1-7-5-3-2-4-6-7/h2-6H,1H3</v>
       </c>
       <c r="D6">
-        <f>_xll.NCDK_Tanimoto($G6,$G7)</f>
+        <f>_xll.NCDK_Tanimoto($H6,$H7)</f>
         <v>0</v>
       </c>
       <c r="E6" t="str">
+        <f>_xll.NCDK(E$1,$B6)</f>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011010</v>
+      </c>
+      <c r="F6" t="str">
         <f>_xll.NCDK_ECFP0($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <f>_xll.NCDK_ECFP2($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f>_xll.NCDK_ECFP4($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000010000000000000000000000000</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
         <f>_xll.NCDK_ECFP6($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010100000000001000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000010000000000000000000000000</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f>_xll.NCDK_FCFP0($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f>_xll.NCDK_FCFP2($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f>_xll.NCDK_FCFP4($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>_xll.NCDK_FCFP0($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B6)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B6)</f>
         <v>0000001000010000100000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B6)</f>
         <v>000000000000000000000000000000000000000001000000000001000000010000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000010010000000000000000000000000000000000000000000000000001000000001000000000000000000000000000000100000000000000000100000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="R6" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B6)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R6" t="str">
+      <c r="S6" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B6)</f>
         <v>0000000000000000000000001000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000</v>
       </c>
-      <c r="S6" t="str">
+      <c r="T6" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011010</v>
       </c>
-      <c r="T6" t="str">
+      <c r="U6" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000100000000000000000100000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000001000000000001000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101</v>
       </c>
-      <c r="U6" t="str">
+      <c r="V6" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B6)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001</v>
       </c>
-      <c r="V6" t="str">
+      <c r="W6" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B6)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001100000000000000000000000000000000000000000000000110000000000100000000001100000000000001100100000000010000000000000000000000000000000100000000000001000100000010000100000000000000000000000100000000000000000001000000000000000000000000010001000100000000000000000000000000010001000000010000010000000100010100000000001000100010000100000000010000000000000001000001000000000000000000010001000100000000111000000001000000000000000000011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f>_xll.NCDK_AcidicGroupCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f>_xll.NCDK_ALogP(B6)</f>
         <v>2.3162000000000003</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f>_xll.NCDK_AMolarRefractivity(B6)</f>
         <v>31.0992</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <f>_xll.NCDK_APol(B6)</f>
         <v>17.654343999999998</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <f>_xll.NCDK_AromaticAtomsCount(B6)</f>
         <v>6</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <f>_xll.NCDK_AromaticBondsCount(B6)</f>
         <v>6</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <f>_xll.NCDK_AtomCount(B6)</f>
         <v>15</v>
       </c>
-      <c r="AD6" t="str">
+      <c r="AE6" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B6)</f>
         <v>0.00145821501522747, -0.000488055819316601, -0.000225165712015084, -1.53979004755717E-05, -4.88075806479512E-07</v>
       </c>
-      <c r="AE6" t="str">
+      <c r="AF6" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B6)</f>
         <v>7, 7, 8, 5, 1</v>
       </c>
-      <c r="AF6" t="str">
+      <c r="AG6" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B6)</f>
         <v>310.962687273438, 320.438287539063, 355.858255328125, 213.793837835938, 36.9196446054688</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f>_xll.NCDK_BasicGroupCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AH6" t="str">
+      <c r="AI6" t="str">
         <f>_xll.NCDK_BCUT(B6)</f>
         <v>11.89, 12.1100942558098, -0.155208136358149, 0.0651359477608963, 5.76122693815409, 7.50783741355056</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <f>_xll.NCDK_BondCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <f>_xll.NCDK_BPol(B6)</f>
         <v>8.7456560000000003</v>
       </c>
-      <c r="AK6" t="str">
+      <c r="AL6" t="str">
         <f>_xll.NCDK_CarbonTypes(B6)</f>
         <v>0, 0, 0, 5, 1, 1, 0, 0, 0</v>
       </c>
-      <c r="AL6" t="str">
+      <c r="AM6" t="str">
         <f>_xll.NCDK_ChiChain(B6)</f>
         <v>0, 0, 0, 0.102062072615966, 0.102062072615966, 0, 0, 0, 0.0320750149549792, 0.0320750149549792</v>
       </c>
-      <c r="AM6" t="str">
+      <c r="AN6" t="str">
         <f>_xll.NCDK_ChiCluster(B6)</f>
         <v>0.288675134594813, 0, 0, 0, 0.166666666666667, 0, 0, 0</v>
       </c>
-      <c r="AN6" t="str">
+      <c r="AO6" t="str">
         <f>_xll.NCDK_ChiPathCluster(B6)</f>
         <v>0.408248290463863, 0.433012701892219, 0.408248290463863, 0.192450089729875, 0.166666666666667, 0.128300059819917</v>
       </c>
-      <c r="AO6" t="str">
+      <c r="AP6" t="str">
         <f>_xll.NCDK_ChiPath(B6)</f>
         <v>5.11288417512236, 3.39384685011735, 2.74318215649199, 1.89384685011735, 1.30671282224753, 0.901047570290607, 0.204124145231932, 0, 4.38675134594813, 2.41068360252296, 1.65470053837925, 0.940455735015306, 0.534377897417612, 0.303561200840986, 0.0641500299099584, 0</v>
       </c>
-      <c r="AP6" t="str">
+      <c r="AQ6" t="str">
         <f>_xll.NCDK_CPSA(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <f>_xll.NCDK_EccentricConnectivityIndex(B6)</f>
         <v>45</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <f>_xll.NCDK_FMF(B6)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <f>_xll.NCDK_FractionalPSA(B6)</f>
         <v>0</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <f>_xll.NCDK_FragmentComplexity(B6)</f>
         <v>183</v>
       </c>
-      <c r="AU6" t="str">
+      <c r="AV6" t="str">
         <f>_xll.NCDK_GravitationalIndex(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <f>_xll.NCDK_HBondAcceptorCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AW6">
+      <c r="AX6">
         <f>_xll.NCDK_HBondDonorCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <f>_xll.NCDK_HybridizationRatio(B6)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AY6" t="str">
+      <c r="AZ6" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B6)</f>
         <v>5.14285714285714, 2.34375, 1.5</v>
       </c>
-      <c r="AZ6" t="str">
+      <c r="BA6" t="str">
         <f>_xll.NCDK_KierHallSmarts(B6)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 5, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <f>_xll.NCDK_LargestChain(B6)</f>
         <v>0</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <f>_xll.NCDK_LargestPiSystem(B6)</f>
         <v>6</v>
       </c>
-      <c r="BC6" t="str">
+      <c r="BD6" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD6">
+      <c r="BE6">
         <f>_xll.NCDK_LongestAliphaticChain(B6)</f>
         <v>0</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <f>_xll.NCDK_MannholdLogP(B6)</f>
         <v>2.23</v>
       </c>
-      <c r="BF6" t="str">
+      <c r="BG6" t="str">
         <f>_xll.NCDK_MDE(B6)</f>
         <v>0, 1.85053586243577, 1, 0, 6.08364341893206, 3.04182170946603, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG6" t="str">
+      <c r="BH6" t="str">
         <f>_xll.NCDK_MomentOfInertia(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BH6">
+      <c r="BI6">
         <f>_xll.NCDK_PetitjeanNumber(B6)</f>
         <v>0.25</v>
       </c>
-      <c r="BI6" t="str">
+      <c r="BJ6" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ6">
+      <c r="BK6">
         <f>_xll.NCDK_RotatableBondsCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="BK6">
+      <c r="BL6">
         <f>_xll.NCDK_RuleOfFive(B6)</f>
         <v>0</v>
       </c>
-      <c r="BL6" t="str">
+      <c r="BM6" t="str">
         <f>_xll.NCDK_SmallRing(B6)</f>
         <v>1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BM6">
+      <c r="BN6">
         <f>_xll.NCDK_TPSA(B6)</f>
         <v>0</v>
       </c>
-      <c r="BN6">
+      <c r="BO6">
         <f>_xll.NCDK_VABC(B6)</f>
         <v>98.462516278666868</v>
       </c>
-      <c r="BO6">
+      <c r="BP6">
         <f>_xll.NCDK_VAdjMa(B6)</f>
         <v>3.8073549220576042</v>
       </c>
-      <c r="BP6">
+      <c r="BQ6">
         <f>_xll.NCDK_Weight(B6)</f>
         <v>92.062600255999996</v>
       </c>
-      <c r="BQ6" t="str">
+      <c r="BR6" t="str">
         <f>_xll.NCDK_WeightedPath(B6)</f>
         <v>13.6768253204364, 1.95383218863377, 0, 0, 0</v>
       </c>
-      <c r="BR6" t="str">
+      <c r="BS6" t="str">
         <f>_xll.NCDK_WHIM(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BS6" t="str">
+      <c r="BT6" t="str">
         <f>_xll.NCDK_WienerNumbers(B6)</f>
         <v>42, 5</v>
       </c>
-      <c r="BT6">
+      <c r="BU6">
         <f>_xll.NCDK_XLogP(B6)</f>
         <v>2.4590000000000001</v>
       </c>
-      <c r="BU6">
+      <c r="BV6">
         <f>_xll.NCDK_ZagrebIndex(B6)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -3882,287 +3911,291 @@
         <v>[C]1[C][C][C][C][C]1</v>
       </c>
       <c r="D7">
-        <f>_xll.NCDK_Tanimoto($G7,$G8)</f>
+        <f>_xll.NCDK_Tanimoto($H7,$H8)</f>
         <v>1</v>
       </c>
       <c r="E7" t="str">
+        <f>_xll.NCDK(E$1,$B7)</f>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+      </c>
+      <c r="F7" t="str">
         <f>_xll.NCDK_ECFP0($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <f>_xll.NCDK_ECFP2($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <f>_xll.NCDK_ECFP4($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
         <f>_xll.NCDK_ECFP6($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f>_xll.NCDK_FCFP0($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f>_xll.NCDK_FCFP2($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f>_xll.NCDK_FCFP4($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f>_xll.NCDK_FCFP0($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B7)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B7)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="R7" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B7)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000010000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R7" t="str">
+      <c r="S7" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S7" t="str">
+      <c r="T7" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
       </c>
-      <c r="T7" t="str">
+      <c r="U7" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U7" t="str">
+      <c r="V7" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V7" t="str">
+      <c r="W7" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B7)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f>_xll.NCDK_AcidicGroupCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <f>_xll.NCDK_ALogP(B7)</f>
         <v>-1.7280000000000006</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <f>_xll.NCDK_AMolarRefractivity(B7)</f>
         <v>17.4696</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <f>_xll.NCDK_APol(B7)</f>
         <v>10.56</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <f>_xll.NCDK_AromaticAtomsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <f>_xll.NCDK_AromaticBondsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <f>_xll.NCDK_AtomCount(B7)</f>
         <v>6</v>
       </c>
-      <c r="AD7" t="str">
+      <c r="AE7" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B7)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AE7" t="str">
+      <c r="AF7" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B7)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AF7" t="str">
+      <c r="AG7" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B7)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <f>_xll.NCDK_BasicGroupCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AH7" t="str">
+      <c r="AI7" t="str">
         <f>_xll.NCDK_BCUT(B7)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <f>_xll.NCDK_BondCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <f>_xll.NCDK_BPol(B7)</f>
         <v>0</v>
       </c>
-      <c r="AK7" t="str">
+      <c r="AL7" t="str">
         <f>_xll.NCDK_CarbonTypes(B7)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AL7" t="str">
+      <c r="AM7" t="str">
         <f>_xll.NCDK_ChiChain(B7)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AM7" t="str">
+      <c r="AN7" t="str">
         <f>_xll.NCDK_ChiCluster(B7)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AN7" t="str">
+      <c r="AO7" t="str">
         <f>_xll.NCDK_ChiPathCluster(B7)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AO7" t="str">
+      <c r="AP7" t="str">
         <f>_xll.NCDK_ChiPath(B7)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AP7" t="str">
+      <c r="AQ7" t="str">
         <f>_xll.NCDK_CPSA(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <f>_xll.NCDK_EccentricConnectivityIndex(B7)</f>
         <v>36</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <f>_xll.NCDK_FMF(B7)</f>
         <v>1</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <f>_xll.NCDK_FractionalPSA(B7)</f>
         <v>0</v>
       </c>
-      <c r="AT7">
+      <c r="AU7">
         <f>_xll.NCDK_FragmentComplexity(B7)</f>
         <v>6</v>
       </c>
-      <c r="AU7" t="str">
+      <c r="AV7" t="str">
         <f>_xll.NCDK_GravitationalIndex(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <f>_xll.NCDK_HBondAcceptorCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
         <f>_xll.NCDK_HBondDonorCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <f>_xll.NCDK_HybridizationRatio(B7)</f>
         <v>1</v>
       </c>
-      <c r="AY7" t="str">
+      <c r="AZ7" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B7)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="AZ7" t="str">
+      <c r="BA7" t="str">
         <f>_xll.NCDK_KierHallSmarts(B7)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <f>_xll.NCDK_LargestChain(B7)</f>
         <v>4</v>
       </c>
-      <c r="BB7">
+      <c r="BC7">
         <f>_xll.NCDK_LargestPiSystem(B7)</f>
         <v>0</v>
       </c>
-      <c r="BC7" t="str">
+      <c r="BD7" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD7">
+      <c r="BE7">
         <f>_xll.NCDK_LongestAliphaticChain(B7)</f>
         <v>0</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <f>_xll.NCDK_MannholdLogP(B7)</f>
         <v>2.12</v>
       </c>
-      <c r="BF7" t="str">
+      <c r="BG7" t="str">
         <f>_xll.NCDK_MDE(B7)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG7" t="str">
+      <c r="BH7" t="str">
         <f>_xll.NCDK_MomentOfInertia(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BH7">
+      <c r="BI7">
         <f>_xll.NCDK_PetitjeanNumber(B7)</f>
         <v>0</v>
       </c>
-      <c r="BI7" t="str">
+      <c r="BJ7" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ7">
+      <c r="BK7">
         <f>_xll.NCDK_RotatableBondsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="BK7">
+      <c r="BL7">
         <f>_xll.NCDK_RuleOfFive(B7)</f>
         <v>0</v>
       </c>
-      <c r="BL7" t="str">
+      <c r="BM7" t="str">
         <f>_xll.NCDK_SmallRing(B7)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BM7">
+      <c r="BN7">
         <f>_xll.NCDK_TPSA(B7)</f>
         <v>0</v>
       </c>
-      <c r="BN7">
+      <c r="BO7">
         <f>_xll.NCDK_VABC(B7)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BO7">
+      <c r="BP7">
         <f>_xll.NCDK_VAdjMa(B7)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BP7">
+      <c r="BQ7">
         <f>_xll.NCDK_Weight(B7)</f>
         <v>72</v>
       </c>
-      <c r="BQ7" t="str">
+      <c r="BR7" t="str">
         <f>_xll.NCDK_WeightedPath(B7)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BR7" t="str">
+      <c r="BS7" t="str">
         <f>_xll.NCDK_WHIM(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BS7" t="str">
+      <c r="BT7" t="str">
         <f>_xll.NCDK_WienerNumbers(B7)</f>
         <v>27, 3</v>
       </c>
-      <c r="BT7">
+      <c r="BU7">
         <f>_xll.NCDK_XLogP(B7)</f>
         <v>3.4139999999999997</v>
       </c>
-      <c r="BU7">
+      <c r="BV7">
         <f>_xll.NCDK_ZagrebIndex(B7)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -4174,287 +4207,291 @@
         <v>PXCDDPIOUAJVRE-UHFFFAOYSA-N</v>
       </c>
       <c r="D8">
-        <f>_xll.NCDK_Tanimoto($G8,$G9)</f>
+        <f>_xll.NCDK_Tanimoto($H8,$H9)</f>
         <v>1</v>
       </c>
       <c r="E8" t="str">
+        <f>_xll.NCDK(E$1,$B8)</f>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+      </c>
+      <c r="F8" t="str">
         <f>_xll.NCDK_ECFP0($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <f>_xll.NCDK_ECFP2($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <f>_xll.NCDK_ECFP4($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
         <f>_xll.NCDK_ECFP6($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f>_xll.NCDK_FCFP0($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f>_xll.NCDK_FCFP2($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f>_xll.NCDK_FCFP4($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>_xll.NCDK_FCFP0($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B8)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B8)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="R8" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B8)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000010000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R8" t="str">
+      <c r="S8" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S8" t="str">
+      <c r="T8" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
       </c>
-      <c r="T8" t="str">
+      <c r="U8" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U8" t="str">
+      <c r="V8" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V8" t="str">
+      <c r="W8" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B8)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <f>_xll.NCDK_AcidicGroupCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <f>_xll.NCDK_ALogP(B8)</f>
         <v>-1.7280000000000006</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <f>_xll.NCDK_AMolarRefractivity(B8)</f>
         <v>17.4696</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <f>_xll.NCDK_APol(B8)</f>
         <v>10.56</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <f>_xll.NCDK_AromaticAtomsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <f>_xll.NCDK_AromaticBondsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <f>_xll.NCDK_AtomCount(B8)</f>
         <v>18</v>
       </c>
-      <c r="AD8" t="str">
+      <c r="AE8" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B8)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AE8" t="str">
+      <c r="AF8" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B8)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AF8" t="str">
+      <c r="AG8" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B8)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <f>_xll.NCDK_BasicGroupCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AH8" t="str">
+      <c r="AI8" t="str">
         <f>_xll.NCDK_BCUT(B8)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <f>_xll.NCDK_BondCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <f>_xll.NCDK_BPol(B8)</f>
         <v>13.118483999999999</v>
       </c>
-      <c r="AK8" t="str">
+      <c r="AL8" t="str">
         <f>_xll.NCDK_CarbonTypes(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AL8" t="str">
+      <c r="AM8" t="str">
         <f>_xll.NCDK_ChiChain(B8)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AM8" t="str">
+      <c r="AN8" t="str">
         <f>_xll.NCDK_ChiCluster(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AN8" t="str">
+      <c r="AO8" t="str">
         <f>_xll.NCDK_ChiPathCluster(B8)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AO8" t="str">
+      <c r="AP8" t="str">
         <f>_xll.NCDK_ChiPath(B8)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AP8" t="str">
+      <c r="AQ8" t="str">
         <f>_xll.NCDK_CPSA(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <f>_xll.NCDK_EccentricConnectivityIndex(B8)</f>
         <v>36</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <f>_xll.NCDK_FMF(B8)</f>
         <v>1</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <f>_xll.NCDK_FractionalPSA(B8)</f>
         <v>0</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <f>_xll.NCDK_FragmentComplexity(B8)</f>
         <v>294</v>
       </c>
-      <c r="AU8" t="str">
+      <c r="AV8" t="str">
         <f>_xll.NCDK_GravitationalIndex(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <f>_xll.NCDK_HBondAcceptorCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <f>_xll.NCDK_HBondDonorCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <f>_xll.NCDK_HybridizationRatio(B8)</f>
         <v>1</v>
       </c>
-      <c r="AY8" t="str">
+      <c r="AZ8" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B8)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="AZ8" t="str">
+      <c r="BA8" t="str">
         <f>_xll.NCDK_KierHallSmarts(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <f>_xll.NCDK_LargestChain(B8)</f>
         <v>4</v>
       </c>
-      <c r="BB8">
+      <c r="BC8">
         <f>_xll.NCDK_LargestPiSystem(B8)</f>
         <v>0</v>
       </c>
-      <c r="BC8" t="str">
+      <c r="BD8" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD8">
+      <c r="BE8">
         <f>_xll.NCDK_LongestAliphaticChain(B8)</f>
         <v>0</v>
       </c>
-      <c r="BE8">
+      <c r="BF8">
         <f>_xll.NCDK_MannholdLogP(B8)</f>
         <v>2.12</v>
       </c>
-      <c r="BF8" t="str">
+      <c r="BG8" t="str">
         <f>_xll.NCDK_MDE(B8)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG8" t="str">
+      <c r="BH8" t="str">
         <f>_xll.NCDK_MomentOfInertia(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BH8">
+      <c r="BI8">
         <f>_xll.NCDK_PetitjeanNumber(B8)</f>
         <v>0</v>
       </c>
-      <c r="BI8" t="str">
+      <c r="BJ8" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ8">
+      <c r="BK8">
         <f>_xll.NCDK_RotatableBondsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="BK8">
+      <c r="BL8">
         <f>_xll.NCDK_RuleOfFive(B8)</f>
         <v>0</v>
       </c>
-      <c r="BL8" t="str">
+      <c r="BM8" t="str">
         <f>_xll.NCDK_SmallRing(B8)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BM8">
+      <c r="BN8">
         <f>_xll.NCDK_TPSA(B8)</f>
         <v>0</v>
       </c>
-      <c r="BN8">
+      <c r="BO8">
         <f>_xll.NCDK_VABC(B8)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BO8">
+      <c r="BP8">
         <f>_xll.NCDK_VAdjMa(B8)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BP8">
+      <c r="BQ8">
         <f>_xll.NCDK_Weight(B8)</f>
         <v>84.093900383999994</v>
       </c>
-      <c r="BQ8" t="str">
+      <c r="BR8" t="str">
         <f>_xll.NCDK_WeightedPath(B8)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BR8" t="str">
+      <c r="BS8" t="str">
         <f>_xll.NCDK_WHIM(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BS8" t="str">
+      <c r="BT8" t="str">
         <f>_xll.NCDK_WienerNumbers(B8)</f>
         <v>27, 3</v>
       </c>
-      <c r="BT8">
+      <c r="BU8">
         <f>_xll.NCDK_XLogP(B8)</f>
         <v>3.4139999999999997</v>
       </c>
-      <c r="BU8">
+      <c r="BV8">
         <f>_xll.NCDK_ZagrebIndex(B8)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -4466,287 +4503,291 @@
         <v>PXCDDPIOUAJVRE-UHFFFAOYSA-N</v>
       </c>
       <c r="D9">
-        <f>_xll.NCDK_Tanimoto($G9,$G10)</f>
+        <f>_xll.NCDK_Tanimoto($H9,$H10)</f>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="E9" t="str">
+        <f>_xll.NCDK(E$1,$B9)</f>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+      </c>
+      <c r="F9" t="str">
         <f>_xll.NCDK_ECFP0($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <f>_xll.NCDK_ECFP2($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <f>_xll.NCDK_ECFP4($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H9" t="str">
+      <c r="I9" t="str">
         <f>_xll.NCDK_ECFP6($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f>_xll.NCDK_FCFP0($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f>_xll.NCDK_FCFP2($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f>_xll.NCDK_FCFP4($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>_xll.NCDK_FCFP0($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B9)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B9)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="R9" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B9)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000010000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R9" t="str">
+      <c r="S9" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S9" t="str">
+      <c r="T9" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
       </c>
-      <c r="T9" t="str">
+      <c r="U9" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U9" t="str">
+      <c r="V9" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V9" t="str">
+      <c r="W9" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B9)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f>_xll.NCDK_AcidicGroupCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <f>_xll.NCDK_ALogP(B9)</f>
         <v>-1.7280000000000006</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <f>_xll.NCDK_AMolarRefractivity(B9)</f>
         <v>17.4696</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <f>_xll.NCDK_APol(B9)</f>
         <v>10.56</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <f>_xll.NCDK_AromaticAtomsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <f>_xll.NCDK_AromaticBondsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <f>_xll.NCDK_AtomCount(B9)</f>
         <v>18</v>
       </c>
-      <c r="AD9" t="str">
+      <c r="AE9" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B9)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AE9" t="str">
+      <c r="AF9" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B9)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AF9" t="str">
+      <c r="AG9" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B9)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <f>_xll.NCDK_BasicGroupCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AH9" t="str">
+      <c r="AI9" t="str">
         <f>_xll.NCDK_BCUT(B9)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <f>_xll.NCDK_BondCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <f>_xll.NCDK_BPol(B9)</f>
         <v>13.118483999999999</v>
       </c>
-      <c r="AK9" t="str">
+      <c r="AL9" t="str">
         <f>_xll.NCDK_CarbonTypes(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AL9" t="str">
+      <c r="AM9" t="str">
         <f>_xll.NCDK_ChiChain(B9)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AM9" t="str">
+      <c r="AN9" t="str">
         <f>_xll.NCDK_ChiCluster(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AN9" t="str">
+      <c r="AO9" t="str">
         <f>_xll.NCDK_ChiPathCluster(B9)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AO9" t="str">
+      <c r="AP9" t="str">
         <f>_xll.NCDK_ChiPath(B9)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AP9" t="str">
+      <c r="AQ9" t="str">
         <f>_xll.NCDK_CPSA(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <f>_xll.NCDK_EccentricConnectivityIndex(B9)</f>
         <v>36</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <f>_xll.NCDK_FMF(B9)</f>
         <v>1</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <f>_xll.NCDK_FractionalPSA(B9)</f>
         <v>0</v>
       </c>
-      <c r="AT9">
+      <c r="AU9">
         <f>_xll.NCDK_FragmentComplexity(B9)</f>
         <v>294</v>
       </c>
-      <c r="AU9" t="str">
+      <c r="AV9" t="str">
         <f>_xll.NCDK_GravitationalIndex(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <f>_xll.NCDK_HBondAcceptorCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AW9">
+      <c r="AX9">
         <f>_xll.NCDK_HBondDonorCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <f>_xll.NCDK_HybridizationRatio(B9)</f>
         <v>1</v>
       </c>
-      <c r="AY9" t="str">
+      <c r="AZ9" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B9)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="AZ9" t="str">
+      <c r="BA9" t="str">
         <f>_xll.NCDK_KierHallSmarts(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <f>_xll.NCDK_LargestChain(B9)</f>
         <v>4</v>
       </c>
-      <c r="BB9">
+      <c r="BC9">
         <f>_xll.NCDK_LargestPiSystem(B9)</f>
         <v>0</v>
       </c>
-      <c r="BC9" t="str">
+      <c r="BD9" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD9">
+      <c r="BE9">
         <f>_xll.NCDK_LongestAliphaticChain(B9)</f>
         <v>0</v>
       </c>
-      <c r="BE9">
+      <c r="BF9">
         <f>_xll.NCDK_MannholdLogP(B9)</f>
         <v>2.12</v>
       </c>
-      <c r="BF9" t="str">
+      <c r="BG9" t="str">
         <f>_xll.NCDK_MDE(B9)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG9" t="str">
+      <c r="BH9" t="str">
         <f>_xll.NCDK_MomentOfInertia(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BH9">
+      <c r="BI9">
         <f>_xll.NCDK_PetitjeanNumber(B9)</f>
         <v>0</v>
       </c>
-      <c r="BI9" t="str">
+      <c r="BJ9" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ9">
+      <c r="BK9">
         <f>_xll.NCDK_RotatableBondsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="BK9">
+      <c r="BL9">
         <f>_xll.NCDK_RuleOfFive(B9)</f>
         <v>0</v>
       </c>
-      <c r="BL9" t="str">
+      <c r="BM9" t="str">
         <f>_xll.NCDK_SmallRing(B9)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BM9">
+      <c r="BN9">
         <f>_xll.NCDK_TPSA(B9)</f>
         <v>0</v>
       </c>
-      <c r="BN9">
+      <c r="BO9">
         <f>_xll.NCDK_VABC(B9)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BO9">
+      <c r="BP9">
         <f>_xll.NCDK_VAdjMa(B9)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BP9">
+      <c r="BQ9">
         <f>_xll.NCDK_Weight(B9)</f>
         <v>84.093900383999994</v>
       </c>
-      <c r="BQ9" t="str">
+      <c r="BR9" t="str">
         <f>_xll.NCDK_WeightedPath(B9)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BR9" t="str">
+      <c r="BS9" t="str">
         <f>_xll.NCDK_WHIM(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BS9" t="str">
+      <c r="BT9" t="str">
         <f>_xll.NCDK_WienerNumbers(B9)</f>
         <v>27, 3</v>
       </c>
-      <c r="BT9">
+      <c r="BU9">
         <f>_xll.NCDK_XLogP(B9)</f>
         <v>3.4139999999999997</v>
       </c>
-      <c r="BU9">
+      <c r="BV9">
         <f>_xll.NCDK_ZagrebIndex(B9)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:73" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:74" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -4758,287 +4799,291 @@
         <v>[C@@]12(C(C([C@](O[H])(C(C1=C(C([C@@]3([C@]2([H])C(C([C@]4([C@@]3([H])C(C([C@]4([H])[C@](C([H])([H])[H])(C(C(C(C(C([H])([H])[H])(C([H])([H])[H])[H])([H])[H])([H])[H])([H])[H])[H])([H])[H])([H])[H])C([H])([H])[H])([H])[H])([H])[H])[H])([H])[H])[H])([H])[H])[H])([H])[H])([H])[H])C([H])([H])[H]</v>
       </c>
       <c r="D10">
-        <f>_xll.NCDK_Tanimoto($G10,$G11)</f>
+        <f>_xll.NCDK_Tanimoto($H10,$H11)</f>
         <v>0.47761194029850745</v>
       </c>
       <c r="E10" t="str">
+        <f>_xll.NCDK(E$1,$B10)</f>
+        <v>0000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010000110010001001101000000011110010000001010101010110100101001001110</v>
+      </c>
+      <c r="F10" t="str">
         <f>_xll.NCDK_ECFP0($B10)</f>
         <v>0000000000000010000000000100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <f>_xll.NCDK_ECFP2($B10)</f>
         <v>0000000000000010000000001100000000000000000000001000000000000000000000000001000000001000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000000000000010000000010000000000000000000000000000000000000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000000000000000000000000000000000000000010000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100010000000000001000001000000000000000000000001000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <f>_xll.NCDK_ECFP4($B10)</f>
         <v>0000000000000010000000001100000000000000000100001000000000010000000000000001000000001010100000000000000000000000000000000000000000000100000000010000000010000000000000000000000000000000000000000000000000000010000000000000010000000010000000000000000000000000000000000000000001000000000010000000001000000000000000100000010000000000000000000000000000000010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000100000000000100000000000000000000000010000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000010100000000000000000000000000000000000000000000000000000000000000100010000000000001000001000000000000000000000011000000000000010100000000000000000000000000000000000000000100000000000000000000000000000100000000000001000010000000000000000000000000010000000000010000000000000000000100000001000000000000000100000000000000000000000000000000</v>
       </c>
-      <c r="H10" t="str">
+      <c r="I10" t="str">
         <f>_xll.NCDK_ECFP6($B10)</f>
         <v>0000000000001010001000001100000000000000000100001000000000010000000000000001000000001010100000000000000000000000000000000000000000000100000000010000000010000000000000000000000000000000000000000000000000001010000001100000011000000010000000000000000000000000000000000000000001000000000010000000001000000000000000110000010000000000000000000000000000000010000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000100000000000100000000000000000000000010000000000000000000000000100000000000000001000000000010000000000000000001000000000000100000000000000000000000000010000010000000000000000000000000000010100000001000000000000000000000000000000000000000000000000000000100010000000000001010001000000000000000000000011000000000000010100000000000000000000011000000010000000000100000000000000000000000000000100010000000001000010000000000000000000000000010000000000010000000000000001000100000001000000010000000100000000000000000000000000000000</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f>_xll.NCDK_FCFP0($B10)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f>_xll.NCDK_FCFP2($B10)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f>_xll.NCDK_FCFP4($B10)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000001100000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000010000000000000000000000000000000000000000000000000001000100000000000000000000000000000000000000000000000000000000000000100000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000100000000000010000000000000010000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001000000000000000000000</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>_xll.NCDK_FCFP0($B10)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B10)</f>
         <v>101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B10)</f>
         <v>0000000000000001001000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B10)</f>
         <v>000000000000000000001000000010000000000000000000000000000000100001000000010000000000010000000010010001010000000110001110000000000000000010000000001000001001000000000000001010000000100000000000010000000000000000000000000000000000000100000010000000000010000001010000000000010000100001000000000000101000001000000000000000001000000000000011000000000000000000000000000000000000001000100000000000000000000000001100100100000000000010000001000000101000000000000100000000000000000101000000010000000000100000000001000000000000000000000010000000000000000000000000000000000000000000101000000000000000001000000000010000100010000000000000000000000000001000010000000000000000100001000001000000000010000100000000000000001010000000000000000000010000000000000000001000001000000000111000000010000000000000010000000010000010010010010000000000010000000000010000000000101000000000000000000001000000000010100100000010000010000000100000010000000000000100000000000000000010110000000001011000010010000000000000000010000001000000000000011111111</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B10)</f>
         <v>0000010000000001001000000000000000000010000000000000000000100000000000000001100000000001000000000000000000000000000000000000000100001100000000000000110000000010000000000100100000110000000000000000000000000010000000000000000000000000000000000000000000000000010000000000000000000000001010000000000001001000000000000001100000000100000000000000000100000000000000000000010000000000000000000000000010000000000001001100000000000010000000000000000000010000000010000100000000000000001000000000010000000000011011100100101000000000001000000000011010000010010000000000000000000000001000100000000000001000000000000000000000000000011001000000000000000100000010000000000000011000000000000000010000000000000000000000000000010000000000011000000000000000000001110101000010000000000000000000000000000100000000000000000000001100000000000000000000000010000000001010001000100000000100010100000010000000000000000000000000000000000000000000000010000000010000000000000000000001000000000000000000010000000000000000000000000000000000000000001000000000</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="R10" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B10)</f>
         <v>110000010000010011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001111000000100000000000000000010000000000000011010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000010000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001000000000000000000100000100000000000001000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000100000000000000001011000000010000000000000000000000010000000000000100000100000010010000100100000010000001000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R10" t="str">
+      <c r="S10" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B10)</f>
         <v>0000010000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000100000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000011000000000000000000000000000000010000000010000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000</v>
       </c>
-      <c r="S10" t="str">
+      <c r="T10" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B10)</f>
         <v>0000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010000110010001001101000000011110010000001010101010110100101001001110</v>
       </c>
-      <c r="T10" t="str">
+      <c r="U10" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B10)</f>
         <v>1011001000010001010001111111000100000001000000000011011110010100101010100100000000001100000010100101000010010000011110100100000000010100010101000100000010000001000001010100000001100010000100000001100001000110100001000000001011000010101101010011010010001000010001000010001111000100011000000100101010110000110000010010110001100100010000000001000000010010110000000000010010111010010001101010010011000000101100000000100101101011000110100001100000100010010001010000000000010000010100001011001010001100010000010001111001100000101000010100010001001010000001000010011000111110010010000000110101011010001011001010000110000000000100000000010011000100000000011000010000000101000100000000100000000000010100000000010001000110100100000000000000010000001010000000010001000000101000010110000000101000011010011100011001110000000011100000001000000010101000001001001000010000111100010010010001110100100100001000010101000101000010010110010000000011001010010000000010011001101010100101001100000001011000001011001001101100000100100010000000000000</v>
       </c>
-      <c r="U10" t="str">
+      <c r="V10" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B10)</f>
         <v>1111100000010110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000100001</v>
       </c>
-      <c r="V10" t="str">
+      <c r="W10" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B10)</f>
         <v>11110000011110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000001100100110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000111100010100101000001000000000000010000000100000000000000000000000000000001000000000100000000000001000100000010000100000000000000000000000000000000000000000001000000000000000000000000000000000100000000000000000000000000000001000000000000001000000000010000000000000000100000000000000000100000000000000000001001100000000000000000010000000000000000011100000001100000011110000000011111000000000000000000000000000000000000000000000000000000000000000110000000000000000000100000000000000000000100000000000000000000100000000000000000000100000000000000000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <f>_xll.NCDK_AcidicGroupCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <f>_xll.NCDK_ALogP(B10)</f>
         <v>1.5548000000000011</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <f>_xll.NCDK_AMolarRefractivity(B10)</f>
         <v>115.17460000000001</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <f>_xll.NCDK_APol(B10)</f>
         <v>78.99447799999993</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <f>_xll.NCDK_AromaticAtomsCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <f>_xll.NCDK_AromaticBondsCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <f>_xll.NCDK_AtomCount(B10)</f>
         <v>74</v>
       </c>
-      <c r="AD10" t="str">
+      <c r="AE10" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B10)</f>
         <v>0.0827991713427503, -0.0229631507285856, -0.0270969061556759, 0.00647128770548948, 0.00909713625645344</v>
       </c>
-      <c r="AE10" t="str">
+      <c r="AF10" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B10)</f>
         <v>28.7744690355409, 31.3320919771326, 48.6641839542651, 54.6641839542651, 49.6641839542651</v>
       </c>
-      <c r="AF10" t="str">
+      <c r="AG10" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B10)</f>
         <v>2589.35165284459, 3179.06049775734, 4922.9791073968, 5328.87269506555, 4616.91714731414</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <f>_xll.NCDK_BasicGroupCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AH10" t="str">
+      <c r="AI10" t="str">
         <f>_xll.NCDK_BCUT(B10)</f>
         <v>11.89, 15.9949214370833, -0.392219399090072, 0.0596280868632924, 5.23875003301361, 12.6475909449557</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <f>_xll.NCDK_BondCount(B10)</f>
         <v>46</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <f>_xll.NCDK_BPol(B10)</f>
         <v>50.287521999999989</v>
       </c>
-      <c r="AK10" t="str">
+      <c r="AL10" t="str">
         <f>_xll.NCDK_CarbonTypes(B10)</f>
         <v>0, 0, 0, 1, 1, 5, 12, 6, 2</v>
       </c>
-      <c r="AL10" t="str">
+      <c r="AM10" t="str">
         <f>_xll.NCDK_ChiChain(B10)</f>
         <v>0, 0, 0.0833333333333333, 0.393634553260967, 0.976046921839545, 0, 0, 0.0833333333333333, 0.37164819290959, 0.863165765466815</v>
       </c>
-      <c r="AM10" t="str">
+      <c r="AN10" t="str">
         <f>_xll.NCDK_ChiCluster(B10)</f>
         <v>2.9521315814894, 0.235702260395516, 1.02234106177579, 0.203263132396285, 2.68481479020038, 0.219913202813724, 0.935219433730957, 0.179558378198271</v>
       </c>
-      <c r="AN10" t="str">
+      <c r="AO10" t="str">
         <f>_xll.NCDK_ChiPathCluster(B10)</f>
         <v>6.93012787723299, 11.9183161832455, 18.084244169983, 6.31056734345633, 10.8246614459309, 15.7948474414898</v>
       </c>
-      <c r="AO10" t="str">
+      <c r="AP10" t="str">
         <f>_xll.NCDK_ChiPath(B10)</f>
         <v>20.1040835277556, 13.2536913009629, 13.0668536638687, 11.1291235227258, 9.49703814548855, 7.69096408557495, 5.93907638185732, 4.4721666474432, 19.344190342069, 12.6298450216499, 12.1863667747532, 10.2790812759586, 8.6662445789686, 6.67875288189192, 5.16344144011131, 3.80610378452706</v>
       </c>
-      <c r="AP10" t="str">
+      <c r="AQ10" t="str">
         <f>_xll.NCDK_CPSA(B10)</f>
         <v>740.518679745203, 1141.6281036277, 24.7477735904141, 216.516577646307, -333.794969260415, -24.5734427697376, 524.002102098896, 1475.42307288811, 49.3212163601517, 0.773763217212662, 1.19287988066324, 0.0258587898400593, 0.226236782787338, -0.348780221713257, -0.025676632684061, 708.702485273172, 1092.57834600072, 23.6844918679688, 207.213998617263, -319.453554322133, -23.5176511261314, 0.136302900713605, 0.25436791475781, 2.7228153119618, 9.4535627888125, 899.894129431074, 57.1411279604366, 0.940293602018195, 0.0597063979818049</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <f>_xll.NCDK_EccentricConnectivityIndex(B10)</f>
         <v>669</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <f>_xll.NCDK_FMF(B10)</f>
         <v>0.22972972972972974</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <f>_xll.NCDK_FractionalPSA(B10)</f>
         <v>5.2361188574192148E-2</v>
       </c>
-      <c r="AT10">
+      <c r="AU10">
         <f>_xll.NCDK_FragmentComplexity(B10)</f>
         <v>5173.01</v>
       </c>
-      <c r="AU10" t="str">
+      <c r="AV10" t="str">
         <f>_xll.NCDK_GravitationalIndex(B10)</f>
         <v>1941.85812139388, 44.0665192793109, 12.4759176252409, 2394.88950905792, 48.9376083299737, 13.37914910667, 4535.65140656394, 67.3472449812458, 16.5531209985441</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <f>_xll.NCDK_HBondAcceptorCount(B10)</f>
         <v>1</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <f>_xll.NCDK_HBondDonorCount(B10)</f>
         <v>1</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <f>_xll.NCDK_HybridizationRatio(B10)</f>
         <v>0.92592592592592593</v>
       </c>
-      <c r="AY10" t="str">
+      <c r="AZ10" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B10)</f>
         <v>21.2403746097815, 7.921875, 3.65484429065744</v>
       </c>
-      <c r="AZ10" t="str">
+      <c r="BA10" t="str">
         <f>_xll.NCDK_KierHallSmarts(B10)</f>
         <v>0, 0, 0, 0, 0, 0, 5, 0, 11, 0, 1, 0, 7, 0, 0, 1, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <f>_xll.NCDK_LargestChain(B10)</f>
         <v>7</v>
       </c>
-      <c r="BB10">
+      <c r="BC10">
         <f>_xll.NCDK_LargestPiSystem(B10)</f>
         <v>2</v>
       </c>
-      <c r="BC10" t="str">
+      <c r="BD10" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B10)</f>
         <v>3.502934717034, 3.502934717034</v>
       </c>
-      <c r="BD10">
+      <c r="BE10">
         <f>_xll.NCDK_LongestAliphaticChain(B10)</f>
         <v>7</v>
       </c>
-      <c r="BE10">
+      <c r="BF10">
         <f>_xll.NCDK_MannholdLogP(B10)</f>
         <v>4.3199999999999994</v>
       </c>
-      <c r="BF10" t="str">
+      <c r="BG10" t="str">
         <f>_xll.NCDK_MDE(B10)</f>
         <v>2.79346109096649, 16.5925259846737, 11.5560895487586, 3.39888423642021, 17.7527182855433, 29.2401176288661, 7.64127863367805, 8.77423090217006, 6.5802347918611, 0.5, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG10" t="str">
+      <c r="BH10" t="str">
         <f>_xll.NCDK_MomentOfInertia(B10)</f>
         <v>10068.4095883237, 9731.07167302841, 773.613761142664, 1.03466606008362, 13.0147757111406, 12.5787210127379, 8.29661608019916</v>
       </c>
-      <c r="BH10">
+      <c r="BI10">
         <f>_xll.NCDK_PetitjeanNumber(B10)</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="BI10" t="str">
+      <c r="BJ10" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B10)</f>
         <v>0.875, 0.940550174456362</v>
       </c>
-      <c r="BJ10">
+      <c r="BK10">
         <f>_xll.NCDK_RotatableBondsCount(B10)</f>
         <v>5</v>
       </c>
-      <c r="BK10">
+      <c r="BL10">
         <f>_xll.NCDK_RuleOfFive(B10)</f>
         <v>1</v>
       </c>
-      <c r="BL10" t="str">
+      <c r="BM10" t="str">
         <f>_xll.NCDK_SmallRing(B10)</f>
         <v>4, 0, 1, 0, 0, 0, 1, 3, 0, 0, 0</v>
       </c>
-      <c r="BM10">
+      <c r="BN10">
         <f>_xll.NCDK_TPSA(B10)</f>
         <v>20.23</v>
       </c>
-      <c r="BN10">
+      <c r="BO10">
         <f>_xll.NCDK_VABC(B10)</f>
         <v>432.2759767957632</v>
       </c>
-      <c r="BO10">
+      <c r="BP10">
         <f>_xll.NCDK_VAdjMa(B10)</f>
         <v>5.9541963103868758</v>
       </c>
-      <c r="BP10">
+      <c r="BQ10">
         <f>_xll.NCDK_Weight(B10)</f>
         <v>386.35486609200063</v>
       </c>
-      <c r="BQ10" t="str">
+      <c r="BR10" t="str">
         <f>_xll.NCDK_WeightedPath(B10)</f>
         <v>57.2167299866347, 2.04345464237981, 2.54245315921217, 2.54245315921217, 0</v>
       </c>
-      <c r="BR10" t="str">
+      <c r="BS10" t="str">
         <f>_xll.NCDK_WHIM(B10)</f>
         <v>1.22231276339169, 2.17046945111189, 25.8559001988821, 0.0417903530188526, 0.0742074265238894, #N/A, #N/A, #N/A, 0.0962638773185697, 0.00388857657057473, 66.8991567190677, 29.2486824133857, 90.3764308473927, 188.22062289613, 0.413001665342944, #N/A, 66.9993091729568</v>
       </c>
-      <c r="BS10" t="str">
+      <c r="BT10" t="str">
         <f>_xll.NCDK_WienerNumbers(B10)</f>
         <v>2022, 54</v>
       </c>
-      <c r="BT10">
+      <c r="BU10">
         <f>_xll.NCDK_XLogP(B10)</f>
         <v>10.518000000000004</v>
       </c>
-      <c r="BU10">
+      <c r="BV10">
         <f>_xll.NCDK_ZagrebIndex(B10)</f>
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:73" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:74" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -5050,278 +5095,282 @@
         <v>InChI=1S/C27H46O/c1-18(2)7-6-8-19(3)23-11-12-24-22-10-9-20-17-21(28)13-15-26(20,4)25(22)14-16-27(23,24)5/h9,18-19,21-25,28H,6-8,10-17H2,1-5H3</v>
       </c>
       <c r="E11" t="str">
+        <f>_xll.NCDK(E$1,$B11)</f>
+        <v>0000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010000110010001001101000000001110010000001010101010110100101001001110</v>
+      </c>
+      <c r="F11" t="str">
         <f>_xll.NCDK_ECFP0($B11)</f>
         <v>0000000000000010000000000100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <f>_xll.NCDK_ECFP2($B11)</f>
         <v>0000000000000010000000001100000000000000000000001000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000001000000010000000010000000000000000000000000000000000000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000001000000000000000000000000000000000000000010000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000001000000000000000000000001000100000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <f>_xll.NCDK_ECFP4($B11)</f>
         <v>0000000000000010000000001100000000000000000100001000100000010000000000000000000000000000100000000000000000000000000000000000000000000100000000010000000010000000000000000000000000000000000000000000000000000010000001000000010000000010000000000000000000000000000000000000000001000000000010010000000000000000000000000000000000000010000000000000001000000010000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000100100000000000000000010000001000000000000000100000000000000000000000010000001000000000000000000100000000000000000001000000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000000010000000000000000000000000000001000000000000001000001000100000000000010000001000100000000000100000000000000000000000000000000000000000000000000000001000000000000000000000000000001000000000000000000000000000000010000000000010000000000000000000100000000000000000000000100000000000000000000000000000000</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
         <f>_xll.NCDK_ECFP6($B11)</f>
         <v>0000000000001010000000001100000000000000000100001000100000010000000000000000000000000000100000000010000000000000001000000000000000000100000000010000000010000000000000000000000000000001000000000000000000001010000001000010010000000010000000000000000000000000000000000000100001000001000010010000000000000000000000000000000000000010001000000000001000000010000000000000000000000000000000000000100000000001000000000000000000000000000000000000000000000000000000000100000000000100100000000000000000010100001000000000000000100000000000000000000000010000001000000000000000000110000000000000000001000000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000000000000010000010100000000000000000000000000011000000000000000000000000000001000000000000001000001000100000000001010000001000100000000000100010000000000000000000000000000000000000000000000000001000000001000000000000000000001000000000000000000000000000000010000000100010000000000001000000100000000000000000000000100000000000000000000000000000000</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f>_xll.NCDK_FCFP0($B11)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f>_xll.NCDK_FCFP2($B11)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f>_xll.NCDK_FCFP4($B11)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000100000001010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000001100000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000010000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000010000000000000000000000000100000000000010000000000000010000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f>_xll.NCDK_FCFP0($B11)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B11)</f>
         <v>101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B11)</f>
         <v>0000001010101001001000000000000001000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B11)</f>
         <v>000000000000000000000000000000000000000000000000000000000000100001000000000000000000000000000010000000000000000000000110000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000001000001000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000001000000100000000000000000000000000101000000000000100000000000000000100000000010000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000100010000000000000000000000000000000000000000000000000000000000001000000000000000100000000000000000000000000000000000000000000000000000000001000001000000000010000000010000000000000010000000010000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000001000010000000000000000000000000001000000000000011111111</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B11)</f>
         <v>0000010000000000000000000000000000000010000000000000000000000000000000000001100000000001000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000001000100000000000010000000000000000000010000000000000000000000000000001000000000010000000000000000000000000000000000001000000000001000000010000000000000000000000000000000100000000000001000000000000000000000000000000001000000000000000100000010000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001110001000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000100000000100010100000000000000000000000000000000000000000000000000000010000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="R11" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B11)</f>
         <v>110000010000010011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001111000000100000000000000000010000000000000011010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000010000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001000000000000000000100000100000000000001000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000100000000000000001011000000010000000000000000000000010000000000000100000100000010010000100100000010000001000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R11" t="str">
+      <c r="S11" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B11)</f>
         <v>0010000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000110000000100100000110000000000000000000000000000000000000000000000000000000000000000001000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
       </c>
-      <c r="S11" t="str">
+      <c r="T11" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B11)</f>
         <v>0000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010000110010001001101000000001110010000001010101010110100101001001110</v>
       </c>
-      <c r="T11" t="str">
+      <c r="U11" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B11)</f>
         <v>0000000000000000000001100001000000000000000000000001011100000100101000100000000000001000000000000000000010000000010100000000000000010100000000000100000000000000000000000000000001000000000000000001100000000000000001000000000001000000001001000001000010000000000000000010000010000000001000000100101000100000100000000000100000000000000000000000000000000000000000000000000000000000000000000010000001000000100000000000000100001011000100000001000000100000010000000000000000000000000000000001001000000100000000010000010000100000100000000000000000001010000000000000000000010100000000000000100000000010000010001000000110000000000100000000010010000000000000000000010000000100000100000000100000000000000000000000000001000010000100000000000000000000000000000000000000000000001000000100000000000000000000000000010000000000000010000000000000000010100000000000000000000000001100000000000000100100000000000000010100000000000010000000010000000000001000000000000010000001100000000000000100000000000000000000000000000100000000100000000000000000</v>
       </c>
-      <c r="U11" t="str">
+      <c r="V11" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B11)</f>
         <v>1111100000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000100001</v>
       </c>
-      <c r="V11" t="str">
+      <c r="W11" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B11)</f>
         <v>00000000011110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000001100100110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000111100010100101000001000000000000010000000100000000000000000000000000000001000000000100000000000001000100000010000100000000000000000000000000000000000000000001000000000000000000000000000000000100000000000000000000000000000001000000000000001000000000010000000000000000100000000000000000100000000000000000001001100000000000000000010000000000000000011100000001100000011110000000011111000000000000000000000000000000000000000000000000000000000000000110000000000000000000100000000000000000000100000000000000000000100000000000000000000100000000000000000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <f>_xll.NCDK_AcidicGroupCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <f>_xll.NCDK_ALogP(B11)</f>
         <v>1.5548000000000011</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <f>_xll.NCDK_AMolarRefractivity(B11)</f>
         <v>115.17460000000001</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <f>_xll.NCDK_APol(B11)</f>
         <v>78.994478000000029</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <f>_xll.NCDK_AromaticAtomsCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <f>_xll.NCDK_AromaticBondsCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <f>_xll.NCDK_AtomCount(B11)</f>
         <v>74</v>
       </c>
-      <c r="AD11" t="str">
+      <c r="AE11" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B11)</f>
         <v>0.0827991713427503, -0.0229631507285856, -0.0270969061556759, 0.00647128770548948, 0.00909713625645344</v>
       </c>
-      <c r="AE11" t="str">
+      <c r="AF11" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B11)</f>
         <v>28.7744690355409, 31.3320919771326, 48.6641839542651, 54.6641839542651, 49.6641839542651</v>
       </c>
-      <c r="AF11" t="str">
+      <c r="AG11" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B11)</f>
         <v>2589.35165284459, 3179.06049775734, 4922.9791073968, 5328.87269506555, 4616.91714731414</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <f>_xll.NCDK_BasicGroupCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AH11" t="str">
+      <c r="AI11" t="str">
         <f>_xll.NCDK_BCUT(B11)</f>
         <v>11.89, 15.9949214370832, -0.392219474278523, 0.0694748577202458, 5.23874992098634, 12.6503467270457</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <f>_xll.NCDK_BondCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <f>_xll.NCDK_BPol(B11)</f>
         <v>50.287521999999989</v>
       </c>
-      <c r="AK11" t="str">
+      <c r="AL11" t="str">
         <f>_xll.NCDK_CarbonTypes(B11)</f>
         <v>0, 0, 0, 1, 1, 5, 12, 6, 2</v>
       </c>
-      <c r="AL11" t="str">
+      <c r="AM11" t="str">
         <f>_xll.NCDK_ChiChain(B11)</f>
         <v>0, 0, 0.0833333333333333, 0.393634553260967, 0.976046921839545, 0, 0, 0.0833333333333333, 0.37164819290959, 0.863165765466815</v>
       </c>
-      <c r="AM11" t="str">
+      <c r="AN11" t="str">
         <f>_xll.NCDK_ChiCluster(B11)</f>
         <v>2.9521315814894, 0.235702260395516, 1.02234106177579, 0.203263132396285, 2.68481479020038, 0.219913202813724, 0.935219433730957, 0.179558378198271</v>
       </c>
-      <c r="AN11" t="str">
+      <c r="AO11" t="str">
         <f>_xll.NCDK_ChiPathCluster(B11)</f>
         <v>6.93012787723299, 11.9183161832455, 18.084244169983, 6.31056734345633, 10.8246614459309, 15.7948474414898</v>
       </c>
-      <c r="AO11" t="str">
+      <c r="AP11" t="str">
         <f>_xll.NCDK_ChiPath(B11)</f>
         <v>20.1040835277556, 13.2536913009629, 13.0668536638687, 11.1291235227258, 9.49703814548855, 7.69096408557496, 5.93907638185732, 4.4721666474432, 19.344190342069, 12.6298450216499, 12.1863667747532, 10.2790812759586, 8.66624457896859, 6.67875288189192, 5.16344144011131, 3.80610378452706</v>
       </c>
-      <c r="AP11" t="str">
+      <c r="AQ11" t="str">
         <f>_xll.NCDK_CPSA(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <f>_xll.NCDK_EccentricConnectivityIndex(B11)</f>
         <v>669</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <f>_xll.NCDK_FMF(B11)</f>
         <v>0.6071428571428571</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <f>_xll.NCDK_FractionalPSA(B11)</f>
         <v>5.2361188524318612E-2</v>
       </c>
-      <c r="AT11">
+      <c r="AU11">
         <f>_xll.NCDK_FragmentComplexity(B11)</f>
         <v>5173.01</v>
       </c>
-      <c r="AU11" t="str">
+      <c r="AV11" t="str">
         <f>_xll.NCDK_GravitationalIndex(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
         <f>_xll.NCDK_HBondAcceptorCount(B11)</f>
         <v>1</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <f>_xll.NCDK_HBondDonorCount(B11)</f>
         <v>1</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <f>_xll.NCDK_HybridizationRatio(B11)</f>
         <v>0.92592592592592593</v>
       </c>
-      <c r="AY11" t="str">
+      <c r="AZ11" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B11)</f>
         <v>21.2403746097815, 7.921875, 3.65484429065744</v>
       </c>
-      <c r="AZ11" t="str">
+      <c r="BA11" t="str">
         <f>_xll.NCDK_KierHallSmarts(B11)</f>
         <v>0, 0, 0, 0, 0, 0, 5, 0, 11, 0, 1, 0, 7, 0, 0, 1, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <f>_xll.NCDK_LargestChain(B11)</f>
         <v>16</v>
       </c>
-      <c r="BB11">
+      <c r="BC11">
         <f>_xll.NCDK_LargestPiSystem(B11)</f>
         <v>2</v>
       </c>
-      <c r="BC11" t="str">
+      <c r="BD11" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD11">
+      <c r="BE11">
         <f>_xll.NCDK_LongestAliphaticChain(B11)</f>
         <v>7</v>
       </c>
-      <c r="BE11">
+      <c r="BF11">
         <f>_xll.NCDK_MannholdLogP(B11)</f>
         <v>4.3199999999999994</v>
       </c>
-      <c r="BF11" t="str">
+      <c r="BG11" t="str">
         <f>_xll.NCDK_MDE(B11)</f>
         <v>1.54697174276407, 11.0054221495714, 8.10399071027919, 2.24225976804296, 15.301585299106, 26.1301405209996, 7.46130267367364, 6.99912877305946, 5.73136198628621, 0.25, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG11" t="str">
+      <c r="BH11" t="str">
         <f>_xll.NCDK_MomentOfInertia(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BH11">
+      <c r="BI11">
         <f>_xll.NCDK_PetitjeanNumber(B11)</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="BI11" t="str">
+      <c r="BJ11" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ11">
+      <c r="BK11">
         <f>_xll.NCDK_RotatableBondsCount(B11)</f>
         <v>5</v>
       </c>
-      <c r="BK11">
+      <c r="BL11">
         <f>_xll.NCDK_RuleOfFive(B11)</f>
         <v>1</v>
       </c>
-      <c r="BL11" t="str">
+      <c r="BM11" t="str">
         <f>_xll.NCDK_SmallRing(B11)</f>
         <v>4, 0, 1, 0, 0, 0, 1, 3, 0, 0, 0</v>
       </c>
-      <c r="BM11">
+      <c r="BN11">
         <f>_xll.NCDK_TPSA(B11)</f>
         <v>20.23</v>
       </c>
-      <c r="BN11">
+      <c r="BO11">
         <f>_xll.NCDK_VABC(B11)</f>
         <v>432.27597679576252</v>
       </c>
-      <c r="BO11">
+      <c r="BP11">
         <f>_xll.NCDK_VAdjMa(B11)</f>
         <v>5.9541963103868758</v>
       </c>
-      <c r="BP11">
+      <c r="BQ11">
         <f>_xll.NCDK_Weight(B11)</f>
         <v>386.35486609200007</v>
       </c>
-      <c r="BQ11" t="str">
+      <c r="BR11" t="str">
         <f>_xll.NCDK_WeightedPath(B11)</f>
         <v>57.2167299866347, 2.04345464237981, 2.54245315921218, 2.54245315921218, 0</v>
       </c>
-      <c r="BR11" t="str">
+      <c r="BS11" t="str">
         <f>_xll.NCDK_WHIM(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BS11" t="str">
+      <c r="BT11" t="str">
         <f>_xll.NCDK_WienerNumbers(B11)</f>
         <v>2022, 54</v>
       </c>
-      <c r="BT11">
+      <c r="BU11">
         <f>_xll.NCDK_XLogP(B11)</f>
         <v>10.518000000000004</v>
       </c>
-      <c r="BU11">
+      <c r="BV11">
         <f>_xll.NCDK_ZagrebIndex(B11)</f>
         <v>158</v>
       </c>

--- a/NCDK-Excel/ExcelNCDK-Test.xlsx
+++ b/NCDK-Excel/ExcelNCDK-Test.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537BAFEF-8018-4242-8110-D180D9DDC2B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D614538-46CF-46F1-8122-738C3170166F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="239" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="407" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptors" sheetId="2" r:id="rId1"/>
     <sheet name="SDF" sheetId="4" r:id="rId2"/>
+    <sheet name="Picture" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="166">
   <si>
     <t>CC(=O)O</t>
     <phoneticPr fontId="1"/>
@@ -1808,6 +1808,10 @@
     <t>MACCSFingerprinter</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>CCCCCC(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1869,6 +1873,411 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1571844</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1019317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="NCDK-Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7096EE-34AB-49CC-A9FC-49D2D01851BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="228600"/>
+          <a:ext cx="1571844" cy="1019317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276264</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="NCDK-Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8027696-844A-44C7-8736-8836EA959C48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="1441450"/>
+          <a:ext cx="276264" cy="190527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1495634</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>533474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="NCDK-Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACE9196-6F9D-4CDF-92F5-A341065F7F70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="1816100"/>
+          <a:ext cx="1495634" cy="533474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514422</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>581106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="NCDK-Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04298DA9-5207-4578-8F40-9CEA740943C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="2578100"/>
+          <a:ext cx="514422" cy="581106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514422</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>828791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="NCDK-Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B956E7D0-23C2-45AB-A384-8B949E76144F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="3314700"/>
+          <a:ext cx="514422" cy="828791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581106</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>657317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="NCDK-Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7BAFBE-5F5A-4D36-8443-86C1DC61A475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="4286250"/>
+          <a:ext cx="581106" cy="657317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127457</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2838846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="NCDK-Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98CBAD5-CBA1-46E7-80E2-7FF5347693DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="5175250"/>
+          <a:ext cx="3277057" cy="2838846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2695951</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1933845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="NCDK-Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB2BF226-025E-4046-814D-A60540D4F75F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="8172450"/>
+          <a:ext cx="2695951" cy="1933845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2136,8 +2545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B185B08-1BAB-4052-951E-1A2BC1F97D8F}">
   <dimension ref="A1:BV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6436,4 +6845,98 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1647DD59-D041-4640-9111-9E35EC2330E5}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="70" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="236" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="168" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/NCDK-Excel/ExcelNCDK-Test.xlsx
+++ b/NCDK-Excel/ExcelNCDK-Test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D614538-46CF-46F1-8122-738C3170166F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6492234-0E7F-4899-8503-90C148CA60B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="407" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="407" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptors" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="167">
   <si>
     <t>CC(=O)O</t>
     <phoneticPr fontId="1"/>
@@ -1810,6 +1810,10 @@
   </si>
   <si>
     <t>CCCCCC(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECFP2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2546,7 +2550,7 @@
   <dimension ref="A1:BV11"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2792,7 +2796,7 @@
       <c r="C2" t="str">
         <f>_xll.NCDK_MolText(B2)</f>
         <v xml:space="preserve">
-  CDK     0603191242
+  CDK     0702190142
  18 19  0  0  0  0  0  0  0  0999 V2000
     0.0000    0.0000    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
     0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
@@ -3036,7 +3040,7 @@
       </c>
       <c r="BB2">
         <f>_xll.NCDK_LargestChain(B2)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC2">
         <f>_xll.NCDK_LargestPiSystem(B2)</f>
@@ -3929,7 +3933,7 @@
       </c>
       <c r="BB5">
         <f>_xll.NCDK_LargestChain(B5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC5">
         <f>_xll.NCDK_LargestPiSystem(B5)</f>
@@ -5793,86 +5797,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D78F5C-B236-40D1-A056-FD195DD12728}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="5" max="16" width="4.83203125" customWidth="1"/>
+    <col min="7" max="18" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>87</v>
       </c>
       <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>96</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>97</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>98</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>99</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>100</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>101</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>102</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>103</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>104</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A2)</f>
+        <v>0000000000000000000000000001000000000000000000000000000000000000100000000000000000000000100000000000000000000000000000000000000000000100001000000000000010000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000001000000100000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000100000000000000000001000000000000000000100000000000000000000000010000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000100100000000001000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000100000100000000000000000000000100000000000000000000000000</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A2)</f>
+        <v>0000000000000000000000000001000000000000000000000000000000000000100000000000000000000000100000000000000000000000000000000000000000000100001000000000000010000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000001000000100000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000100000000000000000001000000000000000000100000000000000000000000010000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000100100000000001000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000100000100000000000000000000000100000000000000000000000000</v>
+      </c>
+      <c r="D2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>93</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -5889,113 +5901,137 @@
         <v>0</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A2)</f>
         <v>0000000000000000000000000000000000000100000000000000110010000100100000010010101101101000111110111100000010001100000010011100001000111010101101100101011110111111111110</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A3)</f>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000001000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A3)</f>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000001000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="D3" t="s">
         <v>106</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>106</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>107</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="S3" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A3)</f>
         <v>0000000000000000000000000000000000000000000000000000110000000000000000010000000000000000100000000010000000000000100000000000101000100000001100111100010100001010011110</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A4)</f>
+        <v>0000000100000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000011000000000000000000000000001000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000010000000000000000000000000000000000000010000000000000000000000000000000001000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000001000000000000</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A4)</f>
+        <v>0000000100000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000011000000000000000000000000001000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000010000000000000000000000000000000000000010000000000000000000000000000000001000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000001000000000000</v>
+      </c>
+      <c r="D4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>109</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>110</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A4)</f>
         <v>0000000000000000000000000001000000000000000000001000000010000000100000010010000000101000000010011100001010001000100000011110111000000100100110111101110110011111111111</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A5)</f>
+        <v>0000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000001000000000000100000000000000000000000000100000110000000000010000000000000000000000000000000000000000000000000000010000000000001000000000000000000000000000000000010000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000100000000000000000001000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000100001000000000000000000000000000000000000000000000000100000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000100000000100000000000000000000000000000000000</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A5)</f>
+        <v>0000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000001000000000000100000000000000000000000000100000110000000000010000000000000000000000000000000000000000000000000000010000000000001000000000000000000000000000000000010000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000100000000000000000001000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000100001000000000000000000000000000000000000000000000000100000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000100000000100000000000000000000000000000000000</v>
+      </c>
+      <c r="D5" t="s">
         <v>112</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>112</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>113</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -6026,78 +6062,94 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A5)</f>
         <v>0000000000000000000000000000000000000000000001000000010010000000100000110000000000110000110101111000010100000110100110011011001000100100101101110100011101111111110111</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A6)</f>
+        <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000001000000000000000000000000001000000000000000000000000000000000000000000000000010000000000000000000001000000000000000000000000000000000000000000000000000000010000000000000000000000000000000100000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000010000000000000000000001000000000000100000000000000000000000000000000000000000000000000000000001000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A6)</f>
+        <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000001000000000000000000000000001000000000000000000000000000000000000000000000000010000000000000000000001000000000000000000000000000000000000000000000000000000010000000000000000000000000000000100000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000010000000000000000000001000000000000100000000000000000000000000000000000000000000000000000000001000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="D6" t="s">
         <v>116</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>116</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>117</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="str">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A6)</f>
         <v>0000000000000000000000001000000000000100000000000000100000000010100000100000101100010000100101101100010001001100100011111001011110101010100001111010011010111110111110</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A7)</f>
+        <v>1000000000000010000000000000000000000000010000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000100000000000000000000000001000000000000000000000000000000000000100000000000000010000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000100000000000000000000000000000000000001000001000000000000</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A7)</f>
+        <v>1000000000000010000000000000000000000000010000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000100000000000000000000000001000000000000000000000000000000000000100000000000000010000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000100000000000000000000000000000000000001000001000000000000</v>
+      </c>
+      <c r="D7" t="s">
         <v>119</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>119</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>120</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -6128,30 +6180,38 @@
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A7)</f>
         <v>0000000000000000000000000000000000000000000000000000000010000100000000010010001000001100000000111101000010001010100001011100100110011010110001011011000110011110111110</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A8)</f>
+        <v>1000000000000010000000000000000000000000000000000000000000000000000000001000000000000000100000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000100000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000001000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000100000000000000000000000000000000001000000000000100</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A8)</f>
+        <v>1000000000000010000000000000000000000000000000000000000000000000000000001000000000000000100000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000100000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000001000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000100000000000000000000000000000000001000000000000100</v>
+      </c>
+      <c r="D8" t="s">
         <v>122</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>122</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>123</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
@@ -6179,30 +6239,38 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A8)</f>
         <v>0000000000000000001000000000000000000000000000000000010000000100000000010000000001000100001000000001001110000010100000001000101110100100111000111010011110001110111111</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A9)</f>
+        <v>0000000000000000000100000000000000100000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000100000000000100000010000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000001000000000000000000000000001000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A9)</f>
+        <v>0000000000000000000100000000000000100000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000100000000000100000010000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000001000000000000000000000000001000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="D9" t="s">
         <v>125</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>125</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>126</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -6233,30 +6301,38 @@
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A9)</f>
         <v>0000000000000000000000000000001000000100011000000010001001011000001000001000110000010001000000000000011001100001000000100001000001110101000001000001001010110110111111</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A10)</f>
+        <v>0000000000000010000100000100000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000000000000000000001000000000000000000000000000000000000000000000010000100000000010000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000100000000000000000000000000100000000000000000000000000000000000100000000000000000001000000000000000000000000000000100000000000000000000000001000000000000000000001000000000000000100000000000000010001000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000000000000000000000000000000</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A10)</f>
+        <v>0000000000000010000100000100000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000000000000000000001000000000000000000000000000000000000000000000010000100000000010000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000100000000000000000000000000100000000000000000000000000000000000100000000000000000001000000000000000000000000000000100000000000000000000000001000000000000000000001000000000000000100000000000000010001000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000000000000000000000000000000</v>
+      </c>
+      <c r="D10" t="s">
         <v>128</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>128</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>129</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -6287,72 +6363,88 @@
       <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A10)</f>
         <v>0000000000000000000000000000000000000000000000000000000010000100010000000010000000001100000000100101001000001011000001011110010110010100110000001111000011101110111111</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A11)</f>
+        <v>0000000000000010000100000101000000000000000000000000000000000000000000000000000000000000100001000000100000000000000000000000000000000100000000000000000010000000000000000000000000000000000010000000000000000010000001000000010000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000010101100001100000000000100010100000000000000000000001000000010000000000000000000000000000010001010000000000000000000000000000000000000000000000000000010000000010000000000100100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000100000000000000001000000000000000000000001000000000000000000000000000001000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000100000000000000000000000000000100000000000000000000000000</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A11)</f>
+        <v>0000000000000010000100000101000000000000000000000000000000000000000000000000000000000000100001000000100000000000000000000000000000000100000000000000000010000000000000000000000000000000000010000000000000000010000001000000010000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000010101100001100000000000100010100000000000000000000001000000010000000000000000000000000000010001010000000000000000000000000000000000000000000000000000010000000010000000000100100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000100000000000000001000000000000000000000001000000000000000000000000000001000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000100000000000000000000000000000100000000000000000000000000</v>
+      </c>
+      <c r="D11" t="s">
         <v>131</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>131</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>132</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="S11" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A11)</f>
         <v>0000000000000000000000000000000000000000000000000000100010000000100000000000000100100000100110111100000010010111001110011010000110111011101111011110111101111111111110</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A12)</f>
+        <v>0000000000000000000000000000000000000000000000000010000000100000000000000000000000000000001000000000000000000000000000000000000000000100010000000100000010000000000000000000000000000000000000000000000000000010000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000100000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000100000000000000000000000000000000011000000000000000000000000010000000000000000000000000000000000000000000000000100000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000100000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A12)</f>
+        <v>0000000000000000000000000000000000000000000000000010000000100000000000000000000000000000001000000000000000000000000000000000000000000100010000000100000010000000000000000000000000000000000000000000000000000010000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000100000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000100000000000000000000000000000000011000000000000000000000000010000000000000000000000000000000000000000000000000100000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000100000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="D12" t="s">
         <v>134</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>134</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>135</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
@@ -6383,30 +6475,38 @@
       <c r="P12">
         <v>0</v>
       </c>
-      <c r="Q12" t="str">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A12)</f>
         <v>0000000000000000000000000000000000100011000100011000011001011000001000011000000001000001000010000000010101001001100000000001011001110001001100110101010110101011011111</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A13)</f>
+        <v>0000000000000010000100000000000000000000000000000000000000000000000000000000000000000000100001000000000000000010000000000000000000000100000000000000000010000000000000000000001000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000010000000100000000000000000000010000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000001000000000000000000000000000000000100001000000100000010100000000010000000000000011100000000000000000000000000000010000000000000000000000000000000000000000000100000000000000000000000000000000000000000000001000000000000000000001000000000000000000000000000000001000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000001000000000000000000000000000000</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A13)</f>
+        <v>0000000000000010000100000000000000000000000000000000000000000000000000000000000000000000100001000000000000000010000000000000000000000100000000000000000010000000000000000000001000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000010000000100000000000000000000010000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000001000000000000000000000000000000000100001000000100000010100000000010000000000000011100000000000000000000000000000010000000000000000000000000000000000000000000100000000000000000000000000000000000000000000001000000000000000000001000000000000000000000000000000001000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000001000000000000000000000000000000</v>
+      </c>
+      <c r="D13" t="s">
         <v>137</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>137</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>138</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
@@ -6428,36 +6528,44 @@
       <c r="M13">
         <v>0</v>
       </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="str">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A13)</f>
         <v>0000000000000000000000100000000000000000000000000000000000000000000000000010001100101110000110010111001001110110000011011110010110110101111101011111010011111111111111</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A14)</f>
+        <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000000000000000000000000001000000000000000000000000000000000000000000001000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000010000000000000000000100000000000000000000000000000010000000000000000000000000000000000000000000000000000000100000000000100000000000000000000000000000000000000010000000000100000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000100000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A14)</f>
+        <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000000000000000000000000001000000000000000000000000000000000000000000001000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000010000000000000000000100000000000000000000000000000010000000000000000000000000000000000000000000000000000000100000000000100000000000000000000000000000000000000010000000000100000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000100000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="D14" t="s">
         <v>140</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>140</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>141</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -6488,30 +6596,38 @@
       <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A14)</f>
         <v>0000000000000000000000000000000000000000000000000000000010000100100000100010000100101100000011111001011000010010001101011101000000000100100001000011110110010101110111</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A15)</f>
+        <v>0000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A15)</f>
+        <v>0000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="D15" t="s">
         <v>143</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>143</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>144</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -6542,30 +6658,38 @@
       <c r="P15">
         <v>0</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A15)</f>
         <v>0000000010000000000000000000000000000000001100001000100000000000000010000000100100000000000001001000011001000001000010000001010001100100000001000001001000010010100101</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A16)</f>
+        <v>1000000000000010000000000100000000000000010000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000001000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000100000000000000000001000000000000000000000000000000000001000000000001000000000000000000100000000000000000000000000000000000000000000100000100000000000100000000010000010000000001000000000000000000000000000000000000000000001000000000000000000000000000000100000000000001000000000000000000000100000000001000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000001000001000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100001000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A16)</f>
+        <v>1000000000000010000000000100000000000000010000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000001000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000100000000000000000001000000000000000000000000000000000001000000000001000000000000000000100000000000000000000000000000000000000000000100000100000000000100000000010000010000000001000000000000000000000000000000000000000000001000000000000000000000000000000100000000000001000000000000000000000100000000001000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000001000001000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100001000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="D16" t="s">
         <v>146</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>146</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>147</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -6596,30 +6720,38 @@
       <c r="P16">
         <v>0</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A16)</f>
         <v>0000000000000000000001000000000000000000000000000000000010000000110000010010000000101100111000110101101110000011100001011100101110110100111101111111001110111110111111</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A17)</f>
+        <v>0000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000001000000000000100000000000000000000100000000000010000000000010000000000000000000000000000000000000000000000000000010000000000000000100000010000000000100000000000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000001000000010000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001000000000001000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A17)</f>
+        <v>0000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000001000000000000100000000000000000000100000000000010000000000010000000000000000000000000000000000000000000000000000010000000000000000100000010000000000100000000000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000001000000010000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001000000000001000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="D17" t="s">
         <v>149</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>150</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -6650,66 +6782,82 @@
       <c r="P17">
         <v>0</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A17)</f>
         <v>0000000000000000000000000000000110000000000000000000010000000010001001100000001101010001011101100001010100000110000010100011000101110001011101000110001011111110100100</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A18)</f>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010100000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000010000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000100000</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A18)</f>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010100000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000010000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000100000</v>
+      </c>
+      <c r="D18" t="s">
         <v>152</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>152</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>153</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="str">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A18)</f>
         <v>0000000000000000000000000000000000000000000000000000010000000000000000000000001001000000000000000001001100000010000000000000100000100100010001001010001010110100111011</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A19)</f>
+        <v>0000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000100000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000100100000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000100000000000000000000000001000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A19)</f>
+        <v>0000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000100000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000100100000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000100000000000000000000000001000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="D19" t="s">
         <v>155</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>155</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>156</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
         <v>0</v>
       </c>
@@ -6723,53 +6871,61 @@
         <v>0</v>
       </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>1</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>1</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A19)</f>
         <v>0000000000000000000000000000000110010100000001100000000000000100101000000010111110100001000011010000000001000000000000111101100000001110100001011001010000010101111011</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A20)</f>
+        <v>1000000000000010000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000001000000010000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000001000000110000000100000100000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000001000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000001000000000000000100</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A20)</f>
+        <v>1000000000000010000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000001000000010000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000001000000110000000100000100000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000001000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000001000000000000000100</v>
+      </c>
+      <c r="D20" t="s">
         <v>158</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>158</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>159</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
         <v>0</v>
       </c>
@@ -6779,33 +6935,41 @@
       <c r="M20">
         <v>0</v>
       </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A20)</f>
         <v>0000000000000000000000000000000000001000001000000000000000000000100000000010101000101100001010010101001011010110001110011100100000101110100001011011001011010101111111</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="str">
+        <f>_xll.NCDK(B$1,$A21)</f>
+        <v>0000000000000000000000001000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000001000100000000000100000010000000000000000001000000000000000000000000000000000000000000000000000000000000000100000000100000000000000000000100000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000100000000000000000000000001000000000000000000000000000000000010000000000000000010000010000010000000000100000000000000000000000000000001000000010000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000001010000000000000000000110000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>_xll.NCDK_ECFP2($A21)</f>
+        <v>0000000000000000000000001000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000001000100000000000100000010000000000000000001000000000000000000000000000000000000000000000000000000000000000100000000100000000000000000000100000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000100000000000000000000000001000000000000000000000000000000000010000000000000000010000010000010000000000100000000000000000000000000000001000000010000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000001010000000000000000000110000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="D21" t="s">
         <v>161</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>161</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>162</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
@@ -6836,7 +7000,13 @@
       <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A21)</f>
         <v>0000000000000000000000000000000001001111000000010010001001111101101010001010101110101001100110111111010011010101100010011101101001000001101101111101110011110111111110</v>
       </c>
@@ -6851,8 +7021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1647DD59-D041-4640-9111-9E35EC2330E5}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/NCDK-Excel/ExcelNCDK-Test.xlsx
+++ b/NCDK-Excel/ExcelNCDK-Test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6492234-0E7F-4899-8503-90C148CA60B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEDA7A9-1669-4197-A75D-E74459BB78A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="407" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptors" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="173">
   <si>
     <t>CC(=O)O</t>
     <phoneticPr fontId="1"/>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>VAdjMa</t>
-  </si>
-  <si>
-    <t>Weight</t>
   </si>
   <si>
     <t>WeightedPath</t>
@@ -1816,11 +1813,43 @@
     <t>ECFP2</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>MolecularWeight</t>
+  </si>
+  <si>
+    <t>ExactMass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Molecular Weight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exact Mass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPlogP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MACCSFingerprinter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XLogP</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1857,11 +1886,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1890,21 +1922,21 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1571844</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1019317</xdr:rowOff>
+      <xdr:colOff>1870283</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="NCDK-Picture 1">
+        <xdr:cNvPr id="139" name="NCDK-Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7096EE-34AB-49CC-A9FC-49D2D01851BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231E937A-5F92-41FF-BEB6-4D0B1F73C48E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1922,7 +1954,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="857250" y="228600"/>
-          <a:ext cx="1571844" cy="1019317"/>
+          <a:ext cx="1870283" cy="1212850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1940,21 +1972,21 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>276264</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190527</xdr:rowOff>
+      <xdr:colOff>543242</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="NCDK-Picture 2">
+        <xdr:cNvPr id="141" name="NCDK-Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8027696-844A-44C7-8736-8836EA959C48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC65AF16-C184-49DA-A021-2BCAC3980BB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1972,7 +2004,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="857250" y="1441450"/>
-          <a:ext cx="276264" cy="190527"/>
+          <a:ext cx="543242" cy="374650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1990,21 +2022,21 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1495634</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>533474</xdr:rowOff>
+      <xdr:colOff>2136324</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="NCDK-Picture 3">
+        <xdr:cNvPr id="143" name="NCDK-Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACE9196-6F9D-4CDF-92F5-A341065F7F70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC00FF74-C38B-42C7-8291-C82AA6BF1B1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2022,7 +2054,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="857250" y="1816100"/>
-          <a:ext cx="1495634" cy="533474"/>
+          <a:ext cx="2136324" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2040,21 +2072,21 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>514422</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>581106</xdr:rowOff>
+      <xdr:colOff>652073</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="NCDK-Picture 4">
+        <xdr:cNvPr id="145" name="NCDK-Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04298DA9-5207-4578-8F40-9CEA740943C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98053E5-E1EF-4612-9599-F3E7B9B48A29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2072,7 +2104,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="857250" y="2578100"/>
-          <a:ext cx="514422" cy="581106"/>
+          <a:ext cx="652073" cy="736600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2090,21 +2122,21 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>514422</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>828791</xdr:rowOff>
+      <xdr:colOff>603031</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="NCDK-Picture 5">
+        <xdr:cNvPr id="147" name="NCDK-Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B956E7D0-23C2-45AB-A384-8B949E76144F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3950DC8F-1781-48BA-AF22-3EA0BE4292C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2122,7 +2154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="857250" y="3314700"/>
-          <a:ext cx="514422" cy="828791"/>
+          <a:ext cx="603031" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2140,21 +2172,21 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>581106</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>657317</xdr:rowOff>
+      <xdr:colOff>785927</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="NCDK-Picture 6">
+        <xdr:cNvPr id="149" name="NCDK-Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7BAFBE-5F5A-4D36-8443-86C1DC61A475}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7333B961-CFC0-4E84-A89A-E5AE69943850}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2172,7 +2204,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="857250" y="4286250"/>
-          <a:ext cx="581106" cy="657317"/>
+          <a:ext cx="785927" cy="889000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2186,25 +2218,25 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>127457</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2838846</xdr:rowOff>
+      <xdr:rowOff>2728434</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="NCDK-Picture 7">
+        <xdr:cNvPr id="151" name="NCDK-Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98CBAD5-CBA1-46E7-80E2-7FF5347693DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087E184A-68D8-44A8-AAD3-F49AC1CA9407}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2221,8 +2253,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="5175250"/>
-          <a:ext cx="3277057" cy="2838846"/>
+          <a:off x="857250" y="5175251"/>
+          <a:ext cx="3149600" cy="2728433"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2234,27 +2266,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2695951</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1933845</xdr:rowOff>
+      <xdr:colOff>2974428</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="NCDK-Picture 8">
+        <xdr:cNvPr id="153" name="NCDK-Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB2BF226-025E-4046-814D-A60540D4F75F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C6C754-28F1-4248-9935-72CC127F6E1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2271,8 +2303,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="8172450"/>
-          <a:ext cx="2695951" cy="1933845"/>
+          <a:off x="857251" y="8172450"/>
+          <a:ext cx="2974427" cy="2133600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2547,11 +2579,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B185B08-1BAB-4052-951E-1A2BC1F97D8F}">
-  <dimension ref="A1:BV11"/>
+  <dimension ref="A1:BZ11"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2559,244 +2589,261 @@
     <col min="4" max="4" width="11.08203125" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" customWidth="1"/>
     <col min="6" max="23" width="6.5" customWidth="1"/>
-    <col min="25" max="26" width="8.6640625" customWidth="1"/>
+    <col min="24" max="25" width="8.1640625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" style="4" customWidth="1"/>
+    <col min="28" max="30" width="8.6640625" style="4"/>
+    <col min="31" max="31" width="8.6640625" customWidth="1"/>
+    <col min="73" max="73" width="8.6640625" style="2"/>
+    <col min="74" max="74" width="10.08203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V1" t="s">
-        <v>83</v>
-      </c>
-      <c r="W1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE1" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AF1" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AH1" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AI1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AJ1" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AL1" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AM1" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AN1" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AO1" t="s">
         <v>11</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AP1" t="s">
         <v>12</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AQ1" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AR1" t="s">
         <v>14</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AS1" t="s">
         <v>15</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AT1" t="s">
         <v>16</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AU1" t="s">
         <v>17</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AV1" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AW1" t="s">
         <v>19</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AX1" t="s">
         <v>20</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AY1" t="s">
         <v>21</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AZ1" t="s">
         <v>22</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BA1" t="s">
         <v>23</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BB1" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BC1" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BD1" t="s">
         <v>26</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BE1" t="s">
         <v>27</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BF1" t="s">
         <v>28</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BG1" t="s">
         <v>29</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BH1" t="s">
         <v>30</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BI1" t="s">
         <v>31</v>
       </c>
-      <c r="BE1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" t="s">
         <v>33</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
         <v>34</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BM1" t="s">
         <v>35</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" t="s">
         <v>36</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BO1" t="s">
         <v>37</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BP1" t="s">
         <v>38</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BQ1" t="s">
         <v>39</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BR1" t="s">
         <v>40</v>
       </c>
-      <c r="BO1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BT1" t="s">
         <v>41</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BU1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BW1" t="s">
         <v>42</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BX1" t="s">
         <v>43</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BY1" t="s">
         <v>44</v>
       </c>
-      <c r="BT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BU1" t="s">
+      <c r="BZ1" t="s">
         <v>46</v>
       </c>
-      <c r="BV1" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="str">
         <f>_xll.NCDK_MolText(B2)</f>
         <v xml:space="preserve">
-  CDK     0702190142
+       CDK0714190307
  18 19  0  0  0  0  0  0  0  0999 V2000
     0.0000    0.0000    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
     0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
@@ -2918,222 +2965,238 @@
         <f>_xll.NCDK_PubchemFingerprinter($B2)</f>
         <v>00000000011100110011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000001111000000000000100000000000000000000000000000000111000000000100000011000000000000000000000110000000000000010110000000000000000000000100010000000001000100001010100100001000000000000000000000000000000000000001000000000000000000000000000000000100000000001000000000000000000001000100000000000000000011010000010001100000100000000000001000000000000000000000010001000010100100010000010000000000000000011000110001000100011000000100011110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="2">
+        <f>_xll.NCDK_MolecularWeight(B2)</f>
+        <v>250.29412142388836</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>_xll.NCDK_ExactMass(B2)</f>
+        <v>250.13174243599997</v>
+      </c>
+      <c r="Z2">
         <f>_xll.NCDK_AcidicGroupCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="Y2">
+      <c r="AA2" s="4">
         <f>_xll.NCDK_ALogP(B2)</f>
-        <v>-1.2114000000000014</v>
-      </c>
-      <c r="Z2">
+        <v>2.1996999999999991</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>_xll.NCDK_XLogP(B2)</f>
+        <v>2.1759999999999997</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>_xll.NCDK_MannholdLogP(B2)</f>
+        <v>2.34</v>
+      </c>
+      <c r="AD2" s="4">
+        <f>_xll.NCDK_JPlogP(B2)</f>
+        <v>1.7050260777332682</v>
+      </c>
+      <c r="AE2">
         <f>_xll.NCDK_AMolarRefractivity(B2)</f>
-        <v>59.947099999999999</v>
-      </c>
-      <c r="AA2">
+        <v>66.252700000000004</v>
+      </c>
+      <c r="AF2">
         <f>_xll.NCDK_APol(B2)</f>
         <v>39.488274000000011</v>
       </c>
-      <c r="AB2">
+      <c r="AG2">
         <f>_xll.NCDK_AromaticAtomsCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AC2">
+      <c r="AH2">
         <f>_xll.NCDK_AromaticBondsCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AD2">
+      <c r="AI2">
         <f>_xll.NCDK_AtomCount(B2)</f>
         <v>36</v>
       </c>
-      <c r="AE2" t="str">
+      <c r="AJ2" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B2)</f>
         <v>0.482364049323966, -0.239230483102807, 0.193743260003086, -0.422975414094056, 0.245070516996786</v>
       </c>
-      <c r="AF2" t="str">
+      <c r="AK2" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B2)</f>
         <v>21.0433677091758, 20.6610036641195, 30.570374510169, 39.3180113704083, 36.7520657397667</v>
       </c>
-      <c r="AG2" t="str">
+      <c r="AL2" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B2)</f>
         <v>1236.72445709937, 1455.26096710327, 2067.09825744824, 2452.45202784668, 1776.45546782422</v>
       </c>
-      <c r="AH2">
+      <c r="AM2">
         <f>_xll.NCDK_BasicGroupCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AI2" t="str">
+      <c r="AN2" t="str">
         <f>_xll.NCDK_BCUT(B2)</f>
         <v>11.89, 15.9969274797474, -0.279527566151374, 0.285306450703295, 4.45516607690972, 12.225254833975</v>
       </c>
-      <c r="AJ2">
+      <c r="AO2">
         <f>_xll.NCDK_BondCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
         <f>_xll.NCDK_BPol(B2)</f>
         <v>23.871725999999995</v>
       </c>
-      <c r="AL2" t="str">
+      <c r="AQ2" t="str">
         <f>_xll.NCDK_CarbonTypes(B2)</f>
         <v>0, 0, 2, 1, 1, 1, 6, 0, 1</v>
       </c>
-      <c r="AM2" t="str">
+      <c r="AR2" t="str">
         <f>_xll.NCDK_ChiChain(B2)</f>
         <v>0, 0, 0, 0.0481125224324688, 0.206136035947173, 0, 0, 0, 0.015625, 0.0379976820715334</v>
       </c>
-      <c r="AN2" t="str">
+      <c r="AS2" t="str">
         <f>_xll.NCDK_ChiCluster(B2)</f>
         <v>1.29103942781429, 0.0680413817439772, 0.635379749451514, 0.130245735736926, 0.58282022448487, 0.0441941738241592, 0.195368603605389, 0.0360843918243516</v>
       </c>
-      <c r="AO2" t="str">
+      <c r="AT2" t="str">
         <f>_xll.NCDK_ChiPathCluster(B2)</f>
         <v>3.75820832838601, 7.24003474940441, 9.47142848690227, 1.60201233255417, 2.48389505922722, 2.76623804293011</v>
       </c>
-      <c r="AP2" t="str">
+      <c r="AU2" t="str">
         <f>_xll.NCDK_ChiPath(B2)</f>
         <v>13.1733621074374, 8.60822612591632, 7.53308445980525, 6.57446305443147, 5.83502554474493, 3.66414268256136, 2.81639208561656, 1.24750715936873, 10.5447358277005, 6.47350942312757, 4.82495377161152, 3.84884458919458, 2.7963481600948, 1.78170696456175, 1.19223951604789, 0.520731228864019</v>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AV2" t="str">
         <f>_xll.NCDK_CPSA(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="AR2">
+      <c r="AW2">
         <f>_xll.NCDK_EccentricConnectivityIndex(B2)</f>
         <v>226</v>
       </c>
-      <c r="AS2">
+      <c r="AX2">
         <f>_xll.NCDK_FMF(B2)</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="AT2">
+      <c r="AY2">
         <f>_xll.NCDK_FractionalPSA(B2)</f>
         <v>0.30092142334124705</v>
       </c>
-      <c r="AU2">
+      <c r="AZ2">
         <f>_xll.NCDK_FragmentComplexity(B2)</f>
         <v>1063.05</v>
       </c>
-      <c r="AV2" t="str">
+      <c r="BA2" t="str">
         <f>_xll.NCDK_GravitationalIndex(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW2">
+      <c r="BB2">
         <f>_xll.NCDK_HBondAcceptorCount(B2)</f>
         <v>5</v>
       </c>
-      <c r="AX2">
+      <c r="BC2">
         <f>_xll.NCDK_HBondDonorCount(B2)</f>
         <v>2</v>
       </c>
-      <c r="AY2">
+      <c r="BD2">
         <f>_xll.NCDK_HybridizationRatio(B2)</f>
         <v>0.61538461538461542</v>
       </c>
-      <c r="AZ2" t="str">
+      <c r="BE2" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B2)</f>
         <v>14.409972299169, 5.96982167352538, 2.65927977839335</v>
       </c>
-      <c r="BA2" t="str">
+      <c r="BF2" t="str">
         <f>_xll.NCDK_KierHallSmarts(B2)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 6, 0, 1, 0, 0, 0, 0, 4, 0, 0, 1, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BB2">
+      <c r="BG2">
         <f>_xll.NCDK_LargestChain(B2)</f>
         <v>2</v>
       </c>
-      <c r="BC2">
+      <c r="BH2">
         <f>_xll.NCDK_LargestPiSystem(B2)</f>
         <v>8</v>
       </c>
-      <c r="BD2" t="str">
+      <c r="BI2" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE2">
+      <c r="BJ2">
         <f>_xll.NCDK_LongestAliphaticChain(B2)</f>
         <v>2</v>
       </c>
-      <c r="BF2">
-        <f>_xll.NCDK_MannholdLogP(B2)</f>
-        <v>2.34</v>
-      </c>
-      <c r="BG2" t="str">
+      <c r="BK2" t="str">
         <f>_xll.NCDK_MDE(B2)</f>
         <v>0, 1.78256861348341, 1.17348231572452, 0.5, 9.28105720195319, 8.27801156561087, 2.82326712400687, 2.67269615442102, 3.03934274260637, 0, 0.75, 0, 0, 0, 0, 0, 0.5, 0, 0</v>
       </c>
-      <c r="BH2" t="str">
+      <c r="BL2" t="str">
         <f>_xll.NCDK_MomentOfInertia(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI2">
+      <c r="BM2">
         <f>_xll.NCDK_PetitjeanNumber(B2)</f>
         <v>0.5</v>
       </c>
-      <c r="BJ2" t="str">
+      <c r="BN2" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK2">
+      <c r="BO2">
         <f>_xll.NCDK_RotatableBondsCount(B2)</f>
         <v>2</v>
       </c>
-      <c r="BL2">
+      <c r="BP2">
         <f>_xll.NCDK_RuleOfFive(B2)</f>
         <v>0</v>
       </c>
-      <c r="BM2" t="str">
+      <c r="BQ2" t="str">
         <f>_xll.NCDK_SmallRing(B2)</f>
         <v>2, 0, 2, 0, 0, 0, 0, 1, 1, 0, 0</v>
       </c>
-      <c r="BN2">
+      <c r="BR2">
         <f>_xll.NCDK_TPSA(B2)</f>
         <v>75.27000000000001</v>
       </c>
-      <c r="BO2">
+      <c r="BS2">
         <f>_xll.NCDK_VABC(B2)</f>
         <v>246.50970715028382</v>
       </c>
-      <c r="BP2">
+      <c r="BT2">
         <f>_xll.NCDK_VAdjMa(B2)</f>
         <v>5.2479275134435852</v>
       </c>
-      <c r="BQ2">
-        <f>_xll.NCDK_Weight(B2)</f>
-        <v>250.131742436</v>
-      </c>
-      <c r="BR2" t="str">
+      <c r="BU2" s="2">
+        <f>_xll.NCDK_MolecularWeight(B2)</f>
+        <v>250.29412142388836</v>
+      </c>
+      <c r="BV2" s="3">
+        <f>_xll.NCDK_ExactMass(B2)</f>
+        <v>250.13174243599997</v>
+      </c>
+      <c r="BW2" t="str">
         <f>_xll.NCDK_WeightedPath(B2)</f>
         <v>35.9822147160759, 1.99901192867088, 13.5466431850826, 7.60403910050065, 5.94260408458194</v>
       </c>
-      <c r="BS2" t="str">
+      <c r="BX2" t="str">
         <f>_xll.NCDK_WHIM(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BT2" t="str">
+      <c r="BY2" t="str">
         <f>_xll.NCDK_WienerNumbers(B2)</f>
         <v>537, 35</v>
       </c>
-      <c r="BU2">
-        <f>_xll.NCDK_XLogP(B2)</f>
-        <v>2.1759999999999997</v>
-      </c>
-      <c r="BV2">
+      <c r="BZ2">
         <f>_xll.NCDK_ZagrebIndex(B2)</f>
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="str">
         <f>_xll.NCDK_MolText(B3)</f>
         <v xml:space="preserve">
-  CDK     0603191242
+       CDK0714190307
   1  0  0  0  0  0  0  0  0  0999 V2000
     0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
 M  END
@@ -3219,214 +3282,230 @@
         <f>_xll.NCDK_PubchemFingerprinter($B3)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="2">
+        <f>_xll.NCDK_MolecularWeight(B3)</f>
+        <v>16.042498912091162</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>_xll.NCDK_ExactMass(B3)</f>
+        <v>16.031300127999998</v>
+      </c>
+      <c r="Z3">
         <f>_xll.NCDK_AcidicGroupCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="Y3">
+      <c r="AA3" s="4">
         <f>_xll.NCDK_ALogP(B3)</f>
         <v>0</v>
       </c>
-      <c r="Z3">
+      <c r="AB3" s="4">
+        <f>_xll.NCDK_XLogP(B3)</f>
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>_xll.NCDK_MannholdLogP(B3)</f>
+        <v>1.57</v>
+      </c>
+      <c r="AD3" s="4" t="e">
+        <f>_xll.NCDK_JPlogP(B3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE3">
         <f>_xll.NCDK_AMolarRefractivity(B3)</f>
         <v>0</v>
       </c>
-      <c r="AA3">
+      <c r="AF3">
         <f>_xll.NCDK_APol(B3)</f>
         <v>4.4271719999999997</v>
       </c>
-      <c r="AB3">
+      <c r="AG3">
         <f>_xll.NCDK_AromaticAtomsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AC3">
+      <c r="AH3">
         <f>_xll.NCDK_AromaticBondsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AD3">
+      <c r="AI3">
         <f>_xll.NCDK_AtomCount(B3)</f>
         <v>5</v>
       </c>
-      <c r="AE3" t="str">
+      <c r="AJ3" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B3)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AF3" t="str">
+      <c r="AK3" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B3)</f>
         <v>1, 0, 0, 0, 0</v>
       </c>
-      <c r="AG3" t="str">
+      <c r="AL3" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B3)</f>
         <v>6.822544, 0, 0, 0, 0</v>
       </c>
-      <c r="AH3">
+      <c r="AM3">
         <f>_xll.NCDK_BasicGroupCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AI3" t="str">
+      <c r="AN3" t="str">
         <f>_xll.NCDK_BCUT(B3)</f>
         <v>12, 12, -0.0779229231460157, -0.0779229231460157, 2.612, 2.612</v>
       </c>
-      <c r="AJ3">
+      <c r="AO3">
         <f>_xll.NCDK_BondCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AK3">
+      <c r="AP3">
         <f>_xll.NCDK_BPol(B3)</f>
         <v>4.3728280000000002</v>
       </c>
-      <c r="AL3" t="str">
+      <c r="AQ3" t="str">
         <f>_xll.NCDK_CarbonTypes(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AM3" t="str">
+      <c r="AR3" t="str">
         <f>_xll.NCDK_ChiChain(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AN3" t="str">
+      <c r="AS3" t="str">
         <f>_xll.NCDK_ChiCluster(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AO3" t="str">
+      <c r="AT3" t="str">
         <f>_xll.NCDK_ChiPathCluster(B3)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AP3" t="str">
+      <c r="AU3" t="str">
         <f>_xll.NCDK_ChiPath(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AQ3" t="str">
+      <c r="AV3" t="str">
         <f>_xll.NCDK_CPSA(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AR3">
+      <c r="AW3">
         <f>_xll.NCDK_EccentricConnectivityIndex(B3)</f>
         <v>0</v>
       </c>
-      <c r="AS3">
+      <c r="AX3">
         <f>_xll.NCDK_FMF(B3)</f>
         <v>0</v>
       </c>
-      <c r="AT3">
+      <c r="AY3">
         <f>_xll.NCDK_FractionalPSA(B3)</f>
         <v>0</v>
       </c>
-      <c r="AU3">
+      <c r="AZ3">
         <f>_xll.NCDK_FragmentComplexity(B3)</f>
         <v>16</v>
       </c>
-      <c r="AV3" t="str">
+      <c r="BA3" t="str">
         <f>_xll.NCDK_GravitationalIndex(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW3">
+      <c r="BB3">
         <f>_xll.NCDK_HBondAcceptorCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AX3">
+      <c r="BC3">
         <f>_xll.NCDK_HBondDonorCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AY3">
+      <c r="BD3">
         <f>_xll.NCDK_HybridizationRatio(B3)</f>
         <v>1</v>
       </c>
-      <c r="AZ3" t="str">
+      <c r="BE3" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B3)</f>
         <v>0, 0, 0</v>
       </c>
-      <c r="BA3" t="str">
+      <c r="BF3" t="str">
         <f>_xll.NCDK_KierHallSmarts(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BB3">
+      <c r="BG3">
         <f>_xll.NCDK_LargestChain(B3)</f>
         <v>0</v>
       </c>
-      <c r="BC3">
+      <c r="BH3">
         <f>_xll.NCDK_LargestPiSystem(B3)</f>
         <v>0</v>
       </c>
-      <c r="BD3" t="str">
+      <c r="BI3" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE3">
+      <c r="BJ3">
         <f>_xll.NCDK_LongestAliphaticChain(B3)</f>
         <v>0</v>
       </c>
-      <c r="BF3">
-        <f>_xll.NCDK_MannholdLogP(B3)</f>
-        <v>1.57</v>
-      </c>
-      <c r="BG3" t="str">
+      <c r="BK3" t="str">
         <f>_xll.NCDK_MDE(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH3" t="str">
+      <c r="BL3" t="str">
         <f>_xll.NCDK_MomentOfInertia(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI3">
+      <c r="BM3">
         <f>_xll.NCDK_PetitjeanNumber(B3)</f>
         <v>0</v>
       </c>
-      <c r="BJ3" t="str">
+      <c r="BN3" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK3">
+      <c r="BO3">
         <f>_xll.NCDK_RotatableBondsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="BL3">
+      <c r="BP3">
         <f>_xll.NCDK_RuleOfFive(B3)</f>
         <v>0</v>
       </c>
-      <c r="BM3" t="str">
+      <c r="BQ3" t="str">
         <f>_xll.NCDK_SmallRing(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BN3">
+      <c r="BR3">
         <f>_xll.NCDK_TPSA(B3)</f>
         <v>0</v>
       </c>
-      <c r="BO3">
+      <c r="BS3">
         <f>_xll.NCDK_VABC(B3)</f>
         <v>25.852443326666702</v>
       </c>
-      <c r="BP3">
+      <c r="BT3">
         <f>_xll.NCDK_VAdjMa(B3)</f>
         <v>0</v>
       </c>
-      <c r="BQ3">
-        <f>_xll.NCDK_Weight(B3)</f>
+      <c r="BU3" s="2">
+        <f>_xll.NCDK_MolecularWeight(B3)</f>
+        <v>16.042498912091162</v>
+      </c>
+      <c r="BV3" s="3">
+        <f>_xll.NCDK_ExactMass(B3)</f>
         <v>16.031300127999998</v>
       </c>
-      <c r="BR3" t="str">
+      <c r="BW3" t="str">
         <f>_xll.NCDK_WeightedPath(B3)</f>
         <v>1, 1, 0, 0, 0</v>
       </c>
-      <c r="BS3" t="str">
+      <c r="BX3" t="str">
         <f>_xll.NCDK_WHIM(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BT3" t="str">
+      <c r="BY3" t="str">
         <f>_xll.NCDK_WienerNumbers(B3)</f>
         <v>0, 0</v>
       </c>
-      <c r="BU3">
-        <f>_xll.NCDK_XLogP(B3)</f>
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="BV3">
+      <c r="BZ3">
         <f>_xll.NCDK_ZagrebIndex(B3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -3515,217 +3594,233 @@
         <f>_xll.NCDK_PubchemFingerprinter($B4)</f>
         <v>00000000010000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000000000000000100000001000000000000000000000100000100000000000000000000000001000000000000010000000000000000000100100000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="2">
+        <f>_xll.NCDK_MolecularWeight(B4)</f>
+        <v>60.052044664017956</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>_xll.NCDK_ExactMass(B4)</f>
+        <v>60.021129367999997</v>
+      </c>
+      <c r="Z4">
         <f>_xll.NCDK_AcidicGroupCount(B4)</f>
         <v>1</v>
       </c>
-      <c r="Y4">
+      <c r="AA4" s="4">
         <f>_xll.NCDK_ALogP(B4)</f>
         <v>-0.22990000000000016</v>
       </c>
-      <c r="Z4">
+      <c r="AB4" s="4">
+        <f>_xll.NCDK_XLogP(B4)</f>
+        <v>-0.08</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>_xll.NCDK_MannholdLogP(B4)</f>
+        <v>1.46</v>
+      </c>
+      <c r="AD4" s="4">
+        <f>_xll.NCDK_JPlogP(B4)</f>
+        <v>-0.27735415884610526</v>
+      </c>
+      <c r="AE4">
         <f>_xll.NCDK_AMolarRefractivity(B4)</f>
         <v>12.643699999999999</v>
       </c>
-      <c r="AA4">
+      <c r="AF4">
         <f>_xll.NCDK_APol(B4)</f>
         <v>7.7911719999999995</v>
       </c>
-      <c r="AB4">
+      <c r="AG4">
         <f>_xll.NCDK_AromaticAtomsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AC4">
+      <c r="AH4">
         <f>_xll.NCDK_AromaticBondsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AD4">
+      <c r="AI4">
         <f>_xll.NCDK_AtomCount(B4)</f>
         <v>8</v>
       </c>
-      <c r="AE4" t="str">
+      <c r="AJ4" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B4)</f>
         <v>0.194598407923705, -0.0910121789036757, -0.00628702505817703, 0, 0</v>
       </c>
-      <c r="AF4" t="str">
+      <c r="AK4" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B4)</f>
         <v>5.54893807108189, 3.66418395426513, 4.43865298980608, 0, 0</v>
       </c>
-      <c r="AG4" t="str">
+      <c r="AL4" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B4)</f>
         <v>58.780575625, 47.106336, 38.8410481875, 0, 0</v>
       </c>
-      <c r="AH4">
+      <c r="AM4">
         <f>_xll.NCDK_BasicGroupCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AI4" t="str">
+      <c r="AN4" t="str">
         <f>_xll.NCDK_BCUT(B4)</f>
         <v>11.9966879762366, 15.9982572603197, -0.351666803410558, 0.275648439067482, 3.09299617864267, 4.35788090208676</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <f>_xll.NCDK_BondCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
         <f>_xll.NCDK_BPol(B4)</f>
         <v>5.3308280000000003</v>
       </c>
-      <c r="AL4" t="str">
+      <c r="AQ4" t="str">
         <f>_xll.NCDK_CarbonTypes(B4)</f>
         <v>0, 0, 1, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="AM4" t="str">
+      <c r="AR4" t="str">
         <f>_xll.NCDK_ChiChain(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AN4" t="str">
+      <c r="AS4" t="str">
         <f>_xll.NCDK_ChiCluster(B4)</f>
         <v>0.577350269189626, 0, 0, 0, 0.0912870929175277, 0, 0, 0</v>
       </c>
-      <c r="AO4" t="str">
+      <c r="AT4" t="str">
         <f>_xll.NCDK_ChiPathCluster(B4)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AP4" t="str">
+      <c r="AU4" t="str">
         <f>_xll.NCDK_ChiPath(B4)</f>
         <v>3.57735026918963, 1.73205080756888, 1.73205080756888, 0, 0, 0, 0, 0, 2.35546188596382, 0.927730942981911, 0.519018035899438, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AQ4" t="str">
+      <c r="AV4" t="str">
         <f>_xll.NCDK_CPSA(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="AR4">
+      <c r="AW4">
         <f>_xll.NCDK_EccentricConnectivityIndex(B4)</f>
         <v>9</v>
       </c>
-      <c r="AS4">
+      <c r="AX4">
         <f>_xll.NCDK_FMF(B4)</f>
         <v>0</v>
       </c>
-      <c r="AT4">
+      <c r="AY4">
         <f>_xll.NCDK_FractionalPSA(B4)</f>
         <v>0.62144781967398288</v>
       </c>
-      <c r="AU4">
+      <c r="AZ4">
         <f>_xll.NCDK_FragmentComplexity(B4)</f>
         <v>37.020000000000003</v>
       </c>
-      <c r="AV4" t="str">
+      <c r="BA4" t="str">
         <f>_xll.NCDK_GravitationalIndex(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW4">
+      <c r="BB4">
         <f>_xll.NCDK_HBondAcceptorCount(B4)</f>
         <v>2</v>
       </c>
-      <c r="AX4">
+      <c r="BC4">
         <f>_xll.NCDK_HBondDonorCount(B4)</f>
         <v>1</v>
       </c>
-      <c r="AY4">
+      <c r="BD4">
         <f>_xll.NCDK_HybridizationRatio(B4)</f>
         <v>0.5</v>
       </c>
-      <c r="AZ4" t="str">
+      <c r="BE4" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B4)</f>
         <v>4, 1.33333333333333, #N/A</v>
       </c>
-      <c r="BA4" t="str">
+      <c r="BF4" t="str">
         <f>_xll.NCDK_KierHallSmarts(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BB4">
+      <c r="BG4">
         <f>_xll.NCDK_LargestChain(B4)</f>
         <v>3</v>
       </c>
-      <c r="BC4">
+      <c r="BH4">
         <f>_xll.NCDK_LargestPiSystem(B4)</f>
         <v>2</v>
       </c>
-      <c r="BD4" t="str">
+      <c r="BI4" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE4">
+      <c r="BJ4">
         <f>_xll.NCDK_LongestAliphaticChain(B4)</f>
         <v>2</v>
       </c>
-      <c r="BF4">
-        <f>_xll.NCDK_MannholdLogP(B4)</f>
-        <v>1.46</v>
-      </c>
-      <c r="BG4" t="str">
+      <c r="BK4" t="str">
         <f>_xll.NCDK_MDE(B4)</f>
         <v>0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0.5, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH4" t="str">
+      <c r="BL4" t="str">
         <f>_xll.NCDK_MomentOfInertia(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI4">
+      <c r="BM4">
         <f>_xll.NCDK_PetitjeanNumber(B4)</f>
         <v>0.5</v>
       </c>
-      <c r="BJ4" t="str">
+      <c r="BN4" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK4">
+      <c r="BO4">
         <f>_xll.NCDK_RotatableBondsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="BL4">
+      <c r="BP4">
         <f>_xll.NCDK_RuleOfFive(B4)</f>
         <v>0</v>
       </c>
-      <c r="BM4" t="str">
+      <c r="BQ4" t="str">
         <f>_xll.NCDK_SmallRing(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BN4">
+      <c r="BR4">
         <f>_xll.NCDK_TPSA(B4)</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="BO4">
+      <c r="BS4">
         <f>_xll.NCDK_VABC(B4)</f>
         <v>58.092422652855603</v>
       </c>
-      <c r="BP4">
+      <c r="BT4">
         <f>_xll.NCDK_VAdjMa(B4)</f>
         <v>2.5849625007211561</v>
       </c>
-      <c r="BQ4">
-        <f>_xll.NCDK_Weight(B4)</f>
-        <v>60.021129368000004</v>
-      </c>
-      <c r="BR4" t="str">
+      <c r="BU4" s="2">
+        <f>_xll.NCDK_MolecularWeight(B4)</f>
+        <v>60.052044664017956</v>
+      </c>
+      <c r="BV4" s="3">
+        <f>_xll.NCDK_ExactMass(B4)</f>
+        <v>60.021129367999997</v>
+      </c>
+      <c r="BW4" t="str">
         <f>_xll.NCDK_WeightedPath(B4)</f>
         <v>6.73205080756888, 1.68301270189222, 4.48803387171259, 4.48803387171259, 0</v>
       </c>
-      <c r="BS4" t="str">
+      <c r="BX4" t="str">
         <f>_xll.NCDK_WHIM(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BT4" t="str">
+      <c r="BY4" t="str">
         <f>_xll.NCDK_WienerNumbers(B4)</f>
         <v>9, 0</v>
       </c>
-      <c r="BU4">
-        <f>_xll.NCDK_XLogP(B4)</f>
-        <v>-0.08</v>
-      </c>
-      <c r="BV4">
+      <c r="BZ4">
         <f>_xll.NCDK_ZagrebIndex(B4)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="str">
         <f>_xll.NCDK_InChI(B5)</f>
@@ -3811,217 +3906,233 @@
         <f>_xll.NCDK_PubchemFingerprinter($B5)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001100000000000000000000000000000000000000000000000100000000000100000000001000000000000001100000000000010000000000000000000000000000000100000000000000000100000010000100000000000000000000000100000000000000000001000000000000000000000000010001000100000000000000000000000000010001000000010000010000000100010100000000001000100010000100000000010000000000000001000001000000000000000000010001000100000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="2">
+        <f>_xll.NCDK_MolecularWeight(B5)</f>
+        <v>78.112059903682749</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>_xll.NCDK_ExactMass(B5)</f>
+        <v>78.046950191999997</v>
+      </c>
+      <c r="Z5">
         <f>_xll.NCDK_AcidicGroupCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="Y5">
+      <c r="AA5" s="4">
         <f>_xll.NCDK_ALogP(B5)</f>
         <v>1.8299999999999996</v>
       </c>
-      <c r="Z5">
+      <c r="AB5" s="4">
+        <f>_xll.NCDK_XLogP(B5)</f>
+        <v>2.0220000000000002</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>_xll.NCDK_MannholdLogP(B5)</f>
+        <v>2.12</v>
+      </c>
+      <c r="AD5" s="4">
+        <f>_xll.NCDK_JPlogP(B5)</f>
+        <v>1.8466303941078017</v>
+      </c>
+      <c r="AE5">
         <f>_xll.NCDK_AMolarRefractivity(B5)</f>
         <v>26.058</v>
       </c>
-      <c r="AA5">
+      <c r="AF5">
         <f>_xll.NCDK_APol(B5)</f>
         <v>14.560758</v>
       </c>
-      <c r="AB5">
+      <c r="AG5">
         <f>_xll.NCDK_AromaticAtomsCount(B5)</f>
         <v>6</v>
       </c>
-      <c r="AC5">
+      <c r="AH5">
         <f>_xll.NCDK_AromaticBondsCount(B5)</f>
         <v>6</v>
       </c>
-      <c r="AD5">
+      <c r="AI5">
         <f>_xll.NCDK_AtomCount(B5)</f>
         <v>12</v>
       </c>
-      <c r="AE5" t="str">
+      <c r="AJ5" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B5)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AF5" t="str">
+      <c r="AK5" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B5)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AG5" t="str">
+      <c r="AL5" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B5)</f>
         <v>233.87838834375, 233.87838834375, 233.87838834375, 116.939194171875, 0</v>
       </c>
-      <c r="AH5">
+      <c r="AM5">
         <f>_xll.NCDK_BasicGroupCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AI5" t="str">
+      <c r="AN5" t="str">
         <f>_xll.NCDK_BCUT(B5)</f>
         <v>11.85, 12.1500544016358, -0.211758152069243, 0.0882962495665529, 6.093375, 6.3934294016358</v>
       </c>
-      <c r="AJ5">
+      <c r="AO5">
         <f>_xll.NCDK_BondCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AK5">
+      <c r="AP5">
         <f>_xll.NCDK_BPol(B5)</f>
         <v>6.5592419999999994</v>
       </c>
-      <c r="AL5" t="str">
+      <c r="AQ5" t="str">
         <f>_xll.NCDK_CarbonTypes(B5)</f>
         <v>0, 0, 0, 6, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AM5" t="str">
+      <c r="AR5" t="str">
         <f>_xll.NCDK_ChiChain(B5)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.037037037037037, 0</v>
       </c>
-      <c r="AN5" t="str">
+      <c r="AS5" t="str">
         <f>_xll.NCDK_ChiCluster(B5)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AO5" t="str">
+      <c r="AT5" t="str">
         <f>_xll.NCDK_ChiPathCluster(B5)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AP5" t="str">
+      <c r="AU5" t="str">
         <f>_xll.NCDK_ChiPath(B5)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 3.46410161513775, 2, 1.15470053837925, 0.666666666666667, 0.384900179459751, 0.222222222222222, 0, 0</v>
       </c>
-      <c r="AQ5" t="str">
+      <c r="AV5" t="str">
         <f>_xll.NCDK_CPSA(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="AR5">
+      <c r="AW5">
         <f>_xll.NCDK_EccentricConnectivityIndex(B5)</f>
         <v>36</v>
       </c>
-      <c r="AS5">
+      <c r="AX5">
         <f>_xll.NCDK_FMF(B5)</f>
         <v>1</v>
       </c>
-      <c r="AT5">
+      <c r="AY5">
         <f>_xll.NCDK_FractionalPSA(B5)</f>
         <v>0</v>
       </c>
-      <c r="AU5">
+      <c r="AZ5">
         <f>_xll.NCDK_FragmentComplexity(B5)</f>
         <v>114</v>
       </c>
-      <c r="AV5" t="str">
+      <c r="BA5" t="str">
         <f>_xll.NCDK_GravitationalIndex(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW5">
+      <c r="BB5">
         <f>_xll.NCDK_HBondAcceptorCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AX5">
+      <c r="BC5">
         <f>_xll.NCDK_HBondDonorCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AY5">
+      <c r="BD5">
         <f>_xll.NCDK_HybridizationRatio(B5)</f>
         <v>0</v>
       </c>
-      <c r="AZ5" t="str">
+      <c r="BE5" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B5)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="BA5" t="str">
+      <c r="BF5" t="str">
         <f>_xll.NCDK_KierHallSmarts(B5)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BB5">
+      <c r="BG5">
         <f>_xll.NCDK_LargestChain(B5)</f>
         <v>0</v>
       </c>
-      <c r="BC5">
+      <c r="BH5">
         <f>_xll.NCDK_LargestPiSystem(B5)</f>
         <v>6</v>
       </c>
-      <c r="BD5" t="str">
+      <c r="BI5" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE5">
+      <c r="BJ5">
         <f>_xll.NCDK_LongestAliphaticChain(B5)</f>
         <v>0</v>
       </c>
-      <c r="BF5">
-        <f>_xll.NCDK_MannholdLogP(B5)</f>
-        <v>2.12</v>
-      </c>
-      <c r="BG5" t="str">
+      <c r="BK5" t="str">
         <f>_xll.NCDK_MDE(B5)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH5" t="str">
+      <c r="BL5" t="str">
         <f>_xll.NCDK_MomentOfInertia(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI5">
+      <c r="BM5">
         <f>_xll.NCDK_PetitjeanNumber(B5)</f>
         <v>0</v>
       </c>
-      <c r="BJ5" t="str">
+      <c r="BN5" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK5">
+      <c r="BO5">
         <f>_xll.NCDK_RotatableBondsCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="BL5">
+      <c r="BP5">
         <f>_xll.NCDK_RuleOfFive(B5)</f>
         <v>0</v>
       </c>
-      <c r="BM5" t="str">
+      <c r="BQ5" t="str">
         <f>_xll.NCDK_SmallRing(B5)</f>
         <v>1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BN5">
+      <c r="BR5">
         <f>_xll.NCDK_TPSA(B5)</f>
         <v>0</v>
       </c>
-      <c r="BO5">
+      <c r="BS5">
         <f>_xll.NCDK_VABC(B5)</f>
         <v>81.166531652800174</v>
       </c>
-      <c r="BP5">
+      <c r="BT5">
         <f>_xll.NCDK_VAdjMa(B5)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BQ5">
-        <f>_xll.NCDK_Weight(B5)</f>
+      <c r="BU5" s="2">
+        <f>_xll.NCDK_MolecularWeight(B5)</f>
+        <v>78.112059903682749</v>
+      </c>
+      <c r="BV5" s="3">
+        <f>_xll.NCDK_ExactMass(B5)</f>
         <v>78.046950191999997</v>
       </c>
-      <c r="BR5" t="str">
+      <c r="BW5" t="str">
         <f>_xll.NCDK_WeightedPath(B5)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BS5" t="str">
+      <c r="BX5" t="str">
         <f>_xll.NCDK_WHIM(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BT5" t="str">
+      <c r="BY5" t="str">
         <f>_xll.NCDK_WienerNumbers(B5)</f>
         <v>27, 3</v>
       </c>
-      <c r="BU5">
-        <f>_xll.NCDK_XLogP(B5)</f>
-        <v>2.0220000000000002</v>
-      </c>
-      <c r="BV5">
+      <c r="BZ5">
         <f>_xll.NCDK_ZagrebIndex(B5)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
         <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
       </c>
       <c r="C6" t="str">
         <f>_xll.NCDK_InChI(B6)</f>
@@ -4107,221 +4218,237 @@
         <f>_xll.NCDK_PubchemFingerprinter($B6)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001100000000000000000000000000000000000000000000000110000000000100000000001100000000000001100100000000010000000000000000000000000000000100000000000001000100000010000100000000000000000000000100000000000000000001000000000000000000000000010001000100000000000000000000000000010001000000010000010000000100010100000000001000100010000100000000010000000000000001000001000000000000000000010001000100000000111000000001000000000000000000011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="2">
+        <f>_xll.NCDK_MolecularWeight(B6)</f>
+        <v>92.13867730812234</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>_xll.NCDK_ExactMass(B6)</f>
+        <v>92.062600255999996</v>
+      </c>
+      <c r="Z6">
         <f>_xll.NCDK_AcidicGroupCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="Y6">
+      <c r="AA6" s="4">
         <f>_xll.NCDK_ALogP(B6)</f>
         <v>2.3162000000000003</v>
       </c>
-      <c r="Z6">
+      <c r="AB6" s="4">
+        <f>_xll.NCDK_XLogP(B6)</f>
+        <v>2.4590000000000001</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>_xll.NCDK_MannholdLogP(B6)</f>
+        <v>2.23</v>
+      </c>
+      <c r="AD6" s="4">
+        <f>_xll.NCDK_JPlogP(B6)</f>
+        <v>2.3300074064489729</v>
+      </c>
+      <c r="AE6">
         <f>_xll.NCDK_AMolarRefractivity(B6)</f>
         <v>31.0992</v>
       </c>
-      <c r="AA6">
+      <c r="AF6">
         <f>_xll.NCDK_APol(B6)</f>
         <v>17.654343999999998</v>
       </c>
-      <c r="AB6">
+      <c r="AG6">
         <f>_xll.NCDK_AromaticAtomsCount(B6)</f>
         <v>6</v>
       </c>
-      <c r="AC6">
+      <c r="AH6">
         <f>_xll.NCDK_AromaticBondsCount(B6)</f>
         <v>6</v>
       </c>
-      <c r="AD6">
+      <c r="AI6">
         <f>_xll.NCDK_AtomCount(B6)</f>
         <v>15</v>
       </c>
-      <c r="AE6" t="str">
+      <c r="AJ6" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B6)</f>
         <v>0.00145821501522747, -0.000488055819316601, -0.000225165712015084, -1.53979004755717E-05, -4.88075806479512E-07</v>
       </c>
-      <c r="AF6" t="str">
+      <c r="AK6" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B6)</f>
         <v>7, 7, 8, 5, 1</v>
       </c>
-      <c r="AG6" t="str">
+      <c r="AL6" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B6)</f>
         <v>310.962687273438, 320.438287539063, 355.858255328125, 213.793837835938, 36.9196446054688</v>
       </c>
-      <c r="AH6">
+      <c r="AM6">
         <f>_xll.NCDK_BasicGroupCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AI6" t="str">
+      <c r="AN6" t="str">
         <f>_xll.NCDK_BCUT(B6)</f>
         <v>11.89, 12.1100942558098, -0.155208136358149, 0.0651359477608963, 5.76122693815409, 7.50783741355056</v>
       </c>
-      <c r="AJ6">
+      <c r="AO6">
         <f>_xll.NCDK_BondCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AK6">
+      <c r="AP6">
         <f>_xll.NCDK_BPol(B6)</f>
         <v>8.7456560000000003</v>
       </c>
-      <c r="AL6" t="str">
+      <c r="AQ6" t="str">
         <f>_xll.NCDK_CarbonTypes(B6)</f>
         <v>0, 0, 0, 5, 1, 1, 0, 0, 0</v>
       </c>
-      <c r="AM6" t="str">
+      <c r="AR6" t="str">
         <f>_xll.NCDK_ChiChain(B6)</f>
         <v>0, 0, 0, 0.102062072615966, 0.102062072615966, 0, 0, 0, 0.0320750149549792, 0.0320750149549792</v>
       </c>
-      <c r="AN6" t="str">
+      <c r="AS6" t="str">
         <f>_xll.NCDK_ChiCluster(B6)</f>
         <v>0.288675134594813, 0, 0, 0, 0.166666666666667, 0, 0, 0</v>
       </c>
-      <c r="AO6" t="str">
+      <c r="AT6" t="str">
         <f>_xll.NCDK_ChiPathCluster(B6)</f>
         <v>0.408248290463863, 0.433012701892219, 0.408248290463863, 0.192450089729875, 0.166666666666667, 0.128300059819917</v>
       </c>
-      <c r="AP6" t="str">
+      <c r="AU6" t="str">
         <f>_xll.NCDK_ChiPath(B6)</f>
         <v>5.11288417512236, 3.39384685011735, 2.74318215649199, 1.89384685011735, 1.30671282224753, 0.901047570290607, 0.204124145231932, 0, 4.38675134594813, 2.41068360252296, 1.65470053837925, 0.940455735015306, 0.534377897417612, 0.303561200840986, 0.0641500299099584, 0</v>
       </c>
-      <c r="AQ6" t="str">
+      <c r="AV6" t="str">
         <f>_xll.NCDK_CPSA(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="AR6">
+      <c r="AW6">
         <f>_xll.NCDK_EccentricConnectivityIndex(B6)</f>
         <v>45</v>
       </c>
-      <c r="AS6">
+      <c r="AX6">
         <f>_xll.NCDK_FMF(B6)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="AT6">
+      <c r="AY6">
         <f>_xll.NCDK_FractionalPSA(B6)</f>
         <v>0</v>
       </c>
-      <c r="AU6">
+      <c r="AZ6">
         <f>_xll.NCDK_FragmentComplexity(B6)</f>
         <v>183</v>
       </c>
-      <c r="AV6" t="str">
+      <c r="BA6" t="str">
         <f>_xll.NCDK_GravitationalIndex(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW6">
+      <c r="BB6">
         <f>_xll.NCDK_HBondAcceptorCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AX6">
+      <c r="BC6">
         <f>_xll.NCDK_HBondDonorCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AY6">
+      <c r="BD6">
         <f>_xll.NCDK_HybridizationRatio(B6)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AZ6" t="str">
+      <c r="BE6" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B6)</f>
         <v>5.14285714285714, 2.34375, 1.5</v>
       </c>
-      <c r="BA6" t="str">
+      <c r="BF6" t="str">
         <f>_xll.NCDK_KierHallSmarts(B6)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 5, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BB6">
+      <c r="BG6">
         <f>_xll.NCDK_LargestChain(B6)</f>
         <v>0</v>
       </c>
-      <c r="BC6">
+      <c r="BH6">
         <f>_xll.NCDK_LargestPiSystem(B6)</f>
         <v>6</v>
       </c>
-      <c r="BD6" t="str">
+      <c r="BI6" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE6">
+      <c r="BJ6">
         <f>_xll.NCDK_LongestAliphaticChain(B6)</f>
         <v>0</v>
       </c>
-      <c r="BF6">
-        <f>_xll.NCDK_MannholdLogP(B6)</f>
-        <v>2.23</v>
-      </c>
-      <c r="BG6" t="str">
+      <c r="BK6" t="str">
         <f>_xll.NCDK_MDE(B6)</f>
         <v>0, 1.85053586243577, 1, 0, 6.08364341893206, 3.04182170946603, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH6" t="str">
+      <c r="BL6" t="str">
         <f>_xll.NCDK_MomentOfInertia(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI6">
+      <c r="BM6">
         <f>_xll.NCDK_PetitjeanNumber(B6)</f>
         <v>0.25</v>
       </c>
-      <c r="BJ6" t="str">
+      <c r="BN6" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK6">
+      <c r="BO6">
         <f>_xll.NCDK_RotatableBondsCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="BL6">
+      <c r="BP6">
         <f>_xll.NCDK_RuleOfFive(B6)</f>
         <v>0</v>
       </c>
-      <c r="BM6" t="str">
+      <c r="BQ6" t="str">
         <f>_xll.NCDK_SmallRing(B6)</f>
         <v>1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BN6">
+      <c r="BR6">
         <f>_xll.NCDK_TPSA(B6)</f>
         <v>0</v>
       </c>
-      <c r="BO6">
+      <c r="BS6">
         <f>_xll.NCDK_VABC(B6)</f>
         <v>98.462516278666868</v>
       </c>
-      <c r="BP6">
+      <c r="BT6">
         <f>_xll.NCDK_VAdjMa(B6)</f>
         <v>3.8073549220576042</v>
       </c>
-      <c r="BQ6">
-        <f>_xll.NCDK_Weight(B6)</f>
+      <c r="BU6" s="2">
+        <f>_xll.NCDK_MolecularWeight(B6)</f>
+        <v>92.13867730812234</v>
+      </c>
+      <c r="BV6" s="3">
+        <f>_xll.NCDK_ExactMass(B6)</f>
         <v>92.062600255999996</v>
       </c>
-      <c r="BR6" t="str">
+      <c r="BW6" t="str">
         <f>_xll.NCDK_WeightedPath(B6)</f>
         <v>13.6768253204364, 1.95383218863377, 0, 0, 0</v>
       </c>
-      <c r="BS6" t="str">
+      <c r="BX6" t="str">
         <f>_xll.NCDK_WHIM(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BT6" t="str">
+      <c r="BY6" t="str">
         <f>_xll.NCDK_WienerNumbers(B6)</f>
         <v>42, 5</v>
       </c>
-      <c r="BU6">
-        <f>_xll.NCDK_XLogP(B6)</f>
-        <v>2.4590000000000001</v>
-      </c>
-      <c r="BV6">
+      <c r="BZ6">
         <f>_xll.NCDK_ZagrebIndex(B6)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
       </c>
       <c r="C7" t="str">
         <f>_xll.NCDK_SMILES(B7)</f>
-        <v>[C]1[C][C][C][C][C]1</v>
+        <v>C1CCCCC1</v>
       </c>
       <c r="D7">
         <f>_xll.NCDK_Tanimoto($H7,$H8)</f>
@@ -4329,7 +4456,7 @@
       </c>
       <c r="E7" t="str">
         <f>_xll.NCDK(E$1,$B7)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
       </c>
       <c r="F7" t="str">
         <f>_xll.NCDK_ECFP0($B7)</f>
@@ -4369,7 +4496,7 @@
       </c>
       <c r="O7" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B7)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>0000000010000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="P7" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B7)</f>
@@ -4385,11 +4512,11 @@
       </c>
       <c r="S7" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B7)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="T7" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B7)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
       </c>
       <c r="U7" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B7)</f>
@@ -4397,227 +4524,243 @@
       </c>
       <c r="V7" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B7)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>0100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="W7" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B7)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="2">
+        <f>_xll.NCDK_MolecularWeight(B7)</f>
+        <v>72.064415380728008</v>
+      </c>
+      <c r="Y7" s="2">
+        <f>_xll.NCDK_ExactMass(B7)</f>
+        <v>72</v>
+      </c>
+      <c r="Z7">
         <f>_xll.NCDK_AcidicGroupCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="Y7">
+      <c r="AA7" s="4">
         <f>_xll.NCDK_ALogP(B7)</f>
-        <v>-1.7280000000000006</v>
-      </c>
-      <c r="Z7">
+        <v>2.7372000000000005</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>_xll.NCDK_XLogP(B7)</f>
+        <v>3.4139999999999997</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>_xll.NCDK_MannholdLogP(B7)</f>
+        <v>2.12</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>_xll.NCDK_JPlogP(B7)</f>
+        <v>2.6952762459207973</v>
+      </c>
+      <c r="AE7">
         <f>_xll.NCDK_AMolarRefractivity(B7)</f>
-        <v>17.4696</v>
-      </c>
-      <c r="AA7">
+        <v>27.606000000000002</v>
+      </c>
+      <c r="AF7">
         <f>_xll.NCDK_APol(B7)</f>
-        <v>10.56</v>
-      </c>
-      <c r="AB7">
+        <v>18.561516000000001</v>
+      </c>
+      <c r="AG7">
         <f>_xll.NCDK_AromaticAtomsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AC7">
+      <c r="AH7">
         <f>_xll.NCDK_AromaticBondsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AD7">
+      <c r="AI7">
         <f>_xll.NCDK_AtomCount(B7)</f>
-        <v>6</v>
-      </c>
-      <c r="AE7" t="str">
+        <v>18</v>
+      </c>
+      <c r="AJ7" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B7)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AF7" t="str">
+      <c r="AK7" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B7)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AG7" t="str">
+      <c r="AL7" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B7)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AH7">
+      <c r="AM7">
         <f>_xll.NCDK_BasicGroupCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AI7" t="str">
+      <c r="AN7" t="str">
         <f>_xll.NCDK_BCUT(B7)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AJ7">
+      <c r="AO7">
         <f>_xll.NCDK_BondCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AK7">
+      <c r="AP7">
         <f>_xll.NCDK_BPol(B7)</f>
-        <v>0</v>
-      </c>
-      <c r="AL7" t="str">
+        <v>13.118483999999999</v>
+      </c>
+      <c r="AQ7" t="str">
         <f>_xll.NCDK_CarbonTypes(B7)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AM7" t="str">
+      <c r="AR7" t="str">
         <f>_xll.NCDK_ChiChain(B7)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AN7" t="str">
+      <c r="AS7" t="str">
         <f>_xll.NCDK_ChiCluster(B7)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AO7" t="str">
+      <c r="AT7" t="str">
         <f>_xll.NCDK_ChiPathCluster(B7)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AP7" t="str">
+      <c r="AU7" t="str">
         <f>_xll.NCDK_ChiPath(B7)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AQ7" t="str">
+      <c r="AV7" t="str">
         <f>_xll.NCDK_CPSA(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="AR7">
+      <c r="AW7">
         <f>_xll.NCDK_EccentricConnectivityIndex(B7)</f>
         <v>36</v>
       </c>
-      <c r="AS7">
+      <c r="AX7">
         <f>_xll.NCDK_FMF(B7)</f>
         <v>1</v>
       </c>
-      <c r="AT7">
+      <c r="AY7">
         <f>_xll.NCDK_FractionalPSA(B7)</f>
         <v>0</v>
       </c>
-      <c r="AU7">
+      <c r="AZ7">
         <f>_xll.NCDK_FragmentComplexity(B7)</f>
         <v>6</v>
       </c>
-      <c r="AV7" t="str">
+      <c r="BA7" t="str">
         <f>_xll.NCDK_GravitationalIndex(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW7">
+      <c r="BB7">
         <f>_xll.NCDK_HBondAcceptorCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AX7">
+      <c r="BC7">
         <f>_xll.NCDK_HBondDonorCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AY7">
+      <c r="BD7">
         <f>_xll.NCDK_HybridizationRatio(B7)</f>
         <v>1</v>
       </c>
-      <c r="AZ7" t="str">
+      <c r="BE7" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B7)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="BA7" t="str">
+      <c r="BF7" t="str">
         <f>_xll.NCDK_KierHallSmarts(B7)</f>
-        <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
-      </c>
-      <c r="BB7">
+        <v>0, 0, 0, 0, 0, 0, 0, 0, 6, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+      <c r="BG7">
         <f>_xll.NCDK_LargestChain(B7)</f>
-        <v>4</v>
-      </c>
-      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
         <f>_xll.NCDK_LargestPiSystem(B7)</f>
         <v>0</v>
       </c>
-      <c r="BD7" t="str">
+      <c r="BI7" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE7">
+      <c r="BJ7">
         <f>_xll.NCDK_LongestAliphaticChain(B7)</f>
         <v>0</v>
       </c>
-      <c r="BF7">
-        <f>_xll.NCDK_MannholdLogP(B7)</f>
-        <v>2.12</v>
-      </c>
-      <c r="BG7" t="str">
+      <c r="BK7" t="str">
         <f>_xll.NCDK_MDE(B7)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH7" t="str">
+      <c r="BL7" t="str">
         <f>_xll.NCDK_MomentOfInertia(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI7">
+      <c r="BM7">
         <f>_xll.NCDK_PetitjeanNumber(B7)</f>
         <v>0</v>
       </c>
-      <c r="BJ7" t="str">
+      <c r="BN7" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK7">
+      <c r="BO7">
         <f>_xll.NCDK_RotatableBondsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="BL7">
+      <c r="BP7">
         <f>_xll.NCDK_RuleOfFive(B7)</f>
         <v>0</v>
       </c>
-      <c r="BM7" t="str">
+      <c r="BQ7" t="str">
         <f>_xll.NCDK_SmallRing(B7)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BN7">
+      <c r="BR7">
         <f>_xll.NCDK_TPSA(B7)</f>
         <v>0</v>
       </c>
-      <c r="BO7">
+      <c r="BS7">
         <f>_xll.NCDK_VABC(B7)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BP7">
+      <c r="BT7">
         <f>_xll.NCDK_VAdjMa(B7)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BQ7">
-        <f>_xll.NCDK_Weight(B7)</f>
+      <c r="BU7" s="2">
+        <f>_xll.NCDK_MolecularWeight(B7)</f>
+        <v>72.064415380728008</v>
+      </c>
+      <c r="BV7" s="3">
+        <f>_xll.NCDK_ExactMass(B7)</f>
         <v>72</v>
       </c>
-      <c r="BR7" t="str">
+      <c r="BW7" t="str">
         <f>_xll.NCDK_WeightedPath(B7)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BS7" t="str">
+      <c r="BX7" t="str">
         <f>_xll.NCDK_WHIM(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BT7" t="str">
+      <c r="BY7" t="str">
         <f>_xll.NCDK_WienerNumbers(B7)</f>
         <v>27, 3</v>
       </c>
-      <c r="BU7">
-        <f>_xll.NCDK_XLogP(B7)</f>
-        <v>3.4139999999999997</v>
-      </c>
-      <c r="BV7">
+      <c r="BZ7">
         <f>_xll.NCDK_ZagrebIndex(B7)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="str">
         <f>_xll.NCDK_InChIKey(B8)</f>
-        <v>PXCDDPIOUAJVRE-UHFFFAOYSA-N</v>
+        <v>XDTMQSROBMDMFD-UHFFFAOYSA-N</v>
       </c>
       <c r="D8">
         <f>_xll.NCDK_Tanimoto($H8,$H9)</f>
@@ -4625,7 +4768,7 @@
       </c>
       <c r="E8" t="str">
         <f>_xll.NCDK(E$1,$B8)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
       </c>
       <c r="F8" t="str">
         <f>_xll.NCDK_ECFP0($B8)</f>
@@ -4665,7 +4808,7 @@
       </c>
       <c r="O8" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B8)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>0000000010000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="P8" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B8)</f>
@@ -4685,7 +4828,7 @@
       </c>
       <c r="T8" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B8)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
       </c>
       <c r="U8" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B8)</f>
@@ -4693,227 +4836,243 @@
       </c>
       <c r="V8" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B8)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>0100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="W8" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B8)</f>
-        <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="X8">
+        <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000100000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="X8" s="2">
+        <f>_xll.NCDK_MolecularWeight(B8)</f>
+        <v>72.064415380728008</v>
+      </c>
+      <c r="Y8" s="2">
+        <f>_xll.NCDK_ExactMass(B8)</f>
+        <v>72</v>
+      </c>
+      <c r="Z8">
         <f>_xll.NCDK_AcidicGroupCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="Y8">
+      <c r="AA8" s="4">
         <f>_xll.NCDK_ALogP(B8)</f>
-        <v>-1.7280000000000006</v>
-      </c>
-      <c r="Z8">
+        <v>2.7372000000000005</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>_xll.NCDK_XLogP(B8)</f>
+        <v>3.4139999999999997</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>_xll.NCDK_MannholdLogP(B8)</f>
+        <v>2.12</v>
+      </c>
+      <c r="AD8" s="4">
+        <f>_xll.NCDK_JPlogP(B8)</f>
+        <v>2.6952762459207973</v>
+      </c>
+      <c r="AE8">
         <f>_xll.NCDK_AMolarRefractivity(B8)</f>
-        <v>17.4696</v>
-      </c>
-      <c r="AA8">
+        <v>27.606000000000002</v>
+      </c>
+      <c r="AF8">
         <f>_xll.NCDK_APol(B8)</f>
-        <v>10.56</v>
-      </c>
-      <c r="AB8">
+        <v>18.561516000000001</v>
+      </c>
+      <c r="AG8">
         <f>_xll.NCDK_AromaticAtomsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AC8">
+      <c r="AH8">
         <f>_xll.NCDK_AromaticBondsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AD8">
+      <c r="AI8">
         <f>_xll.NCDK_AtomCount(B8)</f>
-        <v>18</v>
-      </c>
-      <c r="AE8" t="str">
+        <v>6</v>
+      </c>
+      <c r="AJ8" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B8)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AF8" t="str">
+      <c r="AK8" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B8)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AG8" t="str">
+      <c r="AL8" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B8)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AH8">
+      <c r="AM8">
         <f>_xll.NCDK_BasicGroupCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AI8" t="str">
+      <c r="AN8" t="str">
         <f>_xll.NCDK_BCUT(B8)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AJ8">
+      <c r="AO8">
         <f>_xll.NCDK_BondCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AK8">
+      <c r="AP8">
         <f>_xll.NCDK_BPol(B8)</f>
-        <v>13.118483999999999</v>
-      </c>
-      <c r="AL8" t="str">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="str">
         <f>_xll.NCDK_CarbonTypes(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AM8" t="str">
+      <c r="AR8" t="str">
         <f>_xll.NCDK_ChiChain(B8)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AN8" t="str">
+      <c r="AS8" t="str">
         <f>_xll.NCDK_ChiCluster(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AO8" t="str">
+      <c r="AT8" t="str">
         <f>_xll.NCDK_ChiPathCluster(B8)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AP8" t="str">
+      <c r="AU8" t="str">
         <f>_xll.NCDK_ChiPath(B8)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AQ8" t="str">
+      <c r="AV8" t="str">
         <f>_xll.NCDK_CPSA(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="AR8">
+      <c r="AW8">
         <f>_xll.NCDK_EccentricConnectivityIndex(B8)</f>
         <v>36</v>
       </c>
-      <c r="AS8">
+      <c r="AX8">
         <f>_xll.NCDK_FMF(B8)</f>
         <v>1</v>
       </c>
-      <c r="AT8">
+      <c r="AY8">
         <f>_xll.NCDK_FractionalPSA(B8)</f>
         <v>0</v>
       </c>
-      <c r="AU8">
+      <c r="AZ8">
         <f>_xll.NCDK_FragmentComplexity(B8)</f>
         <v>294</v>
       </c>
-      <c r="AV8" t="str">
+      <c r="BA8" t="str">
         <f>_xll.NCDK_GravitationalIndex(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW8">
+      <c r="BB8">
         <f>_xll.NCDK_HBondAcceptorCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AX8">
+      <c r="BC8">
         <f>_xll.NCDK_HBondDonorCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AY8">
+      <c r="BD8">
         <f>_xll.NCDK_HybridizationRatio(B8)</f>
         <v>1</v>
       </c>
-      <c r="AZ8" t="str">
+      <c r="BE8" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B8)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="BA8" t="str">
+      <c r="BF8" t="str">
         <f>_xll.NCDK_KierHallSmarts(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BB8">
+      <c r="BG8">
         <f>_xll.NCDK_LargestChain(B8)</f>
-        <v>4</v>
-      </c>
-      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
         <f>_xll.NCDK_LargestPiSystem(B8)</f>
         <v>0</v>
       </c>
-      <c r="BD8" t="str">
+      <c r="BI8" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE8">
+      <c r="BJ8">
         <f>_xll.NCDK_LongestAliphaticChain(B8)</f>
         <v>0</v>
       </c>
-      <c r="BF8">
-        <f>_xll.NCDK_MannholdLogP(B8)</f>
-        <v>2.12</v>
-      </c>
-      <c r="BG8" t="str">
+      <c r="BK8" t="str">
         <f>_xll.NCDK_MDE(B8)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH8" t="str">
+      <c r="BL8" t="str">
         <f>_xll.NCDK_MomentOfInertia(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI8">
+      <c r="BM8">
         <f>_xll.NCDK_PetitjeanNumber(B8)</f>
         <v>0</v>
       </c>
-      <c r="BJ8" t="str">
+      <c r="BN8" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK8">
+      <c r="BO8">
         <f>_xll.NCDK_RotatableBondsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="BL8">
+      <c r="BP8">
         <f>_xll.NCDK_RuleOfFive(B8)</f>
         <v>0</v>
       </c>
-      <c r="BM8" t="str">
+      <c r="BQ8" t="str">
         <f>_xll.NCDK_SmallRing(B8)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BN8">
+      <c r="BR8">
         <f>_xll.NCDK_TPSA(B8)</f>
         <v>0</v>
       </c>
-      <c r="BO8">
+      <c r="BS8">
         <f>_xll.NCDK_VABC(B8)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BP8">
+      <c r="BT8">
         <f>_xll.NCDK_VAdjMa(B8)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BQ8">
-        <f>_xll.NCDK_Weight(B8)</f>
-        <v>84.093900383999994</v>
-      </c>
-      <c r="BR8" t="str">
+      <c r="BU8" s="2">
+        <f>_xll.NCDK_MolecularWeight(B8)</f>
+        <v>72.064415380728008</v>
+      </c>
+      <c r="BV8" s="3">
+        <f>_xll.NCDK_ExactMass(B8)</f>
+        <v>72</v>
+      </c>
+      <c r="BW8" t="str">
         <f>_xll.NCDK_WeightedPath(B8)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BS8" t="str">
+      <c r="BX8" t="str">
         <f>_xll.NCDK_WHIM(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BT8" t="str">
+      <c r="BY8" t="str">
         <f>_xll.NCDK_WienerNumbers(B8)</f>
         <v>27, 3</v>
       </c>
-      <c r="BU8">
-        <f>_xll.NCDK_XLogP(B8)</f>
-        <v>3.4139999999999997</v>
-      </c>
-      <c r="BV8">
+      <c r="BZ8">
         <f>_xll.NCDK_ZagrebIndex(B8)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="str">
         <f>_xll.NCDK_InChIKey(B9)</f>
-        <v>PXCDDPIOUAJVRE-UHFFFAOYSA-N</v>
+        <v>XDTMQSROBMDMFD-UHFFFAOYSA-N</v>
       </c>
       <c r="D9">
         <f>_xll.NCDK_Tanimoto($H9,$H10)</f>
@@ -4921,7 +5080,7 @@
       </c>
       <c r="E9" t="str">
         <f>_xll.NCDK(E$1,$B9)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
       </c>
       <c r="F9" t="str">
         <f>_xll.NCDK_ECFP0($B9)</f>
@@ -4961,7 +5120,7 @@
       </c>
       <c r="O9" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B9)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>0000000010000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="P9" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B9)</f>
@@ -4981,7 +5140,7 @@
       </c>
       <c r="T9" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B9)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
       </c>
       <c r="U9" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B9)</f>
@@ -4989,223 +5148,239 @@
       </c>
       <c r="V9" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B9)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>0100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="W9" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B9)</f>
-        <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="X9">
+        <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000100000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="X9" s="2">
+        <f>_xll.NCDK_MolecularWeight(B9)</f>
+        <v>72.064415380728008</v>
+      </c>
+      <c r="Y9" s="2">
+        <f>_xll.NCDK_ExactMass(B9)</f>
+        <v>72</v>
+      </c>
+      <c r="Z9">
         <f>_xll.NCDK_AcidicGroupCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="Y9">
+      <c r="AA9" s="4">
         <f>_xll.NCDK_ALogP(B9)</f>
-        <v>-1.7280000000000006</v>
-      </c>
-      <c r="Z9">
+        <v>2.7372000000000005</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>_xll.NCDK_XLogP(B9)</f>
+        <v>3.4139999999999997</v>
+      </c>
+      <c r="AC9" s="4">
+        <f>_xll.NCDK_MannholdLogP(B9)</f>
+        <v>2.12</v>
+      </c>
+      <c r="AD9" s="4">
+        <f>_xll.NCDK_JPlogP(B9)</f>
+        <v>2.6952762459207973</v>
+      </c>
+      <c r="AE9">
         <f>_xll.NCDK_AMolarRefractivity(B9)</f>
-        <v>17.4696</v>
-      </c>
-      <c r="AA9">
+        <v>27.606000000000002</v>
+      </c>
+      <c r="AF9">
         <f>_xll.NCDK_APol(B9)</f>
-        <v>10.56</v>
-      </c>
-      <c r="AB9">
+        <v>18.561516000000001</v>
+      </c>
+      <c r="AG9">
         <f>_xll.NCDK_AromaticAtomsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AC9">
+      <c r="AH9">
         <f>_xll.NCDK_AromaticBondsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AD9">
+      <c r="AI9">
         <f>_xll.NCDK_AtomCount(B9)</f>
-        <v>18</v>
-      </c>
-      <c r="AE9" t="str">
+        <v>6</v>
+      </c>
+      <c r="AJ9" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B9)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AF9" t="str">
+      <c r="AK9" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B9)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AG9" t="str">
+      <c r="AL9" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B9)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AH9">
+      <c r="AM9">
         <f>_xll.NCDK_BasicGroupCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AI9" t="str">
+      <c r="AN9" t="str">
         <f>_xll.NCDK_BCUT(B9)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AJ9">
+      <c r="AO9">
         <f>_xll.NCDK_BondCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AK9">
+      <c r="AP9">
         <f>_xll.NCDK_BPol(B9)</f>
-        <v>13.118483999999999</v>
-      </c>
-      <c r="AL9" t="str">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="str">
         <f>_xll.NCDK_CarbonTypes(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AM9" t="str">
+      <c r="AR9" t="str">
         <f>_xll.NCDK_ChiChain(B9)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AN9" t="str">
+      <c r="AS9" t="str">
         <f>_xll.NCDK_ChiCluster(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AO9" t="str">
+      <c r="AT9" t="str">
         <f>_xll.NCDK_ChiPathCluster(B9)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AP9" t="str">
+      <c r="AU9" t="str">
         <f>_xll.NCDK_ChiPath(B9)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AQ9" t="str">
+      <c r="AV9" t="str">
         <f>_xll.NCDK_CPSA(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="AR9">
+      <c r="AW9">
         <f>_xll.NCDK_EccentricConnectivityIndex(B9)</f>
         <v>36</v>
       </c>
-      <c r="AS9">
+      <c r="AX9">
         <f>_xll.NCDK_FMF(B9)</f>
         <v>1</v>
       </c>
-      <c r="AT9">
+      <c r="AY9">
         <f>_xll.NCDK_FractionalPSA(B9)</f>
         <v>0</v>
       </c>
-      <c r="AU9">
+      <c r="AZ9">
         <f>_xll.NCDK_FragmentComplexity(B9)</f>
         <v>294</v>
       </c>
-      <c r="AV9" t="str">
+      <c r="BA9" t="str">
         <f>_xll.NCDK_GravitationalIndex(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW9">
+      <c r="BB9">
         <f>_xll.NCDK_HBondAcceptorCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AX9">
+      <c r="BC9">
         <f>_xll.NCDK_HBondDonorCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AY9">
+      <c r="BD9">
         <f>_xll.NCDK_HybridizationRatio(B9)</f>
         <v>1</v>
       </c>
-      <c r="AZ9" t="str">
+      <c r="BE9" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B9)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="BA9" t="str">
+      <c r="BF9" t="str">
         <f>_xll.NCDK_KierHallSmarts(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BB9">
+      <c r="BG9">
         <f>_xll.NCDK_LargestChain(B9)</f>
-        <v>4</v>
-      </c>
-      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
         <f>_xll.NCDK_LargestPiSystem(B9)</f>
         <v>0</v>
       </c>
-      <c r="BD9" t="str">
+      <c r="BI9" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE9">
+      <c r="BJ9">
         <f>_xll.NCDK_LongestAliphaticChain(B9)</f>
         <v>0</v>
       </c>
-      <c r="BF9">
-        <f>_xll.NCDK_MannholdLogP(B9)</f>
-        <v>2.12</v>
-      </c>
-      <c r="BG9" t="str">
+      <c r="BK9" t="str">
         <f>_xll.NCDK_MDE(B9)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH9" t="str">
+      <c r="BL9" t="str">
         <f>_xll.NCDK_MomentOfInertia(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI9">
+      <c r="BM9">
         <f>_xll.NCDK_PetitjeanNumber(B9)</f>
         <v>0</v>
       </c>
-      <c r="BJ9" t="str">
+      <c r="BN9" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK9">
+      <c r="BO9">
         <f>_xll.NCDK_RotatableBondsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="BL9">
+      <c r="BP9">
         <f>_xll.NCDK_RuleOfFive(B9)</f>
         <v>0</v>
       </c>
-      <c r="BM9" t="str">
+      <c r="BQ9" t="str">
         <f>_xll.NCDK_SmallRing(B9)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BN9">
+      <c r="BR9">
         <f>_xll.NCDK_TPSA(B9)</f>
         <v>0</v>
       </c>
-      <c r="BO9">
+      <c r="BS9">
         <f>_xll.NCDK_VABC(B9)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BP9">
+      <c r="BT9">
         <f>_xll.NCDK_VAdjMa(B9)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BQ9">
-        <f>_xll.NCDK_Weight(B9)</f>
-        <v>84.093900383999994</v>
-      </c>
-      <c r="BR9" t="str">
+      <c r="BU9" s="2">
+        <f>_xll.NCDK_MolecularWeight(B9)</f>
+        <v>72.064415380728008</v>
+      </c>
+      <c r="BV9" s="3">
+        <f>_xll.NCDK_ExactMass(B9)</f>
+        <v>72</v>
+      </c>
+      <c r="BW9" t="str">
         <f>_xll.NCDK_WeightedPath(B9)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BS9" t="str">
+      <c r="BX9" t="str">
         <f>_xll.NCDK_WHIM(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BT9" t="str">
+      <c r="BY9" t="str">
         <f>_xll.NCDK_WienerNumbers(B9)</f>
         <v>27, 3</v>
       </c>
-      <c r="BU9">
-        <f>_xll.NCDK_XLogP(B9)</f>
-        <v>3.4139999999999997</v>
-      </c>
-      <c r="BV9">
+      <c r="BZ9">
         <f>_xll.NCDK_ZagrebIndex(B9)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:74" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:78" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="str">
         <f>_xll.NCDK_SMILES(B10)</f>
@@ -5291,217 +5466,233 @@
         <f>_xll.NCDK_PubchemFingerprinter($B10)</f>
         <v>11110000011110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000001100100110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000111100010100101000001000000000000010000000100000000000000000000000000000001000000000100000000000001000100000010000100000000000000000000000000000000000000000001000000000000000000000000000000000100000000000000000000000000000001000000000000001000000000010000000000000000100000000000000000100000000000000000001001100000000000000000010000000000000000011100000001100000011110000000011111000000000000000000000000000000000000000000000000000000000000000110000000000000000000100000000000000000000100000000000000000000100000000000000000000100000000000000000000</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="2">
+        <f>_xll.NCDK_MolecularWeight(B10)</f>
+        <v>386.65454881683121</v>
+      </c>
+      <c r="Y10" s="2">
+        <f>_xll.NCDK_ExactMass(B10)</f>
+        <v>386.35486609199995</v>
+      </c>
+      <c r="Z10">
         <f>_xll.NCDK_AcidicGroupCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="Y10">
+      <c r="AA10" s="4">
         <f>_xll.NCDK_ALogP(B10)</f>
-        <v>1.5548000000000011</v>
-      </c>
-      <c r="Z10">
+        <v>7.376100000000001</v>
+      </c>
+      <c r="AB10" s="4">
+        <f>_xll.NCDK_XLogP(B10)</f>
+        <v>10.518000000000004</v>
+      </c>
+      <c r="AC10" s="4">
+        <f>_xll.NCDK_MannholdLogP(B10)</f>
+        <v>4.3199999999999994</v>
+      </c>
+      <c r="AD10" s="4">
+        <f>_xll.NCDK_JPlogP(B10)</f>
+        <v>7.8290832169857083</v>
+      </c>
+      <c r="AE10">
         <f>_xll.NCDK_AMolarRefractivity(B10)</f>
-        <v>115.17460000000001</v>
-      </c>
-      <c r="AA10">
+        <v>120.6157</v>
+      </c>
+      <c r="AF10">
         <f>_xll.NCDK_APol(B10)</f>
         <v>78.99447799999993</v>
       </c>
-      <c r="AB10">
+      <c r="AG10">
         <f>_xll.NCDK_AromaticAtomsCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AC10">
+      <c r="AH10">
         <f>_xll.NCDK_AromaticBondsCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AD10">
+      <c r="AI10">
         <f>_xll.NCDK_AtomCount(B10)</f>
         <v>74</v>
       </c>
-      <c r="AE10" t="str">
+      <c r="AJ10" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B10)</f>
         <v>0.0827991713427503, -0.0229631507285856, -0.0270969061556759, 0.00647128770548948, 0.00909713625645344</v>
       </c>
-      <c r="AF10" t="str">
+      <c r="AK10" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B10)</f>
         <v>28.7744690355409, 31.3320919771326, 48.6641839542651, 54.6641839542651, 49.6641839542651</v>
       </c>
-      <c r="AG10" t="str">
+      <c r="AL10" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B10)</f>
         <v>2589.35165284459, 3179.06049775734, 4922.9791073968, 5328.87269506555, 4616.91714731414</v>
       </c>
-      <c r="AH10">
+      <c r="AM10">
         <f>_xll.NCDK_BasicGroupCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AI10" t="str">
+      <c r="AN10" t="str">
         <f>_xll.NCDK_BCUT(B10)</f>
         <v>11.89, 15.9949214370833, -0.392219399090072, 0.0596280868632924, 5.23875003301361, 12.6475909449557</v>
       </c>
-      <c r="AJ10">
+      <c r="AO10">
         <f>_xll.NCDK_BondCount(B10)</f>
         <v>46</v>
       </c>
-      <c r="AK10">
+      <c r="AP10">
         <f>_xll.NCDK_BPol(B10)</f>
         <v>50.287521999999989</v>
       </c>
-      <c r="AL10" t="str">
+      <c r="AQ10" t="str">
         <f>_xll.NCDK_CarbonTypes(B10)</f>
         <v>0, 0, 0, 1, 1, 5, 12, 6, 2</v>
       </c>
-      <c r="AM10" t="str">
+      <c r="AR10" t="str">
         <f>_xll.NCDK_ChiChain(B10)</f>
         <v>0, 0, 0.0833333333333333, 0.393634553260967, 0.976046921839545, 0, 0, 0.0833333333333333, 0.37164819290959, 0.863165765466815</v>
       </c>
-      <c r="AN10" t="str">
+      <c r="AS10" t="str">
         <f>_xll.NCDK_ChiCluster(B10)</f>
         <v>2.9521315814894, 0.235702260395516, 1.02234106177579, 0.203263132396285, 2.68481479020038, 0.219913202813724, 0.935219433730957, 0.179558378198271</v>
       </c>
-      <c r="AO10" t="str">
+      <c r="AT10" t="str">
         <f>_xll.NCDK_ChiPathCluster(B10)</f>
         <v>6.93012787723299, 11.9183161832455, 18.084244169983, 6.31056734345633, 10.8246614459309, 15.7948474414898</v>
       </c>
-      <c r="AP10" t="str">
+      <c r="AU10" t="str">
         <f>_xll.NCDK_ChiPath(B10)</f>
         <v>20.1040835277556, 13.2536913009629, 13.0668536638687, 11.1291235227258, 9.49703814548855, 7.69096408557495, 5.93907638185732, 4.4721666474432, 19.344190342069, 12.6298450216499, 12.1863667747532, 10.2790812759586, 8.6662445789686, 6.67875288189192, 5.16344144011131, 3.80610378452706</v>
       </c>
-      <c r="AQ10" t="str">
+      <c r="AV10" t="str">
         <f>_xll.NCDK_CPSA(B10)</f>
         <v>740.518679745203, 1141.6281036277, 24.7477735904141, 216.516577646307, -333.794969260415, -24.5734427697376, 524.002102098896, 1475.42307288811, 49.3212163601517, 0.773763217212662, 1.19287988066324, 0.0258587898400593, 0.226236782787338, -0.348780221713257, -0.025676632684061, 708.702485273172, 1092.57834600072, 23.6844918679688, 207.213998617263, -319.453554322133, -23.5176511261314, 0.136302900713605, 0.25436791475781, 2.7228153119618, 9.4535627888125, 899.894129431074, 57.1411279604366, 0.940293602018195, 0.0597063979818049</v>
       </c>
-      <c r="AR10">
+      <c r="AW10">
         <f>_xll.NCDK_EccentricConnectivityIndex(B10)</f>
         <v>669</v>
       </c>
-      <c r="AS10">
+      <c r="AX10">
         <f>_xll.NCDK_FMF(B10)</f>
         <v>0.22972972972972974</v>
       </c>
-      <c r="AT10">
+      <c r="AY10">
         <f>_xll.NCDK_FractionalPSA(B10)</f>
         <v>5.2361188574192148E-2</v>
       </c>
-      <c r="AU10">
+      <c r="AZ10">
         <f>_xll.NCDK_FragmentComplexity(B10)</f>
         <v>5173.01</v>
       </c>
-      <c r="AV10" t="str">
+      <c r="BA10" t="str">
         <f>_xll.NCDK_GravitationalIndex(B10)</f>
         <v>1941.85812139388, 44.0665192793109, 12.4759176252409, 2394.88950905792, 48.9376083299737, 13.37914910667, 4535.65140656394, 67.3472449812458, 16.5531209985441</v>
       </c>
-      <c r="AW10">
+      <c r="BB10">
         <f>_xll.NCDK_HBondAcceptorCount(B10)</f>
         <v>1</v>
       </c>
-      <c r="AX10">
+      <c r="BC10">
         <f>_xll.NCDK_HBondDonorCount(B10)</f>
         <v>1</v>
       </c>
-      <c r="AY10">
+      <c r="BD10">
         <f>_xll.NCDK_HybridizationRatio(B10)</f>
         <v>0.92592592592592593</v>
       </c>
-      <c r="AZ10" t="str">
+      <c r="BE10" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B10)</f>
         <v>21.2403746097815, 7.921875, 3.65484429065744</v>
       </c>
-      <c r="BA10" t="str">
+      <c r="BF10" t="str">
         <f>_xll.NCDK_KierHallSmarts(B10)</f>
         <v>0, 0, 0, 0, 0, 0, 5, 0, 11, 0, 1, 0, 7, 0, 0, 1, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BB10">
+      <c r="BG10">
         <f>_xll.NCDK_LargestChain(B10)</f>
         <v>7</v>
       </c>
-      <c r="BC10">
+      <c r="BH10">
         <f>_xll.NCDK_LargestPiSystem(B10)</f>
         <v>2</v>
       </c>
-      <c r="BD10" t="str">
+      <c r="BI10" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B10)</f>
         <v>3.502934717034, 3.502934717034</v>
       </c>
-      <c r="BE10">
+      <c r="BJ10">
         <f>_xll.NCDK_LongestAliphaticChain(B10)</f>
         <v>7</v>
       </c>
-      <c r="BF10">
-        <f>_xll.NCDK_MannholdLogP(B10)</f>
-        <v>4.3199999999999994</v>
-      </c>
-      <c r="BG10" t="str">
+      <c r="BK10" t="str">
         <f>_xll.NCDK_MDE(B10)</f>
         <v>2.79346109096649, 16.5925259846737, 11.5560895487586, 3.39888423642021, 17.7527182855433, 29.2401176288661, 7.64127863367805, 8.77423090217006, 6.5802347918611, 0.5, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH10" t="str">
+      <c r="BL10" t="str">
         <f>_xll.NCDK_MomentOfInertia(B10)</f>
         <v>10068.4095883237, 9731.07167302841, 773.613761142664, 1.03466606008362, 13.0147757111406, 12.5787210127379, 8.29661608019916</v>
       </c>
-      <c r="BI10">
+      <c r="BM10">
         <f>_xll.NCDK_PetitjeanNumber(B10)</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="BJ10" t="str">
+      <c r="BN10" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B10)</f>
         <v>0.875, 0.940550174456362</v>
       </c>
-      <c r="BK10">
+      <c r="BO10">
         <f>_xll.NCDK_RotatableBondsCount(B10)</f>
         <v>5</v>
       </c>
-      <c r="BL10">
+      <c r="BP10">
         <f>_xll.NCDK_RuleOfFive(B10)</f>
         <v>1</v>
       </c>
-      <c r="BM10" t="str">
+      <c r="BQ10" t="str">
         <f>_xll.NCDK_SmallRing(B10)</f>
         <v>4, 0, 1, 0, 0, 0, 1, 3, 0, 0, 0</v>
       </c>
-      <c r="BN10">
+      <c r="BR10">
         <f>_xll.NCDK_TPSA(B10)</f>
         <v>20.23</v>
       </c>
-      <c r="BO10">
+      <c r="BS10">
         <f>_xll.NCDK_VABC(B10)</f>
         <v>432.2759767957632</v>
       </c>
-      <c r="BP10">
+      <c r="BT10">
         <f>_xll.NCDK_VAdjMa(B10)</f>
         <v>5.9541963103868758</v>
       </c>
-      <c r="BQ10">
-        <f>_xll.NCDK_Weight(B10)</f>
-        <v>386.35486609200063</v>
-      </c>
-      <c r="BR10" t="str">
+      <c r="BU10" s="2">
+        <f>_xll.NCDK_MolecularWeight(B10)</f>
+        <v>386.65454881683121</v>
+      </c>
+      <c r="BV10" s="3">
+        <f>_xll.NCDK_ExactMass(B10)</f>
+        <v>386.35486609199995</v>
+      </c>
+      <c r="BW10" t="str">
         <f>_xll.NCDK_WeightedPath(B10)</f>
         <v>57.2167299866347, 2.04345464237981, 2.54245315921217, 2.54245315921217, 0</v>
       </c>
-      <c r="BS10" t="str">
+      <c r="BX10" t="str">
         <f>_xll.NCDK_WHIM(B10)</f>
         <v>1.22231276339169, 2.17046945111189, 25.8559001988821, 0.0417903530188526, 0.0742074265238894, #N/A, #N/A, #N/A, 0.0962638773185697, 0.00388857657057473, 66.8991567190677, 29.2486824133857, 90.3764308473927, 188.22062289613, 0.413001665342944, #N/A, 66.9993091729568</v>
       </c>
-      <c r="BT10" t="str">
+      <c r="BY10" t="str">
         <f>_xll.NCDK_WienerNumbers(B10)</f>
         <v>2022, 54</v>
       </c>
-      <c r="BU10">
-        <f>_xll.NCDK_XLogP(B10)</f>
-        <v>10.518000000000004</v>
-      </c>
-      <c r="BV10">
+      <c r="BZ10">
         <f>_xll.NCDK_ZagrebIndex(B10)</f>
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:74" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:78" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
         <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
       </c>
       <c r="C11" t="str">
         <f>_xll.NCDK_InChI(B11)</f>
@@ -5583,207 +5774,223 @@
         <f>_xll.NCDK_PubchemFingerprinter($B11)</f>
         <v>00000000011110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000001100100110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000111100010100101000001000000000000010000000100000000000000000000000000000001000000000100000000000001000100000010000100000000000000000000000000000000000000000001000000000000000000000000000000000100000000000000000000000000000001000000000000001000000000010000000000000000100000000000000000100000000000000000001001100000000000000000010000000000000000011100000001100000011110000000011111000000000000000000000000000000000000000000000000000000000000000110000000000000000000100000000000000000000100000000000000000000100000000000000000000100000000000000000000</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="2">
+        <f>_xll.NCDK_MolecularWeight(B11)</f>
+        <v>386.65454881683161</v>
+      </c>
+      <c r="Y11" s="2">
+        <f>_xll.NCDK_ExactMass(B11)</f>
+        <v>386.35486609199995</v>
+      </c>
+      <c r="Z11">
         <f>_xll.NCDK_AcidicGroupCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="Y11">
+      <c r="AA11" s="4">
         <f>_xll.NCDK_ALogP(B11)</f>
-        <v>1.5548000000000011</v>
-      </c>
-      <c r="Z11">
+        <v>7.376100000000001</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>_xll.NCDK_XLogP(B11)</f>
+        <v>10.518000000000004</v>
+      </c>
+      <c r="AC11" s="4">
+        <f>_xll.NCDK_MannholdLogP(B11)</f>
+        <v>4.3199999999999994</v>
+      </c>
+      <c r="AD11" s="4">
+        <f>_xll.NCDK_JPlogP(B11)</f>
+        <v>7.8290832169857199</v>
+      </c>
+      <c r="AE11">
         <f>_xll.NCDK_AMolarRefractivity(B11)</f>
-        <v>115.17460000000001</v>
-      </c>
-      <c r="AA11">
+        <v>120.6157</v>
+      </c>
+      <c r="AF11">
         <f>_xll.NCDK_APol(B11)</f>
         <v>78.994478000000029</v>
       </c>
-      <c r="AB11">
+      <c r="AG11">
         <f>_xll.NCDK_AromaticAtomsCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AC11">
+      <c r="AH11">
         <f>_xll.NCDK_AromaticBondsCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AD11">
+      <c r="AI11">
         <f>_xll.NCDK_AtomCount(B11)</f>
         <v>74</v>
       </c>
-      <c r="AE11" t="str">
+      <c r="AJ11" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B11)</f>
         <v>0.0827991713427503, -0.0229631507285856, -0.0270969061556759, 0.00647128770548948, 0.00909713625645344</v>
       </c>
-      <c r="AF11" t="str">
+      <c r="AK11" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B11)</f>
         <v>28.7744690355409, 31.3320919771326, 48.6641839542651, 54.6641839542651, 49.6641839542651</v>
       </c>
-      <c r="AG11" t="str">
+      <c r="AL11" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B11)</f>
         <v>2589.35165284459, 3179.06049775734, 4922.9791073968, 5328.87269506555, 4616.91714731414</v>
       </c>
-      <c r="AH11">
+      <c r="AM11">
         <f>_xll.NCDK_BasicGroupCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AI11" t="str">
+      <c r="AN11" t="str">
         <f>_xll.NCDK_BCUT(B11)</f>
         <v>11.89, 15.9949214370832, -0.392219474278523, 0.0694748577202458, 5.23874992098634, 12.6503467270457</v>
       </c>
-      <c r="AJ11">
+      <c r="AO11">
         <f>_xll.NCDK_BondCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AK11">
+      <c r="AP11">
         <f>_xll.NCDK_BPol(B11)</f>
         <v>50.287521999999989</v>
       </c>
-      <c r="AL11" t="str">
+      <c r="AQ11" t="str">
         <f>_xll.NCDK_CarbonTypes(B11)</f>
         <v>0, 0, 0, 1, 1, 5, 12, 6, 2</v>
       </c>
-      <c r="AM11" t="str">
+      <c r="AR11" t="str">
         <f>_xll.NCDK_ChiChain(B11)</f>
         <v>0, 0, 0.0833333333333333, 0.393634553260967, 0.976046921839545, 0, 0, 0.0833333333333333, 0.37164819290959, 0.863165765466815</v>
       </c>
-      <c r="AN11" t="str">
+      <c r="AS11" t="str">
         <f>_xll.NCDK_ChiCluster(B11)</f>
         <v>2.9521315814894, 0.235702260395516, 1.02234106177579, 0.203263132396285, 2.68481479020038, 0.219913202813724, 0.935219433730957, 0.179558378198271</v>
       </c>
-      <c r="AO11" t="str">
+      <c r="AT11" t="str">
         <f>_xll.NCDK_ChiPathCluster(B11)</f>
         <v>6.93012787723299, 11.9183161832455, 18.084244169983, 6.31056734345633, 10.8246614459309, 15.7948474414898</v>
       </c>
-      <c r="AP11" t="str">
+      <c r="AU11" t="str">
         <f>_xll.NCDK_ChiPath(B11)</f>
         <v>20.1040835277556, 13.2536913009629, 13.0668536638687, 11.1291235227258, 9.49703814548855, 7.69096408557496, 5.93907638185732, 4.4721666474432, 19.344190342069, 12.6298450216499, 12.1863667747532, 10.2790812759586, 8.66624457896859, 6.67875288189192, 5.16344144011131, 3.80610378452706</v>
       </c>
-      <c r="AQ11" t="str">
+      <c r="AV11" t="str">
         <f>_xll.NCDK_CPSA(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AR11">
+      <c r="AW11">
         <f>_xll.NCDK_EccentricConnectivityIndex(B11)</f>
         <v>669</v>
       </c>
-      <c r="AS11">
+      <c r="AX11">
         <f>_xll.NCDK_FMF(B11)</f>
         <v>0.6071428571428571</v>
       </c>
-      <c r="AT11">
+      <c r="AY11">
         <f>_xll.NCDK_FractionalPSA(B11)</f>
         <v>5.2361188524318612E-2</v>
       </c>
-      <c r="AU11">
+      <c r="AZ11">
         <f>_xll.NCDK_FragmentComplexity(B11)</f>
         <v>5173.01</v>
       </c>
-      <c r="AV11" t="str">
+      <c r="BA11" t="str">
         <f>_xll.NCDK_GravitationalIndex(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW11">
+      <c r="BB11">
         <f>_xll.NCDK_HBondAcceptorCount(B11)</f>
         <v>1</v>
       </c>
-      <c r="AX11">
+      <c r="BC11">
         <f>_xll.NCDK_HBondDonorCount(B11)</f>
         <v>1</v>
       </c>
-      <c r="AY11">
+      <c r="BD11">
         <f>_xll.NCDK_HybridizationRatio(B11)</f>
         <v>0.92592592592592593</v>
       </c>
-      <c r="AZ11" t="str">
+      <c r="BE11" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B11)</f>
         <v>21.2403746097815, 7.921875, 3.65484429065744</v>
       </c>
-      <c r="BA11" t="str">
+      <c r="BF11" t="str">
         <f>_xll.NCDK_KierHallSmarts(B11)</f>
         <v>0, 0, 0, 0, 0, 0, 5, 0, 11, 0, 1, 0, 7, 0, 0, 1, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BB11">
+      <c r="BG11">
         <f>_xll.NCDK_LargestChain(B11)</f>
         <v>16</v>
       </c>
-      <c r="BC11">
+      <c r="BH11">
         <f>_xll.NCDK_LargestPiSystem(B11)</f>
         <v>2</v>
       </c>
-      <c r="BD11" t="str">
+      <c r="BI11" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE11">
+      <c r="BJ11">
         <f>_xll.NCDK_LongestAliphaticChain(B11)</f>
         <v>7</v>
       </c>
-      <c r="BF11">
-        <f>_xll.NCDK_MannholdLogP(B11)</f>
-        <v>4.3199999999999994</v>
-      </c>
-      <c r="BG11" t="str">
+      <c r="BK11" t="str">
         <f>_xll.NCDK_MDE(B11)</f>
         <v>1.54697174276407, 11.0054221495714, 8.10399071027919, 2.24225976804296, 15.301585299106, 26.1301405209996, 7.46130267367364, 6.99912877305946, 5.73136198628621, 0.25, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH11" t="str">
+      <c r="BL11" t="str">
         <f>_xll.NCDK_MomentOfInertia(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BI11">
+      <c r="BM11">
         <f>_xll.NCDK_PetitjeanNumber(B11)</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="BJ11" t="str">
+      <c r="BN11" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK11">
+      <c r="BO11">
         <f>_xll.NCDK_RotatableBondsCount(B11)</f>
         <v>5</v>
       </c>
-      <c r="BL11">
+      <c r="BP11">
         <f>_xll.NCDK_RuleOfFive(B11)</f>
         <v>1</v>
       </c>
-      <c r="BM11" t="str">
+      <c r="BQ11" t="str">
         <f>_xll.NCDK_SmallRing(B11)</f>
         <v>4, 0, 1, 0, 0, 0, 1, 3, 0, 0, 0</v>
       </c>
-      <c r="BN11">
+      <c r="BR11">
         <f>_xll.NCDK_TPSA(B11)</f>
         <v>20.23</v>
       </c>
-      <c r="BO11">
+      <c r="BS11">
         <f>_xll.NCDK_VABC(B11)</f>
         <v>432.27597679576252</v>
       </c>
-      <c r="BP11">
+      <c r="BT11">
         <f>_xll.NCDK_VAdjMa(B11)</f>
         <v>5.9541963103868758</v>
       </c>
-      <c r="BQ11">
-        <f>_xll.NCDK_Weight(B11)</f>
-        <v>386.35486609200007</v>
-      </c>
-      <c r="BR11" t="str">
+      <c r="BU11" s="2">
+        <f>_xll.NCDK_MolecularWeight(B11)</f>
+        <v>386.65454881683161</v>
+      </c>
+      <c r="BV11" s="3">
+        <f>_xll.NCDK_ExactMass(B11)</f>
+        <v>386.35486609199995</v>
+      </c>
+      <c r="BW11" t="str">
         <f>_xll.NCDK_WeightedPath(B11)</f>
         <v>57.2167299866347, 2.04345464237981, 2.54245315921218, 2.54245315921218, 0</v>
       </c>
-      <c r="BS11" t="str">
+      <c r="BX11" t="str">
         <f>_xll.NCDK_WHIM(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BT11" t="str">
+      <c r="BY11" t="str">
         <f>_xll.NCDK_WienerNumbers(B11)</f>
         <v>2022, 54</v>
       </c>
-      <c r="BU11">
-        <f>_xll.NCDK_XLogP(B11)</f>
-        <v>10.518000000000004</v>
-      </c>
-      <c r="BV11">
+      <c r="BZ11">
         <f>_xll.NCDK_ZagrebIndex(B11)</f>
         <v>158</v>
       </c>
@@ -5797,76 +6004,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D78F5C-B236-40D1-A056-FD195DD12728}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="7" max="18" width="4.83203125" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>_xll.NCDK(B$1,$A2)</f>
@@ -5877,13 +6091,13 @@
         <v>0000000000000000000000000001000000000000000000000000000000000000100000000000000000000000100000000000000000000000000000000000000000000100001000000000000010000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000001000000100000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000100000000000000000001000000000000000000100000000000000000000000010000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000100100000000001000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000100000100000000000000000000000100000000000000000000000000</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -5922,10 +6136,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A2)</f>
         <v>0000000000000000000000000000000000000100000000000000110010000100100000010010101101101000111110111100000010001100000010011100001000111010101101100101011110111111111110</v>
       </c>
+      <c r="T2" s="4">
+        <f>_xll.NCDK_XLogP(A2)</f>
+        <v>-1.9040000000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="str">
         <f>_xll.NCDK(B$1,$A3)</f>
@@ -5936,13 +6154,13 @@
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000001000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
         <v>106</v>
-      </c>
-      <c r="E3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -5966,10 +6184,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A3)</f>
         <v>0000000000000000000000000000000000000000000000000000110000000000000000010000000000000000100000000010000000000000100000000000101000100000001100111100010100001010011110</v>
       </c>
+      <c r="T3" s="4">
+        <f>_xll.NCDK_XLogP(A3)</f>
+        <v>1.9170000000000009</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>_xll.NCDK(B$1,$A4)</f>
@@ -5980,13 +6202,13 @@
         <v>0000000100000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000011000000000000000000000000001000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000010000000000000000000000000000000000000010000000000000000000000000000000001000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000001000000000000</v>
       </c>
       <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
         <v>109</v>
-      </c>
-      <c r="E4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -6010,10 +6232,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A4)</f>
         <v>0000000000000000000000000001000000000000000000001000000010000000100000010010000000101000000010011100001010001000100000011110111000000100100110111101110110011111111111</v>
       </c>
+      <c r="T4" s="4">
+        <f>_xll.NCDK_XLogP(A4)</f>
+        <v>3.7249999999999996</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>_xll.NCDK(B$1,$A5)</f>
@@ -6024,13 +6250,13 @@
         <v>0000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000001000000000000100000000000000000000000000100000110000000000010000000000000000000000000000000000000000000000000000010000000000001000000000000000000000000000000000010000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000100000000000000000001000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000100001000000000000000000000000000000000000000000000000100000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000100000000100000000000000000000000000000000000</v>
       </c>
       <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
         <v>112</v>
-      </c>
-      <c r="E5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" t="s">
-        <v>113</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -6072,10 +6298,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A5)</f>
         <v>0000000000000000000000000000000000000000000001000000010010000000100000110000000000110000110101111000010100000110100110011011001000100100101101110100011101111111110111</v>
       </c>
+      <c r="T5" s="4">
+        <f>_xll.NCDK_XLogP(A5)</f>
+        <v>-1.6970000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>_xll.NCDK(B$1,$A6)</f>
@@ -6086,13 +6316,13 @@
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000001000000000000000000000000001000000000000000000000000000000000000000000000000010000000000000000000001000000000000000000000000000000000000000000000000000000010000000000000000000000000000000100000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000010000000000000000000001000000000000100000000000000000000000000000000000000000000000000000000001000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
         <v>116</v>
-      </c>
-      <c r="E6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" t="s">
-        <v>117</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -6128,10 +6358,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A6)</f>
         <v>0000000000000000000000001000000000000100000000000000100000000010100000100000101100010000100101101100010001001100100011111001011110101010100001111010011010111110111110</v>
       </c>
+      <c r="T6" s="4">
+        <f>_xll.NCDK_XLogP(A6)</f>
+        <v>1.413</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="str">
         <f>_xll.NCDK(B$1,$A7)</f>
@@ -6142,13 +6376,13 @@
         <v>1000000000000010000000000000000000000000010000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000100000000000000000000000001000000000000000000000000000000000000100000000000000010000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000100000000000000000000000000000000000001000001000000000000</v>
       </c>
       <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
         <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" t="s">
-        <v>120</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -6190,10 +6424,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A7)</f>
         <v>0000000000000000000000000000000000000000000000000000000010000100000000010010001000001100000000111101000010001010100001011100100110011010110001011011000110011110111110</v>
       </c>
+      <c r="T7" s="4">
+        <f>_xll.NCDK_XLogP(A7)</f>
+        <v>2.4140000000000006</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="str">
         <f>_xll.NCDK(B$1,$A8)</f>
@@ -6204,13 +6442,13 @@
         <v>1000000000000010000000000000000000000000000000000000000000000000000000001000000000000000100000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000100000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000001000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000100000000000000000000000000000000001000000000000100</v>
       </c>
       <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" t="s">
         <v>122</v>
-      </c>
-      <c r="E8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" t="s">
-        <v>123</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6249,10 +6487,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A8)</f>
         <v>0000000000000000001000000000000000000000000000000000010000000100000000010000000001000100001000000001001110000010100000001000101110100100111000111010011110001110111111</v>
       </c>
+      <c r="T8" s="4">
+        <f>_xll.NCDK_XLogP(A8)</f>
+        <v>2.0469999999999997</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>_xll.NCDK(B$1,$A9)</f>
@@ -6263,13 +6505,13 @@
         <v>0000000000000000000100000000000000100000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000100000000000100000010000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000001000000000000000000000000001000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
         <v>125</v>
-      </c>
-      <c r="E9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" t="s">
-        <v>126</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -6311,10 +6553,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A9)</f>
         <v>0000000000000000000000000000001000000100011000000010001001011000001000001000110000010001000000000000011001100001000000100001000001110101000001000001001010110110111111</v>
       </c>
+      <c r="T9" s="4">
+        <f>_xll.NCDK_XLogP(A9)</f>
+        <v>0.17100000000000004</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="str">
         <f>_xll.NCDK(B$1,$A10)</f>
@@ -6325,13 +6571,13 @@
         <v>0000000000000010000100000100000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000000000000000000001000000000000000000000000000000000000000000000010000100000000010000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000100000000000000000000000000100000000000000000000000000000000000100000000000000000001000000000000000000000000000000100000000000000000000000001000000000000000000001000000000000000100000000000000010001000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000000000000000000000000000000</v>
       </c>
       <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" t="s">
         <v>128</v>
-      </c>
-      <c r="E10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" t="s">
-        <v>129</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -6373,10 +6619,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A10)</f>
         <v>0000000000000000000000000000000000000000000000000000000010000100010000000010000000001100000000100101001000001011000001011110010110010100110000001111000011101110111111</v>
       </c>
+      <c r="T10" s="4">
+        <f>_xll.NCDK_XLogP(A10)</f>
+        <v>3.8299999999999996</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="1" t="str">
         <f>_xll.NCDK(B$1,$A11)</f>
@@ -6387,13 +6637,13 @@
         <v>0000000000000010000100000101000000000000000000000000000000000000000000000000000000000000100001000000100000000000000000000000000000000100000000000000000010000000000000000000000000000000000010000000000000000010000001000000010000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000010101100001100000000000100010100000000000000000000001000000010000000000000000000000000000010001010000000000000000000000000000000000000000000000000000010000000010000000000100100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000100000000000000001000000000000000000000001000000000000000000000000000001000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000100000000000000000000000000000100000000000000000000000000</v>
       </c>
       <c r="D11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
         <v>131</v>
-      </c>
-      <c r="E11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" t="s">
-        <v>132</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -6423,10 +6673,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A11)</f>
         <v>0000000000000000000000000000000000000000000000000000100010000000100000000000000100100000100110111100000010010111001110011010000110111011101111011110111101111111111110</v>
       </c>
+      <c r="T11" s="4">
+        <f>_xll.NCDK_XLogP(A11)</f>
+        <v>3.7529999999999997</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="1" t="str">
         <f>_xll.NCDK(B$1,$A12)</f>
@@ -6437,13 +6691,13 @@
         <v>0000000000000000000000000000000000000000000000000010000000100000000000000000000000000000001000000000000000000000000000000000000000000100010000000100000010000000000000000000000000000000000000000000000000000010000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000100000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000100000000000000000000000000000000011000000000000000000000000010000000000000000000000000000000000000000000000000100000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" t="s">
         <v>134</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" t="s">
-        <v>135</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -6485,10 +6739,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A12)</f>
         <v>0000000000000000000000000000000000100011000100011000011001011000001000011000000001000001000010000000010101001001100000000001011001110001001100110101010110101011011111</v>
       </c>
+      <c r="T12" s="4">
+        <f>_xll.NCDK_XLogP(A12)</f>
+        <v>-2.601</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="1" t="str">
         <f>_xll.NCDK(B$1,$A13)</f>
@@ -6499,13 +6757,13 @@
         <v>0000000000000010000100000000000000000000000000000000000000000000000000000000000000000000100001000000000000000010000000000000000000000100000000000000000010000000000000000000001000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000010000000100000000000000000000010000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000001000000000000000000000000000000000100001000000100000010100000000010000000000000011100000000000000000000000000000010000000000000000000000000000000000000000000100000000000000000000000000000000000000000000001000000000000000000001000000000000000000000000000000001000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000001000000000000000000000000000000</v>
       </c>
       <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" t="s">
         <v>137</v>
-      </c>
-      <c r="E13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" t="s">
-        <v>138</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -6544,10 +6802,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A13)</f>
         <v>0000000000000000000000100000000000000000000000000000000000000000000000000010001100101110000110010111001001110110000011011110010110110101111101011111010011111111111111</v>
       </c>
+      <c r="T13" s="4">
+        <f>_xll.NCDK_XLogP(A13)</f>
+        <v>0.8670000000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="1" t="str">
         <f>_xll.NCDK(B$1,$A14)</f>
@@ -6558,13 +6820,13 @@
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000000000000000000000000001000000000000000000000000000000000000000000001000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000010000000000000000000100000000000000000000000000000010000000000000000000000000000000000000000000000000000000100000000000100000000000000000000000000000000000000010000000000100000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000100000000000000000000000000000000000000000000</v>
       </c>
       <c r="D14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="s">
         <v>140</v>
-      </c>
-      <c r="E14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" t="s">
-        <v>141</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6606,10 +6868,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A14)</f>
         <v>0000000000000000000000000000000000000000000000000000000010000100100000100010000100101100000011111001011000010010001101011101000000000100100001000011110110010101110111</v>
       </c>
+      <c r="T14" s="4">
+        <f>_xll.NCDK_XLogP(A14)</f>
+        <v>1.8070000000000004</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="1" t="str">
         <f>_xll.NCDK(B$1,$A15)</f>
@@ -6620,13 +6886,13 @@
         <v>0000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="D15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" t="s">
         <v>143</v>
-      </c>
-      <c r="E15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" t="s">
-        <v>144</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6668,10 +6934,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A15)</f>
         <v>0000000010000000000000000000000000000000001100001000100000000000000010000000100100000000000001001000011001000001000010000001010001100100000001000001001000010010100101</v>
       </c>
+      <c r="T15" s="4">
+        <f>_xll.NCDK_XLogP(A15)</f>
+        <v>3.24</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="1" t="str">
         <f>_xll.NCDK(B$1,$A16)</f>
@@ -6682,13 +6952,13 @@
         <v>1000000000000010000000000100000000000000010000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000001000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000100000000000000000001000000000000000000000000000000000001000000000001000000000000000000100000000000000000000000000000000000000000000100000100000000000100000000010000010000000001000000000000000000000000000000000000000000001000000000000000000000000000000100000000000001000000000000000000000100000000001000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000001000001000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100001000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" t="s">
         <v>146</v>
-      </c>
-      <c r="E16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" t="s">
-        <v>147</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -6730,10 +7000,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A16)</f>
         <v>0000000000000000000001000000000000000000000000000000000010000000110000010010000000101100111000110101101110000011100001011100101110110100111101111111001110111110111111</v>
       </c>
+      <c r="T16" s="4">
+        <f>_xll.NCDK_XLogP(A16)</f>
+        <v>1.4250000000000014</v>
+      </c>
     </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1" t="str">
         <f>_xll.NCDK(B$1,$A17)</f>
@@ -6744,13 +7018,13 @@
         <v>0000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000001000000000000100000000000000000000100000000000010000000000010000000000000000000000000000000000000000000000000000010000000000000000100000010000000000100000000000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000001000000010000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001000000000001000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="D17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" t="s">
         <v>149</v>
-      </c>
-      <c r="E17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" t="s">
-        <v>150</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -6792,10 +7066,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A17)</f>
         <v>0000000000000000000000000000000110000000000000000000010000000010001001100000001101010001011101100001010100000110000010100011000101110001011101000110001011111110100100</v>
       </c>
+      <c r="T17" s="4">
+        <f>_xll.NCDK_XLogP(A17)</f>
+        <v>-4.3659999999999997</v>
+      </c>
     </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="1" t="str">
         <f>_xll.NCDK(B$1,$A18)</f>
@@ -6806,13 +7084,13 @@
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010100000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000010000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000100000</v>
       </c>
       <c r="D18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" t="s">
         <v>152</v>
-      </c>
-      <c r="E18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" t="s">
-        <v>153</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -6836,10 +7114,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A18)</f>
         <v>0000000000000000000000000000000000000000000000000000010000000000000000000000001001000000000000000001001100000010000000000000100000100100010001001010001010110100111011</v>
       </c>
+      <c r="T18" s="4">
+        <f>_xll.NCDK_XLogP(A18)</f>
+        <v>4.5600000000000005</v>
+      </c>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="1" t="str">
         <f>_xll.NCDK(B$1,$A19)</f>
@@ -6850,13 +7132,13 @@
         <v>0000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000100000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000100100000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000100000000000000000000000001000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="D19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" t="s">
         <v>155</v>
-      </c>
-      <c r="E19" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" t="s">
-        <v>156</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -6895,10 +7177,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A19)</f>
         <v>0000000000000000000000000000000110010100000001100000000000000100101000000010111110100001000011010000000001000000000000111101100000001110100001011001010000010101111011</v>
       </c>
+      <c r="T19" s="4">
+        <f>_xll.NCDK_XLogP(A19)</f>
+        <v>3.8220000000000005</v>
+      </c>
     </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="1" t="str">
         <f>_xll.NCDK(B$1,$A20)</f>
@@ -6909,13 +7195,13 @@
         <v>1000000000000010000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000001000000010000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000001000000110000000100000100000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000001000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000001000000000000000100</v>
       </c>
       <c r="D20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" t="s">
         <v>158</v>
-      </c>
-      <c r="E20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" t="s">
-        <v>159</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -6948,10 +7234,14 @@
         <f>_xll.NCDK_MACCSFingerprinter($A20)</f>
         <v>0000000000000000000000000000000000001000001000000000000000000000100000000010101000101100001010010101001011010110001110011100100000101110100001011011001011010101111111</v>
       </c>
+      <c r="T20" s="4">
+        <f>_xll.NCDK_XLogP(A20)</f>
+        <v>0.83</v>
+      </c>
     </row>
-    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="1" t="str">
         <f>_xll.NCDK(B$1,$A21)</f>
@@ -6962,13 +7252,13 @@
         <v>0000000000000000000000001000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000001000100000000000100000010000000000000000001000000000000000000000000000000000000000000000000000000000000000100000000100000000000000000000100000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000100000000000000000000000001000000000000000000000000000000000010000000000000000010000010000010000000000100000000000000000000000000000001000000010000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000001010000000000000000000110000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="D21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" t="s">
         <v>161</v>
-      </c>
-      <c r="E21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" t="s">
-        <v>162</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -7009,6 +7299,10 @@
       <c r="S21" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($A21)</f>
         <v>0000000000000000000000000000000001001111000000010010001001111101101010001010101110101001100110111111010011010101100010011101101001000001101101111101110011110111111110</v>
+      </c>
+      <c r="T21" s="4">
+        <f>_xll.NCDK_XLogP(A21)</f>
+        <v>-0.66600000000000015</v>
       </c>
     </row>
   </sheetData>
@@ -7022,7 +7316,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -7033,74 +7327,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
         <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="70" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="236" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="168" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
         <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/NCDK-Excel/ExcelNCDK-Test.xlsx
+++ b/NCDK-Excel/ExcelNCDK-Test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEDA7A9-1669-4197-A75D-E74459BB78A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B248AA19-3655-4424-9214-4C217F8A0064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1848,7 +1848,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1893,7 +1893,7 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1928,10 +1928,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="139" name="NCDK-Picture 1">
+        <xdr:cNvPr id="3" name="NCDK-Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231E937A-5F92-41FF-BEB6-4D0B1F73C48E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903F7397-2E63-449D-A8C8-11D76A4BF2CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,10 +1978,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="141" name="NCDK-Picture 2">
+        <xdr:cNvPr id="5" name="NCDK-Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC65AF16-C184-49DA-A021-2BCAC3980BB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E5BB9A-4ED6-448A-850E-5FEAD9B2B35E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,10 +2028,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="143" name="NCDK-Picture 3">
+        <xdr:cNvPr id="7" name="NCDK-Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC00FF74-C38B-42C7-8291-C82AA6BF1B1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59F8C1F-B6F5-4F6F-9EA5-5C6932766028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2078,10 +2078,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="145" name="NCDK-Picture 4">
+        <xdr:cNvPr id="9" name="NCDK-Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98053E5-E1EF-4612-9599-F3E7B9B48A29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C792E8EB-24E6-428F-9CC6-A1D189560417}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,10 +2128,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="147" name="NCDK-Picture 5">
+        <xdr:cNvPr id="11" name="NCDK-Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3950DC8F-1781-48BA-AF22-3EA0BE4292C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD9CB53-4835-4BC4-BBF9-F3F5608F411B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,10 +2178,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="149" name="NCDK-Picture 6">
+        <xdr:cNvPr id="13" name="NCDK-Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7333B961-CFC0-4E84-A89A-E5AE69943850}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91684F0-B66A-49F3-B2A6-7E727CB563C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,20 +2218,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2728434</xdr:rowOff>
+      <xdr:rowOff>1721782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="151" name="NCDK-Picture 7">
+        <xdr:cNvPr id="15" name="NCDK-Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087E184A-68D8-44A8-AAD3-F49AC1CA9407}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCA50D2-A590-4486-976A-47DFA5B535AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,8 +2253,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="5175251"/>
-          <a:ext cx="3149600" cy="2728433"/>
+          <a:off x="857250" y="5175250"/>
+          <a:ext cx="3149600" cy="1721782"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2278,10 +2278,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="NCDK-Picture 8">
+        <xdr:cNvPr id="17" name="NCDK-Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C6C754-28F1-4248-9935-72CC127F6E1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088220FA-8133-4C24-A49F-CBAD89603F95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,6 +2593,7 @@
     <col min="27" max="27" width="8.6640625" style="4" customWidth="1"/>
     <col min="28" max="30" width="8.6640625" style="4"/>
     <col min="31" max="31" width="8.6640625" customWidth="1"/>
+    <col min="53" max="53" width="14.83203125" customWidth="1"/>
     <col min="73" max="73" width="8.6640625" style="2"/>
     <col min="74" max="74" width="10.08203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -7316,7 +7317,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/NCDK-Excel/ExcelNCDK-Test.xlsx
+++ b/NCDK-Excel/ExcelNCDK-Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B248AA19-3655-4424-9214-4C217F8A0064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46825268-6CF2-4CF2-ACE3-0F9C1177A419}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="173">
   <si>
     <t>CC(=O)O</t>
     <phoneticPr fontId="1"/>
@@ -2579,26 +2579,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B185B08-1BAB-4052-951E-1A2BC1F97D8F}">
-  <dimension ref="A1:BZ11"/>
+  <dimension ref="A1:CA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="11.08203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="23" width="6.5" customWidth="1"/>
-    <col min="24" max="25" width="8.1640625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="8.6640625" style="4" customWidth="1"/>
-    <col min="28" max="30" width="8.6640625" style="4"/>
-    <col min="31" max="31" width="8.6640625" customWidth="1"/>
-    <col min="53" max="53" width="14.83203125" customWidth="1"/>
-    <col min="73" max="73" width="8.6640625" style="2"/>
-    <col min="74" max="74" width="10.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="29.25" customWidth="1"/>
+    <col min="7" max="24" width="6.5" customWidth="1"/>
+    <col min="25" max="26" width="8.1640625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" style="4" customWidth="1"/>
+    <col min="29" max="31" width="8.6640625" style="4"/>
+    <col min="32" max="32" width="8.6640625" customWidth="1"/>
+    <col min="54" max="54" width="14.83203125" customWidth="1"/>
+    <col min="74" max="74" width="8.6640625" style="2"/>
+    <col min="75" max="75" width="10.08203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2615,226 +2617,229 @@
         <v>163</v>
       </c>
       <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>73</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>74</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>75</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>77</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>78</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>79</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>80</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>81</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>82</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>4</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>6</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>8</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>9</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>11</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>12</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>13</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>14</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>15</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>16</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>17</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>19</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>20</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>21</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>22</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>23</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>24</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>25</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>26</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>27</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>28</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>29</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>30</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>31</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>33</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>34</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>35</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>36</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>37</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>38</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>39</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>40</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>64</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>41</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>42</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>43</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>44</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -2887,7 +2892,7 @@
 </v>
       </c>
       <c r="D2">
-        <f>_xll.NCDK_Tanimoto($H2,$H3)</f>
+        <f>_xll.NCDK_Tanimoto($I2,$I3)</f>
         <v>0</v>
       </c>
       <c r="E2" t="str">
@@ -2895,299 +2900,303 @@
         <v>0000000000000000001000000000000000001000001000000100100000000100010000000001100100000000111100001110000001010101010011011000001110100001100001100110011001110111101110</v>
       </c>
       <c r="F2" t="str">
+        <f>_xll.RDKit_MACCSFingerprint(B2)</f>
+        <v>00000000000000000001000000000000000001000001000000100100000000100010000000001100100000000111100001110000001010101010011011000001110100001100001100110011001110111101110</v>
+      </c>
+      <c r="G2" t="str">
         <f>_xll.NCDK_ECFP0($B2)</f>
         <v>0000000000000010000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <f>_xll.NCDK_ECFP2($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000010000000000000100000000000010000010000001000000000000000000000000000100</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <f>_xll.NCDK_ECFP4($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010010000000000000000000000000000000000000000000000000000000000000010001000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000000000000000000000000000101000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000010000000000000100000000000010100010000001000000000000000000000000000100</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>_xll.NCDK_ECFP6($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000010000000000000100000000000000000010010000000000000000000000000000000000000000000000000000000000000010001000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000001000000000001000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000000000000000000000000000101000000000000000000000000000000000000000000000100001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000001001000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000010000000000000100000000000010100010000001000010000000000000000000000100</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>_xll.NCDK_FCFP0($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>_xll.NCDK_FCFP2($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>_xll.NCDK_FCFP4($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000001000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000001000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000100100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000100000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <f>_xll.NCDK_FCFP0($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B2)</f>
         <v>111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000110000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000010000000001000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B2)</f>
         <v>0000001010100001001000010000000000100000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P2" t="str">
+      <c r="Q2" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B2)</f>
         <v>000000000000001000000000000000001000000000010000000000000000001000000100000001000000000000000010000000000000000000000100000000000000000000001000001000000000000000000000000000000000100100100000000000000000000000010000000000000001010000000000000000000000010100010000000000000000000001100000000000001000000000000000000000000000010000000000000010000000000010000000000000000000000000000000000000000000000000001000011100000000000000100000000000001000001000010100000100000000000000010100000100000000000000000001000000000000000110000000000000100000000000000010000010000000000000000000010000000000001100000000010001100010100010000010000000000000000001000000000000000000000000000001000000000000000100000000000000000000000010000000001000000000000000000010000000001000100100000000100010001000000000110000000000000000000000010000000000000000000000100000000010001000000001000000000000000000100000100000000000000000000000000000000000100000000010000000000010010000010000000000101100010000000000010000000100000001000000000000011001</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="R2" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B2)</f>
         <v>0000010000000000010000000011000000000010000000000000000010010000000000000001010000001011000000000000000000001010000000000010010010000000000000000000100000000000000001000001000010000100000000000000000000000010100000000100000000010000000001100000000000000000000000000000000000000000000000001000000000001000000000000000000100000000000000100100000000000100000000000000001100000000000000000000000110000000000000000001000000000000000000000000000000010000100000101000000000001011001000000000000000000000000010100100000100000000001000000000000000000011010001100000000000000000000000000000000000001000000001000100000000000000000000100000000000000100000000101000000000000000000000000010000000000100000000000000000000000001000001000000000000000000000001110001000010000000100000000000000000000000000000000000000000000000000000000000000000000010000000000000001000100000000000010100000000000000000000000000000000000000000000001000000000001000000000100000000000001000010000000000000000000000000010000000000000000000110001000000001000000000</v>
       </c>
-      <c r="R2" t="str">
+      <c r="S2" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B2)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000010010110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000100000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000001101000000000000000000000000000001000001000000000000000000001010000000000000000000000000000000000000000010000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000011000000001011000100010010000000000000000000011000000010000110100110000110110011001000101000010100000001000000000000000000000010000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000010100001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000010001000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S2" t="str">
+      <c r="T2" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B2)</f>
         <v>0010000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000100000000100100000000000000000100000000000000000000000000000000000000000000000000000001000100000000000001000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000001000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000</v>
       </c>
-      <c r="T2" t="str">
+      <c r="U2" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B2)</f>
         <v>0000000000000000001000000000000000001000001000000100100000000100010000000001100100000000111100001110000001010101010011011000001110100001100001100110011001110111101110</v>
       </c>
-      <c r="U2" t="str">
+      <c r="V2" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B2)</f>
         <v>0100000000000100100000000000000010000000110000000010000110000000101110100000000000100000000000000000000000100000000100001000100001000000000010000000000000001000000000000000000000000110000000000000100000000000001001000000000011000001001000000000000010000000000000001000100000000000000000010100000000000000100000000000000000000000000000000010000000000000000010000100000000000000000000000000000000000000000000110000000000000100000100000000010000000000010000000011010000000000000000000001011000000000000000010100000000000000100000000000010001001100000000000000000000000001000000000000100000000010000000000001000000000010000000000000000000000000000000000100010000000000000001000000100010000000100101001001000001001110001100010000000000000000000000000000000000000000000000100010000000000000001010000000000000000000000010000000000000000001110000000000000010000000000000100000000100100000000000000000011100000010000000000000000000000000000000000000000000000000000100000000000000100000000000000000000000101010000000101000000000000000</v>
       </c>
-      <c r="V2" t="str">
+      <c r="W2" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B2)</f>
         <v>1101100000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000010100001</v>
       </c>
-      <c r="W2" t="str">
+      <c r="X2" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B2)</f>
         <v>00000000011100110011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000001111000000000000100000000000000000000000000000000111000000000100000011000000000000000000000110000000000000010110000000000000000000000100010000000001000100001010100100001000000000000000000000000000000000000001000000000000000000000000000000000100000000001000000000000000000001000100000000000000000011010000010001100000100000000000001000000000000000000000010001000010100100010000010000000000000000011000110001000100011000000100011110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X2" s="2">
+      <c r="Y2" s="2">
         <f>_xll.NCDK_MolecularWeight(B2)</f>
         <v>250.29412142388836</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Z2" s="2">
         <f>_xll.NCDK_ExactMass(B2)</f>
         <v>250.13174243599997</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f>_xll.NCDK_AcidicGroupCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AB2" s="4">
         <f>_xll.NCDK_ALogP(B2)</f>
         <v>2.1996999999999991</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AC2" s="4">
         <f>_xll.NCDK_XLogP(B2)</f>
         <v>2.1759999999999997</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AD2" s="4">
         <f>_xll.NCDK_MannholdLogP(B2)</f>
         <v>2.34</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AE2" s="4">
         <f>_xll.NCDK_JPlogP(B2)</f>
         <v>1.7050260777332682</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <f>_xll.NCDK_AMolarRefractivity(B2)</f>
         <v>66.252700000000004</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <f>_xll.NCDK_APol(B2)</f>
         <v>39.488274000000011</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <f>_xll.NCDK_AromaticAtomsCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <f>_xll.NCDK_AromaticBondsCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <f>_xll.NCDK_AtomCount(B2)</f>
         <v>36</v>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AK2" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B2)</f>
         <v>0.482364049323966, -0.239230483102807, 0.193743260003086, -0.422975414094056, 0.245070516996786</v>
       </c>
-      <c r="AK2" t="str">
+      <c r="AL2" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B2)</f>
         <v>21.0433677091758, 20.6610036641195, 30.570374510169, 39.3180113704083, 36.7520657397667</v>
       </c>
-      <c r="AL2" t="str">
+      <c r="AM2" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B2)</f>
         <v>1236.72445709937, 1455.26096710327, 2067.09825744824, 2452.45202784668, 1776.45546782422</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <f>_xll.NCDK_BasicGroupCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AN2" t="str">
+      <c r="AO2" t="str">
         <f>_xll.NCDK_BCUT(B2)</f>
         <v>11.89, 15.9969274797474, -0.279527566151374, 0.285306450703295, 4.45516607690972, 12.225254833975</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <f>_xll.NCDK_BondCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <f>_xll.NCDK_BPol(B2)</f>
         <v>23.871725999999995</v>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AR2" t="str">
         <f>_xll.NCDK_CarbonTypes(B2)</f>
         <v>0, 0, 2, 1, 1, 1, 6, 0, 1</v>
       </c>
-      <c r="AR2" t="str">
+      <c r="AS2" t="str">
         <f>_xll.NCDK_ChiChain(B2)</f>
         <v>0, 0, 0, 0.0481125224324688, 0.206136035947173, 0, 0, 0, 0.015625, 0.0379976820715334</v>
       </c>
-      <c r="AS2" t="str">
+      <c r="AT2" t="str">
         <f>_xll.NCDK_ChiCluster(B2)</f>
         <v>1.29103942781429, 0.0680413817439772, 0.635379749451514, 0.130245735736926, 0.58282022448487, 0.0441941738241592, 0.195368603605389, 0.0360843918243516</v>
       </c>
-      <c r="AT2" t="str">
+      <c r="AU2" t="str">
         <f>_xll.NCDK_ChiPathCluster(B2)</f>
         <v>3.75820832838601, 7.24003474940441, 9.47142848690227, 1.60201233255417, 2.48389505922722, 2.76623804293011</v>
       </c>
-      <c r="AU2" t="str">
+      <c r="AV2" t="str">
         <f>_xll.NCDK_ChiPath(B2)</f>
         <v>13.1733621074374, 8.60822612591632, 7.53308445980525, 6.57446305443147, 5.83502554474493, 3.66414268256136, 2.81639208561656, 1.24750715936873, 10.5447358277005, 6.47350942312757, 4.82495377161152, 3.84884458919458, 2.7963481600948, 1.78170696456175, 1.19223951604789, 0.520731228864019</v>
       </c>
-      <c r="AV2" t="str">
+      <c r="AW2" t="str">
         <f>_xll.NCDK_CPSA(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <f>_xll.NCDK_EccentricConnectivityIndex(B2)</f>
         <v>226</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <f>_xll.NCDK_FMF(B2)</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <f>_xll.NCDK_FractionalPSA(B2)</f>
         <v>0.30092142334124705</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <f>_xll.NCDK_FragmentComplexity(B2)</f>
         <v>1063.05</v>
       </c>
-      <c r="BA2" t="str">
+      <c r="BB2" t="str">
         <f>_xll.NCDK_GravitationalIndex(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <f>_xll.NCDK_HBondAcceptorCount(B2)</f>
         <v>5</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <f>_xll.NCDK_HBondDonorCount(B2)</f>
         <v>2</v>
       </c>
-      <c r="BD2">
+      <c r="BE2">
         <f>_xll.NCDK_HybridizationRatio(B2)</f>
         <v>0.61538461538461542</v>
       </c>
-      <c r="BE2" t="str">
+      <c r="BF2" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B2)</f>
         <v>14.409972299169, 5.96982167352538, 2.65927977839335</v>
       </c>
-      <c r="BF2" t="str">
+      <c r="BG2" t="str">
         <f>_xll.NCDK_KierHallSmarts(B2)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 6, 0, 1, 0, 0, 0, 0, 4, 0, 0, 1, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <f>_xll.NCDK_LargestChain(B2)</f>
         <v>2</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <f>_xll.NCDK_LargestPiSystem(B2)</f>
         <v>8</v>
       </c>
-      <c r="BI2" t="str">
+      <c r="BJ2" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ2">
+      <c r="BK2">
         <f>_xll.NCDK_LongestAliphaticChain(B2)</f>
         <v>2</v>
       </c>
-      <c r="BK2" t="str">
+      <c r="BL2" t="str">
         <f>_xll.NCDK_MDE(B2)</f>
         <v>0, 1.78256861348341, 1.17348231572452, 0.5, 9.28105720195319, 8.27801156561087, 2.82326712400687, 2.67269615442102, 3.03934274260637, 0, 0.75, 0, 0, 0, 0, 0, 0.5, 0, 0</v>
       </c>
-      <c r="BL2" t="str">
+      <c r="BM2" t="str">
         <f>_xll.NCDK_MomentOfInertia(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BM2">
+      <c r="BN2">
         <f>_xll.NCDK_PetitjeanNumber(B2)</f>
         <v>0.5</v>
       </c>
-      <c r="BN2" t="str">
+      <c r="BO2" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BO2">
+      <c r="BP2">
         <f>_xll.NCDK_RotatableBondsCount(B2)</f>
         <v>2</v>
       </c>
-      <c r="BP2">
+      <c r="BQ2">
         <f>_xll.NCDK_RuleOfFive(B2)</f>
         <v>0</v>
       </c>
-      <c r="BQ2" t="str">
+      <c r="BR2" t="str">
         <f>_xll.NCDK_SmallRing(B2)</f>
         <v>2, 0, 2, 0, 0, 0, 0, 1, 1, 0, 0</v>
       </c>
-      <c r="BR2">
+      <c r="BS2">
         <f>_xll.NCDK_TPSA(B2)</f>
         <v>75.27000000000001</v>
       </c>
-      <c r="BS2">
+      <c r="BT2">
         <f>_xll.NCDK_VABC(B2)</f>
         <v>246.50970715028382</v>
       </c>
-      <c r="BT2">
+      <c r="BU2">
         <f>_xll.NCDK_VAdjMa(B2)</f>
         <v>5.2479275134435852</v>
       </c>
-      <c r="BU2" s="2">
+      <c r="BV2" s="2">
         <f>_xll.NCDK_MolecularWeight(B2)</f>
         <v>250.29412142388836</v>
       </c>
-      <c r="BV2" s="3">
+      <c r="BW2" s="3">
         <f>_xll.NCDK_ExactMass(B2)</f>
         <v>250.13174243599997</v>
       </c>
-      <c r="BW2" t="str">
+      <c r="BX2" t="str">
         <f>_xll.NCDK_WeightedPath(B2)</f>
         <v>35.9822147160759, 1.99901192867088, 13.5466431850826, 7.60403910050065, 5.94260408458194</v>
       </c>
-      <c r="BX2" t="str">
+      <c r="BY2" t="str">
         <f>_xll.NCDK_WHIM(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BY2" t="str">
+      <c r="BZ2" t="str">
         <f>_xll.NCDK_WienerNumbers(B2)</f>
         <v>537, 35</v>
       </c>
-      <c r="BZ2">
+      <c r="CA2">
         <f>_xll.NCDK_ZagrebIndex(B2)</f>
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -3204,7 +3213,7 @@
 </v>
       </c>
       <c r="D3">
-        <f>_xll.NCDK_Tanimoto($H3,$H4)</f>
+        <f>_xll.NCDK_Tanimoto($I3,$I4)</f>
         <v>0</v>
       </c>
       <c r="E3" t="str">
@@ -3212,299 +3221,303 @@
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
       </c>
       <c r="F3" t="str">
+        <f>_xll.RDKit_MACCSFingerprint(B3)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
+      </c>
+      <c r="G3" t="str">
         <f>_xll.NCDK_ECFP0($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <f>_xll.NCDK_ECFP2($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <f>_xll.NCDK_ECFP4($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <f>_xll.NCDK_ECFP6($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>_xll.NCDK_FCFP0($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f>_xll.NCDK_FCFP2($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>_xll.NCDK_FCFP4($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>_xll.NCDK_FCFP0($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="R3" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R3" t="str">
+      <c r="S3" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S3" t="str">
+      <c r="T3" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T3" t="str">
+      <c r="U3" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
       </c>
-      <c r="U3" t="str">
+      <c r="V3" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V3" t="str">
+      <c r="W3" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W3" t="str">
+      <c r="X3" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B3)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X3" s="2">
+      <c r="Y3" s="2">
         <f>_xll.NCDK_MolecularWeight(B3)</f>
         <v>16.042498912091162</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Z3" s="2">
         <f>_xll.NCDK_ExactMass(B3)</f>
         <v>16.031300127999998</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <f>_xll.NCDK_AcidicGroupCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AB3" s="4">
         <f>_xll.NCDK_ALogP(B3)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AC3" s="4">
         <f>_xll.NCDK_XLogP(B3)</f>
         <v>0.73899999999999999</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AD3" s="4">
         <f>_xll.NCDK_MannholdLogP(B3)</f>
         <v>1.57</v>
       </c>
-      <c r="AD3" s="4" t="e">
+      <c r="AE3" s="4" t="e">
         <f>_xll.NCDK_JPlogP(B3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <f>_xll.NCDK_AMolarRefractivity(B3)</f>
         <v>0</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <f>_xll.NCDK_APol(B3)</f>
         <v>4.4271719999999997</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <f>_xll.NCDK_AromaticAtomsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <f>_xll.NCDK_AromaticBondsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <f>_xll.NCDK_AtomCount(B3)</f>
         <v>5</v>
       </c>
-      <c r="AJ3" t="str">
+      <c r="AK3" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B3)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AK3" t="str">
+      <c r="AL3" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B3)</f>
         <v>1, 0, 0, 0, 0</v>
       </c>
-      <c r="AL3" t="str">
+      <c r="AM3" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B3)</f>
         <v>6.822544, 0, 0, 0, 0</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <f>_xll.NCDK_BasicGroupCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AN3" t="str">
+      <c r="AO3" t="str">
         <f>_xll.NCDK_BCUT(B3)</f>
         <v>12, 12, -0.0779229231460157, -0.0779229231460157, 2.612, 2.612</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <f>_xll.NCDK_BondCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <f>_xll.NCDK_BPol(B3)</f>
         <v>4.3728280000000002</v>
       </c>
-      <c r="AQ3" t="str">
+      <c r="AR3" t="str">
         <f>_xll.NCDK_CarbonTypes(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AR3" t="str">
+      <c r="AS3" t="str">
         <f>_xll.NCDK_ChiChain(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AS3" t="str">
+      <c r="AT3" t="str">
         <f>_xll.NCDK_ChiCluster(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AT3" t="str">
+      <c r="AU3" t="str">
         <f>_xll.NCDK_ChiPathCluster(B3)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AU3" t="str">
+      <c r="AV3" t="str">
         <f>_xll.NCDK_ChiPath(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AV3" t="str">
+      <c r="AW3" t="str">
         <f>_xll.NCDK_CPSA(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <f>_xll.NCDK_EccentricConnectivityIndex(B3)</f>
         <v>0</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <f>_xll.NCDK_FMF(B3)</f>
         <v>0</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <f>_xll.NCDK_FractionalPSA(B3)</f>
         <v>0</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <f>_xll.NCDK_FragmentComplexity(B3)</f>
         <v>16</v>
       </c>
-      <c r="BA3" t="str">
+      <c r="BB3" t="str">
         <f>_xll.NCDK_GravitationalIndex(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <f>_xll.NCDK_HBondAcceptorCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="BC3">
+      <c r="BD3">
         <f>_xll.NCDK_HBondDonorCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="BD3">
+      <c r="BE3">
         <f>_xll.NCDK_HybridizationRatio(B3)</f>
         <v>1</v>
       </c>
-      <c r="BE3" t="str">
+      <c r="BF3" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B3)</f>
         <v>0, 0, 0</v>
       </c>
-      <c r="BF3" t="str">
+      <c r="BG3" t="str">
         <f>_xll.NCDK_KierHallSmarts(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <f>_xll.NCDK_LargestChain(B3)</f>
         <v>0</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <f>_xll.NCDK_LargestPiSystem(B3)</f>
         <v>0</v>
       </c>
-      <c r="BI3" t="str">
+      <c r="BJ3" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ3">
+      <c r="BK3">
         <f>_xll.NCDK_LongestAliphaticChain(B3)</f>
         <v>0</v>
       </c>
-      <c r="BK3" t="str">
+      <c r="BL3" t="str">
         <f>_xll.NCDK_MDE(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BL3" t="str">
+      <c r="BM3" t="str">
         <f>_xll.NCDK_MomentOfInertia(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BM3">
+      <c r="BN3">
         <f>_xll.NCDK_PetitjeanNumber(B3)</f>
         <v>0</v>
       </c>
-      <c r="BN3" t="str">
+      <c r="BO3" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BO3">
+      <c r="BP3">
         <f>_xll.NCDK_RotatableBondsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="BP3">
+      <c r="BQ3">
         <f>_xll.NCDK_RuleOfFive(B3)</f>
         <v>0</v>
       </c>
-      <c r="BQ3" t="str">
+      <c r="BR3" t="str">
         <f>_xll.NCDK_SmallRing(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BR3">
+      <c r="BS3">
         <f>_xll.NCDK_TPSA(B3)</f>
         <v>0</v>
       </c>
-      <c r="BS3">
+      <c r="BT3">
         <f>_xll.NCDK_VABC(B3)</f>
         <v>25.852443326666702</v>
       </c>
-      <c r="BT3">
+      <c r="BU3">
         <f>_xll.NCDK_VAdjMa(B3)</f>
         <v>0</v>
       </c>
-      <c r="BU3" s="2">
+      <c r="BV3" s="2">
         <f>_xll.NCDK_MolecularWeight(B3)</f>
         <v>16.042498912091162</v>
       </c>
-      <c r="BV3" s="3">
+      <c r="BW3" s="3">
         <f>_xll.NCDK_ExactMass(B3)</f>
         <v>16.031300127999998</v>
       </c>
-      <c r="BW3" t="str">
+      <c r="BX3" t="str">
         <f>_xll.NCDK_WeightedPath(B3)</f>
         <v>1, 1, 0, 0, 0</v>
       </c>
-      <c r="BX3" t="str">
+      <c r="BY3" t="str">
         <f>_xll.NCDK_WHIM(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BY3" t="str">
+      <c r="BZ3" t="str">
         <f>_xll.NCDK_WienerNumbers(B3)</f>
         <v>0, 0</v>
       </c>
-      <c r="BZ3">
+      <c r="CA3">
         <f>_xll.NCDK_ZagrebIndex(B3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -3516,7 +3529,7 @@
         <v>InChI=1S/C2H4O2/c1-2(3)4/h1H3,(H,3,4)</v>
       </c>
       <c r="D4">
-        <f>_xll.NCDK_Tanimoto($H4,$H5)</f>
+        <f>_xll.NCDK_Tanimoto($I4,$I5)</f>
         <v>0</v>
       </c>
       <c r="E4" t="str">
@@ -3524,299 +3537,303 @@
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000000000001001011000100</v>
       </c>
       <c r="F4" t="str">
+        <f>_xll.RDKit_MACCSFingerprint(B4)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000000000001001011000100</v>
+      </c>
+      <c r="G4" t="str">
         <f>_xll.NCDK_ECFP0($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <f>_xll.NCDK_ECFP2($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <f>_xll.NCDK_ECFP4($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f>_xll.NCDK_ECFP6($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f>_xll.NCDK_FCFP0($B4)</f>
         <v>1010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f>_xll.NCDK_FCFP2($B4)</f>
         <v>1010000010000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>_xll.NCDK_FCFP4($B4)</f>
         <v>1010000010000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f>_xll.NCDK_FCFP0($B4)</f>
         <v>1010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B4)</f>
         <v>101000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B4)</f>
         <v>0000001000000001000000000000000001100000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B4)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010010000000000000000000000000000000000000000001000</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="R4" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000001010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R4" t="str">
+      <c r="S4" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B4)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000010000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S4" t="str">
+      <c r="T4" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B4)</f>
         <v>0000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T4" t="str">
+      <c r="U4" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000000000001001011000100</v>
       </c>
-      <c r="U4" t="str">
+      <c r="V4" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000100000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000010000000000000001000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000</v>
       </c>
-      <c r="V4" t="str">
+      <c r="W4" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B4)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000010000000</v>
       </c>
-      <c r="W4" t="str">
+      <c r="X4" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B4)</f>
         <v>00000000010000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000000000000000100000001000000000000000000000100000100000000000000000000000001000000000000010000000000000000000100100000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <f>_xll.NCDK_MolecularWeight(B4)</f>
         <v>60.052044664017956</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Z4" s="2">
         <f>_xll.NCDK_ExactMass(B4)</f>
         <v>60.021129367999997</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f>_xll.NCDK_AcidicGroupCount(B4)</f>
         <v>1</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AB4" s="4">
         <f>_xll.NCDK_ALogP(B4)</f>
         <v>-0.22990000000000016</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AC4" s="4">
         <f>_xll.NCDK_XLogP(B4)</f>
         <v>-0.08</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AD4" s="4">
         <f>_xll.NCDK_MannholdLogP(B4)</f>
         <v>1.46</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AE4" s="4">
         <f>_xll.NCDK_JPlogP(B4)</f>
         <v>-0.27735415884610526</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <f>_xll.NCDK_AMolarRefractivity(B4)</f>
         <v>12.643699999999999</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <f>_xll.NCDK_APol(B4)</f>
         <v>7.7911719999999995</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f>_xll.NCDK_AromaticAtomsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <f>_xll.NCDK_AromaticBondsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <f>_xll.NCDK_AtomCount(B4)</f>
         <v>8</v>
       </c>
-      <c r="AJ4" t="str">
+      <c r="AK4" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B4)</f>
         <v>0.194598407923705, -0.0910121789036757, -0.00628702505817703, 0, 0</v>
       </c>
-      <c r="AK4" t="str">
+      <c r="AL4" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B4)</f>
         <v>5.54893807108189, 3.66418395426513, 4.43865298980608, 0, 0</v>
       </c>
-      <c r="AL4" t="str">
+      <c r="AM4" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B4)</f>
         <v>58.780575625, 47.106336, 38.8410481875, 0, 0</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <f>_xll.NCDK_BasicGroupCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AN4" t="str">
+      <c r="AO4" t="str">
         <f>_xll.NCDK_BCUT(B4)</f>
         <v>11.9966879762366, 15.9982572603197, -0.351666803410558, 0.275648439067482, 3.09299617864267, 4.35788090208676</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <f>_xll.NCDK_BondCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <f>_xll.NCDK_BPol(B4)</f>
         <v>5.3308280000000003</v>
       </c>
-      <c r="AQ4" t="str">
+      <c r="AR4" t="str">
         <f>_xll.NCDK_CarbonTypes(B4)</f>
         <v>0, 0, 1, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="AR4" t="str">
+      <c r="AS4" t="str">
         <f>_xll.NCDK_ChiChain(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AS4" t="str">
+      <c r="AT4" t="str">
         <f>_xll.NCDK_ChiCluster(B4)</f>
         <v>0.577350269189626, 0, 0, 0, 0.0912870929175277, 0, 0, 0</v>
       </c>
-      <c r="AT4" t="str">
+      <c r="AU4" t="str">
         <f>_xll.NCDK_ChiPathCluster(B4)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AU4" t="str">
+      <c r="AV4" t="str">
         <f>_xll.NCDK_ChiPath(B4)</f>
         <v>3.57735026918963, 1.73205080756888, 1.73205080756888, 0, 0, 0, 0, 0, 2.35546188596382, 0.927730942981911, 0.519018035899438, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AV4" t="str">
+      <c r="AW4" t="str">
         <f>_xll.NCDK_CPSA(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <f>_xll.NCDK_EccentricConnectivityIndex(B4)</f>
         <v>9</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <f>_xll.NCDK_FMF(B4)</f>
         <v>0</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <f>_xll.NCDK_FractionalPSA(B4)</f>
         <v>0.62144781967398288</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <f>_xll.NCDK_FragmentComplexity(B4)</f>
         <v>37.020000000000003</v>
       </c>
-      <c r="BA4" t="str">
+      <c r="BB4" t="str">
         <f>_xll.NCDK_GravitationalIndex(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <f>_xll.NCDK_HBondAcceptorCount(B4)</f>
         <v>2</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <f>_xll.NCDK_HBondDonorCount(B4)</f>
         <v>1</v>
       </c>
-      <c r="BD4">
+      <c r="BE4">
         <f>_xll.NCDK_HybridizationRatio(B4)</f>
         <v>0.5</v>
       </c>
-      <c r="BE4" t="str">
+      <c r="BF4" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B4)</f>
         <v>4, 1.33333333333333, #N/A</v>
       </c>
-      <c r="BF4" t="str">
+      <c r="BG4" t="str">
         <f>_xll.NCDK_KierHallSmarts(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <f>_xll.NCDK_LargestChain(B4)</f>
         <v>3</v>
       </c>
-      <c r="BH4">
+      <c r="BI4">
         <f>_xll.NCDK_LargestPiSystem(B4)</f>
         <v>2</v>
       </c>
-      <c r="BI4" t="str">
+      <c r="BJ4" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ4">
+      <c r="BK4">
         <f>_xll.NCDK_LongestAliphaticChain(B4)</f>
         <v>2</v>
       </c>
-      <c r="BK4" t="str">
+      <c r="BL4" t="str">
         <f>_xll.NCDK_MDE(B4)</f>
         <v>0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0.5, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BL4" t="str">
+      <c r="BM4" t="str">
         <f>_xll.NCDK_MomentOfInertia(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BM4">
+      <c r="BN4">
         <f>_xll.NCDK_PetitjeanNumber(B4)</f>
         <v>0.5</v>
       </c>
-      <c r="BN4" t="str">
+      <c r="BO4" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BO4">
+      <c r="BP4">
         <f>_xll.NCDK_RotatableBondsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="BP4">
+      <c r="BQ4">
         <f>_xll.NCDK_RuleOfFive(B4)</f>
         <v>0</v>
       </c>
-      <c r="BQ4" t="str">
+      <c r="BR4" t="str">
         <f>_xll.NCDK_SmallRing(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BR4">
+      <c r="BS4">
         <f>_xll.NCDK_TPSA(B4)</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="BS4">
+      <c r="BT4">
         <f>_xll.NCDK_VABC(B4)</f>
         <v>58.092422652855603</v>
       </c>
-      <c r="BT4">
+      <c r="BU4">
         <f>_xll.NCDK_VAdjMa(B4)</f>
         <v>2.5849625007211561</v>
       </c>
-      <c r="BU4" s="2">
+      <c r="BV4" s="2">
         <f>_xll.NCDK_MolecularWeight(B4)</f>
         <v>60.052044664017956</v>
       </c>
-      <c r="BV4" s="3">
+      <c r="BW4" s="3">
         <f>_xll.NCDK_ExactMass(B4)</f>
         <v>60.021129367999997</v>
       </c>
-      <c r="BW4" t="str">
+      <c r="BX4" t="str">
         <f>_xll.NCDK_WeightedPath(B4)</f>
         <v>6.73205080756888, 1.68301270189222, 4.48803387171259, 4.48803387171259, 0</v>
       </c>
-      <c r="BX4" t="str">
+      <c r="BY4" t="str">
         <f>_xll.NCDK_WHIM(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BY4" t="str">
+      <c r="BZ4" t="str">
         <f>_xll.NCDK_WienerNumbers(B4)</f>
         <v>9, 0</v>
       </c>
-      <c r="BZ4">
+      <c r="CA4">
         <f>_xll.NCDK_ZagrebIndex(B4)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -3828,7 +3845,7 @@
         <v>InChI=1S/C6H6/c1-2-4-6-5-3-1/h1-6H</v>
       </c>
       <c r="D5">
-        <f>_xll.NCDK_Tanimoto($H5,$H6)</f>
+        <f>_xll.NCDK_Tanimoto($I5,$I6)</f>
         <v>0.27272727272727271</v>
       </c>
       <c r="E5" t="str">
@@ -3836,299 +3853,303 @@
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
       </c>
       <c r="F5" t="str">
+        <f>_xll.RDKit_MACCSFingerprint(B5)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
+      </c>
+      <c r="G5" t="str">
         <f>_xll.NCDK_ECFP0($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <f>_xll.NCDK_ECFP2($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <f>_xll.NCDK_ECFP4($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f>_xll.NCDK_ECFP6($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>_xll.NCDK_FCFP0($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>_xll.NCDK_FCFP2($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>_xll.NCDK_FCFP4($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f>_xll.NCDK_FCFP0($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B5)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B5)</f>
         <v>0000000000010000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B5)</f>
         <v>000000000000000000000000000000000000000000000000000001000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000010000000000000000000000000000000000000000000000000000000000010001</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="R5" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R5" t="str">
+      <c r="S5" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B5)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S5" t="str">
+      <c r="T5" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B5)</f>
         <v>0000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000</v>
       </c>
-      <c r="T5" t="str">
+      <c r="U5" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
       </c>
-      <c r="U5" t="str">
+      <c r="V5" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001</v>
       </c>
-      <c r="V5" t="str">
+      <c r="W5" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001</v>
       </c>
-      <c r="W5" t="str">
+      <c r="X5" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B5)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001100000000000000000000000000000000000000000000000100000000000100000000001000000000000001100000000000010000000000000000000000000000000100000000000000000100000010000100000000000000000000000100000000000000000001000000000000000000000000010001000100000000000000000000000000010001000000010000010000000100010100000000001000100010000100000000010000000000000001000001000000000000000000010001000100000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <f>_xll.NCDK_MolecularWeight(B5)</f>
         <v>78.112059903682749</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Z5" s="2">
         <f>_xll.NCDK_ExactMass(B5)</f>
         <v>78.046950191999997</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <f>_xll.NCDK_AcidicGroupCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AB5" s="4">
         <f>_xll.NCDK_ALogP(B5)</f>
         <v>1.8299999999999996</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AC5" s="4">
         <f>_xll.NCDK_XLogP(B5)</f>
         <v>2.0220000000000002</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AD5" s="4">
         <f>_xll.NCDK_MannholdLogP(B5)</f>
         <v>2.12</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AE5" s="4">
         <f>_xll.NCDK_JPlogP(B5)</f>
         <v>1.8466303941078017</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f>_xll.NCDK_AMolarRefractivity(B5)</f>
         <v>26.058</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <f>_xll.NCDK_APol(B5)</f>
         <v>14.560758</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f>_xll.NCDK_AromaticAtomsCount(B5)</f>
         <v>6</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <f>_xll.NCDK_AromaticBondsCount(B5)</f>
         <v>6</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <f>_xll.NCDK_AtomCount(B5)</f>
         <v>12</v>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AK5" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B5)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AK5" t="str">
+      <c r="AL5" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B5)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AL5" t="str">
+      <c r="AM5" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B5)</f>
         <v>233.87838834375, 233.87838834375, 233.87838834375, 116.939194171875, 0</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <f>_xll.NCDK_BasicGroupCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AN5" t="str">
+      <c r="AO5" t="str">
         <f>_xll.NCDK_BCUT(B5)</f>
         <v>11.85, 12.1500544016358, -0.211758152069243, 0.0882962495665529, 6.093375, 6.3934294016358</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <f>_xll.NCDK_BondCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <f>_xll.NCDK_BPol(B5)</f>
         <v>6.5592419999999994</v>
       </c>
-      <c r="AQ5" t="str">
+      <c r="AR5" t="str">
         <f>_xll.NCDK_CarbonTypes(B5)</f>
         <v>0, 0, 0, 6, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AR5" t="str">
+      <c r="AS5" t="str">
         <f>_xll.NCDK_ChiChain(B5)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.037037037037037, 0</v>
       </c>
-      <c r="AS5" t="str">
+      <c r="AT5" t="str">
         <f>_xll.NCDK_ChiCluster(B5)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AT5" t="str">
+      <c r="AU5" t="str">
         <f>_xll.NCDK_ChiPathCluster(B5)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AU5" t="str">
+      <c r="AV5" t="str">
         <f>_xll.NCDK_ChiPath(B5)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 3.46410161513775, 2, 1.15470053837925, 0.666666666666667, 0.384900179459751, 0.222222222222222, 0, 0</v>
       </c>
-      <c r="AV5" t="str">
+      <c r="AW5" t="str">
         <f>_xll.NCDK_CPSA(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <f>_xll.NCDK_EccentricConnectivityIndex(B5)</f>
         <v>36</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <f>_xll.NCDK_FMF(B5)</f>
         <v>1</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <f>_xll.NCDK_FractionalPSA(B5)</f>
         <v>0</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <f>_xll.NCDK_FragmentComplexity(B5)</f>
         <v>114</v>
       </c>
-      <c r="BA5" t="str">
+      <c r="BB5" t="str">
         <f>_xll.NCDK_GravitationalIndex(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <f>_xll.NCDK_HBondAcceptorCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="BC5">
+      <c r="BD5">
         <f>_xll.NCDK_HBondDonorCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="BD5">
+      <c r="BE5">
         <f>_xll.NCDK_HybridizationRatio(B5)</f>
         <v>0</v>
       </c>
-      <c r="BE5" t="str">
+      <c r="BF5" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B5)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="BF5" t="str">
+      <c r="BG5" t="str">
         <f>_xll.NCDK_KierHallSmarts(B5)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <f>_xll.NCDK_LargestChain(B5)</f>
         <v>0</v>
       </c>
-      <c r="BH5">
+      <c r="BI5">
         <f>_xll.NCDK_LargestPiSystem(B5)</f>
         <v>6</v>
       </c>
-      <c r="BI5" t="str">
+      <c r="BJ5" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ5">
+      <c r="BK5">
         <f>_xll.NCDK_LongestAliphaticChain(B5)</f>
         <v>0</v>
       </c>
-      <c r="BK5" t="str">
+      <c r="BL5" t="str">
         <f>_xll.NCDK_MDE(B5)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BL5" t="str">
+      <c r="BM5" t="str">
         <f>_xll.NCDK_MomentOfInertia(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BM5">
+      <c r="BN5">
         <f>_xll.NCDK_PetitjeanNumber(B5)</f>
         <v>0</v>
       </c>
-      <c r="BN5" t="str">
+      <c r="BO5" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BO5">
+      <c r="BP5">
         <f>_xll.NCDK_RotatableBondsCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="BP5">
+      <c r="BQ5">
         <f>_xll.NCDK_RuleOfFive(B5)</f>
         <v>0</v>
       </c>
-      <c r="BQ5" t="str">
+      <c r="BR5" t="str">
         <f>_xll.NCDK_SmallRing(B5)</f>
         <v>1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BR5">
+      <c r="BS5">
         <f>_xll.NCDK_TPSA(B5)</f>
         <v>0</v>
       </c>
-      <c r="BS5">
+      <c r="BT5">
         <f>_xll.NCDK_VABC(B5)</f>
         <v>81.166531652800174</v>
       </c>
-      <c r="BT5">
+      <c r="BU5">
         <f>_xll.NCDK_VAdjMa(B5)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BU5" s="2">
+      <c r="BV5" s="2">
         <f>_xll.NCDK_MolecularWeight(B5)</f>
         <v>78.112059903682749</v>
       </c>
-      <c r="BV5" s="3">
+      <c r="BW5" s="3">
         <f>_xll.NCDK_ExactMass(B5)</f>
         <v>78.046950191999997</v>
       </c>
-      <c r="BW5" t="str">
+      <c r="BX5" t="str">
         <f>_xll.NCDK_WeightedPath(B5)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BX5" t="str">
+      <c r="BY5" t="str">
         <f>_xll.NCDK_WHIM(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BY5" t="str">
+      <c r="BZ5" t="str">
         <f>_xll.NCDK_WienerNumbers(B5)</f>
         <v>27, 3</v>
       </c>
-      <c r="BZ5">
+      <c r="CA5">
         <f>_xll.NCDK_ZagrebIndex(B5)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -4140,7 +4161,7 @@
         <v>InChI=1S/C7H8/c1-7-5-3-2-4-6-7/h2-6H,1H3</v>
       </c>
       <c r="D6">
-        <f>_xll.NCDK_Tanimoto($H6,$H7)</f>
+        <f>_xll.NCDK_Tanimoto($I6,$I7)</f>
         <v>0</v>
       </c>
       <c r="E6" t="str">
@@ -4148,299 +4169,303 @@
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011010</v>
       </c>
       <c r="F6" t="str">
+        <f>_xll.RDKit_MACCSFingerprint(B6)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011010</v>
+      </c>
+      <c r="G6" t="str">
         <f>_xll.NCDK_ECFP0($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f>_xll.NCDK_ECFP2($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
         <f>_xll.NCDK_ECFP4($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000010000000000000000000000000</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f>_xll.NCDK_ECFP6($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010100000000001000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000010000000000000000000000000</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f>_xll.NCDK_FCFP0($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f>_xll.NCDK_FCFP2($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>_xll.NCDK_FCFP4($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f>_xll.NCDK_FCFP0($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B6)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B6)</f>
         <v>0000001000010000100000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B6)</f>
         <v>000000000000000000000000000000000000000001000000000001000000010000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="R6" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000010010000000000000000000000000000000000000000000000000001000000001000000000000000000000000000000100000000000000000100000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R6" t="str">
+      <c r="S6" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B6)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S6" t="str">
+      <c r="T6" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B6)</f>
         <v>0000000000000000000000001000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000</v>
       </c>
-      <c r="T6" t="str">
+      <c r="U6" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011010</v>
       </c>
-      <c r="U6" t="str">
+      <c r="V6" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000100000000000000000100000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000001000000000001000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101</v>
       </c>
-      <c r="V6" t="str">
+      <c r="W6" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B6)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001</v>
       </c>
-      <c r="W6" t="str">
+      <c r="X6" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B6)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001100000000000000000000000000000000000000000000000110000000000100000000001100000000000001100100000000010000000000000000000000000000000100000000000001000100000010000100000000000000000000000100000000000000000001000000000000000000000000010001000100000000000000000000000000010001000000010000010000000100010100000000001000100010000100000000010000000000000001000001000000000000000000010001000100000000111000000001000000000000000000011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
         <f>_xll.NCDK_MolecularWeight(B6)</f>
         <v>92.13867730812234</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Z6" s="2">
         <f>_xll.NCDK_ExactMass(B6)</f>
         <v>92.062600255999996</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <f>_xll.NCDK_AcidicGroupCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AB6" s="4">
         <f>_xll.NCDK_ALogP(B6)</f>
         <v>2.3162000000000003</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AC6" s="4">
         <f>_xll.NCDK_XLogP(B6)</f>
         <v>2.4590000000000001</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AD6" s="4">
         <f>_xll.NCDK_MannholdLogP(B6)</f>
         <v>2.23</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AE6" s="4">
         <f>_xll.NCDK_JPlogP(B6)</f>
         <v>2.3300074064489729</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <f>_xll.NCDK_AMolarRefractivity(B6)</f>
         <v>31.0992</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <f>_xll.NCDK_APol(B6)</f>
         <v>17.654343999999998</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f>_xll.NCDK_AromaticAtomsCount(B6)</f>
         <v>6</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <f>_xll.NCDK_AromaticBondsCount(B6)</f>
         <v>6</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <f>_xll.NCDK_AtomCount(B6)</f>
         <v>15</v>
       </c>
-      <c r="AJ6" t="str">
+      <c r="AK6" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B6)</f>
         <v>0.00145821501522747, -0.000488055819316601, -0.000225165712015084, -1.53979004755717E-05, -4.88075806479512E-07</v>
       </c>
-      <c r="AK6" t="str">
+      <c r="AL6" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B6)</f>
         <v>7, 7, 8, 5, 1</v>
       </c>
-      <c r="AL6" t="str">
+      <c r="AM6" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B6)</f>
         <v>310.962687273438, 320.438287539063, 355.858255328125, 213.793837835938, 36.9196446054688</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <f>_xll.NCDK_BasicGroupCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AN6" t="str">
+      <c r="AO6" t="str">
         <f>_xll.NCDK_BCUT(B6)</f>
         <v>11.89, 12.1100942558098, -0.155208136358149, 0.0651359477608963, 5.76122693815409, 7.50783741355056</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <f>_xll.NCDK_BondCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <f>_xll.NCDK_BPol(B6)</f>
         <v>8.7456560000000003</v>
       </c>
-      <c r="AQ6" t="str">
+      <c r="AR6" t="str">
         <f>_xll.NCDK_CarbonTypes(B6)</f>
         <v>0, 0, 0, 5, 1, 1, 0, 0, 0</v>
       </c>
-      <c r="AR6" t="str">
+      <c r="AS6" t="str">
         <f>_xll.NCDK_ChiChain(B6)</f>
         <v>0, 0, 0, 0.102062072615966, 0.102062072615966, 0, 0, 0, 0.0320750149549792, 0.0320750149549792</v>
       </c>
-      <c r="AS6" t="str">
+      <c r="AT6" t="str">
         <f>_xll.NCDK_ChiCluster(B6)</f>
         <v>0.288675134594813, 0, 0, 0, 0.166666666666667, 0, 0, 0</v>
       </c>
-      <c r="AT6" t="str">
+      <c r="AU6" t="str">
         <f>_xll.NCDK_ChiPathCluster(B6)</f>
         <v>0.408248290463863, 0.433012701892219, 0.408248290463863, 0.192450089729875, 0.166666666666667, 0.128300059819917</v>
       </c>
-      <c r="AU6" t="str">
+      <c r="AV6" t="str">
         <f>_xll.NCDK_ChiPath(B6)</f>
         <v>5.11288417512236, 3.39384685011735, 2.74318215649199, 1.89384685011735, 1.30671282224753, 0.901047570290607, 0.204124145231932, 0, 4.38675134594813, 2.41068360252296, 1.65470053837925, 0.940455735015306, 0.534377897417612, 0.303561200840986, 0.0641500299099584, 0</v>
       </c>
-      <c r="AV6" t="str">
+      <c r="AW6" t="str">
         <f>_xll.NCDK_CPSA(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW6">
+      <c r="AX6">
         <f>_xll.NCDK_EccentricConnectivityIndex(B6)</f>
         <v>45</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <f>_xll.NCDK_FMF(B6)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <f>_xll.NCDK_FractionalPSA(B6)</f>
         <v>0</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <f>_xll.NCDK_FragmentComplexity(B6)</f>
         <v>183</v>
       </c>
-      <c r="BA6" t="str">
+      <c r="BB6" t="str">
         <f>_xll.NCDK_GravitationalIndex(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <f>_xll.NCDK_HBondAcceptorCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="BC6">
+      <c r="BD6">
         <f>_xll.NCDK_HBondDonorCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="BD6">
+      <c r="BE6">
         <f>_xll.NCDK_HybridizationRatio(B6)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="BE6" t="str">
+      <c r="BF6" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B6)</f>
         <v>5.14285714285714, 2.34375, 1.5</v>
       </c>
-      <c r="BF6" t="str">
+      <c r="BG6" t="str">
         <f>_xll.NCDK_KierHallSmarts(B6)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 5, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <f>_xll.NCDK_LargestChain(B6)</f>
         <v>0</v>
       </c>
-      <c r="BH6">
+      <c r="BI6">
         <f>_xll.NCDK_LargestPiSystem(B6)</f>
         <v>6</v>
       </c>
-      <c r="BI6" t="str">
+      <c r="BJ6" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ6">
+      <c r="BK6">
         <f>_xll.NCDK_LongestAliphaticChain(B6)</f>
         <v>0</v>
       </c>
-      <c r="BK6" t="str">
+      <c r="BL6" t="str">
         <f>_xll.NCDK_MDE(B6)</f>
         <v>0, 1.85053586243577, 1, 0, 6.08364341893206, 3.04182170946603, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BL6" t="str">
+      <c r="BM6" t="str">
         <f>_xll.NCDK_MomentOfInertia(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BM6">
+      <c r="BN6">
         <f>_xll.NCDK_PetitjeanNumber(B6)</f>
         <v>0.25</v>
       </c>
-      <c r="BN6" t="str">
+      <c r="BO6" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BO6">
+      <c r="BP6">
         <f>_xll.NCDK_RotatableBondsCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="BP6">
+      <c r="BQ6">
         <f>_xll.NCDK_RuleOfFive(B6)</f>
         <v>0</v>
       </c>
-      <c r="BQ6" t="str">
+      <c r="BR6" t="str">
         <f>_xll.NCDK_SmallRing(B6)</f>
         <v>1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BR6">
+      <c r="BS6">
         <f>_xll.NCDK_TPSA(B6)</f>
         <v>0</v>
       </c>
-      <c r="BS6">
+      <c r="BT6">
         <f>_xll.NCDK_VABC(B6)</f>
         <v>98.462516278666868</v>
       </c>
-      <c r="BT6">
+      <c r="BU6">
         <f>_xll.NCDK_VAdjMa(B6)</f>
         <v>3.8073549220576042</v>
       </c>
-      <c r="BU6" s="2">
+      <c r="BV6" s="2">
         <f>_xll.NCDK_MolecularWeight(B6)</f>
         <v>92.13867730812234</v>
       </c>
-      <c r="BV6" s="3">
+      <c r="BW6" s="3">
         <f>_xll.NCDK_ExactMass(B6)</f>
         <v>92.062600255999996</v>
       </c>
-      <c r="BW6" t="str">
+      <c r="BX6" t="str">
         <f>_xll.NCDK_WeightedPath(B6)</f>
         <v>13.6768253204364, 1.95383218863377, 0, 0, 0</v>
       </c>
-      <c r="BX6" t="str">
+      <c r="BY6" t="str">
         <f>_xll.NCDK_WHIM(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BY6" t="str">
+      <c r="BZ6" t="str">
         <f>_xll.NCDK_WienerNumbers(B6)</f>
         <v>42, 5</v>
       </c>
-      <c r="BZ6">
+      <c r="CA6">
         <f>_xll.NCDK_ZagrebIndex(B6)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -4452,7 +4477,7 @@
         <v>C1CCCCC1</v>
       </c>
       <c r="D7">
-        <f>_xll.NCDK_Tanimoto($H7,$H8)</f>
+        <f>_xll.NCDK_Tanimoto($I7,$I8)</f>
         <v>1</v>
       </c>
       <c r="E7" t="str">
@@ -4460,299 +4485,303 @@
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
       </c>
       <c r="F7" t="str">
+        <f>_xll.RDKit_MACCSFingerprint(B7)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="G7" t="str">
         <f>_xll.NCDK_ECFP0($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <f>_xll.NCDK_ECFP2($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
         <f>_xll.NCDK_ECFP4($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f>_xll.NCDK_ECFP6($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f>_xll.NCDK_FCFP0($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f>_xll.NCDK_FCFP2($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f>_xll.NCDK_FCFP4($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f>_xll.NCDK_FCFP0($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B7)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B7)</f>
         <v>0000000010000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B7)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="R7" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R7" t="str">
+      <c r="S7" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B7)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000010000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S7" t="str">
+      <c r="T7" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T7" t="str">
+      <c r="U7" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
       </c>
-      <c r="U7" t="str">
+      <c r="V7" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V7" t="str">
+      <c r="W7" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B7)</f>
         <v>0100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W7" t="str">
+      <c r="X7" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B7)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <f>_xll.NCDK_MolecularWeight(B7)</f>
         <v>72.064415380728008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <f>_xll.NCDK_ExactMass(B7)</f>
         <v>72</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <f>_xll.NCDK_AcidicGroupCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AB7" s="4">
         <f>_xll.NCDK_ALogP(B7)</f>
         <v>2.7372000000000005</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AC7" s="4">
         <f>_xll.NCDK_XLogP(B7)</f>
         <v>3.4139999999999997</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AD7" s="4">
         <f>_xll.NCDK_MannholdLogP(B7)</f>
         <v>2.12</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AE7" s="4">
         <f>_xll.NCDK_JPlogP(B7)</f>
         <v>2.6952762459207973</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <f>_xll.NCDK_AMolarRefractivity(B7)</f>
         <v>27.606000000000002</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <f>_xll.NCDK_APol(B7)</f>
         <v>18.561516000000001</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <f>_xll.NCDK_AromaticAtomsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <f>_xll.NCDK_AromaticBondsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <f>_xll.NCDK_AtomCount(B7)</f>
         <v>18</v>
       </c>
-      <c r="AJ7" t="str">
+      <c r="AK7" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B7)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AK7" t="str">
+      <c r="AL7" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B7)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AL7" t="str">
+      <c r="AM7" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B7)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <f>_xll.NCDK_BasicGroupCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AN7" t="str">
+      <c r="AO7" t="str">
         <f>_xll.NCDK_BCUT(B7)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <f>_xll.NCDK_BondCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <f>_xll.NCDK_BPol(B7)</f>
         <v>13.118483999999999</v>
       </c>
-      <c r="AQ7" t="str">
+      <c r="AR7" t="str">
         <f>_xll.NCDK_CarbonTypes(B7)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AR7" t="str">
+      <c r="AS7" t="str">
         <f>_xll.NCDK_ChiChain(B7)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AS7" t="str">
+      <c r="AT7" t="str">
         <f>_xll.NCDK_ChiCluster(B7)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AT7" t="str">
+      <c r="AU7" t="str">
         <f>_xll.NCDK_ChiPathCluster(B7)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AU7" t="str">
+      <c r="AV7" t="str">
         <f>_xll.NCDK_ChiPath(B7)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AV7" t="str">
+      <c r="AW7" t="str">
         <f>_xll.NCDK_CPSA(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
         <f>_xll.NCDK_EccentricConnectivityIndex(B7)</f>
         <v>36</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <f>_xll.NCDK_FMF(B7)</f>
         <v>1</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <f>_xll.NCDK_FractionalPSA(B7)</f>
         <v>0</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <f>_xll.NCDK_FragmentComplexity(B7)</f>
         <v>6</v>
       </c>
-      <c r="BA7" t="str">
+      <c r="BB7" t="str">
         <f>_xll.NCDK_GravitationalIndex(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB7">
+      <c r="BC7">
         <f>_xll.NCDK_HBondAcceptorCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="BC7">
+      <c r="BD7">
         <f>_xll.NCDK_HBondDonorCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="BD7">
+      <c r="BE7">
         <f>_xll.NCDK_HybridizationRatio(B7)</f>
         <v>1</v>
       </c>
-      <c r="BE7" t="str">
+      <c r="BF7" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B7)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="BF7" t="str">
+      <c r="BG7" t="str">
         <f>_xll.NCDK_KierHallSmarts(B7)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 6, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <f>_xll.NCDK_LargestChain(B7)</f>
         <v>0</v>
       </c>
-      <c r="BH7">
+      <c r="BI7">
         <f>_xll.NCDK_LargestPiSystem(B7)</f>
         <v>0</v>
       </c>
-      <c r="BI7" t="str">
+      <c r="BJ7" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ7">
+      <c r="BK7">
         <f>_xll.NCDK_LongestAliphaticChain(B7)</f>
         <v>0</v>
       </c>
-      <c r="BK7" t="str">
+      <c r="BL7" t="str">
         <f>_xll.NCDK_MDE(B7)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BL7" t="str">
+      <c r="BM7" t="str">
         <f>_xll.NCDK_MomentOfInertia(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BM7">
+      <c r="BN7">
         <f>_xll.NCDK_PetitjeanNumber(B7)</f>
         <v>0</v>
       </c>
-      <c r="BN7" t="str">
+      <c r="BO7" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BO7">
+      <c r="BP7">
         <f>_xll.NCDK_RotatableBondsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="BP7">
+      <c r="BQ7">
         <f>_xll.NCDK_RuleOfFive(B7)</f>
         <v>0</v>
       </c>
-      <c r="BQ7" t="str">
+      <c r="BR7" t="str">
         <f>_xll.NCDK_SmallRing(B7)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BR7">
+      <c r="BS7">
         <f>_xll.NCDK_TPSA(B7)</f>
         <v>0</v>
       </c>
-      <c r="BS7">
+      <c r="BT7">
         <f>_xll.NCDK_VABC(B7)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BT7">
+      <c r="BU7">
         <f>_xll.NCDK_VAdjMa(B7)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BU7" s="2">
+      <c r="BV7" s="2">
         <f>_xll.NCDK_MolecularWeight(B7)</f>
         <v>72.064415380728008</v>
       </c>
-      <c r="BV7" s="3">
+      <c r="BW7" s="3">
         <f>_xll.NCDK_ExactMass(B7)</f>
         <v>72</v>
       </c>
-      <c r="BW7" t="str">
+      <c r="BX7" t="str">
         <f>_xll.NCDK_WeightedPath(B7)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BX7" t="str">
+      <c r="BY7" t="str">
         <f>_xll.NCDK_WHIM(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BY7" t="str">
+      <c r="BZ7" t="str">
         <f>_xll.NCDK_WienerNumbers(B7)</f>
         <v>27, 3</v>
       </c>
-      <c r="BZ7">
+      <c r="CA7">
         <f>_xll.NCDK_ZagrebIndex(B7)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -4764,7 +4793,7 @@
         <v>XDTMQSROBMDMFD-UHFFFAOYSA-N</v>
       </c>
       <c r="D8">
-        <f>_xll.NCDK_Tanimoto($H8,$H9)</f>
+        <f>_xll.NCDK_Tanimoto($I8,$I9)</f>
         <v>1</v>
       </c>
       <c r="E8" t="str">
@@ -4772,299 +4801,303 @@
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
       </c>
       <c r="F8" t="str">
+        <f>_xll.RDKit_MACCSFingerprint(B8)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="G8" t="str">
         <f>_xll.NCDK_ECFP0($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <f>_xll.NCDK_ECFP2($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
         <f>_xll.NCDK_ECFP4($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f>_xll.NCDK_ECFP6($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f>_xll.NCDK_FCFP0($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f>_xll.NCDK_FCFP2($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>_xll.NCDK_FCFP4($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f>_xll.NCDK_FCFP0($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B8)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B8)</f>
         <v>0000000010000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B8)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="R8" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R8" t="str">
+      <c r="S8" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B8)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000010000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S8" t="str">
+      <c r="T8" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T8" t="str">
+      <c r="U8" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
       </c>
-      <c r="U8" t="str">
+      <c r="V8" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V8" t="str">
+      <c r="W8" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B8)</f>
         <v>0100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W8" t="str">
+      <c r="X8" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B8)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000100000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <f>_xll.NCDK_MolecularWeight(B8)</f>
         <v>72.064415380728008</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Z8" s="2">
         <f>_xll.NCDK_ExactMass(B8)</f>
         <v>72</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <f>_xll.NCDK_AcidicGroupCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AB8" s="4">
         <f>_xll.NCDK_ALogP(B8)</f>
         <v>2.7372000000000005</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AC8" s="4">
         <f>_xll.NCDK_XLogP(B8)</f>
         <v>3.4139999999999997</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AD8" s="4">
         <f>_xll.NCDK_MannholdLogP(B8)</f>
         <v>2.12</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AE8" s="4">
         <f>_xll.NCDK_JPlogP(B8)</f>
         <v>2.6952762459207973</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <f>_xll.NCDK_AMolarRefractivity(B8)</f>
         <v>27.606000000000002</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <f>_xll.NCDK_APol(B8)</f>
         <v>18.561516000000001</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <f>_xll.NCDK_AromaticAtomsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <f>_xll.NCDK_AromaticBondsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <f>_xll.NCDK_AtomCount(B8)</f>
         <v>6</v>
       </c>
-      <c r="AJ8" t="str">
+      <c r="AK8" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B8)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AK8" t="str">
+      <c r="AL8" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B8)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AL8" t="str">
+      <c r="AM8" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B8)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <f>_xll.NCDK_BasicGroupCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AN8" t="str">
+      <c r="AO8" t="str">
         <f>_xll.NCDK_BCUT(B8)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <f>_xll.NCDK_BondCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <f>_xll.NCDK_BPol(B8)</f>
         <v>0</v>
       </c>
-      <c r="AQ8" t="str">
+      <c r="AR8" t="str">
         <f>_xll.NCDK_CarbonTypes(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AR8" t="str">
+      <c r="AS8" t="str">
         <f>_xll.NCDK_ChiChain(B8)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AS8" t="str">
+      <c r="AT8" t="str">
         <f>_xll.NCDK_ChiCluster(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AT8" t="str">
+      <c r="AU8" t="str">
         <f>_xll.NCDK_ChiPathCluster(B8)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AU8" t="str">
+      <c r="AV8" t="str">
         <f>_xll.NCDK_ChiPath(B8)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AV8" t="str">
+      <c r="AW8" t="str">
         <f>_xll.NCDK_CPSA(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <f>_xll.NCDK_EccentricConnectivityIndex(B8)</f>
         <v>36</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <f>_xll.NCDK_FMF(B8)</f>
         <v>1</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <f>_xll.NCDK_FractionalPSA(B8)</f>
         <v>0</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <f>_xll.NCDK_FragmentComplexity(B8)</f>
         <v>294</v>
       </c>
-      <c r="BA8" t="str">
+      <c r="BB8" t="str">
         <f>_xll.NCDK_GravitationalIndex(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB8">
+      <c r="BC8">
         <f>_xll.NCDK_HBondAcceptorCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="BC8">
+      <c r="BD8">
         <f>_xll.NCDK_HBondDonorCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="BD8">
+      <c r="BE8">
         <f>_xll.NCDK_HybridizationRatio(B8)</f>
         <v>1</v>
       </c>
-      <c r="BE8" t="str">
+      <c r="BF8" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B8)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="BF8" t="str">
+      <c r="BG8" t="str">
         <f>_xll.NCDK_KierHallSmarts(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <f>_xll.NCDK_LargestChain(B8)</f>
         <v>0</v>
       </c>
-      <c r="BH8">
+      <c r="BI8">
         <f>_xll.NCDK_LargestPiSystem(B8)</f>
         <v>0</v>
       </c>
-      <c r="BI8" t="str">
+      <c r="BJ8" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ8">
+      <c r="BK8">
         <f>_xll.NCDK_LongestAliphaticChain(B8)</f>
         <v>0</v>
       </c>
-      <c r="BK8" t="str">
+      <c r="BL8" t="str">
         <f>_xll.NCDK_MDE(B8)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BL8" t="str">
+      <c r="BM8" t="str">
         <f>_xll.NCDK_MomentOfInertia(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BM8">
+      <c r="BN8">
         <f>_xll.NCDK_PetitjeanNumber(B8)</f>
         <v>0</v>
       </c>
-      <c r="BN8" t="str">
+      <c r="BO8" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BO8">
+      <c r="BP8">
         <f>_xll.NCDK_RotatableBondsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="BP8">
+      <c r="BQ8">
         <f>_xll.NCDK_RuleOfFive(B8)</f>
         <v>0</v>
       </c>
-      <c r="BQ8" t="str">
+      <c r="BR8" t="str">
         <f>_xll.NCDK_SmallRing(B8)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BR8">
+      <c r="BS8">
         <f>_xll.NCDK_TPSA(B8)</f>
         <v>0</v>
       </c>
-      <c r="BS8">
+      <c r="BT8">
         <f>_xll.NCDK_VABC(B8)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BT8">
+      <c r="BU8">
         <f>_xll.NCDK_VAdjMa(B8)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BU8" s="2">
+      <c r="BV8" s="2">
         <f>_xll.NCDK_MolecularWeight(B8)</f>
         <v>72.064415380728008</v>
       </c>
-      <c r="BV8" s="3">
+      <c r="BW8" s="3">
         <f>_xll.NCDK_ExactMass(B8)</f>
         <v>72</v>
       </c>
-      <c r="BW8" t="str">
+      <c r="BX8" t="str">
         <f>_xll.NCDK_WeightedPath(B8)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BX8" t="str">
+      <c r="BY8" t="str">
         <f>_xll.NCDK_WHIM(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BY8" t="str">
+      <c r="BZ8" t="str">
         <f>_xll.NCDK_WienerNumbers(B8)</f>
         <v>27, 3</v>
       </c>
-      <c r="BZ8">
+      <c r="CA8">
         <f>_xll.NCDK_ZagrebIndex(B8)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -5076,7 +5109,7 @@
         <v>XDTMQSROBMDMFD-UHFFFAOYSA-N</v>
       </c>
       <c r="D9">
-        <f>_xll.NCDK_Tanimoto($H9,$H10)</f>
+        <f>_xll.NCDK_Tanimoto($I9,$I10)</f>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="E9" t="str">
@@ -5084,299 +5117,303 @@
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
       </c>
       <c r="F9" t="str">
+        <f>_xll.RDKit_MACCSFingerprint(B9)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="G9" t="str">
         <f>_xll.NCDK_ECFP0($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <f>_xll.NCDK_ECFP2($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H9" t="str">
+      <c r="I9" t="str">
         <f>_xll.NCDK_ECFP4($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f>_xll.NCDK_ECFP6($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f>_xll.NCDK_FCFP0($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f>_xll.NCDK_FCFP2($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>_xll.NCDK_FCFP4($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f>_xll.NCDK_FCFP0($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B9)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B9)</f>
         <v>0000000010000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B9)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="R9" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R9" t="str">
+      <c r="S9" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B9)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000010000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S9" t="str">
+      <c r="T9" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T9" t="str">
+      <c r="U9" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
       </c>
-      <c r="U9" t="str">
+      <c r="V9" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V9" t="str">
+      <c r="W9" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B9)</f>
         <v>0100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W9" t="str">
+      <c r="X9" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B9)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000100000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="2">
         <f>_xll.NCDK_MolecularWeight(B9)</f>
         <v>72.064415380728008</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Z9" s="2">
         <f>_xll.NCDK_ExactMass(B9)</f>
         <v>72</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <f>_xll.NCDK_AcidicGroupCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AB9" s="4">
         <f>_xll.NCDK_ALogP(B9)</f>
         <v>2.7372000000000005</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AC9" s="4">
         <f>_xll.NCDK_XLogP(B9)</f>
         <v>3.4139999999999997</v>
       </c>
-      <c r="AC9" s="4">
+      <c r="AD9" s="4">
         <f>_xll.NCDK_MannholdLogP(B9)</f>
         <v>2.12</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AE9" s="4">
         <f>_xll.NCDK_JPlogP(B9)</f>
         <v>2.6952762459207973</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <f>_xll.NCDK_AMolarRefractivity(B9)</f>
         <v>27.606000000000002</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <f>_xll.NCDK_APol(B9)</f>
         <v>18.561516000000001</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <f>_xll.NCDK_AromaticAtomsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <f>_xll.NCDK_AromaticBondsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <f>_xll.NCDK_AtomCount(B9)</f>
         <v>6</v>
       </c>
-      <c r="AJ9" t="str">
+      <c r="AK9" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B9)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AK9" t="str">
+      <c r="AL9" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B9)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AL9" t="str">
+      <c r="AM9" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B9)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <f>_xll.NCDK_BasicGroupCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AN9" t="str">
+      <c r="AO9" t="str">
         <f>_xll.NCDK_BCUT(B9)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <f>_xll.NCDK_BondCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <f>_xll.NCDK_BPol(B9)</f>
         <v>0</v>
       </c>
-      <c r="AQ9" t="str">
+      <c r="AR9" t="str">
         <f>_xll.NCDK_CarbonTypes(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AR9" t="str">
+      <c r="AS9" t="str">
         <f>_xll.NCDK_ChiChain(B9)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AS9" t="str">
+      <c r="AT9" t="str">
         <f>_xll.NCDK_ChiCluster(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AT9" t="str">
+      <c r="AU9" t="str">
         <f>_xll.NCDK_ChiPathCluster(B9)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AU9" t="str">
+      <c r="AV9" t="str">
         <f>_xll.NCDK_ChiPath(B9)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AV9" t="str">
+      <c r="AW9" t="str">
         <f>_xll.NCDK_CPSA(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW9">
+      <c r="AX9">
         <f>_xll.NCDK_EccentricConnectivityIndex(B9)</f>
         <v>36</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <f>_xll.NCDK_FMF(B9)</f>
         <v>1</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <f>_xll.NCDK_FractionalPSA(B9)</f>
         <v>0</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <f>_xll.NCDK_FragmentComplexity(B9)</f>
         <v>294</v>
       </c>
-      <c r="BA9" t="str">
+      <c r="BB9" t="str">
         <f>_xll.NCDK_GravitationalIndex(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB9">
+      <c r="BC9">
         <f>_xll.NCDK_HBondAcceptorCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="BC9">
+      <c r="BD9">
         <f>_xll.NCDK_HBondDonorCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="BD9">
+      <c r="BE9">
         <f>_xll.NCDK_HybridizationRatio(B9)</f>
         <v>1</v>
       </c>
-      <c r="BE9" t="str">
+      <c r="BF9" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B9)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="BF9" t="str">
+      <c r="BG9" t="str">
         <f>_xll.NCDK_KierHallSmarts(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <f>_xll.NCDK_LargestChain(B9)</f>
         <v>0</v>
       </c>
-      <c r="BH9">
+      <c r="BI9">
         <f>_xll.NCDK_LargestPiSystem(B9)</f>
         <v>0</v>
       </c>
-      <c r="BI9" t="str">
+      <c r="BJ9" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ9">
+      <c r="BK9">
         <f>_xll.NCDK_LongestAliphaticChain(B9)</f>
         <v>0</v>
       </c>
-      <c r="BK9" t="str">
+      <c r="BL9" t="str">
         <f>_xll.NCDK_MDE(B9)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BL9" t="str">
+      <c r="BM9" t="str">
         <f>_xll.NCDK_MomentOfInertia(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BM9">
+      <c r="BN9">
         <f>_xll.NCDK_PetitjeanNumber(B9)</f>
         <v>0</v>
       </c>
-      <c r="BN9" t="str">
+      <c r="BO9" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BO9">
+      <c r="BP9">
         <f>_xll.NCDK_RotatableBondsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="BP9">
+      <c r="BQ9">
         <f>_xll.NCDK_RuleOfFive(B9)</f>
         <v>0</v>
       </c>
-      <c r="BQ9" t="str">
+      <c r="BR9" t="str">
         <f>_xll.NCDK_SmallRing(B9)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BR9">
+      <c r="BS9">
         <f>_xll.NCDK_TPSA(B9)</f>
         <v>0</v>
       </c>
-      <c r="BS9">
+      <c r="BT9">
         <f>_xll.NCDK_VABC(B9)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BT9">
+      <c r="BU9">
         <f>_xll.NCDK_VAdjMa(B9)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BU9" s="2">
+      <c r="BV9" s="2">
         <f>_xll.NCDK_MolecularWeight(B9)</f>
         <v>72.064415380728008</v>
       </c>
-      <c r="BV9" s="3">
+      <c r="BW9" s="3">
         <f>_xll.NCDK_ExactMass(B9)</f>
         <v>72</v>
       </c>
-      <c r="BW9" t="str">
+      <c r="BX9" t="str">
         <f>_xll.NCDK_WeightedPath(B9)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BX9" t="str">
+      <c r="BY9" t="str">
         <f>_xll.NCDK_WHIM(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BY9" t="str">
+      <c r="BZ9" t="str">
         <f>_xll.NCDK_WienerNumbers(B9)</f>
         <v>27, 3</v>
       </c>
-      <c r="BZ9">
+      <c r="CA9">
         <f>_xll.NCDK_ZagrebIndex(B9)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:78" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:79" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -5388,7 +5425,7 @@
         <v>[C@@]12(C(C([C@](O[H])(C(C1=C(C([C@@]3([C@]2([H])C(C([C@]4([C@@]3([H])C(C([C@]4([H])[C@](C([H])([H])[H])(C(C(C(C(C([H])([H])[H])(C([H])([H])[H])[H])([H])[H])([H])[H])([H])[H])[H])([H])[H])([H])[H])C([H])([H])[H])([H])[H])([H])[H])[H])([H])[H])[H])([H])[H])[H])([H])[H])([H])[H])C([H])([H])[H]</v>
       </c>
       <c r="D10">
-        <f>_xll.NCDK_Tanimoto($H10,$H11)</f>
+        <f>_xll.NCDK_Tanimoto($I10,$I11)</f>
         <v>0.47761194029850745</v>
       </c>
       <c r="E10" t="str">
@@ -5396,299 +5433,303 @@
         <v>0000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010000110010001001101000000011110010000001010101010110100101001001110</v>
       </c>
       <c r="F10" t="str">
+        <f>_xll.RDKit_MACCSFingerprint(B10)</f>
+        <v>00000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010100110010001001101000000001110010000001010101010110100101001001110</v>
+      </c>
+      <c r="G10" t="str">
         <f>_xll.NCDK_ECFP0($B10)</f>
         <v>0000000000000010000000000100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <f>_xll.NCDK_ECFP2($B10)</f>
         <v>0000000000000010000000001100000000000000000000001000000000000000000000000001000000001000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000000000000010000000010000000000000000000000000000000000000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000000000000000000000000000000000000000010000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100010000000000001000001000000000000000000000001000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H10" t="str">
+      <c r="I10" t="str">
         <f>_xll.NCDK_ECFP4($B10)</f>
         <v>0000000000000010000000001100000000000000000100001000000000010000000000000001000000001010100000000000000000000000000000000000000000000100000000010000000010000000000000000000000000000000000000000000000000000010000000000000010000000010000000000000000000000000000000000000000001000000000010000000001000000000000000100000010000000000000000000000000000000010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000100000000000100000000000000000000000010000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000010100000000000000000000000000000000000000000000000000000000000000100010000000000001000001000000000000000000000011000000000000010100000000000000000000000000000000000000000100000000000000000000000000000100000000000001000010000000000000000000000000010000000000010000000000000000000100000001000000000000000100000000000000000000000000000000</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f>_xll.NCDK_ECFP6($B10)</f>
         <v>0000000000001010001000001100000000000000000100001000000000010000000000000001000000001010100000000000000000000000000000000000000000000100000000010000000010000000000000000000000000000000000000000000000000001010000001100000011000000010000000000000000000000000000000000000000001000000000010000000001000000000000000110000010000000000000000000000000000000010000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000100000000000100000000000000000000000010000000000000000000000000100000000000000001000000000010000000000000000001000000000000100000000000000000000000000010000010000000000000000000000000000010100000001000000000000000000000000000000000000000000000000000000100010000000000001010001000000000000000000000011000000000000010100000000000000000000011000000010000000000100000000000000000000000000000100010000000001000010000000000000000000000000010000000000010000000000000001000100000001000000010000000100000000000000000000000000000000</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f>_xll.NCDK_FCFP0($B10)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f>_xll.NCDK_FCFP2($B10)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>_xll.NCDK_FCFP4($B10)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000001100000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000010000000000000000000000000000000000000000000000000001000100000000000000000000000000000000000000000000000000000000000000100000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000100000000000010000000000000010000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001000000000000000000000</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f>_xll.NCDK_FCFP0($B10)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B10)</f>
         <v>101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B10)</f>
         <v>0000000000000001001000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B10)</f>
         <v>000000000000000000001000000010000000000000000000000000000000100001000000010000000000010000000010010001010000000110001110000000000000000010000000001000001001000000000000001010000000100000000000010000000000000000000000000000000000000100000010000000000010000001010000000000010000100001000000000000101000001000000000000000001000000000000011000000000000000000000000000000000000001000100000000000000000000000001100100100000000000010000001000000101000000000000100000000000000000101000000010000000000100000000001000000000000000000000010000000000000000000000000000000000000000000101000000000000000001000000000010000100010000000000000000000000000001000010000000000000000100001000001000000000010000100000000000000001010000000000000000000010000000000000000001000001000000000111000000010000000000000010000000010000010010010010000000000010000000000010000000000101000000000000000000001000000000010100100000010000010000000100000010000000000000100000000000000000010110000000001011000010010000000000000000010000001000000000000011111111</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="R10" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B10)</f>
         <v>0000010000000001001000000000000000000010000000000000000000100000000000000001100000000001000000000000000000000000000000000000000100001100000000000000110000000010000000000100100000110000000000000000000000000010000000000000000000000000000000000000000000000000010000000000000000000000001010000000000001001000000000000001100000000100000000000000000100000000000000000000010000000000000000000000000010000000000001001100000000000010000000000000000000010000000010000100000000000000001000000000010000000000011011100100101000000000001000000000011010000010010000000000000000000000001000100000000000001000000000000000000000000000011001000000000000000100000010000000000000011000000000000000010000000000000000000000000000010000000000011000000000000000000001110101000010000000000000000000000000000100000000000000000000001100000000000000000000000010000000001010001000100000000100010100000010000000000000000000000000000000000000000000000010000000010000000000000000000001000000000000000000010000000000000000000000000000000000000000001000000000</v>
       </c>
-      <c r="R10" t="str">
+      <c r="S10" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B10)</f>
         <v>110000010000010011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001111000000100000000000000000010000000000000011010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000010000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001000000000000000000100000100000000000001000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000100000000000000001011000000010000000000000000000000010000000000000100000100000010010000100100000010000001000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S10" t="str">
+      <c r="T10" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B10)</f>
         <v>0000010000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000100000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000011000000000000000000000000000000010000000010000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000</v>
       </c>
-      <c r="T10" t="str">
+      <c r="U10" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B10)</f>
         <v>0000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010000110010001001101000000011110010000001010101010110100101001001110</v>
       </c>
-      <c r="U10" t="str">
+      <c r="V10" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B10)</f>
         <v>1011001000010001010001111111000100000001000000000011011110010100101010100100000000001100000010100101000010010000011110100100000000010100010101000100000010000001000001010100000001100010000100000001100001000110100001000000001011000010101101010011010010001000010001000010001111000100011000000100101010110000110000010010110001100100010000000001000000010010110000000000010010111010010001101010010011000000101100000000100101101011000110100001100000100010010001010000000000010000010100001011001010001100010000010001111001100000101000010100010001001010000001000010011000111110010010000000110101011010001011001010000110000000000100000000010011000100000000011000010000000101000100000000100000000000010100000000010001000110100100000000000000010000001010000000010001000000101000010110000000101000011010011100011001110000000011100000001000000010101000001001001000010000111100010010010001110100100100001000010101000101000010010110010000000011001010010000000010011001101010100101001100000001011000001011001001101100000100100010000000000000</v>
       </c>
-      <c r="V10" t="str">
+      <c r="W10" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B10)</f>
         <v>1111100000010110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000100001</v>
       </c>
-      <c r="W10" t="str">
+      <c r="X10" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B10)</f>
         <v>11110000011110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000001100100110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000111100010100101000001000000000000010000000100000000000000000000000000000001000000000100000000000001000100000010000100000000000000000000000000000000000000000001000000000000000000000000000000000100000000000000000000000000000001000000000000001000000000010000000000000000100000000000000000100000000000000000001001100000000000000000010000000000000000011100000001100000011110000000011111000000000000000000000000000000000000000000000000000000000000000110000000000000000000100000000000000000000100000000000000000000100000000000000000000100000000000000000000</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Y10" s="2">
         <f>_xll.NCDK_MolecularWeight(B10)</f>
         <v>386.65454881683121</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Z10" s="2">
         <f>_xll.NCDK_ExactMass(B10)</f>
         <v>386.35486609199995</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <f>_xll.NCDK_AcidicGroupCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AB10" s="4">
         <f>_xll.NCDK_ALogP(B10)</f>
         <v>7.376100000000001</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AC10" s="4">
         <f>_xll.NCDK_XLogP(B10)</f>
         <v>10.518000000000004</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AD10" s="4">
         <f>_xll.NCDK_MannholdLogP(B10)</f>
         <v>4.3199999999999994</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AE10" s="4">
         <f>_xll.NCDK_JPlogP(B10)</f>
         <v>7.8290832169857083</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <f>_xll.NCDK_AMolarRefractivity(B10)</f>
         <v>120.6157</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <f>_xll.NCDK_APol(B10)</f>
         <v>78.99447799999993</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <f>_xll.NCDK_AromaticAtomsCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <f>_xll.NCDK_AromaticBondsCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <f>_xll.NCDK_AtomCount(B10)</f>
         <v>74</v>
       </c>
-      <c r="AJ10" t="str">
+      <c r="AK10" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B10)</f>
         <v>0.0827991713427503, -0.0229631507285856, -0.0270969061556759, 0.00647128770548948, 0.00909713625645344</v>
       </c>
-      <c r="AK10" t="str">
+      <c r="AL10" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B10)</f>
         <v>28.7744690355409, 31.3320919771326, 48.6641839542651, 54.6641839542651, 49.6641839542651</v>
       </c>
-      <c r="AL10" t="str">
+      <c r="AM10" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B10)</f>
         <v>2589.35165284459, 3179.06049775734, 4922.9791073968, 5328.87269506555, 4616.91714731414</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <f>_xll.NCDK_BasicGroupCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AN10" t="str">
+      <c r="AO10" t="str">
         <f>_xll.NCDK_BCUT(B10)</f>
         <v>11.89, 15.9949214370833, -0.392219399090072, 0.0596280868632924, 5.23875003301361, 12.6475909449557</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <f>_xll.NCDK_BondCount(B10)</f>
         <v>46</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <f>_xll.NCDK_BPol(B10)</f>
         <v>50.287521999999989</v>
       </c>
-      <c r="AQ10" t="str">
+      <c r="AR10" t="str">
         <f>_xll.NCDK_CarbonTypes(B10)</f>
         <v>0, 0, 0, 1, 1, 5, 12, 6, 2</v>
       </c>
-      <c r="AR10" t="str">
+      <c r="AS10" t="str">
         <f>_xll.NCDK_ChiChain(B10)</f>
         <v>0, 0, 0.0833333333333333, 0.393634553260967, 0.976046921839545, 0, 0, 0.0833333333333333, 0.37164819290959, 0.863165765466815</v>
       </c>
-      <c r="AS10" t="str">
+      <c r="AT10" t="str">
         <f>_xll.NCDK_ChiCluster(B10)</f>
         <v>2.9521315814894, 0.235702260395516, 1.02234106177579, 0.203263132396285, 2.68481479020038, 0.219913202813724, 0.935219433730957, 0.179558378198271</v>
       </c>
-      <c r="AT10" t="str">
+      <c r="AU10" t="str">
         <f>_xll.NCDK_ChiPathCluster(B10)</f>
         <v>6.93012787723299, 11.9183161832455, 18.084244169983, 6.31056734345633, 10.8246614459309, 15.7948474414898</v>
       </c>
-      <c r="AU10" t="str">
+      <c r="AV10" t="str">
         <f>_xll.NCDK_ChiPath(B10)</f>
         <v>20.1040835277556, 13.2536913009629, 13.0668536638687, 11.1291235227258, 9.49703814548855, 7.69096408557495, 5.93907638185732, 4.4721666474432, 19.344190342069, 12.6298450216499, 12.1863667747532, 10.2790812759586, 8.6662445789686, 6.67875288189192, 5.16344144011131, 3.80610378452706</v>
       </c>
-      <c r="AV10" t="str">
+      <c r="AW10" t="str">
         <f>_xll.NCDK_CPSA(B10)</f>
         <v>740.518679745203, 1141.6281036277, 24.7477735904141, 216.516577646307, -333.794969260415, -24.5734427697376, 524.002102098896, 1475.42307288811, 49.3212163601517, 0.773763217212662, 1.19287988066324, 0.0258587898400593, 0.226236782787338, -0.348780221713257, -0.025676632684061, 708.702485273172, 1092.57834600072, 23.6844918679688, 207.213998617263, -319.453554322133, -23.5176511261314, 0.136302900713605, 0.25436791475781, 2.7228153119618, 9.4535627888125, 899.894129431074, 57.1411279604366, 0.940293602018195, 0.0597063979818049</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <f>_xll.NCDK_EccentricConnectivityIndex(B10)</f>
         <v>669</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <f>_xll.NCDK_FMF(B10)</f>
         <v>0.22972972972972974</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <f>_xll.NCDK_FractionalPSA(B10)</f>
         <v>5.2361188574192148E-2</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <f>_xll.NCDK_FragmentComplexity(B10)</f>
         <v>5173.01</v>
       </c>
-      <c r="BA10" t="str">
+      <c r="BB10" t="str">
         <f>_xll.NCDK_GravitationalIndex(B10)</f>
         <v>1941.85812139388, 44.0665192793109, 12.4759176252409, 2394.88950905792, 48.9376083299737, 13.37914910667, 4535.65140656394, 67.3472449812458, 16.5531209985441</v>
       </c>
-      <c r="BB10">
+      <c r="BC10">
         <f>_xll.NCDK_HBondAcceptorCount(B10)</f>
         <v>1</v>
       </c>
-      <c r="BC10">
+      <c r="BD10">
         <f>_xll.NCDK_HBondDonorCount(B10)</f>
         <v>1</v>
       </c>
-      <c r="BD10">
+      <c r="BE10">
         <f>_xll.NCDK_HybridizationRatio(B10)</f>
         <v>0.92592592592592593</v>
       </c>
-      <c r="BE10" t="str">
+      <c r="BF10" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B10)</f>
         <v>21.2403746097815, 7.921875, 3.65484429065744</v>
       </c>
-      <c r="BF10" t="str">
+      <c r="BG10" t="str">
         <f>_xll.NCDK_KierHallSmarts(B10)</f>
         <v>0, 0, 0, 0, 0, 0, 5, 0, 11, 0, 1, 0, 7, 0, 0, 1, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG10">
+      <c r="BH10">
         <f>_xll.NCDK_LargestChain(B10)</f>
         <v>7</v>
       </c>
-      <c r="BH10">
+      <c r="BI10">
         <f>_xll.NCDK_LargestPiSystem(B10)</f>
         <v>2</v>
       </c>
-      <c r="BI10" t="str">
+      <c r="BJ10" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B10)</f>
         <v>3.502934717034, 3.502934717034</v>
       </c>
-      <c r="BJ10">
+      <c r="BK10">
         <f>_xll.NCDK_LongestAliphaticChain(B10)</f>
         <v>7</v>
       </c>
-      <c r="BK10" t="str">
+      <c r="BL10" t="str">
         <f>_xll.NCDK_MDE(B10)</f>
         <v>2.79346109096649, 16.5925259846737, 11.5560895487586, 3.39888423642021, 17.7527182855433, 29.2401176288661, 7.64127863367805, 8.77423090217006, 6.5802347918611, 0.5, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BL10" t="str">
+      <c r="BM10" t="str">
         <f>_xll.NCDK_MomentOfInertia(B10)</f>
         <v>10068.4095883237, 9731.07167302841, 773.613761142664, 1.03466606008362, 13.0147757111406, 12.5787210127379, 8.29661608019916</v>
       </c>
-      <c r="BM10">
+      <c r="BN10">
         <f>_xll.NCDK_PetitjeanNumber(B10)</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="BN10" t="str">
+      <c r="BO10" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B10)</f>
         <v>0.875, 0.940550174456362</v>
       </c>
-      <c r="BO10">
+      <c r="BP10">
         <f>_xll.NCDK_RotatableBondsCount(B10)</f>
         <v>5</v>
       </c>
-      <c r="BP10">
+      <c r="BQ10">
         <f>_xll.NCDK_RuleOfFive(B10)</f>
         <v>1</v>
       </c>
-      <c r="BQ10" t="str">
+      <c r="BR10" t="str">
         <f>_xll.NCDK_SmallRing(B10)</f>
         <v>4, 0, 1, 0, 0, 0, 1, 3, 0, 0, 0</v>
       </c>
-      <c r="BR10">
+      <c r="BS10">
         <f>_xll.NCDK_TPSA(B10)</f>
         <v>20.23</v>
       </c>
-      <c r="BS10">
+      <c r="BT10">
         <f>_xll.NCDK_VABC(B10)</f>
         <v>432.2759767957632</v>
       </c>
-      <c r="BT10">
+      <c r="BU10">
         <f>_xll.NCDK_VAdjMa(B10)</f>
         <v>5.9541963103868758</v>
       </c>
-      <c r="BU10" s="2">
+      <c r="BV10" s="2">
         <f>_xll.NCDK_MolecularWeight(B10)</f>
         <v>386.65454881683121</v>
       </c>
-      <c r="BV10" s="3">
+      <c r="BW10" s="3">
         <f>_xll.NCDK_ExactMass(B10)</f>
         <v>386.35486609199995</v>
       </c>
-      <c r="BW10" t="str">
+      <c r="BX10" t="str">
         <f>_xll.NCDK_WeightedPath(B10)</f>
         <v>57.2167299866347, 2.04345464237981, 2.54245315921217, 2.54245315921217, 0</v>
       </c>
-      <c r="BX10" t="str">
+      <c r="BY10" t="str">
         <f>_xll.NCDK_WHIM(B10)</f>
         <v>1.22231276339169, 2.17046945111189, 25.8559001988821, 0.0417903530188526, 0.0742074265238894, #N/A, #N/A, #N/A, 0.0962638773185697, 0.00388857657057473, 66.8991567190677, 29.2486824133857, 90.3764308473927, 188.22062289613, 0.413001665342944, #N/A, 66.9993091729568</v>
       </c>
-      <c r="BY10" t="str">
+      <c r="BZ10" t="str">
         <f>_xll.NCDK_WienerNumbers(B10)</f>
         <v>2022, 54</v>
       </c>
-      <c r="BZ10">
+      <c r="CA10">
         <f>_xll.NCDK_ZagrebIndex(B10)</f>
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:78" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:79" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -5704,294 +5745,298 @@
         <v>0000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010000110010001001101000000001110010000001010101010110100101001001110</v>
       </c>
       <c r="F11" t="str">
+        <f>_xll.RDKit_MACCSFingerprint(B11)</f>
+        <v>00000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010100110010001001101000000001110010000001010101010110100101001001110</v>
+      </c>
+      <c r="G11" t="str">
         <f>_xll.NCDK_ECFP0($B11)</f>
         <v>0000000000000010000000000100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <f>_xll.NCDK_ECFP2($B11)</f>
         <v>0000000000000010000000001100000000000000000000001000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000001000000010000000010000000000000000000000000000000000000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000001000000000000000000000000000000000000000010000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000001000000000000000000000001000100000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
         <f>_xll.NCDK_ECFP4($B11)</f>
         <v>0000000000000010000000001100000000000000000100001000100000010000000000000000000000000000100000000000000000000000000000000000000000000100000000010000000010000000000000000000000000000000000000000000000000000010000001000000010000000010000000000000000000000000000000000000000001000000000010010000000000000000000000000000000000000010000000000000001000000010000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000100100000000000000000010000001000000000000000100000000000000000000000010000001000000000000000000100000000000000000001000000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000000010000000000000000000000000000001000000000000001000001000100000000000010000001000100000000000100000000000000000000000000000000000000000000000000000001000000000000000000000000000001000000000000000000000000000000010000000000010000000000000000000100000000000000000000000100000000000000000000000000000000</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f>_xll.NCDK_ECFP6($B11)</f>
         <v>0000000000001010000000001100000000000000000100001000100000010000000000000000000000000000100000000010000000000000001000000000000000000100000000010000000010000000000000000000000000000001000000000000000000001010000001000010010000000010000000000000000000000000000000000000100001000001000010010000000000000000000000000000000000000010001000000000001000000010000000000000000000000000000000000000100000000001000000000000000000000000000000000000000000000000000000000100000000000100100000000000000000010100001000000000000000100000000000000000000000010000001000000000000000000110000000000000000001000000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000000000000010000010100000000000000000000000000011000000000000000000000000000001000000000000001000001000100000000001010000001000100000000000100010000000000000000000000000000000000000000000000000001000000001000000000000000000001000000000000000000000000000000010000000100010000000000001000000100000000000000000000000100000000000000000000000000000000</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f>_xll.NCDK_FCFP0($B11)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f>_xll.NCDK_FCFP2($B11)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f>_xll.NCDK_FCFP4($B11)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000100000001010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000001100000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000010000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000010000000000000000000000000100000000000010000000000000010000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f>_xll.NCDK_FCFP0($B11)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B11)</f>
         <v>101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B11)</f>
         <v>0000001010101001001000000000000001000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B11)</f>
         <v>000000000000000000000000000000000000000000000000000000000000100001000000000000000000000000000010000000000000000000000110000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000001000001000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000001000000100000000000000000000000000101000000000000100000000000000000100000000010000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000100010000000000000000000000000000000000000000000000000000000000001000000000000000100000000000000000000000000000000000000000000000000000000001000001000000000010000000010000000000000010000000010000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000001000010000000000000000000000000001000000000000011111111</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="R11" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B11)</f>
         <v>0000010000000000000000000000000000000010000000000000000000000000000000000001100000000001000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000001000100000000000010000000000000000000010000000000000000000000000000001000000000010000000000000000000000000000000000001000000000001000000010000000000000000000000000000000100000000000001000000000000000000000000000000001000000000000000100000010000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001110001000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000100000000100010100000000000000000000000000000000000000000000000000000010000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000</v>
       </c>
-      <c r="R11" t="str">
+      <c r="S11" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B11)</f>
         <v>110000010000010011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001111000000100000000000000000010000000000000011010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000010000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001000000000000000000100000100000000000001000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000100000000000000001011000000010000000000000000000000010000000000000100000100000010010000100100000010000001000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S11" t="str">
+      <c r="T11" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B11)</f>
         <v>0010000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000110000000100100000110000000000000000000000000000000000000000000000000000000000000000001000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
       </c>
-      <c r="T11" t="str">
+      <c r="U11" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B11)</f>
         <v>0000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010000110010001001101000000001110010000001010101010110100101001001110</v>
       </c>
-      <c r="U11" t="str">
+      <c r="V11" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B11)</f>
         <v>0000000000000000000001100001000000000000000000000001011100000100101000100000000000001000000000000000000010000000010100000000000000010100000000000100000000000000000000000000000001000000000000000001100000000000000001000000000001000000001001000001000010000000000000000010000010000000001000000100101000100000100000000000100000000000000000000000000000000000000000000000000000000000000000000010000001000000100000000000000100001011000100000001000000100000010000000000000000000000000000000001001000000100000000010000010000100000100000000000000000001010000000000000000000010100000000000000100000000010000010001000000110000000000100000000010010000000000000000000010000000100000100000000100000000000000000000000000001000010000100000000000000000000000000000000000000000000001000000100000000000000000000000000010000000000000010000000000000000010100000000000000000000000001100000000000000100100000000000000010100000000000010000000010000000000001000000000000010000001100000000000000100000000000000000000000000000100000000100000000000000000</v>
       </c>
-      <c r="V11" t="str">
+      <c r="W11" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B11)</f>
         <v>1111100000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000100001</v>
       </c>
-      <c r="W11" t="str">
+      <c r="X11" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B11)</f>
         <v>00000000011110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000001100100110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000111100010100101000001000000000000010000000100000000000000000000000000000001000000000100000000000001000100000010000100000000000000000000000000000000000000000001000000000000000000000000000000000100000000000000000000000000000001000000000000001000000000010000000000000000100000000000000000100000000000000000001001100000000000000000010000000000000000011100000001100000011110000000011111000000000000000000000000000000000000000000000000000000000000000110000000000000000000100000000000000000000100000000000000000000100000000000000000000100000000000000000000</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Y11" s="2">
         <f>_xll.NCDK_MolecularWeight(B11)</f>
         <v>386.65454881683161</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Z11" s="2">
         <f>_xll.NCDK_ExactMass(B11)</f>
         <v>386.35486609199995</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <f>_xll.NCDK_AcidicGroupCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AB11" s="4">
         <f>_xll.NCDK_ALogP(B11)</f>
         <v>7.376100000000001</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AC11" s="4">
         <f>_xll.NCDK_XLogP(B11)</f>
         <v>10.518000000000004</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AD11" s="4">
         <f>_xll.NCDK_MannholdLogP(B11)</f>
         <v>4.3199999999999994</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AE11" s="4">
         <f>_xll.NCDK_JPlogP(B11)</f>
         <v>7.8290832169857199</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <f>_xll.NCDK_AMolarRefractivity(B11)</f>
         <v>120.6157</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <f>_xll.NCDK_APol(B11)</f>
         <v>78.994478000000029</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <f>_xll.NCDK_AromaticAtomsCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <f>_xll.NCDK_AromaticBondsCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <f>_xll.NCDK_AtomCount(B11)</f>
         <v>74</v>
       </c>
-      <c r="AJ11" t="str">
+      <c r="AK11" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B11)</f>
         <v>0.0827991713427503, -0.0229631507285856, -0.0270969061556759, 0.00647128770548948, 0.00909713625645344</v>
       </c>
-      <c r="AK11" t="str">
+      <c r="AL11" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B11)</f>
         <v>28.7744690355409, 31.3320919771326, 48.6641839542651, 54.6641839542651, 49.6641839542651</v>
       </c>
-      <c r="AL11" t="str">
+      <c r="AM11" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B11)</f>
         <v>2589.35165284459, 3179.06049775734, 4922.9791073968, 5328.87269506555, 4616.91714731414</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <f>_xll.NCDK_BasicGroupCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AN11" t="str">
+      <c r="AO11" t="str">
         <f>_xll.NCDK_BCUT(B11)</f>
         <v>11.89, 15.9949214370832, -0.392219474278523, 0.0694748577202458, 5.23874992098634, 12.6503467270457</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <f>_xll.NCDK_BondCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <f>_xll.NCDK_BPol(B11)</f>
         <v>50.287521999999989</v>
       </c>
-      <c r="AQ11" t="str">
+      <c r="AR11" t="str">
         <f>_xll.NCDK_CarbonTypes(B11)</f>
         <v>0, 0, 0, 1, 1, 5, 12, 6, 2</v>
       </c>
-      <c r="AR11" t="str">
+      <c r="AS11" t="str">
         <f>_xll.NCDK_ChiChain(B11)</f>
         <v>0, 0, 0.0833333333333333, 0.393634553260967, 0.976046921839545, 0, 0, 0.0833333333333333, 0.37164819290959, 0.863165765466815</v>
       </c>
-      <c r="AS11" t="str">
+      <c r="AT11" t="str">
         <f>_xll.NCDK_ChiCluster(B11)</f>
         <v>2.9521315814894, 0.235702260395516, 1.02234106177579, 0.203263132396285, 2.68481479020038, 0.219913202813724, 0.935219433730957, 0.179558378198271</v>
       </c>
-      <c r="AT11" t="str">
+      <c r="AU11" t="str">
         <f>_xll.NCDK_ChiPathCluster(B11)</f>
         <v>6.93012787723299, 11.9183161832455, 18.084244169983, 6.31056734345633, 10.8246614459309, 15.7948474414898</v>
       </c>
-      <c r="AU11" t="str">
+      <c r="AV11" t="str">
         <f>_xll.NCDK_ChiPath(B11)</f>
         <v>20.1040835277556, 13.2536913009629, 13.0668536638687, 11.1291235227258, 9.49703814548855, 7.69096408557496, 5.93907638185732, 4.4721666474432, 19.344190342069, 12.6298450216499, 12.1863667747532, 10.2790812759586, 8.66624457896859, 6.67875288189192, 5.16344144011131, 3.80610378452706</v>
       </c>
-      <c r="AV11" t="str">
+      <c r="AW11" t="str">
         <f>_xll.NCDK_CPSA(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <f>_xll.NCDK_EccentricConnectivityIndex(B11)</f>
         <v>669</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <f>_xll.NCDK_FMF(B11)</f>
         <v>0.6071428571428571</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <f>_xll.NCDK_FractionalPSA(B11)</f>
         <v>5.2361188524318612E-2</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <f>_xll.NCDK_FragmentComplexity(B11)</f>
         <v>5173.01</v>
       </c>
-      <c r="BA11" t="str">
+      <c r="BB11" t="str">
         <f>_xll.NCDK_GravitationalIndex(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB11">
+      <c r="BC11">
         <f>_xll.NCDK_HBondAcceptorCount(B11)</f>
         <v>1</v>
       </c>
-      <c r="BC11">
+      <c r="BD11">
         <f>_xll.NCDK_HBondDonorCount(B11)</f>
         <v>1</v>
       </c>
-      <c r="BD11">
+      <c r="BE11">
         <f>_xll.NCDK_HybridizationRatio(B11)</f>
         <v>0.92592592592592593</v>
       </c>
-      <c r="BE11" t="str">
+      <c r="BF11" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B11)</f>
         <v>21.2403746097815, 7.921875, 3.65484429065744</v>
       </c>
-      <c r="BF11" t="str">
+      <c r="BG11" t="str">
         <f>_xll.NCDK_KierHallSmarts(B11)</f>
         <v>0, 0, 0, 0, 0, 0, 5, 0, 11, 0, 1, 0, 7, 0, 0, 1, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG11">
+      <c r="BH11">
         <f>_xll.NCDK_LargestChain(B11)</f>
         <v>16</v>
       </c>
-      <c r="BH11">
+      <c r="BI11">
         <f>_xll.NCDK_LargestPiSystem(B11)</f>
         <v>2</v>
       </c>
-      <c r="BI11" t="str">
+      <c r="BJ11" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ11">
+      <c r="BK11">
         <f>_xll.NCDK_LongestAliphaticChain(B11)</f>
         <v>7</v>
       </c>
-      <c r="BK11" t="str">
+      <c r="BL11" t="str">
         <f>_xll.NCDK_MDE(B11)</f>
         <v>1.54697174276407, 11.0054221495714, 8.10399071027919, 2.24225976804296, 15.301585299106, 26.1301405209996, 7.46130267367364, 6.99912877305946, 5.73136198628621, 0.25, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BL11" t="str">
+      <c r="BM11" t="str">
         <f>_xll.NCDK_MomentOfInertia(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BM11">
+      <c r="BN11">
         <f>_xll.NCDK_PetitjeanNumber(B11)</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="BN11" t="str">
+      <c r="BO11" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BO11">
+      <c r="BP11">
         <f>_xll.NCDK_RotatableBondsCount(B11)</f>
         <v>5</v>
       </c>
-      <c r="BP11">
+      <c r="BQ11">
         <f>_xll.NCDK_RuleOfFive(B11)</f>
         <v>1</v>
       </c>
-      <c r="BQ11" t="str">
+      <c r="BR11" t="str">
         <f>_xll.NCDK_SmallRing(B11)</f>
         <v>4, 0, 1, 0, 0, 0, 1, 3, 0, 0, 0</v>
       </c>
-      <c r="BR11">
+      <c r="BS11">
         <f>_xll.NCDK_TPSA(B11)</f>
         <v>20.23</v>
       </c>
-      <c r="BS11">
+      <c r="BT11">
         <f>_xll.NCDK_VABC(B11)</f>
         <v>432.27597679576252</v>
       </c>
-      <c r="BT11">
+      <c r="BU11">
         <f>_xll.NCDK_VAdjMa(B11)</f>
         <v>5.9541963103868758</v>
       </c>
-      <c r="BU11" s="2">
+      <c r="BV11" s="2">
         <f>_xll.NCDK_MolecularWeight(B11)</f>
         <v>386.65454881683161</v>
       </c>
-      <c r="BV11" s="3">
+      <c r="BW11" s="3">
         <f>_xll.NCDK_ExactMass(B11)</f>
         <v>386.35486609199995</v>
       </c>
-      <c r="BW11" t="str">
+      <c r="BX11" t="str">
         <f>_xll.NCDK_WeightedPath(B11)</f>
         <v>57.2167299866347, 2.04345464237981, 2.54245315921218, 2.54245315921218, 0</v>
       </c>
-      <c r="BX11" t="str">
+      <c r="BY11" t="str">
         <f>_xll.NCDK_WHIM(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BY11" t="str">
+      <c r="BZ11" t="str">
         <f>_xll.NCDK_WienerNumbers(B11)</f>
         <v>2022, 54</v>
       </c>
-      <c r="BZ11">
+      <c r="CA11">
         <f>_xll.NCDK_ZagrebIndex(B11)</f>
         <v>158</v>
       </c>

--- a/NCDK-Excel/ExcelNCDK-Test.xlsx
+++ b/NCDK-Excel/ExcelNCDK-Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46825268-6CF2-4CF2-ACE3-0F9C1177A419}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21906F6E-D0BB-4B28-824B-FE56C6D77165}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="185">
   <si>
     <t>CC(=O)O</t>
     <phoneticPr fontId="1"/>
@@ -1838,6 +1838,54 @@
   </si>
   <si>
     <t>XLogP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MoganFingerprint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Equality NCDK &amp; RDKit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDKFingerprint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HashedAtomPairFingerprint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HashedTopologicalTorsionFingerprint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LayeredFingerprint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PatternFingerprint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMILES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MolBlock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Smiles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InChI (RDKit)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InChI Key (RDKit)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2579,28 +2627,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B185B08-1BAB-4052-951E-1A2BC1F97D8F}">
-  <dimension ref="A1:CA11"/>
+  <dimension ref="A1:CM11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" customWidth="1"/>
-    <col min="5" max="6" width="29.25" customWidth="1"/>
-    <col min="7" max="24" width="6.5" customWidth="1"/>
-    <col min="25" max="26" width="8.1640625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" style="4" customWidth="1"/>
-    <col min="29" max="31" width="8.6640625" style="4"/>
-    <col min="32" max="32" width="8.6640625" customWidth="1"/>
-    <col min="54" max="54" width="14.83203125" customWidth="1"/>
-    <col min="74" max="74" width="8.6640625" style="2"/>
-    <col min="75" max="75" width="10.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="8" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.08203125" customWidth="1"/>
+    <col min="10" max="26" width="7.75" customWidth="1"/>
+    <col min="27" max="36" width="8.33203125" customWidth="1"/>
+    <col min="37" max="38" width="8.33203125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="8.33203125" customWidth="1"/>
+    <col min="40" max="40" width="8.6640625" style="4" customWidth="1"/>
+    <col min="41" max="43" width="8.6640625" style="4"/>
+    <col min="44" max="44" width="8.6640625" customWidth="1"/>
+    <col min="66" max="66" width="14.83203125" customWidth="1"/>
+    <col min="86" max="86" width="8.6640625" style="2"/>
+    <col min="87" max="87" width="10.08203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2611,235 +2661,271 @@
         <v>162</v>
       </c>
       <c r="D1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>163</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="U1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s">
+      <c r="W1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s">
+      <c r="X1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Y1" t="s">
         <v>72</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Z1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AA1" t="s">
         <v>74</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AB1" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AC1" t="s">
         <v>76</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AD1" t="s">
         <v>77</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AE1" t="s">
         <v>78</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AF1" t="s">
         <v>79</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AG1" t="s">
         <v>80</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AH1" t="s">
         <v>81</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AI1" t="s">
         <v>82</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AJ1" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AM1" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AR1" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AS1" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AT1" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AU1" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AV1" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AW1" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AX1" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AY1" t="s">
         <v>8</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AZ1" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BA1" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BB1" t="s">
         <v>11</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BC1" t="s">
         <v>12</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BD1" t="s">
         <v>13</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BE1" t="s">
         <v>14</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BF1" t="s">
         <v>15</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BG1" t="s">
         <v>16</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BH1" t="s">
         <v>17</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BI1" t="s">
         <v>18</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BJ1" t="s">
         <v>19</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BK1" t="s">
         <v>20</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BL1" t="s">
         <v>21</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BM1" t="s">
         <v>22</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BN1" t="s">
         <v>23</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BO1" t="s">
         <v>24</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BP1" t="s">
         <v>25</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BQ1" t="s">
         <v>26</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BR1" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BS1" t="s">
         <v>28</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BT1" t="s">
         <v>29</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BU1" t="s">
         <v>30</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BV1" t="s">
         <v>31</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BW1" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BX1" t="s">
         <v>33</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BY1" t="s">
         <v>34</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BZ1" t="s">
         <v>35</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CA1" t="s">
         <v>36</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="CB1" t="s">
         <v>37</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="CC1" t="s">
         <v>38</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="CD1" t="s">
         <v>39</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CE1" t="s">
         <v>40</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CF1" t="s">
         <v>64</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CG1" t="s">
         <v>41</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CJ1" t="s">
         <v>42</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CK1" t="s">
         <v>43</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CL1" t="s">
         <v>44</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CM1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -2849,7 +2935,7 @@
       <c r="C2" t="str">
         <f>_xll.NCDK_MolText(B2)</f>
         <v xml:space="preserve">
-       CDK0714190307
+       CDK0816191014
  18 19  0  0  0  0  0  0  0  0999 V2000
     0.0000    0.0000    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
     0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
@@ -2891,312 +2977,401 @@
 M  END
 </v>
       </c>
-      <c r="D2">
-        <f>_xll.NCDK_Tanimoto($I2,$I3)</f>
-        <v>0</v>
+      <c r="D2" t="str">
+        <f>_xll.RDKit_SMILES($C2)</f>
+        <v>CCC1(C2=CCCCCC2)C(=O)NC(=O)NC1=O</v>
       </c>
       <c r="E2" t="str">
-        <f>_xll.NCDK(E$1,$B2)</f>
+        <f>_xll.RDKit_MolBlock($D2)</f>
+        <v xml:space="preserve">
+     RDKit          2D
+ 18 19  0  0  0  0  0  0  0  0999 V2000
+    0.6583    4.7411    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.6957    3.2416    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.0130    2.5242    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.0777    1.3515    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.7286    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.0777   -1.3515    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.3846   -1.6852    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.5574   -0.7500    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.5574    0.7500    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.3846    1.6852    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.0055    1.3995    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.5278   -0.0224    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    4.4758    1.6967    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    4.9535    3.1186    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    6.4238    3.4159    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    3.9610    4.2433    0.0000 N   0  0  0  0  0  0  0  0  0  0  0  0
+    2.4907    3.9461    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.4982    5.0708    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  1  0
+  2  3  1  0
+  3  4  1  0
+  4  5  2  0
+  5  6  1  0
+  6  7  1  0
+  7  8  1  0
+  8  9  1  0
+  9 10  1  0
+  3 11  1  0
+ 11 12  2  0
+ 11 13  1  0
+ 13 14  1  0
+ 14 15  2  0
+ 14 16  1  0
+ 16 17  1  0
+ 17 18  2  0
+ 17  3  1  0
+ 10  4  1  0
+M  END
+</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xll.NCDK_SMILES($E2)</f>
+        <v>CCC1(C2=CCCCCC2)C(=O)NC(=O)NC1=O</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xll.RDKit_InChI(F2)</f>
+        <v>InChI=1S/C13H18N2O3/c1-2-13(9-7-5-3-4-6-8-9)10(16)14-12(18)15-11(13)17/h7H,2-6,8H2,1H3,(H2,14,15,16,17,18)</v>
+      </c>
+      <c r="H2" t="str">
+        <f>_xll.RDKit_InChIKey($B2)</f>
+        <v>PAZQYDJGLKSCSI-UHFFFAOYSA-N</v>
+      </c>
+      <c r="I2">
+        <f>_xll.NCDK_Tanimoto($U2,$U3)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xll.NCDK(J$1,$B2)</f>
         <v>0000000000000000001000000000000000001000001000000100100000000100010000000001100100000000111100001110000001010101010011011000001110100001100001100110011001110111101110</v>
       </c>
-      <c r="F2" t="str">
-        <f>_xll.RDKit_MACCSFingerprint(B2)</f>
+      <c r="K2" t="str">
+        <f>_xll.RDKit_MACCSFingerprint($B2)</f>
         <v>00000000000000000001000000000000000001000001000000100100000000100010000000001100100000000111100001110000001010101010011011000001110100001100001100110011001110111101110</v>
       </c>
-      <c r="G2" t="str">
+      <c r="L2" t="b">
+        <f>($J2=MID($K2,2,166))</f>
+        <v>1</v>
+      </c>
+      <c r="M2" t="str">
+        <f>_xll.RDKit_MorganFingerprint($B2, 2)</f>
+        <v>00100000000000000000000000000000000010000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000010000000000000001000100000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000001000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000001001000000000000000000000000000000000000010000000000000001000000000000000000000000010000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000010000000000</v>
+      </c>
+      <c r="N2" t="str">
+        <f>_xll.RDKit_RDKFingerprint($B2)</f>
+        <v>01101000100000000000010110010111111001000011100010000010000000110001011011101010100101000000000010001100000001101001000011110000010010000001100001001101000010100111001100010100010001000000001100000100011001011000010001111000000000000000100000001000010000000011000010001110001101100000110110000010010000010100100011000000000010000000000010010110000000000001001001000010000100001000000010000010000010000100000000101100010011000010010010000011001001000100100000000010000011000101000000011001000000100101111101000010010000000010000011001011010000011000000010000100001100000000000100001001000001010100000001010000001010111111000001001001110000000010101000001100110000000101010000000100000110010000001010100100010001000000010100100000001010000111000000000010000101001000111001100011001001000000000010000000001110000100010000010100000100100101000110100000001010100000011000011010001100000100001101010000100101100000101001000000011000000010000010111010000000001110010010110001000001010110010010010000010101000100000000100100011010011010000010000010100100000110010110000000001000000001010011010101111011001100000111000000010000001110011011000001000111000011011000001111010100100000100011001001000000001010100001000000000001010100010111000110011010001100000110110000000000101010100010000000000010000010010100011111100110000010011000000100100000000010000001011000110000011011000001000001100000000100000100000010000001000000001000100000100010001000011010001001000001011011100101001110010010010000000110000001011100000000100000001000000100010010000001010000000000000011000000101000001000010000101101010000011100010010011000000010000100000001100000010100000110000010000111101000100100010001011000001000010000010000100110000100101001000010000001100001010001010111001000000000001000110001100000000000000000000011001100011101010101011100001000010000110000110011010000000000001100100101011001000010100010010000100000000000000100001101010110001111100010010011001000000000000110001000010000001001100000100000110011010110100010110010000101100000000000010001010001000111</v>
+      </c>
+      <c r="O2" t="str">
+        <f>_xll.RDKit_HashedAtomPairFingerprint($B2)</f>
+        <v>11001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001110000000001110000000000000111100001100100000000000000000000000000010000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000001000000000000000000000000000000000001110000000000000000000001110000000000000111000000000000000000000000011000000110000000000000000001000000000000000000000000000000010000000000000000000000000000000000010000000000000001110000000000000000000000000000000000000000000000000000000000000000000000000000000001110000011000000000000001110000000001110111000000000000011100000110000000000000010000000000000001110000000000000000000000000000000000000000000001100000000000000000000000000000000000000000011000000000000001100000000000000000000000000000000000000000000000000110000000000000000000000111011000000110000000000000000000000100000001100000000000000000000000000000000000000000000000000100000000000000000000000110000000000000000001110000000000000000011000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000001000100000000000000000000000100000001110000000000000000000000000110000000000000000000000000000000000000010001110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110011000000000010000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="P2" t="str">
+        <f>_xll.RDKit_HashedTopologicalTorsionFingerprint($B2)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000000000000000000110000000000000000000000000000000000000000001000100000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000001000000000000000000000000000000000000000000000000000000000000000100000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000000000000000000111000000000000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>_xll.RDKit_LayeredFingerprint($B2)</f>
+        <v>00000000000000000010100101001110110000010000010110100001001000001000000000010100111001100001110100000000101111000000000100010000100000010000100000000000010100000100110010000000010000010001100101011011000010000000001110000001100001110000100010010100000100000000001000111010000101000000001010000000000001010000000110110010000000000100010000100100000001100010000110000011001000011101000101100100000000011000000011000011000110100000011000000000001101000000000000010000010000010100010010000010000010001101101000100110001101000100001100001101000000100000000000000010001000010000000001000000100101000000101001000010001100000010001100000011010000001000110001000010011010110000000001100000010000000000010001101000000001100001010010000111000110001100000001000000000000000000000000000000001011100100111000100101010000010010010000000000000001000000010001000000111010100001000110010010101001000011010011100000000100000000001000010000000010011001100010100101000100000001000011001000001000000011000000101001011110000100000010101000000000010000000010000010010010001100000100000001100000010010100000010101001000101101001000000001010000010000000000010000000000000010000100000000001100100001000000000001100000100001101000000010100000000000001101010010000010000000000101000000111000000000010001100000000010000111000010100100000011101000010100000000010101000100000000100000101100000010000000000100001010100111000000000111000010000000100000010000000000000100000100000000000000000000100000001010000000001100100000100101000000000100000000000001000001111100000101000001000000101000100000100000000000001000001000001010100000000000000001000101011001000001100000000001000000101000011100100000000010011000000010000100101001000001000000001010101000010000001100010101001010100001000000001000001000010000100000000001100010000000001000001000001000100010101000010001000100000101001001000001000000011000001000000010010100001100001000000010000000000011000000000000000000000110000000010010011100001001010001000000100000000101000010010000000000000100110000010110100000000010001010000010</v>
+      </c>
+      <c r="R2" t="str">
+        <f>_xll.RDKit_PatternFingerprint($B2)</f>
+        <v>01010000000001000100000000000000000000010000001010000110000000001000000000000000000000100100000001000001000010000010000000000000000000000000000000010100000000001000000100000101001000000000000000000000001101000010000001000000100000100000000000000000000011000100010000000010000000000101000000010000100000000000000000000100000000010000000001000001000010100000000011000000000000000000000000000100001000000000000000101100100000001000110000110010000000010000001000000000011001000011000000000000101100000100000000000000110001010001000100000100000000000001001000000000000001000000000000000000100100100001000000000000000000000110001000000010000000000000100000000000000001011000000001010001000000000001101000110010010000000000010000000100011000100100000000000010000010000000000000001100001110000000000000000111000000000100100000000010000000000100000000000100000000000000000011010100001101000000000000000000001000000000011010000000000100000000000100000001110000000000010000110001000110000000001001000000000000100001000100000000000000100000000001000001000000000001100001001100110100000000001000001000000010000000011000000010000000000000100000101100000000000000100000011001000111000000100000010010010001000100000000010100000000100010000000000000000010001000000000000000110000000000000010000000000000000100001100000000000000000000000000011000110000000000000000000010000000000000100101001000000001010110110001100101000100000000001011000000000000000000001010001001010000010000100001000000000100000000001001000010000100000000100001000000000000100001000010000000000000010000000010100100000001001001000000000000000100100000000110000000000000000000010000010100000100010000001010000000000001000000000100000000000000000000001000000000010100000000000000001101000000000000001000000000000010000000000010000001000000000011000000010000000011000001000000000000000000000000000000000000000000000000000000000100000001010101000100110110001000000000000000000000000100000000000000110000100000000100001000000000000001100000000100000000000100001000000001110010000000010000000000000110</v>
+      </c>
+      <c r="S2" t="str">
         <f>_xll.NCDK_ECFP0($B2)</f>
         <v>0000000000000010000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H2" t="str">
+      <c r="T2" t="str">
         <f>_xll.NCDK_ECFP2($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000010000000000000100000000000010000010000001000000000000000000000000000100</v>
       </c>
-      <c r="I2" t="str">
+      <c r="U2" t="str">
         <f>_xll.NCDK_ECFP4($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010010000000000000000000000000000000000000000000000000000000000000010001000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000000000000000000000000000101000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000010000000000000100000000000010100010000001000000000000000000000000000100</v>
       </c>
-      <c r="J2" t="str">
+      <c r="V2" t="str">
         <f>_xll.NCDK_ECFP6($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000010000000000000100000000000000000010010000000000000000000000000000000000000000000000000000000000000010001000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000001000000000001000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000000000000000000000000000101000000000000000000000000000000000000000000000100001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000001001000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000010000000000000100000000000010100010000001000010000000000000000000000100</v>
       </c>
-      <c r="K2" t="str">
+      <c r="W2" t="str">
         <f>_xll.NCDK_FCFP0($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L2" t="str">
+      <c r="X2" t="str">
         <f>_xll.NCDK_FCFP2($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M2" t="str">
+      <c r="Y2" t="str">
         <f>_xll.NCDK_FCFP4($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000001000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000001000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000100100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000100000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N2" t="str">
+      <c r="Z2" t="str">
         <f>_xll.NCDK_FCFP0($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O2" t="str">
+      <c r="AA2" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B2)</f>
         <v>111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000110000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000010000000001000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P2" t="str">
+      <c r="AB2" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B2)</f>
         <v>0000001010100001001000010000000000100000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="AC2" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B2)</f>
         <v>000000000000001000000000000000001000000000010000000000000000001000000100000001000000000000000010000000000000000000000100000000000000000000001000001000000000000000000000000000000000100100100000000000000000000000010000000000000001010000000000000000000000010100010000000000000000000001100000000000001000000000000000000000000000010000000000000010000000000010000000000000000000000000000000000000000000000000001000011100000000000000100000000000001000001000010100000100000000000000010100000100000000000000000001000000000000000110000000000000100000000000000010000010000000000000000000010000000000001100000000010001100010100010000010000000000000000001000000000000000000000000000001000000000000000100000000000000000000000010000000001000000000000000000010000000001000100100000000100010001000000000110000000000000000000000010000000000000000000000100000000010001000000001000000000000000000100000100000000000000000000000000000000000100000000010000000000010010000010000000000101100010000000000010000000100000001000000000000011001</v>
       </c>
-      <c r="R2" t="str">
+      <c r="AD2" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B2)</f>
         <v>0000010000000000010000000011000000000010000000000000000010010000000000000001010000001011000000000000000000001010000000000010010010000000000000000000100000000000000001000001000010000100000000000000000000000010100000000100000000010000000001100000000000000000000000000000000000000000000000001000000000001000000000000000000100000000000000100100000000000100000000000000001100000000000000000000000110000000000000000001000000000000000000000000000000010000100000101000000000001011001000000000000000000000000010100100000100000000001000000000000000000011010001100000000000000000000000000000000000001000000001000100000000000000000000100000000000000100000000101000000000000000000000000010000000000100000000000000000000000001000001000000000000000000000001110001000010000000100000000000000000000000000000000000000000000000000000000000000000000010000000000000001000100000000000010100000000000000000000000000000000000000000000001000000000001000000000100000000000001000010000000000000000000000000010000000000000000000110001000000001000000000</v>
       </c>
-      <c r="S2" t="str">
+      <c r="AE2" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B2)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000010010110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000100000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000001101000000000000000000000000000001000001000000000000000000001010000000000000000000000000000000000000000010000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000011000000001011000100010010000000000000000000011000000010000110100110000110110011001000101000010100000001000000000000000000000010000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000010100001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000010001000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T2" t="str">
+      <c r="AF2" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B2)</f>
         <v>0010000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000100000000100100000000000000000100000000000000000000000000000000000000000000000000000001000100000000000001000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000001000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000</v>
       </c>
-      <c r="U2" t="str">
+      <c r="AG2" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B2)</f>
         <v>0000000000000000001000000000000000001000001000000100100000000100010000000001100100000000111100001110000001010101010011011000001110100001100001100110011001110111101110</v>
       </c>
-      <c r="V2" t="str">
+      <c r="AH2" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B2)</f>
         <v>0100000000000100100000000000000010000000110000000010000110000000101110100000000000100000000000000000000000100000000100001000100001000000000010000000000000001000000000000000000000000110000000000000100000000000001001000000000011000001001000000000000010000000000000001000100000000000000000010100000000000000100000000000000000000000000000000010000000000000000010000100000000000000000000000000000000000000000000110000000000000100000100000000010000000000010000000011010000000000000000000001011000000000000000010100000000000000100000000000010001001100000000000000000000000001000000000000100000000010000000000001000000000010000000000000000000000000000000000100010000000000000001000000100010000000100101001001000001001110001100010000000000000000000000000000000000000000000000100010000000000000001010000000000000000000000010000000000000000001110000000000000010000000000000100000000100100000000000000000011100000010000000000000000000000000000000000000000000000000000100000000000000100000000000000000000000101010000000101000000000000000</v>
       </c>
-      <c r="W2" t="str">
+      <c r="AI2" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B2)</f>
         <v>1101100000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000010100001</v>
       </c>
-      <c r="X2" t="str">
+      <c r="AJ2" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B2)</f>
         <v>00000000011100110011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000001111000000000000100000000000000000000000000000000111000000000100000011000000000000000000000110000000000000010110000000000000000000000100010000000001000100001010100100001000000000000000000000000000000000000001000000000000000000000000000000000100000000001000000000000000000001000100000000000000000011010000010001100000100000000000001000000000000000000000010001000010100100010000010000000000000000011000110001000100011000000100011110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AK2" s="2">
         <f>_xll.NCDK_MolecularWeight(B2)</f>
         <v>250.29412142388836</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="AL2" s="2">
         <f>_xll.NCDK_ExactMass(B2)</f>
         <v>250.13174243599997</v>
       </c>
-      <c r="AA2">
+      <c r="AM2">
         <f>_xll.NCDK_AcidicGroupCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AN2" s="4">
         <f>_xll.NCDK_ALogP(B2)</f>
         <v>2.1996999999999991</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AO2" s="4">
         <f>_xll.NCDK_XLogP(B2)</f>
         <v>2.1759999999999997</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AP2" s="4">
         <f>_xll.NCDK_MannholdLogP(B2)</f>
         <v>2.34</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AQ2" s="4">
         <f>_xll.NCDK_JPlogP(B2)</f>
         <v>1.7050260777332682</v>
       </c>
-      <c r="AF2">
+      <c r="AR2">
         <f>_xll.NCDK_AMolarRefractivity(B2)</f>
         <v>66.252700000000004</v>
       </c>
-      <c r="AG2">
+      <c r="AS2">
         <f>_xll.NCDK_APol(B2)</f>
         <v>39.488274000000011</v>
       </c>
-      <c r="AH2">
+      <c r="AT2">
         <f>_xll.NCDK_AromaticAtomsCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AI2">
+      <c r="AU2">
         <f>_xll.NCDK_AromaticBondsCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AJ2">
+      <c r="AV2">
         <f>_xll.NCDK_AtomCount(B2)</f>
         <v>36</v>
       </c>
-      <c r="AK2" t="str">
+      <c r="AW2" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B2)</f>
         <v>0.482364049323966, -0.239230483102807, 0.193743260003086, -0.422975414094056, 0.245070516996786</v>
       </c>
-      <c r="AL2" t="str">
+      <c r="AX2" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B2)</f>
         <v>21.0433677091758, 20.6610036641195, 30.570374510169, 39.3180113704083, 36.7520657397667</v>
       </c>
-      <c r="AM2" t="str">
+      <c r="AY2" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B2)</f>
         <v>1236.72445709937, 1455.26096710327, 2067.09825744824, 2452.45202784668, 1776.45546782422</v>
       </c>
-      <c r="AN2">
+      <c r="AZ2">
         <f>_xll.NCDK_BasicGroupCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AO2" t="str">
+      <c r="BA2" t="str">
         <f>_xll.NCDK_BCUT(B2)</f>
         <v>11.89, 15.9969274797474, -0.279527566151374, 0.285306450703295, 4.45516607690972, 12.225254833975</v>
       </c>
-      <c r="AP2">
+      <c r="BB2">
         <f>_xll.NCDK_BondCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AQ2">
+      <c r="BC2">
         <f>_xll.NCDK_BPol(B2)</f>
         <v>23.871725999999995</v>
       </c>
-      <c r="AR2" t="str">
+      <c r="BD2" t="str">
         <f>_xll.NCDK_CarbonTypes(B2)</f>
         <v>0, 0, 2, 1, 1, 1, 6, 0, 1</v>
       </c>
-      <c r="AS2" t="str">
+      <c r="BE2" t="str">
         <f>_xll.NCDK_ChiChain(B2)</f>
         <v>0, 0, 0, 0.0481125224324688, 0.206136035947173, 0, 0, 0, 0.015625, 0.0379976820715334</v>
       </c>
-      <c r="AT2" t="str">
+      <c r="BF2" t="str">
         <f>_xll.NCDK_ChiCluster(B2)</f>
         <v>1.29103942781429, 0.0680413817439772, 0.635379749451514, 0.130245735736926, 0.58282022448487, 0.0441941738241592, 0.195368603605389, 0.0360843918243516</v>
       </c>
-      <c r="AU2" t="str">
+      <c r="BG2" t="str">
         <f>_xll.NCDK_ChiPathCluster(B2)</f>
         <v>3.75820832838601, 7.24003474940441, 9.47142848690227, 1.60201233255417, 2.48389505922722, 2.76623804293011</v>
       </c>
-      <c r="AV2" t="str">
+      <c r="BH2" t="str">
         <f>_xll.NCDK_ChiPath(B2)</f>
         <v>13.1733621074374, 8.60822612591632, 7.53308445980525, 6.57446305443147, 5.83502554474493, 3.66414268256136, 2.81639208561656, 1.24750715936873, 10.5447358277005, 6.47350942312757, 4.82495377161152, 3.84884458919458, 2.7963481600948, 1.78170696456175, 1.19223951604789, 0.520731228864019</v>
       </c>
-      <c r="AW2" t="str">
+      <c r="BI2" t="str">
         <f>_xll.NCDK_CPSA(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="AX2">
+      <c r="BJ2">
         <f>_xll.NCDK_EccentricConnectivityIndex(B2)</f>
         <v>226</v>
       </c>
-      <c r="AY2">
+      <c r="BK2">
         <f>_xll.NCDK_FMF(B2)</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="AZ2">
+      <c r="BL2">
         <f>_xll.NCDK_FractionalPSA(B2)</f>
         <v>0.30092142334124705</v>
       </c>
-      <c r="BA2">
+      <c r="BM2">
         <f>_xll.NCDK_FragmentComplexity(B2)</f>
         <v>1063.05</v>
       </c>
-      <c r="BB2" t="str">
+      <c r="BN2" t="str">
         <f>_xll.NCDK_GravitationalIndex(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC2">
+      <c r="BO2">
         <f>_xll.NCDK_HBondAcceptorCount(B2)</f>
         <v>5</v>
       </c>
-      <c r="BD2">
+      <c r="BP2">
         <f>_xll.NCDK_HBondDonorCount(B2)</f>
         <v>2</v>
       </c>
-      <c r="BE2">
+      <c r="BQ2">
         <f>_xll.NCDK_HybridizationRatio(B2)</f>
         <v>0.61538461538461542</v>
       </c>
-      <c r="BF2" t="str">
+      <c r="BR2" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B2)</f>
         <v>14.409972299169, 5.96982167352538, 2.65927977839335</v>
       </c>
-      <c r="BG2" t="str">
+      <c r="BS2" t="str">
         <f>_xll.NCDK_KierHallSmarts(B2)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 6, 0, 1, 0, 0, 0, 0, 4, 0, 0, 1, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH2">
+      <c r="BT2">
         <f>_xll.NCDK_LargestChain(B2)</f>
         <v>2</v>
       </c>
-      <c r="BI2">
+      <c r="BU2">
         <f>_xll.NCDK_LargestPiSystem(B2)</f>
         <v>8</v>
       </c>
-      <c r="BJ2" t="str">
+      <c r="BV2" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK2">
+      <c r="BW2">
         <f>_xll.NCDK_LongestAliphaticChain(B2)</f>
         <v>2</v>
       </c>
-      <c r="BL2" t="str">
+      <c r="BX2" t="str">
         <f>_xll.NCDK_MDE(B2)</f>
         <v>0, 1.78256861348341, 1.17348231572452, 0.5, 9.28105720195319, 8.27801156561087, 2.82326712400687, 2.67269615442102, 3.03934274260637, 0, 0.75, 0, 0, 0, 0, 0, 0.5, 0, 0</v>
       </c>
-      <c r="BM2" t="str">
+      <c r="BY2" t="str">
         <f>_xll.NCDK_MomentOfInertia(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BN2">
+      <c r="BZ2">
         <f>_xll.NCDK_PetitjeanNumber(B2)</f>
         <v>0.5</v>
       </c>
-      <c r="BO2" t="str">
+      <c r="CA2" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BP2">
+      <c r="CB2">
         <f>_xll.NCDK_RotatableBondsCount(B2)</f>
         <v>2</v>
       </c>
-      <c r="BQ2">
+      <c r="CC2">
         <f>_xll.NCDK_RuleOfFive(B2)</f>
         <v>0</v>
       </c>
-      <c r="BR2" t="str">
+      <c r="CD2" t="str">
         <f>_xll.NCDK_SmallRing(B2)</f>
         <v>2, 0, 2, 0, 0, 0, 0, 1, 1, 0, 0</v>
       </c>
-      <c r="BS2">
+      <c r="CE2">
         <f>_xll.NCDK_TPSA(B2)</f>
         <v>75.27000000000001</v>
       </c>
-      <c r="BT2">
+      <c r="CF2">
         <f>_xll.NCDK_VABC(B2)</f>
         <v>246.50970715028382</v>
       </c>
-      <c r="BU2">
+      <c r="CG2">
         <f>_xll.NCDK_VAdjMa(B2)</f>
         <v>5.2479275134435852</v>
       </c>
-      <c r="BV2" s="2">
+      <c r="CH2" s="2">
         <f>_xll.NCDK_MolecularWeight(B2)</f>
         <v>250.29412142388836</v>
       </c>
-      <c r="BW2" s="3">
+      <c r="CI2" s="3">
         <f>_xll.NCDK_ExactMass(B2)</f>
         <v>250.13174243599997</v>
       </c>
-      <c r="BX2" t="str">
+      <c r="CJ2" t="str">
         <f>_xll.NCDK_WeightedPath(B2)</f>
         <v>35.9822147160759, 1.99901192867088, 13.5466431850826, 7.60403910050065, 5.94260408458194</v>
       </c>
-      <c r="BY2" t="str">
+      <c r="CK2" t="str">
         <f>_xll.NCDK_WHIM(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BZ2" t="str">
+      <c r="CL2" t="str">
         <f>_xll.NCDK_WienerNumbers(B2)</f>
         <v>537, 35</v>
       </c>
-      <c r="CA2">
+      <c r="CM2">
         <f>_xll.NCDK_ZagrebIndex(B2)</f>
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -3206,318 +3381,371 @@
       <c r="C3" t="str">
         <f>_xll.NCDK_MolText(B3)</f>
         <v xml:space="preserve">
-       CDK0714190307
+       CDK0816191021
   1  0  0  0  0  0  0  0  0  0999 V2000
     0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
 M  END
 </v>
       </c>
-      <c r="D3">
-        <f>_xll.NCDK_Tanimoto($I3,$I4)</f>
-        <v>0</v>
+      <c r="D3" t="str">
+        <f>_xll.RDKit_SMILES($C3)</f>
+        <v>C</v>
       </c>
       <c r="E3" t="str">
-        <f>_xll.NCDK(E$1,$B3)</f>
+        <f>_xll.RDKit_MolBlock($D3)</f>
+        <v xml:space="preserve">
+     RDKit          2D
+  1  0  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+M  END
+</v>
+      </c>
+      <c r="F3" t="str">
+        <f>_xll.NCDK_SMILES($E3)</f>
+        <v>C</v>
+      </c>
+      <c r="G3" t="str">
+        <f>_xll.RDKit_InChI(F3)</f>
+        <v>InChI=1S/CH4/h1H4</v>
+      </c>
+      <c r="H3" t="str">
+        <f>_xll.RDKit_InChIKey($B3)</f>
+        <v>VNWKTOKETHGBQD-UHFFFAOYSA-N</v>
+      </c>
+      <c r="I3">
+        <f>_xll.NCDK_Tanimoto($U3,$U4)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="str">
+        <f>_xll.NCDK(J$1,$B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
       </c>
-      <c r="F3" t="str">
-        <f>_xll.RDKit_MACCSFingerprint(B3)</f>
+      <c r="K3" t="str">
+        <f>_xll.RDKit_MACCSFingerprint($B3)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
       </c>
-      <c r="G3" t="str">
+      <c r="L3" t="b">
+        <f>($J3=MID($K3,2,166))</f>
+        <v>1</v>
+      </c>
+      <c r="M3" t="str">
+        <f>_xll.RDKit_MorganFingerprint($B3, 2)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="N3" t="str">
+        <f>_xll.RDKit_RDKFingerprint($B3)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="O3" t="str">
+        <f>_xll.RDKit_HashedAtomPairFingerprint($B3)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="P3" t="str">
+        <f>_xll.RDKit_HashedTopologicalTorsionFingerprint($B3)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>_xll.RDKit_LayeredFingerprint($B3)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="R3" t="str">
+        <f>_xll.RDKit_PatternFingerprint($B3)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="S3" t="str">
         <f>_xll.NCDK_ECFP0($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H3" t="str">
+      <c r="T3" t="str">
         <f>_xll.NCDK_ECFP2($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I3" t="str">
+      <c r="U3" t="str">
         <f>_xll.NCDK_ECFP4($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J3" t="str">
+      <c r="V3" t="str">
         <f>_xll.NCDK_ECFP6($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K3" t="str">
+      <c r="W3" t="str">
         <f>_xll.NCDK_FCFP0($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L3" t="str">
+      <c r="X3" t="str">
         <f>_xll.NCDK_FCFP2($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M3" t="str">
+      <c r="Y3" t="str">
         <f>_xll.NCDK_FCFP4($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N3" t="str">
+      <c r="Z3" t="str">
         <f>_xll.NCDK_FCFP0($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O3" t="str">
+      <c r="AA3" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P3" t="str">
+      <c r="AB3" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="AC3" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R3" t="str">
+      <c r="AD3" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S3" t="str">
+      <c r="AE3" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T3" t="str">
+      <c r="AF3" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U3" t="str">
+      <c r="AG3" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
       </c>
-      <c r="V3" t="str">
+      <c r="AH3" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W3" t="str">
+      <c r="AI3" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X3" t="str">
+      <c r="AJ3" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B3)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AK3" s="2">
         <f>_xll.NCDK_MolecularWeight(B3)</f>
         <v>16.042498912091162</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AL3" s="2">
         <f>_xll.NCDK_ExactMass(B3)</f>
         <v>16.031300127999998</v>
       </c>
-      <c r="AA3">
+      <c r="AM3">
         <f>_xll.NCDK_AcidicGroupCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AN3" s="4">
         <f>_xll.NCDK_ALogP(B3)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AO3" s="4">
         <f>_xll.NCDK_XLogP(B3)</f>
         <v>0.73899999999999999</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AP3" s="4">
         <f>_xll.NCDK_MannholdLogP(B3)</f>
         <v>1.57</v>
       </c>
-      <c r="AE3" s="4" t="e">
+      <c r="AQ3" s="4" t="e">
         <f>_xll.NCDK_JPlogP(B3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="AF3">
+      <c r="AR3">
         <f>_xll.NCDK_AMolarRefractivity(B3)</f>
         <v>0</v>
       </c>
-      <c r="AG3">
+      <c r="AS3">
         <f>_xll.NCDK_APol(B3)</f>
         <v>4.4271719999999997</v>
       </c>
-      <c r="AH3">
+      <c r="AT3">
         <f>_xll.NCDK_AromaticAtomsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AI3">
+      <c r="AU3">
         <f>_xll.NCDK_AromaticBondsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AJ3">
+      <c r="AV3">
         <f>_xll.NCDK_AtomCount(B3)</f>
         <v>5</v>
       </c>
-      <c r="AK3" t="str">
+      <c r="AW3" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B3)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AL3" t="str">
+      <c r="AX3" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B3)</f>
         <v>1, 0, 0, 0, 0</v>
       </c>
-      <c r="AM3" t="str">
+      <c r="AY3" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B3)</f>
         <v>6.822544, 0, 0, 0, 0</v>
       </c>
-      <c r="AN3">
+      <c r="AZ3">
         <f>_xll.NCDK_BasicGroupCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AO3" t="str">
+      <c r="BA3" t="str">
         <f>_xll.NCDK_BCUT(B3)</f>
         <v>12, 12, -0.0779229231460157, -0.0779229231460157, 2.612, 2.612</v>
       </c>
-      <c r="AP3">
+      <c r="BB3">
         <f>_xll.NCDK_BondCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AQ3">
+      <c r="BC3">
         <f>_xll.NCDK_BPol(B3)</f>
         <v>4.3728280000000002</v>
       </c>
-      <c r="AR3" t="str">
+      <c r="BD3" t="str">
         <f>_xll.NCDK_CarbonTypes(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AS3" t="str">
+      <c r="BE3" t="str">
         <f>_xll.NCDK_ChiChain(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AT3" t="str">
+      <c r="BF3" t="str">
         <f>_xll.NCDK_ChiCluster(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AU3" t="str">
+      <c r="BG3" t="str">
         <f>_xll.NCDK_ChiPathCluster(B3)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AV3" t="str">
+      <c r="BH3" t="str">
         <f>_xll.NCDK_ChiPath(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AW3" t="str">
+      <c r="BI3" t="str">
         <f>_xll.NCDK_CPSA(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AX3">
+      <c r="BJ3">
         <f>_xll.NCDK_EccentricConnectivityIndex(B3)</f>
         <v>0</v>
       </c>
-      <c r="AY3">
+      <c r="BK3">
         <f>_xll.NCDK_FMF(B3)</f>
         <v>0</v>
       </c>
-      <c r="AZ3">
+      <c r="BL3">
         <f>_xll.NCDK_FractionalPSA(B3)</f>
         <v>0</v>
       </c>
-      <c r="BA3">
+      <c r="BM3">
         <f>_xll.NCDK_FragmentComplexity(B3)</f>
         <v>16</v>
       </c>
-      <c r="BB3" t="str">
+      <c r="BN3" t="str">
         <f>_xll.NCDK_GravitationalIndex(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC3">
+      <c r="BO3">
         <f>_xll.NCDK_HBondAcceptorCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="BD3">
+      <c r="BP3">
         <f>_xll.NCDK_HBondDonorCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="BE3">
+      <c r="BQ3">
         <f>_xll.NCDK_HybridizationRatio(B3)</f>
         <v>1</v>
       </c>
-      <c r="BF3" t="str">
+      <c r="BR3" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B3)</f>
         <v>0, 0, 0</v>
       </c>
-      <c r="BG3" t="str">
+      <c r="BS3" t="str">
         <f>_xll.NCDK_KierHallSmarts(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH3">
+      <c r="BT3">
         <f>_xll.NCDK_LargestChain(B3)</f>
         <v>0</v>
       </c>
-      <c r="BI3">
+      <c r="BU3">
         <f>_xll.NCDK_LargestPiSystem(B3)</f>
         <v>0</v>
       </c>
-      <c r="BJ3" t="str">
+      <c r="BV3" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK3">
+      <c r="BW3">
         <f>_xll.NCDK_LongestAliphaticChain(B3)</f>
         <v>0</v>
       </c>
-      <c r="BL3" t="str">
+      <c r="BX3" t="str">
         <f>_xll.NCDK_MDE(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BM3" t="str">
+      <c r="BY3" t="str">
         <f>_xll.NCDK_MomentOfInertia(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BN3">
+      <c r="BZ3">
         <f>_xll.NCDK_PetitjeanNumber(B3)</f>
         <v>0</v>
       </c>
-      <c r="BO3" t="str">
+      <c r="CA3" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BP3">
+      <c r="CB3">
         <f>_xll.NCDK_RotatableBondsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="BQ3">
+      <c r="CC3">
         <f>_xll.NCDK_RuleOfFive(B3)</f>
         <v>0</v>
       </c>
-      <c r="BR3" t="str">
+      <c r="CD3" t="str">
         <f>_xll.NCDK_SmallRing(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BS3">
+      <c r="CE3">
         <f>_xll.NCDK_TPSA(B3)</f>
         <v>0</v>
       </c>
-      <c r="BT3">
+      <c r="CF3">
         <f>_xll.NCDK_VABC(B3)</f>
         <v>25.852443326666702</v>
       </c>
-      <c r="BU3">
+      <c r="CG3">
         <f>_xll.NCDK_VAdjMa(B3)</f>
         <v>0</v>
       </c>
-      <c r="BV3" s="2">
+      <c r="CH3" s="2">
         <f>_xll.NCDK_MolecularWeight(B3)</f>
         <v>16.042498912091162</v>
       </c>
-      <c r="BW3" s="3">
+      <c r="CI3" s="3">
         <f>_xll.NCDK_ExactMass(B3)</f>
         <v>16.031300127999998</v>
       </c>
-      <c r="BX3" t="str">
+      <c r="CJ3" t="str">
         <f>_xll.NCDK_WeightedPath(B3)</f>
         <v>1, 1, 0, 0, 0</v>
       </c>
-      <c r="BY3" t="str">
+      <c r="CK3" t="str">
         <f>_xll.NCDK_WHIM(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BZ3" t="str">
+      <c r="CL3" t="str">
         <f>_xll.NCDK_WienerNumbers(B3)</f>
         <v>0, 0</v>
       </c>
-      <c r="CA3">
+      <c r="CM3">
         <f>_xll.NCDK_ZagrebIndex(B3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -3525,315 +3753,385 @@
         <v>0</v>
       </c>
       <c r="C4" t="str">
-        <f>_xll.NCDK_InChI(B4)</f>
+        <f>_xll.NCDK_MolText(B4)</f>
+        <v xml:space="preserve">
+       CDK0816191021
+  4  3  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  1  0  0  0  0 
+  2  3  2  0  0  0  0 
+  2  4  1  0  0  0  0 
+M  END
+</v>
+      </c>
+      <c r="D4" t="str">
+        <f>_xll.RDKit_SMILES($C4)</f>
+        <v>CC(=O)O</v>
+      </c>
+      <c r="E4" t="str">
+        <f>_xll.RDKit_MolBlock($D4)</f>
+        <v xml:space="preserve">
+     RDKit          2D
+  4  3  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.2990    0.7500    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.2990    2.2500    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    2.5981   -0.0000    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  1  0
+  2  3  2  0
+  2  4  1  0
+M  END
+</v>
+      </c>
+      <c r="F4" t="str">
+        <f>_xll.NCDK_SMILES($E4)</f>
+        <v>CC(=O)O</v>
+      </c>
+      <c r="G4" t="str">
+        <f>_xll.RDKit_InChI(F4)</f>
         <v>InChI=1S/C2H4O2/c1-2(3)4/h1H3,(H,3,4)</v>
       </c>
-      <c r="D4">
-        <f>_xll.NCDK_Tanimoto($I4,$I5)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" t="str">
-        <f>_xll.NCDK(E$1,$B4)</f>
+      <c r="H4" t="str">
+        <f>_xll.RDKit_InChIKey($B4)</f>
+        <v>QTBSBXVTEAMEQO-UHFFFAOYSA-N</v>
+      </c>
+      <c r="I4">
+        <f>_xll.NCDK_Tanimoto($U4,$U5)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <f>_xll.NCDK(J$1,$B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000000000001001011000100</v>
       </c>
-      <c r="F4" t="str">
-        <f>_xll.RDKit_MACCSFingerprint(B4)</f>
+      <c r="K4" t="str">
+        <f>_xll.RDKit_MACCSFingerprint($B4)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000000000001001011000100</v>
       </c>
-      <c r="G4" t="str">
+      <c r="L4" t="b">
+        <f>($J4=MID($K4,2,166))</f>
+        <v>1</v>
+      </c>
+      <c r="M4" t="str">
+        <f>_xll.RDKit_MorganFingerprint($B4, 2)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="N4" t="str">
+        <f>_xll.RDKit_RDKFingerprint($B4)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="O4" t="str">
+        <f>_xll.RDKit_HashedAtomPairFingerprint($B4)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="P4" t="str">
+        <f>_xll.RDKit_HashedTopologicalTorsionFingerprint($B4)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>_xll.RDKit_LayeredFingerprint($B4)</f>
+        <v>00000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000001100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="R4" t="str">
+        <f>_xll.RDKit_PatternFingerprint($B4)</f>
+        <v>00000000000000000000000000000000000000000000000000000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000010000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000100001000000001000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000010010000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000100011000000000000000000001000000000000000000000000000000000001000000000000000000100000000001000100000000000000000000000100000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000010010000000100000000000000000000000000000000000100000010000000000000000000000000000000000000000000000000000100000100000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000</v>
+      </c>
+      <c r="S4" t="str">
         <f>_xll.NCDK_ECFP0($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H4" t="str">
+      <c r="T4" t="str">
         <f>_xll.NCDK_ECFP2($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I4" t="str">
+      <c r="U4" t="str">
         <f>_xll.NCDK_ECFP4($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J4" t="str">
+      <c r="V4" t="str">
         <f>_xll.NCDK_ECFP6($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K4" t="str">
+      <c r="W4" t="str">
         <f>_xll.NCDK_FCFP0($B4)</f>
         <v>1010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L4" t="str">
+      <c r="X4" t="str">
         <f>_xll.NCDK_FCFP2($B4)</f>
         <v>1010000010000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M4" t="str">
+      <c r="Y4" t="str">
         <f>_xll.NCDK_FCFP4($B4)</f>
         <v>1010000010000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N4" t="str">
+      <c r="Z4" t="str">
         <f>_xll.NCDK_FCFP0($B4)</f>
         <v>1010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O4" t="str">
+      <c r="AA4" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B4)</f>
         <v>101000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P4" t="str">
+      <c r="AB4" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B4)</f>
         <v>0000001000000001000000000000000001100000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="AC4" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B4)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010010000000000000000000000000000000000000000001000</v>
       </c>
-      <c r="R4" t="str">
+      <c r="AD4" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000001010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S4" t="str">
+      <c r="AE4" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B4)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000010000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T4" t="str">
+      <c r="AF4" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B4)</f>
         <v>0000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U4" t="str">
+      <c r="AG4" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000000000001001011000100</v>
       </c>
-      <c r="V4" t="str">
+      <c r="AH4" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000100000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000010000000000000001000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000</v>
       </c>
-      <c r="W4" t="str">
+      <c r="AI4" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B4)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000010000000</v>
       </c>
-      <c r="X4" t="str">
+      <c r="AJ4" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B4)</f>
         <v>00000000010000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000000000000000100000001000000000000000000000100000100000000000000000000000001000000000000010000000000000000000100100000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AK4" s="2">
         <f>_xll.NCDK_MolecularWeight(B4)</f>
         <v>60.052044664017956</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AL4" s="2">
         <f>_xll.NCDK_ExactMass(B4)</f>
         <v>60.021129367999997</v>
       </c>
-      <c r="AA4">
+      <c r="AM4">
         <f>_xll.NCDK_AcidicGroupCount(B4)</f>
         <v>1</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AN4" s="4">
         <f>_xll.NCDK_ALogP(B4)</f>
         <v>-0.22990000000000016</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AO4" s="4">
         <f>_xll.NCDK_XLogP(B4)</f>
         <v>-0.08</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AP4" s="4">
         <f>_xll.NCDK_MannholdLogP(B4)</f>
         <v>1.46</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AQ4" s="4">
         <f>_xll.NCDK_JPlogP(B4)</f>
         <v>-0.27735415884610526</v>
       </c>
-      <c r="AF4">
+      <c r="AR4">
         <f>_xll.NCDK_AMolarRefractivity(B4)</f>
         <v>12.643699999999999</v>
       </c>
-      <c r="AG4">
+      <c r="AS4">
         <f>_xll.NCDK_APol(B4)</f>
         <v>7.7911719999999995</v>
       </c>
-      <c r="AH4">
+      <c r="AT4">
         <f>_xll.NCDK_AromaticAtomsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AI4">
+      <c r="AU4">
         <f>_xll.NCDK_AromaticBondsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AJ4">
+      <c r="AV4">
         <f>_xll.NCDK_AtomCount(B4)</f>
         <v>8</v>
       </c>
-      <c r="AK4" t="str">
+      <c r="AW4" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B4)</f>
         <v>0.194598407923705, -0.0910121789036757, -0.00628702505817703, 0, 0</v>
       </c>
-      <c r="AL4" t="str">
+      <c r="AX4" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B4)</f>
         <v>5.54893807108189, 3.66418395426513, 4.43865298980608, 0, 0</v>
       </c>
-      <c r="AM4" t="str">
+      <c r="AY4" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B4)</f>
         <v>58.780575625, 47.106336, 38.8410481875, 0, 0</v>
       </c>
-      <c r="AN4">
+      <c r="AZ4">
         <f>_xll.NCDK_BasicGroupCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AO4" t="str">
+      <c r="BA4" t="str">
         <f>_xll.NCDK_BCUT(B4)</f>
         <v>11.9966879762366, 15.9982572603197, -0.351666803410558, 0.275648439067482, 3.09299617864267, 4.35788090208676</v>
       </c>
-      <c r="AP4">
+      <c r="BB4">
         <f>_xll.NCDK_BondCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AQ4">
+      <c r="BC4">
         <f>_xll.NCDK_BPol(B4)</f>
         <v>5.3308280000000003</v>
       </c>
-      <c r="AR4" t="str">
+      <c r="BD4" t="str">
         <f>_xll.NCDK_CarbonTypes(B4)</f>
         <v>0, 0, 1, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="AS4" t="str">
+      <c r="BE4" t="str">
         <f>_xll.NCDK_ChiChain(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AT4" t="str">
+      <c r="BF4" t="str">
         <f>_xll.NCDK_ChiCluster(B4)</f>
         <v>0.577350269189626, 0, 0, 0, 0.0912870929175277, 0, 0, 0</v>
       </c>
-      <c r="AU4" t="str">
+      <c r="BG4" t="str">
         <f>_xll.NCDK_ChiPathCluster(B4)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AV4" t="str">
+      <c r="BH4" t="str">
         <f>_xll.NCDK_ChiPath(B4)</f>
         <v>3.57735026918963, 1.73205080756888, 1.73205080756888, 0, 0, 0, 0, 0, 2.35546188596382, 0.927730942981911, 0.519018035899438, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AW4" t="str">
+      <c r="BI4" t="str">
         <f>_xll.NCDK_CPSA(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="AX4">
+      <c r="BJ4">
         <f>_xll.NCDK_EccentricConnectivityIndex(B4)</f>
         <v>9</v>
       </c>
-      <c r="AY4">
+      <c r="BK4">
         <f>_xll.NCDK_FMF(B4)</f>
         <v>0</v>
       </c>
-      <c r="AZ4">
+      <c r="BL4">
         <f>_xll.NCDK_FractionalPSA(B4)</f>
         <v>0.62144781967398288</v>
       </c>
-      <c r="BA4">
+      <c r="BM4">
         <f>_xll.NCDK_FragmentComplexity(B4)</f>
         <v>37.020000000000003</v>
       </c>
-      <c r="BB4" t="str">
+      <c r="BN4" t="str">
         <f>_xll.NCDK_GravitationalIndex(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC4">
+      <c r="BO4">
         <f>_xll.NCDK_HBondAcceptorCount(B4)</f>
         <v>2</v>
       </c>
-      <c r="BD4">
+      <c r="BP4">
         <f>_xll.NCDK_HBondDonorCount(B4)</f>
         <v>1</v>
       </c>
-      <c r="BE4">
+      <c r="BQ4">
         <f>_xll.NCDK_HybridizationRatio(B4)</f>
         <v>0.5</v>
       </c>
-      <c r="BF4" t="str">
+      <c r="BR4" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B4)</f>
         <v>4, 1.33333333333333, #N/A</v>
       </c>
-      <c r="BG4" t="str">
+      <c r="BS4" t="str">
         <f>_xll.NCDK_KierHallSmarts(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH4">
+      <c r="BT4">
         <f>_xll.NCDK_LargestChain(B4)</f>
         <v>3</v>
       </c>
-      <c r="BI4">
+      <c r="BU4">
         <f>_xll.NCDK_LargestPiSystem(B4)</f>
         <v>2</v>
       </c>
-      <c r="BJ4" t="str">
+      <c r="BV4" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK4">
+      <c r="BW4">
         <f>_xll.NCDK_LongestAliphaticChain(B4)</f>
         <v>2</v>
       </c>
-      <c r="BL4" t="str">
+      <c r="BX4" t="str">
         <f>_xll.NCDK_MDE(B4)</f>
         <v>0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0.5, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BM4" t="str">
+      <c r="BY4" t="str">
         <f>_xll.NCDK_MomentOfInertia(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BN4">
+      <c r="BZ4">
         <f>_xll.NCDK_PetitjeanNumber(B4)</f>
         <v>0.5</v>
       </c>
-      <c r="BO4" t="str">
+      <c r="CA4" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BP4">
+      <c r="CB4">
         <f>_xll.NCDK_RotatableBondsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="BQ4">
+      <c r="CC4">
         <f>_xll.NCDK_RuleOfFive(B4)</f>
         <v>0</v>
       </c>
-      <c r="BR4" t="str">
+      <c r="CD4" t="str">
         <f>_xll.NCDK_SmallRing(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BS4">
+      <c r="CE4">
         <f>_xll.NCDK_TPSA(B4)</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="BT4">
+      <c r="CF4">
         <f>_xll.NCDK_VABC(B4)</f>
         <v>58.092422652855603</v>
       </c>
-      <c r="BU4">
+      <c r="CG4">
         <f>_xll.NCDK_VAdjMa(B4)</f>
         <v>2.5849625007211561</v>
       </c>
-      <c r="BV4" s="2">
+      <c r="CH4" s="2">
         <f>_xll.NCDK_MolecularWeight(B4)</f>
         <v>60.052044664017956</v>
       </c>
-      <c r="BW4" s="3">
+      <c r="CI4" s="3">
         <f>_xll.NCDK_ExactMass(B4)</f>
         <v>60.021129367999997</v>
       </c>
-      <c r="BX4" t="str">
+      <c r="CJ4" t="str">
         <f>_xll.NCDK_WeightedPath(B4)</f>
         <v>6.73205080756888, 1.68301270189222, 4.48803387171259, 4.48803387171259, 0</v>
       </c>
-      <c r="BY4" t="str">
+      <c r="CK4" t="str">
         <f>_xll.NCDK_WHIM(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BZ4" t="str">
+      <c r="CL4" t="str">
         <f>_xll.NCDK_WienerNumbers(B4)</f>
         <v>9, 0</v>
       </c>
-      <c r="CA4">
+      <c r="CM4">
         <f>_xll.NCDK_ZagrebIndex(B4)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -3841,315 +4139,395 @@
         <v>51</v>
       </c>
       <c r="C5" t="str">
-        <f>_xll.NCDK_InChI(B5)</f>
+        <f>_xll.NCDK_MolText(B5)</f>
+        <v xml:space="preserve">
+       CDK0816191021
+  6  6  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  2  0  0  0  0 
+  2  3  1  0  0  0  0 
+  3  4  2  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  2  0  0  0  0 
+  1  6  1  0  0  0  0 
+M  END
+</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xll.RDKit_SMILES($C5)</f>
+        <v>c1ccccc1</v>
+      </c>
+      <c r="E5" t="str">
+        <f>_xll.RDKit_MolBlock($D5)</f>
+        <v xml:space="preserve">
+     RDKit          2D
+  6  6  0  0  0  0  0  0  0  0999 V2000
+    1.5000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.7500   -1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.7500   -1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.5000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.7500    1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.7500    1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  2  0
+  2  3  1  0
+  3  4  2  0
+  4  5  1  0
+  5  6  2  0
+  6  1  1  0
+M  END
+</v>
+      </c>
+      <c r="F5" t="str">
+        <f>_xll.NCDK_SMILES($E5)</f>
+        <v>C1=CC=CC=C1</v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xll.RDKit_InChI(F5)</f>
         <v>InChI=1S/C6H6/c1-2-4-6-5-3-1/h1-6H</v>
       </c>
-      <c r="D5">
-        <f>_xll.NCDK_Tanimoto($I5,$I6)</f>
+      <c r="H5" t="str">
+        <f>_xll.RDKit_InChIKey($B5)</f>
+        <v>UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
+      </c>
+      <c r="I5">
+        <f>_xll.NCDK_Tanimoto($U5,$U6)</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="E5" t="str">
-        <f>_xll.NCDK(E$1,$B5)</f>
+      <c r="J5" t="str">
+        <f>_xll.NCDK(J$1,$B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
       </c>
-      <c r="F5" t="str">
-        <f>_xll.RDKit_MACCSFingerprint(B5)</f>
+      <c r="K5" t="str">
+        <f>_xll.RDKit_MACCSFingerprint($B5)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
       </c>
-      <c r="G5" t="str">
+      <c r="L5" t="b">
+        <f>($J5=MID($K5,2,166))</f>
+        <v>1</v>
+      </c>
+      <c r="M5" t="str">
+        <f>_xll.RDKit_MorganFingerprint($B5, 2)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="N5" t="str">
+        <f>_xll.RDKit_RDKFingerprint($B5)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="O5" t="str">
+        <f>_xll.RDKit_HashedAtomPairFingerprint($B5)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="P5" t="str">
+        <f>_xll.RDKit_HashedTopologicalTorsionFingerprint($B5)</f>
+        <v>00000000000011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>_xll.RDKit_LayeredFingerprint($B5)</f>
+        <v>00000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000100000000000000000010000100000000000010000000100000000000000000000000000000000000000000000000000000000000000000000000000000010000000100010000000000000000010000100000000000000010000110000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000001000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000001000000000000000000001000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="R5" t="str">
+        <f>_xll.RDKit_PatternFingerprint($B5)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000001000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100001000000000000000100000000000000000010000100000000000000000000000000000010001000000000000000000000000000000000000000000000000000001000100000000000000000000001000000000000000000000000000000000000000000000000000000000000000000100001000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000100000000000000000000000000000000000000010001000010000000000000000000000000000001000100000000000000100000000001000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000011000000000000000010000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001011000000000000000000000000000000010000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000010000000000000000000000000000</v>
+      </c>
+      <c r="S5" t="str">
         <f>_xll.NCDK_ECFP0($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H5" t="str">
+      <c r="T5" t="str">
         <f>_xll.NCDK_ECFP2($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I5" t="str">
+      <c r="U5" t="str">
         <f>_xll.NCDK_ECFP4($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J5" t="str">
+      <c r="V5" t="str">
         <f>_xll.NCDK_ECFP6($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K5" t="str">
+      <c r="W5" t="str">
         <f>_xll.NCDK_FCFP0($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L5" t="str">
+      <c r="X5" t="str">
         <f>_xll.NCDK_FCFP2($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M5" t="str">
+      <c r="Y5" t="str">
         <f>_xll.NCDK_FCFP4($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N5" t="str">
+      <c r="Z5" t="str">
         <f>_xll.NCDK_FCFP0($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O5" t="str">
+      <c r="AA5" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B5)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P5" t="str">
+      <c r="AB5" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B5)</f>
         <v>0000000000010000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="AC5" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B5)</f>
         <v>000000000000000000000000000000000000000000000000000001000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000010000000000000000000000000000000000000000000000000000000000010001</v>
       </c>
-      <c r="R5" t="str">
+      <c r="AD5" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S5" t="str">
+      <c r="AE5" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B5)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T5" t="str">
+      <c r="AF5" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B5)</f>
         <v>0000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000</v>
       </c>
-      <c r="U5" t="str">
+      <c r="AG5" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
       </c>
-      <c r="V5" t="str">
+      <c r="AH5" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001</v>
       </c>
-      <c r="W5" t="str">
+      <c r="AI5" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001</v>
       </c>
-      <c r="X5" t="str">
+      <c r="AJ5" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B5)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001100000000000000000000000000000000000000000000000100000000000100000000001000000000000001100000000000010000000000000000000000000000000100000000000000000100000010000100000000000000000000000100000000000000000001000000000000000000000000010001000100000000000000000000000000010001000000010000010000000100010100000000001000100010000100000000010000000000000001000001000000000000000000010001000100000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AK5" s="2">
         <f>_xll.NCDK_MolecularWeight(B5)</f>
         <v>78.112059903682749</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AL5" s="2">
         <f>_xll.NCDK_ExactMass(B5)</f>
         <v>78.046950191999997</v>
       </c>
-      <c r="AA5">
+      <c r="AM5">
         <f>_xll.NCDK_AcidicGroupCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AN5" s="4">
         <f>_xll.NCDK_ALogP(B5)</f>
         <v>1.8299999999999996</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AO5" s="4">
         <f>_xll.NCDK_XLogP(B5)</f>
         <v>2.0220000000000002</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AP5" s="4">
         <f>_xll.NCDK_MannholdLogP(B5)</f>
         <v>2.12</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AQ5" s="4">
         <f>_xll.NCDK_JPlogP(B5)</f>
         <v>1.8466303941078017</v>
       </c>
-      <c r="AF5">
+      <c r="AR5">
         <f>_xll.NCDK_AMolarRefractivity(B5)</f>
         <v>26.058</v>
       </c>
-      <c r="AG5">
+      <c r="AS5">
         <f>_xll.NCDK_APol(B5)</f>
         <v>14.560758</v>
       </c>
-      <c r="AH5">
+      <c r="AT5">
         <f>_xll.NCDK_AromaticAtomsCount(B5)</f>
         <v>6</v>
       </c>
-      <c r="AI5">
+      <c r="AU5">
         <f>_xll.NCDK_AromaticBondsCount(B5)</f>
         <v>6</v>
       </c>
-      <c r="AJ5">
+      <c r="AV5">
         <f>_xll.NCDK_AtomCount(B5)</f>
         <v>12</v>
       </c>
-      <c r="AK5" t="str">
+      <c r="AW5" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B5)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AL5" t="str">
+      <c r="AX5" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B5)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AM5" t="str">
+      <c r="AY5" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B5)</f>
         <v>233.87838834375, 233.87838834375, 233.87838834375, 116.939194171875, 0</v>
       </c>
-      <c r="AN5">
+      <c r="AZ5">
         <f>_xll.NCDK_BasicGroupCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AO5" t="str">
+      <c r="BA5" t="str">
         <f>_xll.NCDK_BCUT(B5)</f>
         <v>11.85, 12.1500544016358, -0.211758152069243, 0.0882962495665529, 6.093375, 6.3934294016358</v>
       </c>
-      <c r="AP5">
+      <c r="BB5">
         <f>_xll.NCDK_BondCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AQ5">
+      <c r="BC5">
         <f>_xll.NCDK_BPol(B5)</f>
         <v>6.5592419999999994</v>
       </c>
-      <c r="AR5" t="str">
+      <c r="BD5" t="str">
         <f>_xll.NCDK_CarbonTypes(B5)</f>
         <v>0, 0, 0, 6, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AS5" t="str">
+      <c r="BE5" t="str">
         <f>_xll.NCDK_ChiChain(B5)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.037037037037037, 0</v>
       </c>
-      <c r="AT5" t="str">
+      <c r="BF5" t="str">
         <f>_xll.NCDK_ChiCluster(B5)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AU5" t="str">
+      <c r="BG5" t="str">
         <f>_xll.NCDK_ChiPathCluster(B5)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AV5" t="str">
+      <c r="BH5" t="str">
         <f>_xll.NCDK_ChiPath(B5)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 3.46410161513775, 2, 1.15470053837925, 0.666666666666667, 0.384900179459751, 0.222222222222222, 0, 0</v>
       </c>
-      <c r="AW5" t="str">
+      <c r="BI5" t="str">
         <f>_xll.NCDK_CPSA(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="AX5">
+      <c r="BJ5">
         <f>_xll.NCDK_EccentricConnectivityIndex(B5)</f>
         <v>36</v>
       </c>
-      <c r="AY5">
+      <c r="BK5">
         <f>_xll.NCDK_FMF(B5)</f>
         <v>1</v>
       </c>
-      <c r="AZ5">
+      <c r="BL5">
         <f>_xll.NCDK_FractionalPSA(B5)</f>
         <v>0</v>
       </c>
-      <c r="BA5">
+      <c r="BM5">
         <f>_xll.NCDK_FragmentComplexity(B5)</f>
         <v>114</v>
       </c>
-      <c r="BB5" t="str">
+      <c r="BN5" t="str">
         <f>_xll.NCDK_GravitationalIndex(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC5">
+      <c r="BO5">
         <f>_xll.NCDK_HBondAcceptorCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="BD5">
+      <c r="BP5">
         <f>_xll.NCDK_HBondDonorCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="BE5">
+      <c r="BQ5">
         <f>_xll.NCDK_HybridizationRatio(B5)</f>
         <v>0</v>
       </c>
-      <c r="BF5" t="str">
+      <c r="BR5" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B5)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="BG5" t="str">
+      <c r="BS5" t="str">
         <f>_xll.NCDK_KierHallSmarts(B5)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH5">
+      <c r="BT5">
         <f>_xll.NCDK_LargestChain(B5)</f>
-        <v>0</v>
-      </c>
-      <c r="BI5">
+        <v>4</v>
+      </c>
+      <c r="BU5">
         <f>_xll.NCDK_LargestPiSystem(B5)</f>
         <v>6</v>
       </c>
-      <c r="BJ5" t="str">
+      <c r="BV5" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK5">
+      <c r="BW5">
         <f>_xll.NCDK_LongestAliphaticChain(B5)</f>
         <v>0</v>
       </c>
-      <c r="BL5" t="str">
+      <c r="BX5" t="str">
         <f>_xll.NCDK_MDE(B5)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BM5" t="str">
+      <c r="BY5" t="str">
         <f>_xll.NCDK_MomentOfInertia(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BN5">
+      <c r="BZ5">
         <f>_xll.NCDK_PetitjeanNumber(B5)</f>
         <v>0</v>
       </c>
-      <c r="BO5" t="str">
+      <c r="CA5" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BP5">
+      <c r="CB5">
         <f>_xll.NCDK_RotatableBondsCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="BQ5">
+      <c r="CC5">
         <f>_xll.NCDK_RuleOfFive(B5)</f>
         <v>0</v>
       </c>
-      <c r="BR5" t="str">
+      <c r="CD5" t="str">
         <f>_xll.NCDK_SmallRing(B5)</f>
         <v>1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BS5">
+      <c r="CE5">
         <f>_xll.NCDK_TPSA(B5)</f>
         <v>0</v>
       </c>
-      <c r="BT5">
+      <c r="CF5">
         <f>_xll.NCDK_VABC(B5)</f>
         <v>81.166531652800174</v>
       </c>
-      <c r="BU5">
+      <c r="CG5">
         <f>_xll.NCDK_VAdjMa(B5)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BV5" s="2">
+      <c r="CH5" s="2">
         <f>_xll.NCDK_MolecularWeight(B5)</f>
         <v>78.112059903682749</v>
       </c>
-      <c r="BW5" s="3">
+      <c r="CI5" s="3">
         <f>_xll.NCDK_ExactMass(B5)</f>
         <v>78.046950191999997</v>
       </c>
-      <c r="BX5" t="str">
+      <c r="CJ5" t="str">
         <f>_xll.NCDK_WeightedPath(B5)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BY5" t="str">
+      <c r="CK5" t="str">
         <f>_xll.NCDK_WHIM(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BZ5" t="str">
+      <c r="CL5" t="str">
         <f>_xll.NCDK_WienerNumbers(B5)</f>
         <v>27, 3</v>
       </c>
-      <c r="CA5">
+      <c r="CM5">
         <f>_xll.NCDK_ZagrebIndex(B5)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -4157,315 +4535,399 @@
         <v>85</v>
       </c>
       <c r="C6" t="str">
-        <f>_xll.NCDK_InChI(B6)</f>
+        <f>_xll.NCDK_MolText(B6)</f>
+        <v xml:space="preserve">
+       CDK0816191021
+  7  7  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  2  0  0  0  0 
+  2  3  1  0  0  0  0 
+  3  4  2  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  2  0  0  0  0 
+  1  6  1  0  0  0  0 
+  6  7  1  0  0  0  0 
+M  END
+</v>
+      </c>
+      <c r="D6" t="str">
+        <f>_xll.RDKit_SMILES($C6)</f>
+        <v>Cc1ccccc1</v>
+      </c>
+      <c r="E6" t="str">
+        <f>_xll.RDKit_MolBlock($D6)</f>
+        <v xml:space="preserve">
+     RDKit          2D
+  7  7  0  0  0  0  0  0  0  0999 V2000
+    3.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.5000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.7500   -1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.7500   -1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.5000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.7500    1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.7500    1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  1  0
+  2  3  2  0
+  3  4  1  0
+  4  5  2  0
+  5  6  1  0
+  6  7  2  0
+  7  2  1  0
+M  END
+</v>
+      </c>
+      <c r="F6" t="str">
+        <f>_xll.NCDK_SMILES($E6)</f>
+        <v>CC1=CC=CC=C1</v>
+      </c>
+      <c r="G6" t="str">
+        <f>_xll.RDKit_InChI(F6)</f>
         <v>InChI=1S/C7H8/c1-7-5-3-2-4-6-7/h2-6H,1H3</v>
       </c>
-      <c r="D6">
-        <f>_xll.NCDK_Tanimoto($I6,$I7)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" t="str">
-        <f>_xll.NCDK(E$1,$B6)</f>
+      <c r="H6" t="str">
+        <f>_xll.RDKit_InChIKey($B6)</f>
+        <v>YXFVVABEGXRONW-UHFFFAOYSA-N</v>
+      </c>
+      <c r="I6">
+        <f>_xll.NCDK_Tanimoto($U6,$U7)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xll.NCDK(J$1,$B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011010</v>
       </c>
-      <c r="F6" t="str">
-        <f>_xll.RDKit_MACCSFingerprint(B6)</f>
+      <c r="K6" t="str">
+        <f>_xll.RDKit_MACCSFingerprint($B6)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011010</v>
       </c>
-      <c r="G6" t="str">
+      <c r="L6" t="b">
+        <f>($J6=MID($K6,2,166))</f>
+        <v>1</v>
+      </c>
+      <c r="M6" t="str">
+        <f>_xll.RDKit_MorganFingerprint($B6, 2)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="N6" t="str">
+        <f>_xll.RDKit_RDKFingerprint($B6)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000000000000000000000000000000000000000000000010000000000000000000000000000000000000100000000000100000000000110000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000100000000000000000000000000000000000100000000000010000000000000000000000000000000001000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000001000000000000000000000000000000000000000000000000000000010000000000000001100000000000000000101000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="O6" t="str">
+        <f>_xll.RDKit_HashedAtomPairFingerprint($B6)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111000000000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="P6" t="str">
+        <f>_xll.RDKit_HashedTopologicalTorsionFingerprint($B6)</f>
+        <v>00000000000011000000000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>_xll.RDKit_LayeredFingerprint($B6)</f>
+        <v>00000000000000000000100000000000000000010000000010000000000000000000000000000000100000000000000000000000000000000010000100000000000000000010000000000000000000000000000000100100000100000000000000000010000100000000000010000000100000000000000010000000000000000000000000001000000000000000000000000000000000010000000100010010000000000000010010100000000000000010000110000010001000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000100010000000000000000010000000000000000000000001000000000000000000000000000000000000000000001000000000000000000000000000000000000000000010001000000000000000000000000000000000100000000000010000010000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000010000010000000000000000000000000000000001000000000000000000000010010000001000000000000000000000000000000000000000010000000000000000000000000000000000000001000000000000000000000010000000000000010100000000000000000000000000000000000000000000000010000000000000000001100000000000000000001000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000001000000000000000000000000000000000000000010010000000000000000000000000000000000000000000000000000000000000000100000000000001000010000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000100000000000000000000000000000000010000000000000000000000000000000000000000000000000000010000000000100000000000000000000000000000000000000000000001000000010000000000000000001000000000000000000000000000000000000000000000100000000000000001000000000000000000000000000000000000010000000000000000000000000000000000000001000000000001000000000000000000001000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000100000000000000000000000000000010000000000000000000000000000000</v>
+      </c>
+      <c r="R6" t="str">
+        <f>_xll.RDKit_PatternFingerprint($B6)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000001000000000000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000100001000000000000000100000000000000000010000100000000000000000000000000000010001000010000000000000001000000000000000000000100000000001000100000000000000000000001000000000000000000000000000000000000000000000000000000000000000000100001000000000000000000000000000000000000000010000000001000000000000000000000100000010000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000100000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001000000000000000000000000100000000000000000000000000000000000000010001000010000000000000000000000000000001000100000000000000100000000001000000000000000000000000000100000000000000000000000000000010000000000000000000000000000000100000000000000000000000000000010000000011000000000000000010010001000000000000000000100000000000000000000000000010000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000100000000000000000000001000000000000000000000000001011000000000000000000000000000000010000000000100001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000001000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000100000000000000000000100000000000000000000000000000000001010000000000000000000000000000</v>
+      </c>
+      <c r="S6" t="str">
         <f>_xll.NCDK_ECFP0($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H6" t="str">
+      <c r="T6" t="str">
         <f>_xll.NCDK_ECFP2($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I6" t="str">
+      <c r="U6" t="str">
         <f>_xll.NCDK_ECFP4($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000010000000000000000000000000</v>
       </c>
-      <c r="J6" t="str">
+      <c r="V6" t="str">
         <f>_xll.NCDK_ECFP6($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010100000000001000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000010000000000000000000000000</v>
       </c>
-      <c r="K6" t="str">
+      <c r="W6" t="str">
         <f>_xll.NCDK_FCFP0($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L6" t="str">
+      <c r="X6" t="str">
         <f>_xll.NCDK_FCFP2($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M6" t="str">
+      <c r="Y6" t="str">
         <f>_xll.NCDK_FCFP4($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N6" t="str">
+      <c r="Z6" t="str">
         <f>_xll.NCDK_FCFP0($B6)</f>
         <v>1000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O6" t="str">
+      <c r="AA6" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B6)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P6" t="str">
+      <c r="AB6" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B6)</f>
         <v>0000001000010000100000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="AC6" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B6)</f>
         <v>000000000000000000000000000000000000000001000000000001000000010000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="R6" t="str">
+      <c r="AD6" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000010010000000000000000000000000000000000000000000000000001000000001000000000000000000000000000000100000000000000000100000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S6" t="str">
+      <c r="AE6" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B6)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T6" t="str">
+      <c r="AF6" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B6)</f>
         <v>0000000000000000000000001000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000</v>
       </c>
-      <c r="U6" t="str">
+      <c r="AG6" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011010</v>
       </c>
-      <c r="V6" t="str">
+      <c r="AH6" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B6)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000100000000000000000100000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000001000000000001000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101</v>
       </c>
-      <c r="W6" t="str">
+      <c r="AI6" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B6)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001</v>
       </c>
-      <c r="X6" t="str">
+      <c r="AJ6" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B6)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001100000000000000000000000000000000000000000000000110000000000100000000001100000000000001100100000000010000000000000000000000000000000100000000000001000100000010000100000000000000000000000100000000000000000001000000000000000000000000010001000100000000000000000000000000010001000000010000010000000100010100000000001000100010000100000000010000000000000001000001000000000000000000010001000100000000111000000001000000000000000000011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AK6" s="2">
         <f>_xll.NCDK_MolecularWeight(B6)</f>
         <v>92.13867730812234</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AL6" s="2">
         <f>_xll.NCDK_ExactMass(B6)</f>
         <v>92.062600255999996</v>
       </c>
-      <c r="AA6">
+      <c r="AM6">
         <f>_xll.NCDK_AcidicGroupCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AN6" s="4">
         <f>_xll.NCDK_ALogP(B6)</f>
         <v>2.3162000000000003</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AO6" s="4">
         <f>_xll.NCDK_XLogP(B6)</f>
         <v>2.4590000000000001</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AP6" s="4">
         <f>_xll.NCDK_MannholdLogP(B6)</f>
         <v>2.23</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AQ6" s="4">
         <f>_xll.NCDK_JPlogP(B6)</f>
         <v>2.3300074064489729</v>
       </c>
-      <c r="AF6">
+      <c r="AR6">
         <f>_xll.NCDK_AMolarRefractivity(B6)</f>
         <v>31.0992</v>
       </c>
-      <c r="AG6">
+      <c r="AS6">
         <f>_xll.NCDK_APol(B6)</f>
         <v>17.654343999999998</v>
       </c>
-      <c r="AH6">
+      <c r="AT6">
         <f>_xll.NCDK_AromaticAtomsCount(B6)</f>
         <v>6</v>
       </c>
-      <c r="AI6">
+      <c r="AU6">
         <f>_xll.NCDK_AromaticBondsCount(B6)</f>
         <v>6</v>
       </c>
-      <c r="AJ6">
+      <c r="AV6">
         <f>_xll.NCDK_AtomCount(B6)</f>
         <v>15</v>
       </c>
-      <c r="AK6" t="str">
+      <c r="AW6" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B6)</f>
         <v>0.00145821501522747, -0.000488055819316601, -0.000225165712015084, -1.53979004755717E-05, -4.88075806479512E-07</v>
       </c>
-      <c r="AL6" t="str">
+      <c r="AX6" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B6)</f>
         <v>7, 7, 8, 5, 1</v>
       </c>
-      <c r="AM6" t="str">
+      <c r="AY6" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B6)</f>
         <v>310.962687273438, 320.438287539063, 355.858255328125, 213.793837835938, 36.9196446054688</v>
       </c>
-      <c r="AN6">
+      <c r="AZ6">
         <f>_xll.NCDK_BasicGroupCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AO6" t="str">
+      <c r="BA6" t="str">
         <f>_xll.NCDK_BCUT(B6)</f>
         <v>11.89, 12.1100942558098, -0.155208136358149, 0.0651359477608963, 5.76122693815409, 7.50783741355056</v>
       </c>
-      <c r="AP6">
+      <c r="BB6">
         <f>_xll.NCDK_BondCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="AQ6">
+      <c r="BC6">
         <f>_xll.NCDK_BPol(B6)</f>
         <v>8.7456560000000003</v>
       </c>
-      <c r="AR6" t="str">
+      <c r="BD6" t="str">
         <f>_xll.NCDK_CarbonTypes(B6)</f>
         <v>0, 0, 0, 5, 1, 1, 0, 0, 0</v>
       </c>
-      <c r="AS6" t="str">
+      <c r="BE6" t="str">
         <f>_xll.NCDK_ChiChain(B6)</f>
         <v>0, 0, 0, 0.102062072615966, 0.102062072615966, 0, 0, 0, 0.0320750149549792, 0.0320750149549792</v>
       </c>
-      <c r="AT6" t="str">
+      <c r="BF6" t="str">
         <f>_xll.NCDK_ChiCluster(B6)</f>
         <v>0.288675134594813, 0, 0, 0, 0.166666666666667, 0, 0, 0</v>
       </c>
-      <c r="AU6" t="str">
+      <c r="BG6" t="str">
         <f>_xll.NCDK_ChiPathCluster(B6)</f>
         <v>0.408248290463863, 0.433012701892219, 0.408248290463863, 0.192450089729875, 0.166666666666667, 0.128300059819917</v>
       </c>
-      <c r="AV6" t="str">
+      <c r="BH6" t="str">
         <f>_xll.NCDK_ChiPath(B6)</f>
         <v>5.11288417512236, 3.39384685011735, 2.74318215649199, 1.89384685011735, 1.30671282224753, 0.901047570290607, 0.204124145231932, 0, 4.38675134594813, 2.41068360252296, 1.65470053837925, 0.940455735015306, 0.534377897417612, 0.303561200840986, 0.0641500299099584, 0</v>
       </c>
-      <c r="AW6" t="str">
+      <c r="BI6" t="str">
         <f>_xll.NCDK_CPSA(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="AX6">
+      <c r="BJ6">
         <f>_xll.NCDK_EccentricConnectivityIndex(B6)</f>
         <v>45</v>
       </c>
-      <c r="AY6">
+      <c r="BK6">
         <f>_xll.NCDK_FMF(B6)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="AZ6">
+      <c r="BL6">
         <f>_xll.NCDK_FractionalPSA(B6)</f>
         <v>0</v>
       </c>
-      <c r="BA6">
+      <c r="BM6">
         <f>_xll.NCDK_FragmentComplexity(B6)</f>
         <v>183</v>
       </c>
-      <c r="BB6" t="str">
+      <c r="BN6" t="str">
         <f>_xll.NCDK_GravitationalIndex(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC6">
+      <c r="BO6">
         <f>_xll.NCDK_HBondAcceptorCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="BD6">
+      <c r="BP6">
         <f>_xll.NCDK_HBondDonorCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="BE6">
+      <c r="BQ6">
         <f>_xll.NCDK_HybridizationRatio(B6)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="BF6" t="str">
+      <c r="BR6" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B6)</f>
         <v>5.14285714285714, 2.34375, 1.5</v>
       </c>
-      <c r="BG6" t="str">
+      <c r="BS6" t="str">
         <f>_xll.NCDK_KierHallSmarts(B6)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 5, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH6">
+      <c r="BT6">
         <f>_xll.NCDK_LargestChain(B6)</f>
         <v>0</v>
       </c>
-      <c r="BI6">
+      <c r="BU6">
         <f>_xll.NCDK_LargestPiSystem(B6)</f>
         <v>6</v>
       </c>
-      <c r="BJ6" t="str">
+      <c r="BV6" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK6">
+      <c r="BW6">
         <f>_xll.NCDK_LongestAliphaticChain(B6)</f>
         <v>0</v>
       </c>
-      <c r="BL6" t="str">
+      <c r="BX6" t="str">
         <f>_xll.NCDK_MDE(B6)</f>
         <v>0, 1.85053586243577, 1, 0, 6.08364341893206, 3.04182170946603, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BM6" t="str">
+      <c r="BY6" t="str">
         <f>_xll.NCDK_MomentOfInertia(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BN6">
+      <c r="BZ6">
         <f>_xll.NCDK_PetitjeanNumber(B6)</f>
         <v>0.25</v>
       </c>
-      <c r="BO6" t="str">
+      <c r="CA6" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BP6">
+      <c r="CB6">
         <f>_xll.NCDK_RotatableBondsCount(B6)</f>
         <v>0</v>
       </c>
-      <c r="BQ6">
+      <c r="CC6">
         <f>_xll.NCDK_RuleOfFive(B6)</f>
         <v>0</v>
       </c>
-      <c r="BR6" t="str">
+      <c r="CD6" t="str">
         <f>_xll.NCDK_SmallRing(B6)</f>
         <v>1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BS6">
+      <c r="CE6">
         <f>_xll.NCDK_TPSA(B6)</f>
         <v>0</v>
       </c>
-      <c r="BT6">
+      <c r="CF6">
         <f>_xll.NCDK_VABC(B6)</f>
         <v>98.462516278666868</v>
       </c>
-      <c r="BU6">
+      <c r="CG6">
         <f>_xll.NCDK_VAdjMa(B6)</f>
         <v>3.8073549220576042</v>
       </c>
-      <c r="BV6" s="2">
+      <c r="CH6" s="2">
         <f>_xll.NCDK_MolecularWeight(B6)</f>
         <v>92.13867730812234</v>
       </c>
-      <c r="BW6" s="3">
+      <c r="CI6" s="3">
         <f>_xll.NCDK_ExactMass(B6)</f>
         <v>92.062600255999996</v>
       </c>
-      <c r="BX6" t="str">
+      <c r="CJ6" t="str">
         <f>_xll.NCDK_WeightedPath(B6)</f>
         <v>13.6768253204364, 1.95383218863377, 0, 0, 0</v>
       </c>
-      <c r="BY6" t="str">
+      <c r="CK6" t="str">
         <f>_xll.NCDK_WHIM(B6)</f>
         <v>#N/A</v>
       </c>
-      <c r="BZ6" t="str">
+      <c r="CL6" t="str">
         <f>_xll.NCDK_WienerNumbers(B6)</f>
         <v>42, 5</v>
       </c>
-      <c r="CA6">
+      <c r="CM6">
         <f>_xll.NCDK_ZagrebIndex(B6)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -4473,315 +4935,396 @@
         <v>56</v>
       </c>
       <c r="C7" t="str">
-        <f>_xll.NCDK_SMILES(B7)</f>
-        <v>C1CCCCC1</v>
-      </c>
-      <c r="D7">
-        <f>_xll.NCDK_Tanimoto($I7,$I8)</f>
+        <f>_xll.NCDK_MolText(B7)</f>
+        <v xml:space="preserve">
+       CDK0816191021
+  6  6  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+  1  2  1  0  0  0  0 
+  2  4  1  0  0  0  0 
+  4  6  1  0  0  0  0 
+  6  5  1  0  0  0  0 
+  5  3  1  0  0  0  0 
+  3  1  1  0  0  0  0 
+M  END
+</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xll.RDKit_SMILES($C7)</f>
+        <v>[C]1[C][C][C][C][C]1</v>
+      </c>
+      <c r="E7" t="str">
+        <f>_xll.RDKit_MolBlock($D7)</f>
+        <v xml:space="preserve">
+     RDKit          2D
+  6  6  0  0  0  0  0  0  0  0999 V2000
+    1.5000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.7500   -1.2990    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+   -0.7500   -1.2990    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+   -1.5000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+   -0.7500    1.2990    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.7500    1.2990    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+  1  2  1  0
+  2  3  1  0
+  3  4  1  0
+  4  5  1  0
+  5  6  1  0
+  6  1  1  0
+M  RAD  6   1   3   2   3   3   3   4   3   5   3   6   3
+M  END
+</v>
+      </c>
+      <c r="F7" t="str">
+        <f>_xll.NCDK_SMILES($E7)</f>
+        <v>[C]1[C][C][C][C][C]1 |^2:0,1,2,3,4,5|</v>
+      </c>
+      <c r="G7" t="str">
+        <f>_xll.RDKit_InChI(F7)</f>
+        <v>InChI=1S/C6/c1-2-4-6-5-3-1</v>
+      </c>
+      <c r="H7" t="str">
+        <f>_xll.RDKit_InChIKey($B7)</f>
+        <v>UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
+      </c>
+      <c r="I7">
+        <f>_xll.NCDK_Tanimoto($U7,$U8)</f>
         <v>1</v>
       </c>
-      <c r="E7" t="str">
-        <f>_xll.NCDK(E$1,$B7)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
-      </c>
-      <c r="F7" t="str">
-        <f>_xll.RDKit_MACCSFingerprint(B7)</f>
-        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="G7" t="str">
+      <c r="J7" t="str">
+        <f>_xll.NCDK(J$1,$B7)</f>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+      </c>
+      <c r="K7" t="str">
+        <f>_xll.RDKit_MACCSFingerprint($B7)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
+      </c>
+      <c r="L7" t="b">
+        <f>($J7=MID($K7,2,166))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" t="str">
+        <f>_xll.RDKit_MorganFingerprint($B7, 2)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="N7" t="str">
+        <f>_xll.RDKit_RDKFingerprint($B7)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="O7" t="str">
+        <f>_xll.RDKit_HashedAtomPairFingerprint($B7)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="P7" t="str">
+        <f>_xll.RDKit_HashedTopologicalTorsionFingerprint($B7)</f>
+        <v>00000000000011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="Q7" t="str">
+        <f>_xll.RDKit_LayeredFingerprint($B7)</f>
+        <v>00000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000100000000000000000010000100000000000010000000100000000000000000000000000000000000000000000000000000000000000000000000000000010000000100010000000000000000010000100000000000000010000110000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000001000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000001000000000000000000001000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="R7" t="str">
+        <f>_xll.RDKit_PatternFingerprint($B7)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000001000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100001000000000000000100000000000000000010000100000000000000000000000000000010001000000000000000000000000000000000000000000000000000001000100000000000000000000001000000000000000000000000000000000000000000000000000000000000000000100001000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000100000000000000000000000000000000000000010001000010000000000000000000000000000001000100000000000000100000000001000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000011000000000000000010000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001011000000000000000000000000000000010000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000010000000000000000000000000000</v>
+      </c>
+      <c r="S7" t="str">
         <f>_xll.NCDK_ECFP0($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H7" t="str">
+      <c r="T7" t="str">
         <f>_xll.NCDK_ECFP2($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I7" t="str">
+      <c r="U7" t="str">
         <f>_xll.NCDK_ECFP4($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J7" t="str">
+      <c r="V7" t="str">
         <f>_xll.NCDK_ECFP6($B7)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K7" t="str">
+      <c r="W7" t="str">
         <f>_xll.NCDK_FCFP0($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L7" t="str">
+      <c r="X7" t="str">
         <f>_xll.NCDK_FCFP2($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M7" t="str">
+      <c r="Y7" t="str">
         <f>_xll.NCDK_FCFP4($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N7" t="str">
+      <c r="Z7" t="str">
         <f>_xll.NCDK_FCFP0($B7)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O7" t="str">
+      <c r="AA7" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B7)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P7" t="str">
+      <c r="AB7" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B7)</f>
-        <v>0000000010000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="Q7" t="str">
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AC7" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B7)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="R7" t="str">
+      <c r="AD7" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S7" t="str">
+      <c r="AE7" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B7)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000010000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T7" t="str">
+      <c r="AF7" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U7" t="str">
+      <c r="AG7" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B7)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
-      </c>
-      <c r="V7" t="str">
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+      </c>
+      <c r="AH7" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B7)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W7" t="str">
+      <c r="AI7" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B7)</f>
         <v>0100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X7" t="str">
+      <c r="AJ7" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B7)</f>
-        <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="Y7" s="2">
+        <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000100000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AK7" s="2">
         <f>_xll.NCDK_MolecularWeight(B7)</f>
         <v>72.064415380728008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AL7" s="2">
         <f>_xll.NCDK_ExactMass(B7)</f>
         <v>72</v>
       </c>
-      <c r="AA7">
+      <c r="AM7">
         <f>_xll.NCDK_AcidicGroupCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AN7" s="4">
         <f>_xll.NCDK_ALogP(B7)</f>
         <v>2.7372000000000005</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AO7" s="4">
         <f>_xll.NCDK_XLogP(B7)</f>
         <v>3.4139999999999997</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AP7" s="4">
         <f>_xll.NCDK_MannholdLogP(B7)</f>
         <v>2.12</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AQ7" s="4">
         <f>_xll.NCDK_JPlogP(B7)</f>
         <v>2.6952762459207973</v>
       </c>
-      <c r="AF7">
+      <c r="AR7">
         <f>_xll.NCDK_AMolarRefractivity(B7)</f>
         <v>27.606000000000002</v>
       </c>
-      <c r="AG7">
+      <c r="AS7">
         <f>_xll.NCDK_APol(B7)</f>
-        <v>18.561516000000001</v>
-      </c>
-      <c r="AH7">
+        <v>10.56</v>
+      </c>
+      <c r="AT7">
         <f>_xll.NCDK_AromaticAtomsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AI7">
+      <c r="AU7">
         <f>_xll.NCDK_AromaticBondsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AJ7">
+      <c r="AV7">
         <f>_xll.NCDK_AtomCount(B7)</f>
         <v>18</v>
       </c>
-      <c r="AK7" t="str">
+      <c r="AW7" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B7)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AL7" t="str">
+      <c r="AX7" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B7)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AM7" t="str">
+      <c r="AY7" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B7)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AN7">
+      <c r="AZ7">
         <f>_xll.NCDK_BasicGroupCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AO7" t="str">
+      <c r="BA7" t="str">
         <f>_xll.NCDK_BCUT(B7)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AP7">
+      <c r="BB7">
         <f>_xll.NCDK_BondCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="AQ7">
+      <c r="BC7">
         <f>_xll.NCDK_BPol(B7)</f>
         <v>13.118483999999999</v>
       </c>
-      <c r="AR7" t="str">
+      <c r="BD7" t="str">
         <f>_xll.NCDK_CarbonTypes(B7)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AS7" t="str">
+      <c r="BE7" t="str">
         <f>_xll.NCDK_ChiChain(B7)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AT7" t="str">
+      <c r="BF7" t="str">
         <f>_xll.NCDK_ChiCluster(B7)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AU7" t="str">
+      <c r="BG7" t="str">
         <f>_xll.NCDK_ChiPathCluster(B7)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AV7" t="str">
+      <c r="BH7" t="str">
         <f>_xll.NCDK_ChiPath(B7)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AW7" t="str">
+      <c r="BI7" t="str">
         <f>_xll.NCDK_CPSA(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="AX7">
+      <c r="BJ7">
         <f>_xll.NCDK_EccentricConnectivityIndex(B7)</f>
         <v>36</v>
       </c>
-      <c r="AY7">
+      <c r="BK7">
         <f>_xll.NCDK_FMF(B7)</f>
         <v>1</v>
       </c>
-      <c r="AZ7">
+      <c r="BL7">
         <f>_xll.NCDK_FractionalPSA(B7)</f>
         <v>0</v>
       </c>
-      <c r="BA7">
+      <c r="BM7">
         <f>_xll.NCDK_FragmentComplexity(B7)</f>
         <v>6</v>
       </c>
-      <c r="BB7" t="str">
+      <c r="BN7" t="str">
         <f>_xll.NCDK_GravitationalIndex(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC7">
+      <c r="BO7">
         <f>_xll.NCDK_HBondAcceptorCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="BD7">
+      <c r="BP7">
         <f>_xll.NCDK_HBondDonorCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="BE7">
+      <c r="BQ7">
         <f>_xll.NCDK_HybridizationRatio(B7)</f>
         <v>1</v>
       </c>
-      <c r="BF7" t="str">
+      <c r="BR7" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B7)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="BG7" t="str">
+      <c r="BS7" t="str">
         <f>_xll.NCDK_KierHallSmarts(B7)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 6, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH7">
+      <c r="BT7">
         <f>_xll.NCDK_LargestChain(B7)</f>
         <v>0</v>
       </c>
-      <c r="BI7">
+      <c r="BU7">
         <f>_xll.NCDK_LargestPiSystem(B7)</f>
         <v>0</v>
       </c>
-      <c r="BJ7" t="str">
+      <c r="BV7" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK7">
+      <c r="BW7">
         <f>_xll.NCDK_LongestAliphaticChain(B7)</f>
         <v>0</v>
       </c>
-      <c r="BL7" t="str">
+      <c r="BX7" t="str">
         <f>_xll.NCDK_MDE(B7)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BM7" t="str">
+      <c r="BY7" t="str">
         <f>_xll.NCDK_MomentOfInertia(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BN7">
+      <c r="BZ7">
         <f>_xll.NCDK_PetitjeanNumber(B7)</f>
         <v>0</v>
       </c>
-      <c r="BO7" t="str">
+      <c r="CA7" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BP7">
+      <c r="CB7">
         <f>_xll.NCDK_RotatableBondsCount(B7)</f>
         <v>0</v>
       </c>
-      <c r="BQ7">
+      <c r="CC7">
         <f>_xll.NCDK_RuleOfFive(B7)</f>
         <v>0</v>
       </c>
-      <c r="BR7" t="str">
+      <c r="CD7" t="str">
         <f>_xll.NCDK_SmallRing(B7)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BS7">
+      <c r="CE7">
         <f>_xll.NCDK_TPSA(B7)</f>
         <v>0</v>
       </c>
-      <c r="BT7">
+      <c r="CF7">
         <f>_xll.NCDK_VABC(B7)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BU7">
+      <c r="CG7">
         <f>_xll.NCDK_VAdjMa(B7)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BV7" s="2">
+      <c r="CH7" s="2">
         <f>_xll.NCDK_MolecularWeight(B7)</f>
         <v>72.064415380728008</v>
       </c>
-      <c r="BW7" s="3">
+      <c r="CI7" s="3">
         <f>_xll.NCDK_ExactMass(B7)</f>
         <v>72</v>
       </c>
-      <c r="BX7" t="str">
+      <c r="CJ7" t="str">
         <f>_xll.NCDK_WeightedPath(B7)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BY7" t="str">
+      <c r="CK7" t="str">
         <f>_xll.NCDK_WHIM(B7)</f>
         <v>#N/A</v>
       </c>
-      <c r="BZ7" t="str">
+      <c r="CL7" t="str">
         <f>_xll.NCDK_WienerNumbers(B7)</f>
         <v>27, 3</v>
       </c>
-      <c r="CA7">
+      <c r="CM7">
         <f>_xll.NCDK_ZagrebIndex(B7)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -4789,315 +5332,396 @@
         <v>57</v>
       </c>
       <c r="C8" t="str">
-        <f>_xll.NCDK_InChIKey(B8)</f>
-        <v>XDTMQSROBMDMFD-UHFFFAOYSA-N</v>
-      </c>
-      <c r="D8">
-        <f>_xll.NCDK_Tanimoto($I8,$I9)</f>
+        <f>_xll.NCDK_MolText(B8)</f>
+        <v xml:space="preserve">
+       CDK0816191021
+  6  6  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+  1  2  1  0  0  0  0 
+  2  4  1  0  0  0  0 
+  4  6  1  0  0  0  0 
+  6  5  1  0  0  0  0 
+  5  3  1  0  0  0  0 
+  3  1  1  0  0  0  0 
+M  END
+</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xll.RDKit_SMILES($C8)</f>
+        <v>[C]1[C][C][C][C][C]1</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xll.RDKit_MolBlock($D8)</f>
+        <v xml:space="preserve">
+     RDKit          2D
+  6  6  0  0  0  0  0  0  0  0999 V2000
+    1.5000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.7500   -1.2990    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+   -0.7500   -1.2990    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+   -1.5000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+   -0.7500    1.2990    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.7500    1.2990    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+  1  2  1  0
+  2  3  1  0
+  3  4  1  0
+  4  5  1  0
+  5  6  1  0
+  6  1  1  0
+M  RAD  6   1   3   2   3   3   3   4   3   5   3   6   3
+M  END
+</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xll.NCDK_SMILES($E8)</f>
+        <v>[C]1[C][C][C][C][C]1 |^2:0,1,2,3,4,5|</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xll.RDKit_InChI(F8)</f>
+        <v>InChI=1S/C6/c1-2-4-6-5-3-1</v>
+      </c>
+      <c r="H8" t="str">
+        <f>_xll.RDKit_InChIKey($B8)</f>
+        <v>UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
+      </c>
+      <c r="I8">
+        <f>_xll.NCDK_Tanimoto($U8,$U9)</f>
         <v>1</v>
       </c>
-      <c r="E8" t="str">
-        <f>_xll.NCDK(E$1,$B8)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xll.RDKit_MACCSFingerprint(B8)</f>
-        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="G8" t="str">
+      <c r="J8" t="str">
+        <f>_xll.NCDK(J$1,$B8)</f>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xll.RDKit_MACCSFingerprint($B8)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
+      </c>
+      <c r="L8" t="b">
+        <f>($J8=MID($K8,2,166))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xll.RDKit_MorganFingerprint($B8, 2)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xll.RDKit_RDKFingerprint($B8)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xll.RDKit_HashedAtomPairFingerprint($B8)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xll.RDKit_HashedTopologicalTorsionFingerprint($B8)</f>
+        <v>00000000000011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xll.RDKit_LayeredFingerprint($B8)</f>
+        <v>00000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000100000000000000000010000100000000000010000000100000000000000000000000000000000000000000000000000000000000000000000000000000010000000100010000000000000000010000100000000000000010000110000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000001000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000001000000000000000000001000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="R8" t="str">
+        <f>_xll.RDKit_PatternFingerprint($B8)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000001000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100001000000000000000100000000000000000010000100000000000000000000000000000010001000000000000000000000000000000000000000000000000000001000100000000000000000000001000000000000000000000000000000000000000000000000000000000000000000100001000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000100000000000000000000000000000000000000010001000010000000000000000000000000000001000100000000000000100000000001000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000011000000000000000010000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001011000000000000000000000000000000010000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000010000000000000000000000000000</v>
+      </c>
+      <c r="S8" t="str">
         <f>_xll.NCDK_ECFP0($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H8" t="str">
+      <c r="T8" t="str">
         <f>_xll.NCDK_ECFP2($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I8" t="str">
+      <c r="U8" t="str">
         <f>_xll.NCDK_ECFP4($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J8" t="str">
+      <c r="V8" t="str">
         <f>_xll.NCDK_ECFP6($B8)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K8" t="str">
+      <c r="W8" t="str">
         <f>_xll.NCDK_FCFP0($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L8" t="str">
+      <c r="X8" t="str">
         <f>_xll.NCDK_FCFP2($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M8" t="str">
+      <c r="Y8" t="str">
         <f>_xll.NCDK_FCFP4($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N8" t="str">
+      <c r="Z8" t="str">
         <f>_xll.NCDK_FCFP0($B8)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O8" t="str">
+      <c r="AA8" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B8)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P8" t="str">
+      <c r="AB8" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B8)</f>
-        <v>0000000010000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="Q8" t="str">
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AC8" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B8)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="R8" t="str">
+      <c r="AD8" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S8" t="str">
+      <c r="AE8" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B8)</f>
-        <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000010000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="T8" t="str">
+        <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000010010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000010000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AF8" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U8" t="str">
+      <c r="AG8" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B8)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
-      </c>
-      <c r="V8" t="str">
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+      </c>
+      <c r="AH8" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B8)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W8" t="str">
+      <c r="AI8" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B8)</f>
         <v>0100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X8" t="str">
+      <c r="AJ8" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B8)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000100000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AK8" s="2">
         <f>_xll.NCDK_MolecularWeight(B8)</f>
         <v>72.064415380728008</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AL8" s="2">
         <f>_xll.NCDK_ExactMass(B8)</f>
         <v>72</v>
       </c>
-      <c r="AA8">
+      <c r="AM8">
         <f>_xll.NCDK_AcidicGroupCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AN8" s="4">
         <f>_xll.NCDK_ALogP(B8)</f>
         <v>2.7372000000000005</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AO8" s="4">
         <f>_xll.NCDK_XLogP(B8)</f>
         <v>3.4139999999999997</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AP8" s="4">
         <f>_xll.NCDK_MannholdLogP(B8)</f>
         <v>2.12</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AQ8" s="4">
         <f>_xll.NCDK_JPlogP(B8)</f>
         <v>2.6952762459207973</v>
       </c>
-      <c r="AF8">
+      <c r="AR8">
         <f>_xll.NCDK_AMolarRefractivity(B8)</f>
         <v>27.606000000000002</v>
       </c>
-      <c r="AG8">
+      <c r="AS8">
         <f>_xll.NCDK_APol(B8)</f>
-        <v>18.561516000000001</v>
-      </c>
-      <c r="AH8">
+        <v>10.56</v>
+      </c>
+      <c r="AT8">
         <f>_xll.NCDK_AromaticAtomsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AI8">
+      <c r="AU8">
         <f>_xll.NCDK_AromaticBondsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AJ8">
+      <c r="AV8">
         <f>_xll.NCDK_AtomCount(B8)</f>
         <v>6</v>
       </c>
-      <c r="AK8" t="str">
+      <c r="AW8" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B8)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AL8" t="str">
+      <c r="AX8" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B8)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AM8" t="str">
+      <c r="AY8" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B8)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AN8">
+      <c r="AZ8">
         <f>_xll.NCDK_BasicGroupCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AO8" t="str">
+      <c r="BA8" t="str">
         <f>_xll.NCDK_BCUT(B8)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AP8">
+      <c r="BB8">
         <f>_xll.NCDK_BondCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="AQ8">
+      <c r="BC8">
         <f>_xll.NCDK_BPol(B8)</f>
         <v>0</v>
       </c>
-      <c r="AR8" t="str">
+      <c r="BD8" t="str">
         <f>_xll.NCDK_CarbonTypes(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AS8" t="str">
+      <c r="BE8" t="str">
         <f>_xll.NCDK_ChiChain(B8)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AT8" t="str">
+      <c r="BF8" t="str">
         <f>_xll.NCDK_ChiCluster(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AU8" t="str">
+      <c r="BG8" t="str">
         <f>_xll.NCDK_ChiPathCluster(B8)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AV8" t="str">
+      <c r="BH8" t="str">
         <f>_xll.NCDK_ChiPath(B8)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AW8" t="str">
+      <c r="BI8" t="str">
         <f>_xll.NCDK_CPSA(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="AX8">
+      <c r="BJ8">
         <f>_xll.NCDK_EccentricConnectivityIndex(B8)</f>
         <v>36</v>
       </c>
-      <c r="AY8">
+      <c r="BK8">
         <f>_xll.NCDK_FMF(B8)</f>
         <v>1</v>
       </c>
-      <c r="AZ8">
+      <c r="BL8">
         <f>_xll.NCDK_FractionalPSA(B8)</f>
         <v>0</v>
       </c>
-      <c r="BA8">
+      <c r="BM8">
         <f>_xll.NCDK_FragmentComplexity(B8)</f>
-        <v>294</v>
-      </c>
-      <c r="BB8" t="str">
+        <v>6</v>
+      </c>
+      <c r="BN8" t="str">
         <f>_xll.NCDK_GravitationalIndex(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC8">
+      <c r="BO8">
         <f>_xll.NCDK_HBondAcceptorCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="BD8">
+      <c r="BP8">
         <f>_xll.NCDK_HBondDonorCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="BE8">
+      <c r="BQ8">
         <f>_xll.NCDK_HybridizationRatio(B8)</f>
         <v>1</v>
       </c>
-      <c r="BF8" t="str">
+      <c r="BR8" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B8)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="BG8" t="str">
+      <c r="BS8" t="str">
         <f>_xll.NCDK_KierHallSmarts(B8)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH8">
+      <c r="BT8">
         <f>_xll.NCDK_LargestChain(B8)</f>
         <v>0</v>
       </c>
-      <c r="BI8">
+      <c r="BU8">
         <f>_xll.NCDK_LargestPiSystem(B8)</f>
         <v>0</v>
       </c>
-      <c r="BJ8" t="str">
+      <c r="BV8" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK8">
+      <c r="BW8">
         <f>_xll.NCDK_LongestAliphaticChain(B8)</f>
         <v>0</v>
       </c>
-      <c r="BL8" t="str">
+      <c r="BX8" t="str">
         <f>_xll.NCDK_MDE(B8)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BM8" t="str">
+      <c r="BY8" t="str">
         <f>_xll.NCDK_MomentOfInertia(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BN8">
+      <c r="BZ8">
         <f>_xll.NCDK_PetitjeanNumber(B8)</f>
         <v>0</v>
       </c>
-      <c r="BO8" t="str">
+      <c r="CA8" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BP8">
+      <c r="CB8">
         <f>_xll.NCDK_RotatableBondsCount(B8)</f>
         <v>0</v>
       </c>
-      <c r="BQ8">
+      <c r="CC8">
         <f>_xll.NCDK_RuleOfFive(B8)</f>
         <v>0</v>
       </c>
-      <c r="BR8" t="str">
+      <c r="CD8" t="str">
         <f>_xll.NCDK_SmallRing(B8)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BS8">
+      <c r="CE8">
         <f>_xll.NCDK_TPSA(B8)</f>
         <v>0</v>
       </c>
-      <c r="BT8">
+      <c r="CF8">
         <f>_xll.NCDK_VABC(B8)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BU8">
+      <c r="CG8">
         <f>_xll.NCDK_VAdjMa(B8)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BV8" s="2">
+      <c r="CH8" s="2">
         <f>_xll.NCDK_MolecularWeight(B8)</f>
         <v>72.064415380728008</v>
       </c>
-      <c r="BW8" s="3">
+      <c r="CI8" s="3">
         <f>_xll.NCDK_ExactMass(B8)</f>
         <v>72</v>
       </c>
-      <c r="BX8" t="str">
+      <c r="CJ8" t="str">
         <f>_xll.NCDK_WeightedPath(B8)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BY8" t="str">
+      <c r="CK8" t="str">
         <f>_xll.NCDK_WHIM(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="BZ8" t="str">
+      <c r="CL8" t="str">
         <f>_xll.NCDK_WienerNumbers(B8)</f>
         <v>27, 3</v>
       </c>
-      <c r="CA8">
+      <c r="CM8">
         <f>_xll.NCDK_ZagrebIndex(B8)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -5105,315 +5729,396 @@
         <v>57</v>
       </c>
       <c r="C9" t="str">
-        <f>_xll.NCDK_InChIKey(B9)</f>
-        <v>XDTMQSROBMDMFD-UHFFFAOYSA-N</v>
-      </c>
-      <c r="D9">
-        <f>_xll.NCDK_Tanimoto($I9,$I10)</f>
+        <f>_xll.NCDK_MolText(B9)</f>
+        <v xml:space="preserve">
+       CDK0816191021
+  6  6  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+  1  2  1  0  0  0  0 
+  2  4  1  0  0  0  0 
+  4  6  1  0  0  0  0 
+  6  5  1  0  0  0  0 
+  5  3  1  0  0  0  0 
+  3  1  1  0  0  0  0 
+M  END
+</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xll.RDKit_SMILES($C9)</f>
+        <v>[C]1[C][C][C][C][C]1</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xll.RDKit_MolBlock($D9)</f>
+        <v xml:space="preserve">
+     RDKit          2D
+  6  6  0  0  0  0  0  0  0  0999 V2000
+    1.5000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.7500   -1.2990    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+   -0.7500   -1.2990    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+   -1.5000    0.0000    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+   -0.7500    1.2990    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+    0.7500    1.2990    0.0000 C   0  0  0  0  0  2  0  0  0  0  0  0
+  1  2  1  0
+  2  3  1  0
+  3  4  1  0
+  4  5  1  0
+  5  6  1  0
+  6  1  1  0
+M  RAD  6   1   3   2   3   3   3   4   3   5   3   6   3
+M  END
+</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xll.NCDK_SMILES($E9)</f>
+        <v>[C]1[C][C][C][C][C]1 |^2:0,1,2,3,4,5|</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xll.RDKit_InChI(F9)</f>
+        <v>InChI=1S/C6/c1-2-4-6-5-3-1</v>
+      </c>
+      <c r="H9" t="str">
+        <f>_xll.RDKit_InChIKey($B9)</f>
+        <v>UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
+      </c>
+      <c r="I9">
+        <f>_xll.NCDK_Tanimoto($U9,$U10)</f>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="E9" t="str">
-        <f>_xll.NCDK(E$1,$B9)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xll.RDKit_MACCSFingerprint(B9)</f>
-        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="G9" t="str">
+      <c r="J9" t="str">
+        <f>_xll.NCDK(J$1,$B9)</f>
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xll.RDKit_MACCSFingerprint($B9)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
+      </c>
+      <c r="L9" t="b">
+        <f>($J9=MID($K9,2,166))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xll.RDKit_MorganFingerprint($B9, 2)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xll.RDKit_RDKFingerprint($B9)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xll.RDKit_HashedAtomPairFingerprint($B9)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xll.RDKit_HashedTopologicalTorsionFingerprint($B9)</f>
+        <v>00000000000011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xll.RDKit_LayeredFingerprint($B9)</f>
+        <v>00000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000100000000000000000010000100000000000010000000100000000000000000000000000000000000000000000000000000000000000000000000000000010000000100010000000000000000010000100000000000000010000110000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000001000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000001000000000000000000001000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="R9" t="str">
+        <f>_xll.RDKit_PatternFingerprint($B9)</f>
+        <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000001000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100001000000000000000100000000000000000010000100000000000000000000000000000010001000000000000000000000000000000000000000000000000000001000100000000000000000000001000000000000000000000000000000000000000000000000000000000000000000100001000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000100000000000000000000000000000000000000010001000010000000000000000000000000000001000100000000000000100000000001000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000011000000000000000010000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001011000000000000000000000000000000010000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000010000000000000000000000000000</v>
+      </c>
+      <c r="S9" t="str">
         <f>_xll.NCDK_ECFP0($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H9" t="str">
+      <c r="T9" t="str">
         <f>_xll.NCDK_ECFP2($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I9" t="str">
+      <c r="U9" t="str">
         <f>_xll.NCDK_ECFP4($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="J9" t="str">
+      <c r="V9" t="str">
         <f>_xll.NCDK_ECFP6($B9)</f>
         <v>0000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="K9" t="str">
+      <c r="W9" t="str">
         <f>_xll.NCDK_FCFP0($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L9" t="str">
+      <c r="X9" t="str">
         <f>_xll.NCDK_FCFP2($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M9" t="str">
+      <c r="Y9" t="str">
         <f>_xll.NCDK_FCFP4($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N9" t="str">
+      <c r="Z9" t="str">
         <f>_xll.NCDK_FCFP0($B9)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O9" t="str">
+      <c r="AA9" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B9)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P9" t="str">
+      <c r="AB9" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B9)</f>
-        <v>0000000010000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="Q9" t="str">
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AC9" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B9)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000000000000010001</v>
       </c>
-      <c r="R9" t="str">
+      <c r="AD9" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S9" t="str">
+      <c r="AE9" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B9)</f>
-        <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000010000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="T9" t="str">
+        <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000010010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000010000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AF9" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U9" t="str">
+      <c r="AG9" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B9)</f>
-        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000000000000000010000000000000001010</v>
-      </c>
-      <c r="V9" t="str">
+        <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010</v>
+      </c>
+      <c r="AH9" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B9)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="W9" t="str">
+      <c r="AI9" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B9)</f>
         <v>0100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="X9" t="str">
+      <c r="AJ9" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B9)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000100000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AK9" s="2">
         <f>_xll.NCDK_MolecularWeight(B9)</f>
         <v>72.064415380728008</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AL9" s="2">
         <f>_xll.NCDK_ExactMass(B9)</f>
         <v>72</v>
       </c>
-      <c r="AA9">
+      <c r="AM9">
         <f>_xll.NCDK_AcidicGroupCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AN9" s="4">
         <f>_xll.NCDK_ALogP(B9)</f>
         <v>2.7372000000000005</v>
       </c>
-      <c r="AC9" s="4">
+      <c r="AO9" s="4">
         <f>_xll.NCDK_XLogP(B9)</f>
         <v>3.4139999999999997</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AP9" s="4">
         <f>_xll.NCDK_MannholdLogP(B9)</f>
         <v>2.12</v>
       </c>
-      <c r="AE9" s="4">
+      <c r="AQ9" s="4">
         <f>_xll.NCDK_JPlogP(B9)</f>
         <v>2.6952762459207973</v>
       </c>
-      <c r="AF9">
+      <c r="AR9">
         <f>_xll.NCDK_AMolarRefractivity(B9)</f>
         <v>27.606000000000002</v>
       </c>
-      <c r="AG9">
+      <c r="AS9">
         <f>_xll.NCDK_APol(B9)</f>
-        <v>18.561516000000001</v>
-      </c>
-      <c r="AH9">
+        <v>10.56</v>
+      </c>
+      <c r="AT9">
         <f>_xll.NCDK_AromaticAtomsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AI9">
+      <c r="AU9">
         <f>_xll.NCDK_AromaticBondsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AJ9">
+      <c r="AV9">
         <f>_xll.NCDK_AtomCount(B9)</f>
         <v>6</v>
       </c>
-      <c r="AK9" t="str">
+      <c r="AW9" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B9)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AL9" t="str">
+      <c r="AX9" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B9)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AM9" t="str">
+      <c r="AY9" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B9)</f>
         <v>257.709834375, 257.709834375, 257.709834375, 128.8549171875, 0</v>
       </c>
-      <c r="AN9">
+      <c r="AZ9">
         <f>_xll.NCDK_BasicGroupCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AO9" t="str">
+      <c r="BA9" t="str">
         <f>_xll.NCDK_BCUT(B9)</f>
         <v>11.9, 12.1000824042221, -0.15279744210896, 0.0472849621131451, 6.45375, 6.65383240422211</v>
       </c>
-      <c r="AP9">
+      <c r="BB9">
         <f>_xll.NCDK_BondCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="AQ9">
+      <c r="BC9">
         <f>_xll.NCDK_BPol(B9)</f>
         <v>0</v>
       </c>
-      <c r="AR9" t="str">
+      <c r="BD9" t="str">
         <f>_xll.NCDK_CarbonTypes(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 6, 0, 0</v>
       </c>
-      <c r="AS9" t="str">
+      <c r="BE9" t="str">
         <f>_xll.NCDK_ChiChain(B9)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.125, 0</v>
       </c>
-      <c r="AT9" t="str">
+      <c r="BF9" t="str">
         <f>_xll.NCDK_ChiCluster(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AU9" t="str">
+      <c r="BG9" t="str">
         <f>_xll.NCDK_ChiPathCluster(B9)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="AV9" t="str">
+      <c r="BH9" t="str">
         <f>_xll.NCDK_ChiPath(B9)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0</v>
       </c>
-      <c r="AW9" t="str">
+      <c r="BI9" t="str">
         <f>_xll.NCDK_CPSA(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="AX9">
+      <c r="BJ9">
         <f>_xll.NCDK_EccentricConnectivityIndex(B9)</f>
         <v>36</v>
       </c>
-      <c r="AY9">
+      <c r="BK9">
         <f>_xll.NCDK_FMF(B9)</f>
         <v>1</v>
       </c>
-      <c r="AZ9">
+      <c r="BL9">
         <f>_xll.NCDK_FractionalPSA(B9)</f>
         <v>0</v>
       </c>
-      <c r="BA9">
+      <c r="BM9">
         <f>_xll.NCDK_FragmentComplexity(B9)</f>
-        <v>294</v>
-      </c>
-      <c r="BB9" t="str">
+        <v>6</v>
+      </c>
+      <c r="BN9" t="str">
         <f>_xll.NCDK_GravitationalIndex(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC9">
+      <c r="BO9">
         <f>_xll.NCDK_HBondAcceptorCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="BD9">
+      <c r="BP9">
         <f>_xll.NCDK_HBondDonorCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="BE9">
+      <c r="BQ9">
         <f>_xll.NCDK_HybridizationRatio(B9)</f>
         <v>1</v>
       </c>
-      <c r="BF9" t="str">
+      <c r="BR9" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B9)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="BG9" t="str">
+      <c r="BS9" t="str">
         <f>_xll.NCDK_KierHallSmarts(B9)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH9">
+      <c r="BT9">
         <f>_xll.NCDK_LargestChain(B9)</f>
         <v>0</v>
       </c>
-      <c r="BI9">
+      <c r="BU9">
         <f>_xll.NCDK_LargestPiSystem(B9)</f>
         <v>0</v>
       </c>
-      <c r="BJ9" t="str">
+      <c r="BV9" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK9">
+      <c r="BW9">
         <f>_xll.NCDK_LongestAliphaticChain(B9)</f>
         <v>0</v>
       </c>
-      <c r="BL9" t="str">
+      <c r="BX9" t="str">
         <f>_xll.NCDK_MDE(B9)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BM9" t="str">
+      <c r="BY9" t="str">
         <f>_xll.NCDK_MomentOfInertia(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BN9">
+      <c r="BZ9">
         <f>_xll.NCDK_PetitjeanNumber(B9)</f>
         <v>0</v>
       </c>
-      <c r="BO9" t="str">
+      <c r="CA9" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BP9">
+      <c r="CB9">
         <f>_xll.NCDK_RotatableBondsCount(B9)</f>
         <v>0</v>
       </c>
-      <c r="BQ9">
+      <c r="CC9">
         <f>_xll.NCDK_RuleOfFive(B9)</f>
         <v>0</v>
       </c>
-      <c r="BR9" t="str">
+      <c r="CD9" t="str">
         <f>_xll.NCDK_SmallRing(B9)</f>
         <v>1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BS9">
+      <c r="CE9">
         <f>_xll.NCDK_TPSA(B9)</f>
         <v>0</v>
       </c>
-      <c r="BT9">
+      <c r="CF9">
         <f>_xll.NCDK_VABC(B9)</f>
         <v>99.975907755200197</v>
       </c>
-      <c r="BU9">
+      <c r="CG9">
         <f>_xll.NCDK_VAdjMa(B9)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="BV9" s="2">
+      <c r="CH9" s="2">
         <f>_xll.NCDK_MolecularWeight(B9)</f>
         <v>72.064415380728008</v>
       </c>
-      <c r="BW9" s="3">
+      <c r="CI9" s="3">
         <f>_xll.NCDK_ExactMass(B9)</f>
         <v>72</v>
       </c>
-      <c r="BX9" t="str">
+      <c r="CJ9" t="str">
         <f>_xll.NCDK_WeightedPath(B9)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="BY9" t="str">
+      <c r="CK9" t="str">
         <f>_xll.NCDK_WHIM(B9)</f>
         <v>#N/A</v>
       </c>
-      <c r="BZ9" t="str">
+      <c r="CL9" t="str">
         <f>_xll.NCDK_WienerNumbers(B9)</f>
         <v>27, 3</v>
       </c>
-      <c r="CA9">
+      <c r="CM9">
         <f>_xll.NCDK_ZagrebIndex(B9)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:79" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -5421,315 +6126,581 @@
         <v>61</v>
       </c>
       <c r="C10" t="str">
-        <f>_xll.NCDK_SMILES(B10)</f>
-        <v>[C@@]12(C(C([C@](O[H])(C(C1=C(C([C@@]3([C@]2([H])C(C([C@]4([C@@]3([H])C(C([C@]4([H])[C@](C([H])([H])[H])(C(C(C(C(C([H])([H])[H])(C([H])([H])[H])[H])([H])[H])([H])[H])([H])[H])[H])([H])[H])([H])[H])C([H])([H])[H])([H])[H])([H])[H])[H])([H])[H])[H])([H])[H])[H])([H])[H])([H])[H])C([H])([H])[H]</v>
-      </c>
-      <c r="D10">
-        <f>_xll.NCDK_Tanimoto($I10,$I11)</f>
+        <f>_xll.NCDK_MolText(B10)</f>
+        <v xml:space="preserve">cholesterol 
+       CDK08161910213D
+ 74 77  0  0  1  0  0  0  0  0999 V2000
+   -4.4007   -0.4401    1.6251 C   0  0  2  0  0  0  0  0  0  0  0  0
+   -5.4580   -1.0449    0.6688 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -6.8803   -1.1120    1.2424 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -6.8789   -1.8887    2.5625 C   0  0  2  0  0  0  0  0  0  0  0  0
+   -8.1805   -1.9330    3.0966 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.5298   -1.1316    2.9761 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -5.9163   -1.2545    3.5698 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -6.5867   -2.9502    2.3792 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -8.4859   -1.0575    3.2729 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -7.2848   -0.0861    1.4065 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -7.5635   -1.6115    0.5139 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.4739   -1.5853    3.6698 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.0491   -1.5015    3.2092 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -5.4914   -0.4714   -0.2864 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -5.1613   -2.0882    0.4082 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -5.9087   -1.8665    4.5017 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -6.2838   -0.2457    3.8644 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.6829    1.0628    1.8375 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.9145    1.5425    2.4829 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.7314    1.6265    0.8802 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -5.6605    1.2510    2.3311 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.9831   -0.6783    1.0240 C   0  0  2  0  0  0  0  0  0  0  0  0
+   -1.8668   -0.4880    2.0713 C   0  0  2  0  0  0  0  0  0  0  0  0
+   -1.4072   -1.2093    4.0732 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.7436   -2.5253    2.8911 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.9232   -1.7566    0.7414 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.9378    0.5330    2.5085 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.6946    0.1083   -0.2726 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.4873   -0.6624    1.4206 C   0  0  1  0  0  0  0  0  0  0  0  0
+   -0.2021    0.2906    0.2388 C   0  0  1  0  0  0  0  0  0  0  0  0
+   -1.2658   -0.0661   -0.8181 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.4092   -0.1986   -1.0718 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.8641    1.1947   -0.1124 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.1359   -1.1205   -1.1581 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.1536    0.5653   -1.7269 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.4558   -1.7097    1.0305 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.2725    1.7827    0.6258 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.1621    2.4385   -0.2653 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.2338    2.0731    1.1005 H   0  0  0  0  0  0  0  0  0  0  0  0
+    0.5267    2.0755    1.3418 H   0  0  0  0  0  0  0  0  0  0  0  0
+    1.2610   -0.1086   -0.0950 C   0  0  2  0  0  0  0  0  0  0  0  0
+    1.8880   -0.3460    1.3036 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.7432   -0.5205    2.3170 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.5364   -1.2546    1.2939 H   0  0  0  0  0  0  0  0  0  0  0  0
+    2.5208    0.5163    1.6206 H   0  0  0  0  0  0  0  0  0  0  0  0
+    0.6384    0.3789    2.9682 H   0  0  0  0  0  0  0  0  0  0  0  0
+    0.8960   -1.4042    2.9812 H   0  0  0  0  0  0  0  0  0  0  0  0
+    1.2152   -1.0968   -0.6133 H   0  0  0  0  0  0  0  0  0  0  0  0
+    2.1309    0.8126   -0.9856 C   0  0  2  0  0  0  0  0  0  0  0  0
+    1.4886    1.0858   -2.3567 C   0  0  0  0  0  0  0  0  0  0  0  0
+    3.5437    0.2143   -1.1862 C   0  0  0  0  0  0  0  0  0  0  0  0
+    4.5801    1.1982   -1.7589 C   0  0  0  0  0  0  0  0  0  0  0  0
+    5.9962    0.5979   -1.7755 C   0  0  0  0  0  0  0  0  0  0  0  0
+    7.0518    1.4960   -2.4502 C   0  0  0  0  0  0  0  0  0  0  0  0
+    8.3942    0.7505   -2.5508 C   0  0  0  0  0  0  0  0  0  0  0  0
+    7.2516    2.8264   -1.7060 C   0  0  0  0  0  0  0  0  0  0  0  0
+    2.1531    1.6731   -3.0272 H   0  0  0  0  0  0  0  0  0  0  0  0
+    1.2359    0.1359   -2.8807 H   0  0  0  0  0  0  0  0  0  0  0  0
+    0.5671    1.6997   -2.2736 H   0  0  0  0  0  0  0  0  0  0  0  0
+    3.9490   -0.1340   -0.2099 H   0  0  0  0  0  0  0  0  0  0  0  0
+    3.4739   -0.6877   -1.8384 H   0  0  0  0  0  0  0  0  0  0  0  0
+    4.3098    1.4879   -2.8000 H   0  0  0  0  0  0  0  0  0  0  0  0
+    4.5724    2.1234   -1.1374 H   0  0  0  0  0  0  0  0  0  0  0  0
+    9.1636    1.3684   -3.0686 H   0  0  0  0  0  0  0  0  0  0  0  0
+    8.7878    0.4944   -1.5406 H   0  0  0  0  0  0  0  0  0  0  0  0
+    8.2909   -0.1974   -3.1279 H   0  0  0  0  0  0  0  0  0  0  0  0
+    8.0599    3.4326   -2.1757 H   0  0  0  0  0  0  0  0  0  0  0  0
+    6.3333    3.4555   -1.7236 H   0  0  0  0  0  0  0  0  0  0  0  0
+    7.5318    2.6539   -0.6417 H   0  0  0  0  0  0  0  0  0  0  0  0
+    6.7102    1.7242   -3.4903 H   0  0  0  0  0  0  0  0  0  0  0  0
+    6.3198    0.3737   -0.7317 H   0  0  0  0  0  0  0  0  0  0  0  0
+    5.9549   -0.3755   -2.3196 H   0  0  0  0  0  0  0  0  0  0  0  0
+    2.2538    1.7889   -0.4594 H   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.6341   -2.0792    4.6432 H   0  0  0  0  0  0  0  0  0  0  0  0
+  2  1  1  0  0  0  0 
+  1  6  1  0  0  0  0 
+ 18  1  1  0  0  0  0 
+ 22  1  1  0  0  0  0 
+  2  3  1  0  0  0  0 
+ 14  2  1  0  0  0  0 
+ 15  2  1  0  0  0  0 
+  4  3  1  0  0  0  0 
+ 10  3  1  0  0  0  0 
+  3 11  1  0  0  0  0 
+  4  5  1  0  0  0  0 
+  7  4  1  0  0  0  0 
+  4  8  1  0  0  0  0 
+  9  5  1  0  0  0  0 
+  7  6  1  0  0  0  0 
+  6 12  2  0  0  0  0 
+  7 16  1  0  0  0  0 
+  7 17  1  0  0  0  0 
+ 12 13  1  0  0  0  0 
+ 74 12  1  0  0  0  0 
+ 23 13  1  0  0  0  0 
+ 24 13  1  0  0  0  0 
+ 13 25  1  0  0  0  0 
+ 18 19  1  0  0  0  0 
+ 18 20  1  0  0  0  0 
+ 18 21  1  0  0  0  0 
+ 23 22  1  0  0  0  0 
+ 26 22  1  0  0  0  0 
+ 22 28  1  0  0  0  0 
+ 23 27  1  0  0  0  0 
+ 29 23  1  0  0  0  0 
+ 31 28  1  0  0  0  0 
+ 32 28  1  0  0  0  0 
+ 33 28  1  0  0  0  0 
+ 30 29  1  0  0  0  0 
+ 36 29  1  0  0  0  0 
+ 43 29  1  0  0  0  0 
+ 30 31  1  0  0  0  0 
+ 30 37  1  0  0  0  0 
+ 30 41  1  0  0  0  0 
+ 31 34  1  0  0  0  0 
+ 35 31  1  0  0  0  0 
+ 37 38  1  0  0  0  0 
+ 39 37  1  0  0  0  0 
+ 37 40  1  0  0  0  0 
+ 42 41  1  0  0  0  0 
+ 41 48  1  0  0  0  0 
+ 41 49  1  0  0  0  0 
+ 42 43  1  0  0  0  0 
+ 44 42  1  0  0  0  0 
+ 45 42  1  0  0  0  0 
+ 43 46  1  0  0  0  0 
+ 43 47  1  0  0  0  0 
+ 49 50  1  0  0  0  0 
+ 51 49  1  0  0  0  0 
+ 73 49  1  0  0  0  0 
+ 57 50  1  0  0  0  0 
+ 50 58  1  0  0  0  0 
+ 59 50  1  0  0  0  0 
+ 52 51  1  0  0  0  0 
+ 60 51  1  0  0  0  0 
+ 51 61  1  0  0  0  0 
+ 53 52  1  0  0  0  0 
+ 52 62  1  0  0  0  0 
+ 63 52  1  0  0  0  0 
+ 54 53  1  0  0  0  0 
+ 53 71  1  0  0  0  0 
+ 72 53  1  0  0  0  0 
+ 55 54  1  0  0  0  0 
+ 54 56  1  0  0  0  0 
+ 70 54  1  0  0  0  0 
+ 55 64  1  0  0  0  0 
+ 55 65  1  0  0  0  0 
+ 66 55  1  0  0  0  0 
+ 56 67  1  0  0  0  0 
+ 68 56  1  0  0  0  0 
+ 69 56  1  0  0  0  0 
+M  END
+</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xll.RDKit_SMILES($C10)</f>
+        <v>CC(C)CCCC(C)C1CCC2C3CC=C4CC(O)CCC4(C)C3CCC12C</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xll.RDKit_MolBlock($D10)</f>
+        <v xml:space="preserve">
+     RDKit          2D
+ 28 31  0  0  0  0  0  0  0  0999 V2000
+  -11.0874   -5.0022    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -9.9727   -6.0059    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  -10.2846   -7.4731    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -8.5461   -5.5424    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -7.4314   -6.5461    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -6.0048   -6.0826    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.8901   -7.0863    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -5.2020   -8.5535    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.4635   -6.6227    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.2500   -7.5044    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.0365   -6.6227    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.5000   -5.1962    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.7500   -3.8971    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.7500   -3.8971    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.5000   -2.5981    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.7500   -1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.5000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.7500    1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.5000    2.5981    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.7500    1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.5000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.7500   -1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.2500   -1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.5000   -2.5981    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.0000   -2.5981    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.7500   -3.8971    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.0000   -5.1962    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.4918   -5.3529    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  1  0
+  2  3  1  0
+  2  4  1  0
+  4  5  1  0
+  5  6  1  0
+  6  7  1  0
+  7  8  1  0
+  7  9  1  0
+  9 10  1  0
+ 10 11  1  0
+ 11 12  1  0
+ 12 13  1  0
+ 13 14  1  0
+ 14 15  1  0
+ 15 16  2  0
+ 16 17  1  0
+ 17 18  1  0
+ 18 19  1  0
+ 18 20  1  0
+ 20 21  1  0
+ 21 22  1  0
+ 22 23  1  0
+ 22 24  1  0
+ 24 25  1  0
+ 25 26  1  0
+ 26 27  1  0
+ 27 28  1  0
+ 27  9  1  0
+ 27 12  1  0
+ 24 13  1  0
+ 22 16  1  0
+M  END
+</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xll.NCDK_SMILES($E10)</f>
+        <v>CC(C)CCCC(C)C1CCC2C3CC=C4CC(O)CCC4(C)C3CCC12C</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xll.RDKit_InChI(F10)</f>
+        <v>InChI=1S/C27H46O/c1-18(2)7-6-8-19(3)23-11-12-24-22-10-9-20-17-21(28)13-15-26(20,4)25(22)14-16-27(23,24)5/h9,18-19,21-25,28H,6-8,10-17H2,1-5H3</v>
+      </c>
+      <c r="H10" t="str">
+        <f>_xll.RDKit_InChIKey($B10)</f>
+        <v>HVYWMOMLDIMFJA-DPAQBDIFSA-N</v>
+      </c>
+      <c r="I10">
+        <f>_xll.NCDK_Tanimoto($U10,$U11)</f>
         <v>0.47761194029850745</v>
       </c>
-      <c r="E10" t="str">
-        <f>_xll.NCDK(E$1,$B10)</f>
+      <c r="J10" t="str">
+        <f>_xll.NCDK(J$1,$B10)</f>
         <v>0000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010000110010001001101000000011110010000001010101010110100101001001110</v>
       </c>
-      <c r="F10" t="str">
-        <f>_xll.RDKit_MACCSFingerprint(B10)</f>
+      <c r="K10" t="str">
+        <f>_xll.RDKit_MACCSFingerprint($B10)</f>
         <v>00000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010100110010001001101000000001110010000001010101010110100101001001110</v>
       </c>
-      <c r="G10" t="str">
+      <c r="L10" t="b">
+        <f>($J10=MID($K10,2,166))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xll.RDKit_MorganFingerprint($B10, 2)</f>
+        <v>01000001100000001000000000000000000000000000000000000000000000000000000000000000100000000000000000000000010000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000010000000001000000000000000000000000000000001000000000000000000000000000100000001000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000010000000000000000000001000000000000000000000000000000010000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000001001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000100000000000000000000000000000000000000000000000000110000000000000000000000000000000000000000000000000000010000000000000000000010000000000000000000000000000000000000000000000000000000000000100000000000001000000000000000000000000000000000000100000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000101000000000000000000000000000000000000000000000000000000000000100000000000000000000000000100000000000000000000000000000000000000100000000000010000000000001000000000010000000000000000000000000010000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xll.RDKit_RDKFingerprint($B10)</f>
+        <v>00000010100000000000000110000100000101000100000001000000100100000000000010010000100100010000000010001010000001000000000010000110000000100000100000011000000010000010000000000110000000000000000001000011010000000000010000011000000001000001000000000100000010000000000010000100000000000001001000000000000000000000100010000100100000000100000010010000000010000000000001000000010100000000000000000000000010000001000001100000010000000010100001000001000000000001000000000000000011000000000000001000000100000000110001010010010000000000000010001000010000000000000000000001001000101100000100000001000000011001000000010000001000000110011000100000000011000000000100000000010000000000000000001001000000000000001000100000000001000000001000100010001110000100000000010000000001000000010100100100000000000010000000100100000110100100110000000010000000000000000000000000000000000000000100001010000100000000001010000001000010000000000000000000001000000000000000001010000000000010000000000000000100000100000010000000100000000011000000100000010000010000000010000010000100000000111000000000000110001000000000000000100001001100000001000000010110100100001010000000000000000000001000000000000000100000000011100001000000001110000000000001000001100000000001000000010000000000001000000010000000000010000000000000000010100000000000110100100110000000000110000101100100000001011000000000000000100000000001010001100000000100000100100100000001001010001000000000001010000000010010000001000001000010100001000010100010010000000000000000001000000000000010000001010000000010000001000010001000000011000000110000000000010110101001000000000000000010010010000000100000000100000000010101000100000000000101110000000000001000010000000000010100000100000100000100000000000000000011000011001000001000000000000000000000000000100000101100000000000001000000001000000001000100000000010010000000000010000000000000000000100000010000000001010000011000000000001000001000000100000010000001100000010010001110000000000010000000000110000001001001000001000000010000000010100100000100000000000000010000001001000000</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xll.RDKit_HashedAtomPairFingerprint($B10)</f>
+        <v>00001000000000000000000011000000111111100000000000000000000000001000000011000000000000000000000011101110110010000000000000000000000000000000100000000000000000000000000000000000000000000000000011000000000000000000110000000000000000001100000000000000000000001000110000000000000000000000110011101111000010000000000000000000100000001110000000000000110000001100111000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000000000000000000000000001000000000000000000011101100100000000000000010000000000011111111110000000000110011000000000000000000000000000000000011111100000011100000000000000000000000000000000000000000000000000000100000000000100000000000000000001000000000000000000000000000100010001000000000000000110000001000110000001100000010000000000011110000111011110000000000000000100011000000000000000000000011000000111111001000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000001000000000000000000010001100000000000000110000001000110000001000100000000000000000001111111010001100111000000000000000001000000011000000000000000000000011101110100000000000000000000000000010000000000000000000000000000000000000000000000000000000100010000000000000000000000000000000000010001100110000000000000000001000110010001000000000000000110011111110100000001110000000000000000011000000000000000000000011001100000000000000000000000000100000000000000000000000000000000000000010000000000000000000000000000000100000000000100000000000000000001110000000001000100010001000000000000000000000001100111000000000000000000000000010000000000000000000110011000000110011100000000000000000000000000000000000000000100000000000000000000000000000000000000010001100000000000000100000001100110000001000000000000000000000000000000000001000000010000000000000001000111111100000000000000000000000001000000011000000000000000000000011101100000000000000000000001000000000000000000000000000000000000000000000000000000000001100110000000000000000001110000010001100100000000000000000000000</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xll.RDKit_HashedTopologicalTorsionFingerprint($B10)</f>
+        <v>00000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000100000000000000000001100100000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000100010000000000000000000000000000000000000001100000000000000000000001000110000000000000000000000000000000000000000000000000011000000100011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000011000000000010000000000000000000000011000000000000000000000000000000000000000000100000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000010000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000011000000000000000000000000000000000010000000000000000000000000000000100000000000000000000000000000000000000000000000000011000000000000000000000000000000000000000000000000000000000011001100000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000110000000000000000000000000000001000</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xll.RDKit_LayeredFingerprint($B10)</f>
+        <v>00010000000000000000100000001110000000010100110010000000101000010001000000000100101001010001110000000000111010010000000101010000100001000000000000000001000000010000100000000000010000010000100010010111000110000000001010000000100001010001100011001100000100000000001001001000000011000001001010000000000101010000000100110010000000000100010000100101100001100010000110000011001001000000000000100000000000010010001000001001000110000100101000000000010011000010000000010000010000010100000010000010000010011101001000000010001101010000000100011001000010001001000000010000001000000000100001000000000000000001100001000011001100000000000100000010010100000100100001000010010010010000000001100010010000000000000000101000000000000001110011000110000010001000001000000000000000000000000000000000001011000100001000000000011000010000011000000100010000000100010101000001100110010001000011011000101100000010010001100000001000000000000000011000000000001001000011000101000100000001000001000000001000000010000000100001011010000000000010001000000000000000000000100011000110000000000000000001100000000000000000111000001000000001101010010011000000000000001100010100000000100000000000000000001010100000101000000000000000000000100000000010000000100000001001010010000000000000000101000000000001000000000000101000010000010101000000100000010111101000010000000000010000000100000000110000001000000011000000000001000010100001010000000100001010000000000010010000000000000110000000000000000000001000100000001010000000000000100001000100000000000000100000000001000001010000000100000001000000100000010000100010010100001000101000000010000000000000000001000000010000000000001001000001000100000000000100100000000010001000000000000000100001001001001000001010000000000000000000001010000000110000000000000000001010010000000000010001101010000000000000010000000000100010101001010011000000000101001000000000000000010000001000000010000000001000001000000010100000000101000000000000000000010100000000010000011000001101000000000001100000010101001000000000000000000010110001010011000000000010001010000000</v>
+      </c>
+      <c r="R10" t="str">
+        <f>_xll.RDKit_PatternFingerprint($B10)</f>
+        <v>01110000000101100100000000000000100001010001001110000010011000001000000101011000010110110110010011000001001010001011000000000000000100000000000000010100000000101001000100000111001000000001000010000000101111010110000001000000100010100010010001001000010011000100110000100010000000000001001000010011101000000000000000000100000000010100000001000001000010100000000011000000000000000110000000000101011000000000001000101100010000101000110100110010001000010010000010101110011001010011100111000010101000000100000100011000110001110001000100001100100010000001001010010000000101000000001100000000100100100001000001000000000100100111001000000010000000000100100000000100110001011000000101010001011000010001111000110011010000100000010000000101011000100100000000100010010100010000010001001100011110000000000100101111000000000100110000110010001010000110000000001000100001001000000011011101101101000000000001001000001100001000011010000000010100101000000100000001111000000000011000010001000010000010110001110000001000100101000100001001000001100101000001000100000100000010100101001110111110001000011000001000000010000000011000000011110100001100100000101100000000101000100000111001000111011000101001110010010001000100001000011110110000100101000000100000000011000010000001100000110001000000000011000101000000011101000110010000000100000000000110110011110100101010001000000011000000100100100101101000000000010110110000100101000101000000111011000000000000001000001110101001010000010000100001000000000110001011000001001010001100000000110011000000000000100001001010100000000000000000000010100100000001001001000000000010001100110001100110000000100001001110001001010111000100010000001010000001000011000000000100100000001100000000001100000100011100000010000010001101010000000010001000000110001010100000000010000011000000101001000100111000111011010111010000011000100000010100000000110000000000010000000000000100000000010101000110010110101000001000011000001100010100000000011000110000100100001100001000000101000011100001000100001000000100010000000001010010000000000000101000000010</v>
+      </c>
+      <c r="S10" t="str">
         <f>_xll.NCDK_ECFP0($B10)</f>
         <v>0000000000000010000000000100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H10" t="str">
+      <c r="T10" t="str">
         <f>_xll.NCDK_ECFP2($B10)</f>
         <v>0000000000000010000000001100000000000000000000001000000000000000000000000001000000001000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000000000000010000000010000000000000000000000000000000000000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000000000000000000000000000000000000000010000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100010000000000001000001000000000000000000000001000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I10" t="str">
+      <c r="U10" t="str">
         <f>_xll.NCDK_ECFP4($B10)</f>
         <v>0000000000000010000000001100000000000000000100001000000000010000000000000001000000001010100000000000000000000000000000000000000000000100000000010000000010000000000000000000000000000000000000000000000000000010000000000000010000000010000000000000000000000000000000000000000001000000000010000000001000000000000000100000010000000000000000000000000000000010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000100000000000100000000000000000000000010000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000010100000000000000000000000000000000000000000000000000000000000000100010000000000001000001000000000000000000000011000000000000010100000000000000000000000000000000000000000100000000000000000000000000000100000000000001000010000000000000000000000000010000000000010000000000000000000100000001000000000000000100000000000000000000000000000000</v>
       </c>
-      <c r="J10" t="str">
+      <c r="V10" t="str">
         <f>_xll.NCDK_ECFP6($B10)</f>
         <v>0000000000001010001000001100000000000000000100001000000000010000000000000001000000001010100000000000000000000000000000000000000000000100000000010000000010000000000000000000000000000000000000000000000000001010000001100000011000000010000000000000000000000000000000000000000001000000000010000000001000000000000000110000010000000000000000000000000000000010000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000001000100000000000100000000000000000000000010000000000000000000000000100000000000000001000000000010000000000000000001000000000000100000000000000000000000000010000010000000000000000000000000000010100000001000000000000000000000000000000000000000000000000000000100010000000000001010001000000000000000000000011000000000000010100000000000000000000011000000010000000000100000000000000000000000000000100010000000001000010000000000000000000000000010000000000010000000000000001000100000001000000010000000100000000000000000000000000000000</v>
       </c>
-      <c r="K10" t="str">
+      <c r="W10" t="str">
         <f>_xll.NCDK_FCFP0($B10)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L10" t="str">
+      <c r="X10" t="str">
         <f>_xll.NCDK_FCFP2($B10)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M10" t="str">
+      <c r="Y10" t="str">
         <f>_xll.NCDK_FCFP4($B10)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000100000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000001100000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000010000000000000000000000000000000000000000000000000001000100000000000000000000000000000000000000000000000000000000000000100000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000100000000000010000000000000010000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001000000000000000000000</v>
       </c>
-      <c r="N10" t="str">
+      <c r="Z10" t="str">
         <f>_xll.NCDK_FCFP0($B10)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O10" t="str">
+      <c r="AA10" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B10)</f>
         <v>101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P10" t="str">
+      <c r="AB10" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B10)</f>
         <v>0000000000000001001000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="AC10" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B10)</f>
         <v>000000000000000000001000000010000000000000000000000000000000100001000000010000000000010000000010010001010000000110001110000000000000000010000000001000001001000000000000001010000000100000000000010000000000000000000000000000000000000100000010000000000010000001010000000000010000100001000000000000101000001000000000000000001000000000000011000000000000000000000000000000000000001000100000000000000000000000001100100100000000000010000001000000101000000000000100000000000000000101000000010000000000100000000001000000000000000000000010000000000000000000000000000000000000000000101000000000000000001000000000010000100010000000000000000000000000001000010000000000000000100001000001000000000010000100000000000000001010000000000000000000010000000000000000001000001000000000111000000010000000000000010000000010000010010010010000000000010000000000010000000000101000000000000000000001000000000010100100000010000010000000100000010000000000000100000000000000000010110000000001011000010010000000000000000010000001000000000000011111111</v>
       </c>
-      <c r="R10" t="str">
+      <c r="AD10" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B10)</f>
         <v>0000010000000001001000000000000000000010000000000000000000100000000000000001100000000001000000000000000000000000000000000000000100001100000000000000110000000010000000000100100000110000000000000000000000000010000000000000000000000000000000000000000000000000010000000000000000000000001010000000000001001000000000000001100000000100000000000000000100000000000000000000010000000000000000000000000010000000000001001100000000000010000000000000000000010000000010000100000000000000001000000000010000000000011011100100101000000000001000000000011010000010010000000000000000000000001000100000000000001000000000000000000000000000011001000000000000000100000010000000000000011000000000000000010000000000000000000000000000010000000000011000000000000000000001110101000010000000000000000000000000000100000000000000000000001100000000000000000000000010000000001010001000100000000100010100000010000000000000000000000000000000000000000000000010000000010000000000000000000001000000000000000000010000000000000000000000000000000000000000001000000000</v>
       </c>
-      <c r="S10" t="str">
+      <c r="AE10" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B10)</f>
         <v>110000010000010011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001111000000100000000000000000010000000000000011010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000010000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001000000000000000000100000100000000000001000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000100000000000000001011000000010000000000000000000000010000000000000100000100000010010000100100000010000001000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T10" t="str">
+      <c r="AF10" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B10)</f>
         <v>0000010000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000000000000000100000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000011000000000000000000000000000000010000000010000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000010000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000</v>
       </c>
-      <c r="U10" t="str">
+      <c r="AG10" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B10)</f>
         <v>0000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010000110010001001101000000011110010000001010101010110100101001001110</v>
       </c>
-      <c r="V10" t="str">
+      <c r="AH10" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B10)</f>
         <v>1011001000010001010001111111000100000001000000000011011110010100101010100100000000001100000010100101000010010000011110100100000000010100010101000100000010000001000001010100000001100010000100000001100001000110100001000000001011000010101101010011010010001000010001000010001111000100011000000100101010110000110000010010110001100100010000000001000000010010110000000000010010111010010001101010010011000000101100000000100101101011000110100001100000100010010001010000000000010000010100001011001010001100010000010001111001100000101000010100010001001010000001000010011000111110010010000000110101011010001011001010000110000000000100000000010011000100000000011000010000000101000100000000100000000000010100000000010001000110100100000000000000010000001010000000010001000000101000010110000000101000011010011100011001110000000011100000001000000010101000001001001000010000111100010010010001110100100100001000010101000101000010010110010000000011001010010000000010011001101010100101001100000001011000001011001001101100000100100010000000000000</v>
       </c>
-      <c r="W10" t="str">
+      <c r="AI10" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B10)</f>
         <v>1111100000010110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000100001</v>
       </c>
-      <c r="X10" t="str">
+      <c r="AJ10" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B10)</f>
         <v>11110000011110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000001100100110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000111100010100101000001000000000000010000000100000000000000000000000000000001000000000100000000000001000100000010000100000000000000000000000000000000000000000001000000000000000000000000000000000100000000000000000000000000000001000000000000001000000000010000000000000000100000000000000000100000000000000000001001100000000000000000010000000000000000011100000001100000011110000000011111000000000000000000000000000000000000000000000000000000000000000110000000000000000000100000000000000000000100000000000000000000100000000000000000000100000000000000000000</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AK10" s="2">
         <f>_xll.NCDK_MolecularWeight(B10)</f>
         <v>386.65454881683121</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AL10" s="2">
         <f>_xll.NCDK_ExactMass(B10)</f>
         <v>386.35486609199995</v>
       </c>
-      <c r="AA10">
+      <c r="AM10">
         <f>_xll.NCDK_AcidicGroupCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AN10" s="4">
         <f>_xll.NCDK_ALogP(B10)</f>
         <v>7.376100000000001</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AO10" s="4">
         <f>_xll.NCDK_XLogP(B10)</f>
         <v>10.518000000000004</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AP10" s="4">
         <f>_xll.NCDK_MannholdLogP(B10)</f>
         <v>4.3199999999999994</v>
       </c>
-      <c r="AE10" s="4">
+      <c r="AQ10" s="4">
         <f>_xll.NCDK_JPlogP(B10)</f>
         <v>7.8290832169857083</v>
       </c>
-      <c r="AF10">
+      <c r="AR10">
         <f>_xll.NCDK_AMolarRefractivity(B10)</f>
         <v>120.6157</v>
       </c>
-      <c r="AG10">
+      <c r="AS10">
         <f>_xll.NCDK_APol(B10)</f>
         <v>78.99447799999993</v>
       </c>
-      <c r="AH10">
+      <c r="AT10">
         <f>_xll.NCDK_AromaticAtomsCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AI10">
+      <c r="AU10">
         <f>_xll.NCDK_AromaticBondsCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AJ10">
+      <c r="AV10">
         <f>_xll.NCDK_AtomCount(B10)</f>
         <v>74</v>
       </c>
-      <c r="AK10" t="str">
+      <c r="AW10" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B10)</f>
         <v>0.0827991713427503, -0.0229631507285856, -0.0270969061556759, 0.00647128770548948, 0.00909713625645344</v>
       </c>
-      <c r="AL10" t="str">
+      <c r="AX10" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B10)</f>
         <v>28.7744690355409, 31.3320919771326, 48.6641839542651, 54.6641839542651, 49.6641839542651</v>
       </c>
-      <c r="AM10" t="str">
+      <c r="AY10" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B10)</f>
         <v>2589.35165284459, 3179.06049775734, 4922.9791073968, 5328.87269506555, 4616.91714731414</v>
       </c>
-      <c r="AN10">
+      <c r="AZ10">
         <f>_xll.NCDK_BasicGroupCount(B10)</f>
         <v>0</v>
       </c>
-      <c r="AO10" t="str">
+      <c r="BA10" t="str">
         <f>_xll.NCDK_BCUT(B10)</f>
         <v>11.89, 15.9949214370833, -0.392219399090072, 0.0596280868632924, 5.23875003301361, 12.6475909449557</v>
       </c>
-      <c r="AP10">
+      <c r="BB10">
         <f>_xll.NCDK_BondCount(B10)</f>
         <v>46</v>
       </c>
-      <c r="AQ10">
+      <c r="BC10">
         <f>_xll.NCDK_BPol(B10)</f>
         <v>50.287521999999989</v>
       </c>
-      <c r="AR10" t="str">
+      <c r="BD10" t="str">
         <f>_xll.NCDK_CarbonTypes(B10)</f>
         <v>0, 0, 0, 1, 1, 5, 12, 6, 2</v>
       </c>
-      <c r="AS10" t="str">
+      <c r="BE10" t="str">
         <f>_xll.NCDK_ChiChain(B10)</f>
         <v>0, 0, 0.0833333333333333, 0.393634553260967, 0.976046921839545, 0, 0, 0.0833333333333333, 0.37164819290959, 0.863165765466815</v>
       </c>
-      <c r="AT10" t="str">
+      <c r="BF10" t="str">
         <f>_xll.NCDK_ChiCluster(B10)</f>
         <v>2.9521315814894, 0.235702260395516, 1.02234106177579, 0.203263132396285, 2.68481479020038, 0.219913202813724, 0.935219433730957, 0.179558378198271</v>
       </c>
-      <c r="AU10" t="str">
+      <c r="BG10" t="str">
         <f>_xll.NCDK_ChiPathCluster(B10)</f>
         <v>6.93012787723299, 11.9183161832455, 18.084244169983, 6.31056734345633, 10.8246614459309, 15.7948474414898</v>
       </c>
-      <c r="AV10" t="str">
+      <c r="BH10" t="str">
         <f>_xll.NCDK_ChiPath(B10)</f>
         <v>20.1040835277556, 13.2536913009629, 13.0668536638687, 11.1291235227258, 9.49703814548855, 7.69096408557495, 5.93907638185732, 4.4721666474432, 19.344190342069, 12.6298450216499, 12.1863667747532, 10.2790812759586, 8.6662445789686, 6.67875288189192, 5.16344144011131, 3.80610378452706</v>
       </c>
-      <c r="AW10" t="str">
+      <c r="BI10" t="str">
         <f>_xll.NCDK_CPSA(B10)</f>
         <v>740.518679745203, 1141.6281036277, 24.7477735904141, 216.516577646307, -333.794969260415, -24.5734427697376, 524.002102098896, 1475.42307288811, 49.3212163601517, 0.773763217212662, 1.19287988066324, 0.0258587898400593, 0.226236782787338, -0.348780221713257, -0.025676632684061, 708.702485273172, 1092.57834600072, 23.6844918679688, 207.213998617263, -319.453554322133, -23.5176511261314, 0.136302900713605, 0.25436791475781, 2.7228153119618, 9.4535627888125, 899.894129431074, 57.1411279604366, 0.940293602018195, 0.0597063979818049</v>
       </c>
-      <c r="AX10">
+      <c r="BJ10">
         <f>_xll.NCDK_EccentricConnectivityIndex(B10)</f>
         <v>669</v>
       </c>
-      <c r="AY10">
+      <c r="BK10">
         <f>_xll.NCDK_FMF(B10)</f>
         <v>0.22972972972972974</v>
       </c>
-      <c r="AZ10">
+      <c r="BL10">
         <f>_xll.NCDK_FractionalPSA(B10)</f>
         <v>5.2361188574192148E-2</v>
       </c>
-      <c r="BA10">
+      <c r="BM10">
         <f>_xll.NCDK_FragmentComplexity(B10)</f>
         <v>5173.01</v>
       </c>
-      <c r="BB10" t="str">
+      <c r="BN10" t="str">
         <f>_xll.NCDK_GravitationalIndex(B10)</f>
         <v>1941.85812139388, 44.0665192793109, 12.4759176252409, 2394.88950905792, 48.9376083299737, 13.37914910667, 4535.65140656394, 67.3472449812458, 16.5531209985441</v>
       </c>
-      <c r="BC10">
+      <c r="BO10">
         <f>_xll.NCDK_HBondAcceptorCount(B10)</f>
         <v>1</v>
       </c>
-      <c r="BD10">
+      <c r="BP10">
         <f>_xll.NCDK_HBondDonorCount(B10)</f>
         <v>1</v>
       </c>
-      <c r="BE10">
+      <c r="BQ10">
         <f>_xll.NCDK_HybridizationRatio(B10)</f>
         <v>0.92592592592592593</v>
       </c>
-      <c r="BF10" t="str">
+      <c r="BR10" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B10)</f>
         <v>21.2403746097815, 7.921875, 3.65484429065744</v>
       </c>
-      <c r="BG10" t="str">
+      <c r="BS10" t="str">
         <f>_xll.NCDK_KierHallSmarts(B10)</f>
         <v>0, 0, 0, 0, 0, 0, 5, 0, 11, 0, 1, 0, 7, 0, 0, 1, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH10">
+      <c r="BT10">
         <f>_xll.NCDK_LargestChain(B10)</f>
         <v>7</v>
       </c>
-      <c r="BI10">
+      <c r="BU10">
         <f>_xll.NCDK_LargestPiSystem(B10)</f>
         <v>2</v>
       </c>
-      <c r="BJ10" t="str">
+      <c r="BV10" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B10)</f>
         <v>3.502934717034, 3.502934717034</v>
       </c>
-      <c r="BK10">
+      <c r="BW10">
         <f>_xll.NCDK_LongestAliphaticChain(B10)</f>
         <v>7</v>
       </c>
-      <c r="BL10" t="str">
+      <c r="BX10" t="str">
         <f>_xll.NCDK_MDE(B10)</f>
         <v>2.79346109096649, 16.5925259846737, 11.5560895487586, 3.39888423642021, 17.7527182855433, 29.2401176288661, 7.64127863367805, 8.77423090217006, 6.5802347918611, 0.5, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BM10" t="str">
+      <c r="BY10" t="str">
         <f>_xll.NCDK_MomentOfInertia(B10)</f>
         <v>10068.4095883237, 9731.07167302841, 773.613761142664, 1.03466606008362, 13.0147757111406, 12.5787210127379, 8.29661608019916</v>
       </c>
-      <c r="BN10">
+      <c r="BZ10">
         <f>_xll.NCDK_PetitjeanNumber(B10)</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="BO10" t="str">
+      <c r="CA10" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B10)</f>
         <v>0.875, 0.940550174456362</v>
       </c>
-      <c r="BP10">
+      <c r="CB10">
         <f>_xll.NCDK_RotatableBondsCount(B10)</f>
         <v>5</v>
       </c>
-      <c r="BQ10">
+      <c r="CC10">
         <f>_xll.NCDK_RuleOfFive(B10)</f>
         <v>1</v>
       </c>
-      <c r="BR10" t="str">
+      <c r="CD10" t="str">
         <f>_xll.NCDK_SmallRing(B10)</f>
         <v>4, 0, 1, 0, 0, 0, 1, 3, 0, 0, 0</v>
       </c>
-      <c r="BS10">
+      <c r="CE10">
         <f>_xll.NCDK_TPSA(B10)</f>
         <v>20.23</v>
       </c>
-      <c r="BT10">
+      <c r="CF10">
         <f>_xll.NCDK_VABC(B10)</f>
         <v>432.2759767957632</v>
       </c>
-      <c r="BU10">
+      <c r="CG10">
         <f>_xll.NCDK_VAdjMa(B10)</f>
         <v>5.9541963103868758</v>
       </c>
-      <c r="BV10" s="2">
+      <c r="CH10" s="2">
         <f>_xll.NCDK_MolecularWeight(B10)</f>
         <v>386.65454881683121</v>
       </c>
-      <c r="BW10" s="3">
+      <c r="CI10" s="3">
         <f>_xll.NCDK_ExactMass(B10)</f>
         <v>386.35486609199995</v>
       </c>
-      <c r="BX10" t="str">
+      <c r="CJ10" t="str">
         <f>_xll.NCDK_WeightedPath(B10)</f>
         <v>57.2167299866347, 2.04345464237981, 2.54245315921217, 2.54245315921217, 0</v>
       </c>
-      <c r="BY10" t="str">
+      <c r="CK10" t="str">
         <f>_xll.NCDK_WHIM(B10)</f>
         <v>1.22231276339169, 2.17046945111189, 25.8559001988821, 0.0417903530188526, 0.0742074265238894, #N/A, #N/A, #N/A, 0.0962638773185697, 0.00388857657057473, 66.8991567190677, 29.2486824133857, 90.3764308473927, 188.22062289613, 0.413001665342944, #N/A, 66.9993091729568</v>
       </c>
-      <c r="BZ10" t="str">
+      <c r="CL10" t="str">
         <f>_xll.NCDK_WienerNumbers(B10)</f>
         <v>2022, 54</v>
       </c>
-      <c r="CA10">
+      <c r="CM10">
         <f>_xll.NCDK_ZagrebIndex(B10)</f>
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:79" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -5737,306 +6708,484 @@
         <v>63</v>
       </c>
       <c r="C11" t="str">
-        <f>_xll.NCDK_InChI(B11)</f>
+        <f>_xll.NCDK_MolText(B11)</f>
+        <v xml:space="preserve">
+       CDK0816191021
+ 28 31  0  0  0  0  0  0  0  0999 V2000
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  1  0  0  0  0 
+  2  3  1  0  0  0  0 
+  2  4  1  0  0  0  0 
+  4  5  1  0  0  0  0 
+  5  6  1  0  0  0  0 
+  6  7  1  0  0  0  0 
+  7  8  1  0  0  0  0 
+  7  9  1  0  0  0  0 
+  9 10  1  0  0  0  0 
+ 10 11  1  0  0  0  0 
+ 11 12  1  0  0  0  0 
+ 12 13  1  0  0  0  0 
+  9 13  1  0  0  0  0 
+ 13 14  1  0  0  0  0 
+ 14 15  1  0  0  0  0 
+ 15 16  1  0  0  0  0 
+ 16 17  1  0  0  0  0 
+ 12 17  1  0  0  0  0 
+ 17 18  1  0  0  0  0 
+ 18 19  1  0  0  0  0 
+ 19 20  2  0  0  0  0 
+ 20 21  1  0  0  0  0 
+ 16 21  1  0  0  0  0 
+ 21 22  1  0  0  0  0 
+ 22 23  1  0  0  0  0 
+ 23 24  1  0  0  0  0 
+ 24 25  1  0  0  0  0 
+ 20 25  1  0  0  0  0 
+ 24 26  1  0  0  0  0 
+ 21 27  1  0  0  0  0 
+ 13 28  1  0  0  0  0 
+M  END
+</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xll.RDKit_SMILES($C11)</f>
+        <v>CC(C)CCCC(C)C1CCC2C3CC=C4CC(O)CCC4(C)C3CCC12C</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xll.RDKit_MolBlock($D11)</f>
+        <v xml:space="preserve">
+     RDKit          2D
+ 28 31  0  0  0  0  0  0  0  0999 V2000
+  -11.0874   -5.0022    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -9.9727   -6.0059    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  -10.2846   -7.4731    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -8.5461   -5.5424    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -7.4314   -6.5461    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -6.0048   -6.0826    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.8901   -7.0863    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -5.2020   -8.5535    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.4635   -6.6227    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.2500   -7.5044    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.0365   -6.6227    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.5000   -5.1962    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.7500   -3.8971    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.7500   -3.8971    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.5000   -2.5981    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.7500   -1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.5000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    0.7500    1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+    1.5000    2.5981    0.0000 O   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.7500    1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.5000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -0.7500   -1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -2.2500   -1.2990    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -1.5000   -2.5981    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.0000   -2.5981    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.7500   -3.8971    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -3.0000   -5.1962    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+   -4.4918   -5.3529    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
+  1  2  1  0
+  2  3  1  0
+  2  4  1  0
+  4  5  1  0
+  5  6  1  0
+  6  7  1  0
+  7  8  1  0
+  7  9  1  0
+  9 10  1  0
+ 10 11  1  0
+ 11 12  1  0
+ 12 13  1  0
+ 13 14  1  0
+ 14 15  1  0
+ 15 16  2  0
+ 16 17  1  0
+ 17 18  1  0
+ 18 19  1  0
+ 18 20  1  0
+ 20 21  1  0
+ 21 22  1  0
+ 22 23  1  0
+ 22 24  1  0
+ 24 25  1  0
+ 25 26  1  0
+ 26 27  1  0
+ 27 28  1  0
+ 27  9  1  0
+ 27 12  1  0
+ 24 13  1  0
+ 22 16  1  0
+M  END
+</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xll.NCDK_SMILES($E11)</f>
+        <v>CC(C)CCCC(C)C1CCC2C3CC=C4CC(O)CCC4(C)C3CCC12C</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xll.RDKit_InChI(F11)</f>
         <v>InChI=1S/C27H46O/c1-18(2)7-6-8-19(3)23-11-12-24-22-10-9-20-17-21(28)13-15-26(20,4)25(22)14-16-27(23,24)5/h9,18-19,21-25,28H,6-8,10-17H2,1-5H3</v>
       </c>
-      <c r="E11" t="str">
-        <f>_xll.NCDK(E$1,$B11)</f>
+      <c r="H11" t="str">
+        <f>_xll.RDKit_InChIKey($B11)</f>
+        <v>HVYWMOMLDIMFJA-UHFFFAOYSA-N</v>
+      </c>
+      <c r="I11" t="e">
+        <f>_xll.NCDK_Tanimoto($U11,$U12)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xll.NCDK(J$1,$B11)</f>
         <v>0000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010000110010001001101000000001110010000001010101010110100101001001110</v>
       </c>
-      <c r="F11" t="str">
-        <f>_xll.RDKit_MACCSFingerprint(B11)</f>
+      <c r="K11" t="str">
+        <f>_xll.RDKit_MACCSFingerprint($B11)</f>
         <v>00000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010100110010001001101000000001110010000001010101010110100101001001110</v>
       </c>
-      <c r="G11" t="str">
+      <c r="L11" t="b">
+        <f>($J11=MID($K11,2,166))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xll.RDKit_MorganFingerprint($B11, 2)</f>
+        <v>01000001100000001000000000000000000000000000000000000000000000000000000000000000100000000000000000000000010000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000010000000001000000000000000000000000000000001000000000000000000000000000100000001000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000010000000000000000000001000000000000000000000000000000010000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000001001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000100000000000000000000000000000000000000000000000000110000000000000000000000000000000000000000000000000000010000000000000000000010000000000000000000000000000000000000000000000000000000000000100000000000001000000000000000000000000000000000000100000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000101000000000000000000000000000000000000000000000000000000000000100000000000000000000000000100000000000000000000000000000000000000100000000000010000000000001000000000010000000000000000000000000010000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xll.RDKit_RDKFingerprint($B11)</f>
+        <v>00000010100000000000000110000100000101000100000001000000100100000000000010010000100100010000000010001010000001000000000010000110000000100000100000011000000010000010000000000110000000000000000001000011010000000000010000011000000001000001000000000100000010000000000010000100000000000001001000000000000000000000100010000100100000000100000010010000000010000000000001000000010100000000000000000000000010000001000001100000010000000010100001000001000000000001000000000000000011000000000000001000000100000000110001010010010000000000000010001000010000000000000000000001001000101100000100000001000000011001000000010000001000000110011000100000000011000000000100000000010000000000000000001001000000000000001000100000000001000000001000100010001110000100000000010000000001000000010100100100000000000010000000100100000110100100110000000010000000000000000000000000000000000000000100001010000100000000001010000001000010000000000000000000001000000000000000001010000000000010000000000000000100000100000010000000100000000011000000100000010000010000000010000010000100000000111000000000000110001000000000000000100001001100000001000000010110100100001010000000000000000000001000000000000000100000000011100001000000001110000000000001000001100000000001000000010000000000001000000010000000000010000000000000000010100000000000110100100110000000000110000101100100000001011000000000000000100000000001010001100000000100000100100100000001001010001000000000001010000000010010000001000001000010100001000010100010010000000000000000001000000000000010000001010000000010000001000010001000000011000000110000000000010110101001000000000000000010010010000000100000000100000000010101000100000000000101110000000000001000010000000000010100000100000100000100000000000000000011000011001000001000000000000000000000000000100000101100000000000001000000001000000001000100000000010010000000000010000000000000000000100000010000000001010000011000000000001000001000000100000010000001100000010010001110000000000010000000000110000001001001000001000000010000000010100100000100000000000000010000001001000000</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xll.RDKit_HashedAtomPairFingerprint($B11)</f>
+        <v>00001000000000000000000011000000111111100000000000000000000000001000000011000000000000000000000011101110110010000000000000000000000000000000100000000000000000000000000000000000000000000000000011000000000000000000110000000000000000001100000000000000000000001000110000000000000000000000110011101111000010000000000000000000100000001110000000000000110000001100111000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000000000000000000000000001000000000000000000011101100100000000000000010000000000011111111110000000000110011000000000000000000000000000000000011111100000011100000000000000000000000000000000000000000000000000000100000000000100000000000000000001000000000000000000000000000100010001000000000000000110000001000110000001100000010000000000011110000111011110000000000000000100011000000000000000000000011000000111111001000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000001000000000000000000010001100000000000000110000001000110000001000100000000000000000001111111010001100111000000000000000001000000011000000000000000000000011101110100000000000000000000000000010000000000000000000000000000000000000000000000000000000100010000000000000000000000000000000000010001100110000000000000000001000110010001000000000000000110011111110100000001110000000000000000011000000000000000000000011001100000000000000000000000000100000000000000000000000000000000000000010000000000000000000000000000000100000000000100000000000000000001110000000001000100010001000000000000000000000001100111000000000000000000000000010000000000000000000110011000000110011100000000000000000000000000000000000000000100000000000000000000000000000000000000010001100000000000000100000001100110000001000000000000000000000000000000000001000000010000000000000001000111111100000000000000000000000001000000011000000000000000000000011101100000000000000000000001000000000000000000000000000000000000000000000000000000000001100110000000000000000001110000010001100100000000000000000000000</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xll.RDKit_HashedTopologicalTorsionFingerprint($B11)</f>
+        <v>00000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000100000000000000000001100100000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000100010000000000000000000000000000000000000001100000000000000000000001000110000000000000000000000000000000000000000000000000011000000100011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000011000000000010000000000000000000000011000000000000000000000000000000000000000000100000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000010000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000011000000000000000000000000000000000010000000000000000000000000000000100000000000000000000000000000000000000000000000000011000000000000000000000000000000000000000000000000000000000011001100000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000110000000000000000000000000000001000</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xll.RDKit_LayeredFingerprint($B11)</f>
+        <v>00010000000000000000100000001110000000010100110010000000101000010001000000000100101001010001110000000000111010010000000101010000100001000000000000000001000000010000100000000000010000010000100010010111000110000000001010000000100001010001100011001100000100000000001001001000000011000001001010000000000101010000000100110010000000000100010000100101100001100010000110000011001001000000000000100000000000010010001000001001000110000100101000000000010011000010000000010000010000010100000010000010000010011101001000000010001101010000000100011001000010001001000000010000001000000000100001000000000000000001100001000011001100000000000100000010010100000100100001000010010010010000000001100010010000000000000000101000000000000001110011000110000010001000001000000000000000000000000000000000001011000100001000000000011000010000011000000100010000000100010101000001100110010001000011011000101100000010010001100000001000000000000000011000000000001001000011000101000100000001000001000000001000000010000000100001011010000000000010001000000000000000000000100011000110000000000000000001100000000000000000111000001000000001101010010011000000000000001100010100000000100000000000000000001010100000101000000000000000000000100000000010000000100000001001010010000000000000000101000000000001000000000000101000010000010101000000100000010111101000010000000000010000000100000000110000001000000011000000000001000010100001010000000100001010000000000010010000000000000110000000000000000000001000100000001010000000000000100001000100000000000000100000000001000001010000000100000001000000100000010000100010010100001000101000000010000000000000000001000000010000000000001001000001000100000000000100100000000010001000000000000000100001001001001000001010000000000000000000001010000000110000000000000000001010010000000000010001101010000000000000010000000000100010101001010011000000000101001000000000000000010000001000000010000000001000001000000010100000000101000000000000000000010100000000010000011000001101000000000001100000010101001000000000000000000010110001010011000000000010001010000000</v>
+      </c>
+      <c r="R11" t="str">
+        <f>_xll.RDKit_PatternFingerprint($B11)</f>
+        <v>01110000000101100100000000000000100001010001001110000010011000001000000101011000010110110110010011000001001010001011000000000000000100000000000000010100000000101001000100000111001000000001000010000000101111010110000001000000100010100010010001001000010011000100110000100010000000000001001000010011101000000000000000000100000000010100000001000001000010100000000011000000000000000110000000000101011000000000001000101100010000101000110100110010001000010010000010101110011001010011100111000010101000000100000100011000110001110001000100001100100010000001001010010000000101000000001100000000100100100001000001000000000100100111001000000010000000000100100000000100110001011000000101010001011000010001111000110011010000100000010000000101011000100100000000100010010100010000010001001100011110000000000100101111000000000100110000110010001010000110000000001000100001001000000011011101101101000000000001001000001100001000011010000000010100101000000100000001111000000000011000010001000010000010110001110000001000100101000100001001000001100101000001000100000100000010100101001110111110001000011000001000000010000000011000000011110100001100100000101100000000101000100000111001000111011000101001110010010001000100001000011110110000100101000000100000000011000010000001100000110001000000000011000101000000011101000110010000000100000000000110110011110100101010001000000011000000100100100101101000000000010110110000100101000101000000111011000000000000001000001110101001010000010000100001000000000110001011000001001010001100000000110011000000000000100001001010100000000000000000000010100100000001001001000000000010001100110001100110000000100001001110001001010111000100010000001010000001000011000000000100100000001100000000001100000100011100000010000010001101010000000010001000000110001010100000000010000011000000101001000100111000111011010111010000011000100000010100000000110000000000010000000000000100000000010101000110010110101000001000011000001100010100000000011000110000100100001100001000000101000011100001000100001000000100010000000001010010000000000000101000000010</v>
+      </c>
+      <c r="S11" t="str">
         <f>_xll.NCDK_ECFP0($B11)</f>
         <v>0000000000000010000000000100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="H11" t="str">
+      <c r="T11" t="str">
         <f>_xll.NCDK_ECFP2($B11)</f>
         <v>0000000000000010000000001100000000000000000000001000000000000000000000000000000000000000100000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000010000001000000010000000010000000000000000000000000000000000000000001000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000001000000000000000000000000000000000000000010000000000000000000000000100000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000001000001000000000000000000000001000100000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="I11" t="str">
+      <c r="U11" t="str">
         <f>_xll.NCDK_ECFP4($B11)</f>
         <v>0000000000000010000000001100000000000000000100001000100000010000000000000000000000000000100000000000000000000000000000000000000000000100000000010000000010000000000000000000000000000000000000000000000000000010000001000000010000000010000000000000000000000000000000000000000001000000000010010000000000000000000000000000000000000010000000000000001000000010000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000100100000000000000000010000001000000000000000100000000000000000000000010000001000000000000000000100000000000000000001000000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000000010000000000000000000000000000001000000000000001000001000100000000000010000001000100000000000100000000000000000000000000000000000000000000000000000001000000000000000000000000000001000000000000000000000000000000010000000000010000000000000000000100000000000000000000000100000000000000000000000000000000</v>
       </c>
-      <c r="J11" t="str">
+      <c r="V11" t="str">
         <f>_xll.NCDK_ECFP6($B11)</f>
         <v>0000000000001010000000001100000000000000000100001000100000010000000000000000000000000000100000000010000000000000001000000000000000000100000000010000000010000000000000000000000000000001000000000000000000001010000001000010010000000010000000000000000000000000000000000000100001000001000010010000000000000000000000000000000000000010001000000000001000000010000000000000000000000000000000000000100000000001000000000000000000000000000000000000000000000000000000000100000000000100100000000000000000010100001000000000000000100000000000000000000000010000001000000000000000000110000000000000000001000000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000000000000010000010100000000000000000000000000011000000000000000000000000000001000000000000001000001000100000000001010000001000100000000000100010000000000000000000000000000000000000000000000000001000000001000000000000000000001000000000000000000000000000000010000000100010000000000001000000100000000000000000000000100000000000000000000000000000000</v>
       </c>
-      <c r="K11" t="str">
+      <c r="W11" t="str">
         <f>_xll.NCDK_FCFP0($B11)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="L11" t="str">
+      <c r="X11" t="str">
         <f>_xll.NCDK_FCFP2($B11)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="M11" t="str">
+      <c r="Y11" t="str">
         <f>_xll.NCDK_FCFP4($B11)</f>
         <v>1001000000000000000000010000000000000000000000000000000000000000000000000000000001000010000000000000000000000000000000000000000000000000000000000000000100000001010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000001100000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000010000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000010000000000000000000000000100000000000010000000000000010000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N11" t="str">
+      <c r="Z11" t="str">
         <f>_xll.NCDK_FCFP0($B11)</f>
         <v>1001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O11" t="str">
+      <c r="AA11" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B11)</f>
         <v>101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P11" t="str">
+      <c r="AB11" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B11)</f>
         <v>0000001010101001001000000000000001000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="AC11" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B11)</f>
         <v>000000000000000000000000000000000000000000000000000000000000100001000000000000000000000000000010000000000000000000000110000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000001000001000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000001000000100000000000000000000000000101000000000000100000000000000000100000000010000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000010000100010000000000000000000000000000000000000000000000000000000000001000000000000000100000000000000000000000000000000000000000000000000000000001000001000000000010000000010000000000000010000000010000000000000010000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000001000010000000000000000000000000001000000000000011111111</v>
       </c>
-      <c r="R11" t="str">
+      <c r="AD11" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B11)</f>
         <v>0000010000000000000000000000000000000010000000000000000000000000000000000001100000000001000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000001000100000000000010000000000000000000010000000000000000000000000000001000000000010000000000000000000000000000000000001000000000001000000010000000000000000000000000000000100000000000001000000000000000000000000000000001000000000000000100000010000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000001110001000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000100000000100010100000000000000000000000000000000000000000000000000000010000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000</v>
       </c>
-      <c r="S11" t="str">
+      <c r="AE11" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B11)</f>
         <v>110000010000010011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001111000000100000000000000000010000000000000011010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000010000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001000000000000000000100000100000000000001000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000100000000000000001011000000010000000000000000000000010000000000000100000100000010010000100100000010000001000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T11" t="str">
+      <c r="AF11" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B11)</f>
         <v>0010000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000110000000100100000110000000000000000000000000000000000000000000000000000000000000000001000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
       </c>
-      <c r="U11" t="str">
+      <c r="AG11" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B11)</f>
         <v>0000000000000000000000000100000000000000000000000100000000000000010000000101000000000000010000010010000110010001001101000000001110010000001010101010110100101001001110</v>
       </c>
-      <c r="V11" t="str">
+      <c r="AH11" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B11)</f>
         <v>0000000000000000000001100001000000000000000000000001011100000100101000100000000000001000000000000000000010000000010100000000000000010100000000000100000000000000000000000000000001000000000000000001100000000000000001000000000001000000001001000001000010000000000000000010000010000000001000000100101000100000100000000000100000000000000000000000000000000000000000000000000000000000000000000010000001000000100000000000000100001011000100000001000000100000010000000000000000000000000000000001001000000100000000010000010000100000100000000000000000001010000000000000000000010100000000000000100000000010000010001000000110000000000100000000010010000000000000000000010000000100000100000000100000000000000000000000000001000010000100000000000000000000000000000000000000000000001000000100000000000000000000000000010000000000000010000000000000000010100000000000000000000000001100000000000000100100000000000000010100000000000010000000010000000000001000000000000010000001100000000000000100000000000000000000000000000100000000100000000000000000</v>
       </c>
-      <c r="W11" t="str">
+      <c r="AI11" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B11)</f>
         <v>1111100000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000100001</v>
       </c>
-      <c r="X11" t="str">
+      <c r="AJ11" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B11)</f>
         <v>00000000011110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000001100100110000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000111100010100101000001000000000000010000000100000000000000000000000000000001000000000100000000000001000100000010000100000000000000000000000000000000000000000001000000000000000000000000000000000100000000000000000000000000000001000000000000001000000000010000000000000000100000000000000000100000000000000000001001100000000000000000010000000000000000011100000001100000011110000000011111000000000000000000000000000000000000000000000000000000000000000110000000000000000000100000000000000000000100000000000000000000100000000000000000000100000000000000000000</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AK11" s="2">
         <f>_xll.NCDK_MolecularWeight(B11)</f>
         <v>386.65454881683161</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AL11" s="2">
         <f>_xll.NCDK_ExactMass(B11)</f>
         <v>386.35486609199995</v>
       </c>
-      <c r="AA11">
+      <c r="AM11">
         <f>_xll.NCDK_AcidicGroupCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AN11" s="4">
         <f>_xll.NCDK_ALogP(B11)</f>
         <v>7.376100000000001</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AO11" s="4">
         <f>_xll.NCDK_XLogP(B11)</f>
         <v>10.518000000000004</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AP11" s="4">
         <f>_xll.NCDK_MannholdLogP(B11)</f>
         <v>4.3199999999999994</v>
       </c>
-      <c r="AE11" s="4">
+      <c r="AQ11" s="4">
         <f>_xll.NCDK_JPlogP(B11)</f>
         <v>7.8290832169857199</v>
       </c>
-      <c r="AF11">
+      <c r="AR11">
         <f>_xll.NCDK_AMolarRefractivity(B11)</f>
         <v>120.6157</v>
       </c>
-      <c r="AG11">
+      <c r="AS11">
         <f>_xll.NCDK_APol(B11)</f>
         <v>78.994478000000029</v>
       </c>
-      <c r="AH11">
+      <c r="AT11">
         <f>_xll.NCDK_AromaticAtomsCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AI11">
+      <c r="AU11">
         <f>_xll.NCDK_AromaticBondsCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AJ11">
+      <c r="AV11">
         <f>_xll.NCDK_AtomCount(B11)</f>
         <v>74</v>
       </c>
-      <c r="AK11" t="str">
+      <c r="AW11" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B11)</f>
         <v>0.0827991713427503, -0.0229631507285856, -0.0270969061556759, 0.00647128770548948, 0.00909713625645344</v>
       </c>
-      <c r="AL11" t="str">
+      <c r="AX11" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B11)</f>
         <v>28.7744690355409, 31.3320919771326, 48.6641839542651, 54.6641839542651, 49.6641839542651</v>
       </c>
-      <c r="AM11" t="str">
+      <c r="AY11" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B11)</f>
         <v>2589.35165284459, 3179.06049775734, 4922.9791073968, 5328.87269506555, 4616.91714731414</v>
       </c>
-      <c r="AN11">
+      <c r="AZ11">
         <f>_xll.NCDK_BasicGroupCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AO11" t="str">
+      <c r="BA11" t="str">
         <f>_xll.NCDK_BCUT(B11)</f>
         <v>11.89, 15.9949214370832, -0.392219474278523, 0.0694748577202458, 5.23874992098634, 12.6503467270457</v>
       </c>
-      <c r="AP11">
+      <c r="BB11">
         <f>_xll.NCDK_BondCount(B11)</f>
         <v>0</v>
       </c>
-      <c r="AQ11">
+      <c r="BC11">
         <f>_xll.NCDK_BPol(B11)</f>
         <v>50.287521999999989</v>
       </c>
-      <c r="AR11" t="str">
+      <c r="BD11" t="str">
         <f>_xll.NCDK_CarbonTypes(B11)</f>
         <v>0, 0, 0, 1, 1, 5, 12, 6, 2</v>
       </c>
-      <c r="AS11" t="str">
+      <c r="BE11" t="str">
         <f>_xll.NCDK_ChiChain(B11)</f>
         <v>0, 0, 0.0833333333333333, 0.393634553260967, 0.976046921839545, 0, 0, 0.0833333333333333, 0.37164819290959, 0.863165765466815</v>
       </c>
-      <c r="AT11" t="str">
+      <c r="BF11" t="str">
         <f>_xll.NCDK_ChiCluster(B11)</f>
         <v>2.9521315814894, 0.235702260395516, 1.02234106177579, 0.203263132396285, 2.68481479020038, 0.219913202813724, 0.935219433730957, 0.179558378198271</v>
       </c>
-      <c r="AU11" t="str">
+      <c r="BG11" t="str">
         <f>_xll.NCDK_ChiPathCluster(B11)</f>
         <v>6.93012787723299, 11.9183161832455, 18.084244169983, 6.31056734345633, 10.8246614459309, 15.7948474414898</v>
       </c>
-      <c r="AV11" t="str">
+      <c r="BH11" t="str">
         <f>_xll.NCDK_ChiPath(B11)</f>
         <v>20.1040835277556, 13.2536913009629, 13.0668536638687, 11.1291235227258, 9.49703814548855, 7.69096408557496, 5.93907638185732, 4.4721666474432, 19.344190342069, 12.6298450216499, 12.1863667747532, 10.2790812759586, 8.66624457896859, 6.67875288189192, 5.16344144011131, 3.80610378452706</v>
       </c>
-      <c r="AW11" t="str">
+      <c r="BI11" t="str">
         <f>_xll.NCDK_CPSA(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AX11">
+      <c r="BJ11">
         <f>_xll.NCDK_EccentricConnectivityIndex(B11)</f>
         <v>669</v>
       </c>
-      <c r="AY11">
+      <c r="BK11">
         <f>_xll.NCDK_FMF(B11)</f>
         <v>0.6071428571428571</v>
       </c>
-      <c r="AZ11">
+      <c r="BL11">
         <f>_xll.NCDK_FractionalPSA(B11)</f>
         <v>5.2361188524318612E-2</v>
       </c>
-      <c r="BA11">
+      <c r="BM11">
         <f>_xll.NCDK_FragmentComplexity(B11)</f>
         <v>5173.01</v>
       </c>
-      <c r="BB11" t="str">
+      <c r="BN11" t="str">
         <f>_xll.NCDK_GravitationalIndex(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC11">
+      <c r="BO11">
         <f>_xll.NCDK_HBondAcceptorCount(B11)</f>
         <v>1</v>
       </c>
-      <c r="BD11">
+      <c r="BP11">
         <f>_xll.NCDK_HBondDonorCount(B11)</f>
         <v>1</v>
       </c>
-      <c r="BE11">
+      <c r="BQ11">
         <f>_xll.NCDK_HybridizationRatio(B11)</f>
         <v>0.92592592592592593</v>
       </c>
-      <c r="BF11" t="str">
+      <c r="BR11" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B11)</f>
         <v>21.2403746097815, 7.921875, 3.65484429065744</v>
       </c>
-      <c r="BG11" t="str">
+      <c r="BS11" t="str">
         <f>_xll.NCDK_KierHallSmarts(B11)</f>
         <v>0, 0, 0, 0, 0, 0, 5, 0, 11, 0, 1, 0, 7, 0, 0, 1, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH11">
+      <c r="BT11">
         <f>_xll.NCDK_LargestChain(B11)</f>
-        <v>16</v>
-      </c>
-      <c r="BI11">
+        <v>7</v>
+      </c>
+      <c r="BU11">
         <f>_xll.NCDK_LargestPiSystem(B11)</f>
         <v>2</v>
       </c>
-      <c r="BJ11" t="str">
+      <c r="BV11" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BK11">
+      <c r="BW11">
         <f>_xll.NCDK_LongestAliphaticChain(B11)</f>
         <v>7</v>
       </c>
-      <c r="BL11" t="str">
+      <c r="BX11" t="str">
         <f>_xll.NCDK_MDE(B11)</f>
         <v>1.54697174276407, 11.0054221495714, 8.10399071027919, 2.24225976804296, 15.301585299106, 26.1301405209996, 7.46130267367364, 6.99912877305946, 5.73136198628621, 0.25, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BM11" t="str">
+      <c r="BY11" t="str">
         <f>_xll.NCDK_MomentOfInertia(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BN11">
+      <c r="BZ11">
         <f>_xll.NCDK_PetitjeanNumber(B11)</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="BO11" t="str">
+      <c r="CA11" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BP11">
+      <c r="CB11">
         <f>_xll.NCDK_RotatableBondsCount(B11)</f>
         <v>5</v>
       </c>
-      <c r="BQ11">
+      <c r="CC11">
         <f>_xll.NCDK_RuleOfFive(B11)</f>
         <v>1</v>
       </c>
-      <c r="BR11" t="str">
+      <c r="CD11" t="str">
         <f>_xll.NCDK_SmallRing(B11)</f>
         <v>4, 0, 1, 0, 0, 0, 1, 3, 0, 0, 0</v>
       </c>
-      <c r="BS11">
+      <c r="CE11">
         <f>_xll.NCDK_TPSA(B11)</f>
         <v>20.23</v>
       </c>
-      <c r="BT11">
+      <c r="CF11">
         <f>_xll.NCDK_VABC(B11)</f>
         <v>432.27597679576252</v>
       </c>
-      <c r="BU11">
+      <c r="CG11">
         <f>_xll.NCDK_VAdjMa(B11)</f>
         <v>5.9541963103868758</v>
       </c>
-      <c r="BV11" s="2">
+      <c r="CH11" s="2">
         <f>_xll.NCDK_MolecularWeight(B11)</f>
         <v>386.65454881683161</v>
       </c>
-      <c r="BW11" s="3">
+      <c r="CI11" s="3">
         <f>_xll.NCDK_ExactMass(B11)</f>
         <v>386.35486609199995</v>
       </c>
-      <c r="BX11" t="str">
+      <c r="CJ11" t="str">
         <f>_xll.NCDK_WeightedPath(B11)</f>
         <v>57.2167299866347, 2.04345464237981, 2.54245315921218, 2.54245315921218, 0</v>
       </c>
-      <c r="BY11" t="str">
+      <c r="CK11" t="str">
         <f>_xll.NCDK_WHIM(B11)</f>
         <v>#N/A</v>
       </c>
-      <c r="BZ11" t="str">
+      <c r="CL11" t="str">
         <f>_xll.NCDK_WienerNumbers(B11)</f>
         <v>2022, 54</v>
       </c>
-      <c r="CA11">
+      <c r="CM11">
         <f>_xll.NCDK_ZagrebIndex(B11)</f>
         <v>158</v>
       </c>
@@ -7361,8 +8510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1647DD59-D041-4640-9111-9E35EC2330E5}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/NCDK-Excel/ExcelNCDK-Test.xlsx
+++ b/NCDK-Excel/ExcelNCDK-Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21906F6E-D0BB-4B28-824B-FE56C6D77165}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CD6713-5A36-4111-ACB7-D7EC90B0350E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="188">
   <si>
     <t>CC(=O)O</t>
     <phoneticPr fontId="1"/>
@@ -1886,6 +1886,18 @@
   </si>
   <si>
     <t>InChI Key (RDKit)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InChI (CDK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InChI check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InChI Key (CDK)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2627,30 +2639,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B185B08-1BAB-4052-951E-1A2BC1F97D8F}">
-  <dimension ref="A1:CM11"/>
+  <dimension ref="A1:CP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="8" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.08203125" customWidth="1"/>
-    <col min="10" max="26" width="7.75" customWidth="1"/>
-    <col min="27" max="36" width="8.33203125" customWidth="1"/>
-    <col min="37" max="38" width="8.33203125" style="2" customWidth="1"/>
-    <col min="39" max="39" width="8.33203125" customWidth="1"/>
-    <col min="40" max="40" width="8.6640625" style="4" customWidth="1"/>
-    <col min="41" max="43" width="8.6640625" style="4"/>
-    <col min="44" max="44" width="8.6640625" customWidth="1"/>
-    <col min="66" max="66" width="14.83203125" customWidth="1"/>
-    <col min="86" max="86" width="8.6640625" style="2"/>
-    <col min="87" max="87" width="10.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="2" customWidth="1"/>
+    <col min="13" max="15" width="10.83203125" customWidth="1"/>
+    <col min="16" max="29" width="7.75" customWidth="1"/>
+    <col min="30" max="39" width="8.33203125" customWidth="1"/>
+    <col min="40" max="41" width="8.33203125" style="2" customWidth="1"/>
+    <col min="42" max="42" width="8.33203125" customWidth="1"/>
+    <col min="43" max="43" width="8.6640625" style="4" customWidth="1"/>
+    <col min="44" max="46" width="8.6640625" style="4"/>
+    <col min="47" max="47" width="8.6640625" customWidth="1"/>
+    <col min="69" max="69" width="14.83203125" customWidth="1"/>
+    <col min="89" max="89" width="8.6640625" style="2"/>
+    <col min="90" max="90" width="10.08203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2670,262 +2682,271 @@
         <v>182</v>
       </c>
       <c r="G1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" t="s">
         <v>183</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" t="s">
         <v>184</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>163</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>80</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>174</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>173</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>175</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>176</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>178</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>179</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>66</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>67</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>68</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>69</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>70</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>71</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>73</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>76</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>77</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>78</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>80</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>81</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>4</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>7</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>8</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>9</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>10</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>11</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>12</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>13</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>14</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>15</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>16</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>17</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>18</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>19</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>20</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>21</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>22</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>23</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>24</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>25</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>26</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>27</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
         <v>28</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
         <v>29</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BX1" t="s">
         <v>30</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BY1" t="s">
         <v>31</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BZ1" t="s">
         <v>60</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CA1" t="s">
         <v>33</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CB1" t="s">
         <v>34</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CC1" t="s">
         <v>35</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CD1" t="s">
         <v>36</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CE1" t="s">
         <v>37</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CF1" t="s">
         <v>38</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CG1" t="s">
         <v>39</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CH1" t="s">
         <v>40</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CI1" t="s">
         <v>64</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CJ1" t="s">
         <v>41</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CM1" t="s">
         <v>42</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CN1" t="s">
         <v>43</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CO1" t="s">
         <v>44</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CP1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -3031,347 +3052,359 @@
         <v>CCC1(C2=CCCCCC2)C(=O)NC(=O)NC1=O</v>
       </c>
       <c r="G2" t="str">
+        <f>_xll.NCDK_InChI($B2)</f>
+        <v>InChI=1S/C13H18N2O3/c1-2-13(9-7-5-3-4-6-8-9)10(16)14-12(18)15-11(13)17/h7H,2-6,8H2,1H3,(H2,14,15,16,17,18)</v>
+      </c>
+      <c r="H2" t="str">
         <f>_xll.RDKit_InChI(F2)</f>
         <v>InChI=1S/C13H18N2O3/c1-2-13(9-7-5-3-4-6-8-9)10(16)14-12(18)15-11(13)17/h7H,2-6,8H2,1H3,(H2,14,15,16,17,18)</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="b">
+        <f>($G2=$H2)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xll.NCDK_InChIKey($B2)</f>
+        <v>PAZQYDJGLKSCSI-UHFFFAOYSA-N</v>
+      </c>
+      <c r="K2" t="str">
         <f>_xll.RDKit_InChIKey($B2)</f>
         <v>PAZQYDJGLKSCSI-UHFFFAOYSA-N</v>
       </c>
-      <c r="I2">
-        <f>_xll.NCDK_Tanimoto($U2,$U3)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" t="str">
-        <f>_xll.NCDK(J$1,$B2)</f>
+      <c r="L2" s="2">
+        <f>_xll.NCDK_Tanimoto($X2,$X3)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" t="str">
+        <f>_xll.NCDK(M$1,$B2)</f>
         <v>0000000000000000001000000000000000001000001000000100100000000100010000000001100100000000111100001110000001010101010011011000001110100001100001100110011001110111101110</v>
       </c>
-      <c r="K2" t="str">
+      <c r="N2" t="str">
         <f>_xll.RDKit_MACCSFingerprint($B2)</f>
         <v>00000000000000000001000000000000000001000001000000100100000000100010000000001100100000000111100001110000001010101010011011000001110100001100001100110011001110111101110</v>
       </c>
-      <c r="L2" t="b">
-        <f>($J2=MID($K2,2,166))</f>
+      <c r="O2" t="b">
+        <f>($M2=MID($N2,2,166))</f>
         <v>1</v>
       </c>
-      <c r="M2" t="str">
+      <c r="P2" t="str">
         <f>_xll.RDKit_MorganFingerprint($B2, 2)</f>
         <v>00100000000000000000000000000000000010000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000010000000000000001000100000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000001000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000001001000000000000000000000000000000000000010000000000000001000000000000000000000000010000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000010000000000</v>
       </c>
-      <c r="N2" t="str">
+      <c r="Q2" t="str">
         <f>_xll.RDKit_RDKFingerprint($B2)</f>
         <v>01101000100000000000010110010111111001000011100010000010000000110001011011101010100101000000000010001100000001101001000011110000010010000001100001001101000010100111001100010100010001000000001100000100011001011000010001111000000000000000100000001000010000000011000010001110001101100000110110000010010000010100100011000000000010000000000010010110000000000001001001000010000100001000000010000010000010000100000000101100010011000010010010000011001001000100100000000010000011000101000000011001000000100101111101000010010000000010000011001011010000011000000010000100001100000000000100001001000001010100000001010000001010111111000001001001110000000010101000001100110000000101010000000100000110010000001010100100010001000000010100100000001010000111000000000010000101001000111001100011001001000000000010000000001110000100010000010100000100100101000110100000001010100000011000011010001100000100001101010000100101100000101001000000011000000010000010111010000000001110010010110001000001010110010010010000010101000100000000100100011010011010000010000010100100000110010110000000001000000001010011010101111011001100000111000000010000001110011011000001000111000011011000001111010100100000100011001001000000001010100001000000000001010100010111000110011010001100000110110000000000101010100010000000000010000010010100011111100110000010011000000100100000000010000001011000110000011011000001000001100000000100000100000010000001000000001000100000100010001000011010001001000001011011100101001110010010010000000110000001011100000000100000001000000100010010000001010000000000000011000000101000001000010000101101010000011100010010011000000010000100000001100000010100000110000010000111101000100100010001011000001000010000010000100110000100101001000010000001100001010001010111001000000000001000110001100000000000000000000011001100011101010101011100001000010000110000110011010000000000001100100101011001000010100010010000100000000000000100001101010110001111100010010011001000000000000110001000010000001001100000100000110011010110100010110010000101100000000000010001010001000111</v>
       </c>
-      <c r="O2" t="str">
+      <c r="R2" t="str">
         <f>_xll.RDKit_HashedAtomPairFingerprint($B2)</f>
         <v>11001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001110000000001110000000000000111100001100100000000000000000000000000010000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000001000000000000000000000000000000000001110000000000000000000001110000000000000111000000000000000000000000011000000110000000000000000001000000000000000000000000000000010000000000000000000000000000000000010000000000000001110000000000000000000000000000000000000000000000000000000000000000000000000000000001110000011000000000000001110000000001110111000000000000011100000110000000000000010000000000000001110000000000000000000000000000000000000000000001100000000000000000000000000000000000000000011000000000000001100000000000000000000000000000000000000000000000000110000000000000000000000111011000000110000000000000000000000100000001100000000000000000000000000000000000000000000000000100000000000000000000000110000000000000000001110000000000000000011000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000001000100000000000000000000000100000001110000000000000000000000000110000000000000000000000000000000000000010001110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110011000000000010000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P2" t="str">
+      <c r="S2" t="str">
         <f>_xll.RDKit_HashedTopologicalTorsionFingerprint($B2)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000000000000000000110000000000000000000000000000000000000000001000100000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000001000000000000000000000000000000000000000000000000000000000000000100000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110000000000000000000000000000000000000000000000111000000000000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="T2" t="str">
         <f>_xll.RDKit_LayeredFingerprint($B2)</f>
         <v>00000000000000000010100101001110110000010000010110100001001000001000000000010100111001100001110100000000101111000000000100010000100000010000100000000000010100000100110010000000010000010001100101011011000010000000001110000001100001110000100010010100000100000000001000111010000101000000001010000000000001010000000110110010000000000100010000100100000001100010000110000011001000011101000101100100000000011000000011000011000110100000011000000000001101000000000000010000010000010100010010000010000010001101101000100110001101000100001100001101000000100000000000000010001000010000000001000000100101000000101001000010001100000010001100000011010000001000110001000010011010110000000001100000010000000000010001101000000001100001010010000111000110001100000001000000000000000000000000000000001011100100111000100101010000010010010000000000000001000000010001000000111010100001000110010010101001000011010011100000000100000000001000010000000010011001100010100101000100000001000011001000001000000011000000101001011110000100000010101000000000010000000010000010010010001100000100000001100000010010100000010101001000101101001000000001010000010000000000010000000000000010000100000000001100100001000000000001100000100001101000000010100000000000001101010010000010000000000101000000111000000000010001100000000010000111000010100100000011101000010100000000010101000100000000100000101100000010000000000100001010100111000000000111000010000000100000010000000000000100000100000000000000000000100000001010000000001100100000100101000000000100000000000001000001111100000101000001000000101000100000100000000000001000001000001010100000000000000001000101011001000001100000000001000000101000011100100000000010011000000010000100101001000001000000001010101000010000001100010101001010100001000000001000001000010000100000000001100010000000001000001000001000100010101000010001000100000101001001000001000000011000001000000010010100001100001000000010000000000011000000000000000000000110000000010010011100001001010001000000100000000101000010010000000000000100110000010110100000000010001010000010</v>
       </c>
-      <c r="R2" t="str">
+      <c r="U2" t="str">
         <f>_xll.RDKit_PatternFingerprint($B2)</f>
         <v>01010000000001000100000000000000000000010000001010000110000000001000000000000000000000100100000001000001000010000010000000000000000000000000000000010100000000001000000100000101001000000000000000000000001101000010000001000000100000100000000000000000000011000100010000000010000000000101000000010000100000000000000000000100000000010000000001000001000010100000000011000000000000000000000000000100001000000000000000101100100000001000110000110010000000010000001000000000011001000011000000000000101100000100000000000000110001010001000100000100000000000001001000000000000001000000000000000000100100100001000000000000000000000110001000000010000000000000100000000000000001011000000001010001000000000001101000110010010000000000010000000100011000100100000000000010000010000000000000001100001110000000000000000111000000000100100000000010000000000100000000000100000000000000000011010100001101000000000000000000001000000000011010000000000100000000000100000001110000000000010000110001000110000000001001000000000000100001000100000000000000100000000001000001000000000001100001001100110100000000001000001000000010000000011000000010000000000000100000101100000000000000100000011001000111000000100000010010010001000100000000010100000000100010000000000000000010001000000000000000110000000000000010000000000000000100001100000000000000000000000000011000110000000000000000000010000000000000100101001000000001010110110001100101000100000000001011000000000000000000001010001001010000010000100001000000000100000000001001000010000100000000100001000000000000100001000010000000000000010000000010100100000001001001000000000000000100100000000110000000000000000000010000010100000100010000001010000000000001000000000100000000000000000000001000000000010100000000000000001101000000000000001000000000000010000000000010000001000000000011000000010000000011000001000000000000000000000000000000000000000000000000000000000100000001010101000100110110001000000000000000000000000100000000000000110000100000000100001000000000000001100000000100000000000100001000000001110010000000010000000000000110</v>
       </c>
-      <c r="S2" t="str">
+      <c r="V2" t="str">
         <f>_xll.NCDK_ECFP0($B2)</f>
         <v>0000000000000010000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T2" t="str">
+      <c r="W2" t="str">
         <f>_xll.NCDK_ECFP2($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000010000000000000100000000000010000010000001000000000000000000000000000100</v>
       </c>
-      <c r="U2" t="str">
+      <c r="X2" t="str">
         <f>_xll.NCDK_ECFP4($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000010010000000000000000000000000000000000000000000000000000000000000010001000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000000000000000000000000000101000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000010000000000000100000000000010100010000001000000000000000000000000000100</v>
       </c>
-      <c r="V2" t="str">
+      <c r="Y2" t="str">
         <f>_xll.NCDK_ECFP6($B2)</f>
         <v>0000000000000010000000001100000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000010000000000000100000000000000000010010000000000000000000000000000000000000000000000000000000000000010001000000000000010000000100000000000000000000000000011000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000001000000000001000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000000000000000000000000000101000000000000000000000000000000000000000000000100001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000001001000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000010000000000000100000000000010100010000001000010000000000000000000000100</v>
-      </c>
-      <c r="W2" t="str">
-        <f>_xll.NCDK_FCFP0($B2)</f>
-        <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="X2" t="str">
-        <f>_xll.NCDK_FCFP2($B2)</f>
-        <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="Y2" t="str">
-        <f>_xll.NCDK_FCFP4($B2)</f>
-        <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000001000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000001000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000100100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000100000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="Z2" t="str">
         <f>_xll.NCDK_FCFP0($B2)</f>
         <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="AA2" t="str">
+        <f>_xll.NCDK_FCFP2($B2)</f>
+        <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>_xll.NCDK_FCFP4($B2)</f>
+        <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000010000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000001000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000001000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000100100000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000100000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>_xll.NCDK_FCFP0($B2)</f>
+        <v>1011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AD2" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B2)</f>
         <v>111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000110000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000010000000001000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000101000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AB2" t="str">
+      <c r="AE2" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B2)</f>
         <v>0000001010100001001000010000000000100000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AC2" t="str">
+      <c r="AF2" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B2)</f>
         <v>000000000000001000000000000000001000000000010000000000000000001000000100000001000000000000000010000000000000000000000100000000000000000000001000001000000000000000000000000000000000100100100000000000000000000000010000000000000001010000000000000000000000010100010000000000000000000001100000000000001000000000000000000000000000010000000000000010000000000010000000000000000000000000000000000000000000000000001000011100000000000000100000000000001000001000010100000100000000000000010100000100000000000000000001000000000000000110000000000000100000000000000010000010000000000000000000010000000000001100000000010001100010100010000010000000000000000001000000000000000000000000000001000000000000000100000000000000000000000010000000001000000000000000000010000000001000100100000000100010001000000000110000000000000000000000010000000000000000000000100000000010001000000001000000000000000000100000100000000000000000000000000000000000100000000010000000000010010000010000000000101100010000000000010000000100000001000000000000011001</v>
       </c>
-      <c r="AD2" t="str">
+      <c r="AG2" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B2)</f>
         <v>0000010000000000010000000011000000000010000000000000000010010000000000000001010000001011000000000000000000001010000000000010010010000000000000000000100000000000000001000001000010000100000000000000000000000010100000000100000000010000000001100000000000000000000000000000000000000000000000001000000000001000000000000000000100000000000000100100000000000100000000000000001100000000000000000000000110000000000000000001000000000000000000000000000000010000100000101000000000001011001000000000000000000000000010100100000100000000001000000000000000000011010001100000000000000000000000000000000000001000000001000100000000000000000000100000000000000100000000101000000000000000000000000010000000000100000000000000000000000001000001000000000000000000000001110001000010000000100000000000000000000000000000000000000000000000000000000000000000000010000000000000001000100000000000010100000000000000000000000000000000000000000000001000000000001000000000100000000000001000010000000000000000000000000010000000000000000000110001000000001000000000</v>
       </c>
-      <c r="AE2" t="str">
+      <c r="AH2" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B2)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000010010110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000100000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000001101000000000000000000000000000001000001000000000000000000001010000000000000000000000000000000000000000010000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000011000000001011000100010010000000000000000000011000000010000110100110000110110011001000101000010100000001000000000000000000000010000010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000010100001000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000010001000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000010000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AF2" t="str">
+      <c r="AI2" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B2)</f>
         <v>0010000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000100000000100100000000000000000100000000000000000000000000000000000000000000000000000001000100000000000001000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000001000100000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000001000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000</v>
       </c>
-      <c r="AG2" t="str">
+      <c r="AJ2" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B2)</f>
         <v>0000000000000000001000000000000000001000001000000100100000000100010000000001100100000000111100001110000001010101010011011000001110100001100001100110011001110111101110</v>
       </c>
-      <c r="AH2" t="str">
+      <c r="AK2" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B2)</f>
         <v>0100000000000100100000000000000010000000110000000010000110000000101110100000000000100000000000000000000000100000000100001000100001000000000010000000000000001000000000000000000000000110000000000000100000000000001001000000000011000001001000000000000010000000000000001000100000000000000000010100000000000000100000000000000000000000000000000010000000000000000010000100000000000000000000000000000000000000000000110000000000000100000100000000010000000000010000000011010000000000000000000001011000000000000000010100000000000000100000000000010001001100000000000000000000000001000000000000100000000010000000000001000000000010000000000000000000000000000000000100010000000000000001000000100010000000100101001001000001001110001100010000000000000000000000000000000000000000000000100010000000000000001010000000000000000000000010000000000000000001110000000000000010000000000000100000000100100000000000000000011100000010000000000000000000000000000000000000000000000000000100000000000000100000000000000000000000101010000000101000000000000000</v>
       </c>
-      <c r="AI2" t="str">
+      <c r="AL2" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B2)</f>
         <v>1101100000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000010100001</v>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AM2" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B2)</f>
         <v>00000000011100110011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001011000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000001111000000000000100000000000000000000000000000000111000000000100000011000000000000000000000110000000000000010110000000000000000000000100010000000001000100001010100100001000000000000000000000000000000000000001000000000000000000000000000000000100000000001000000000000000000001000100000000000000000011010000010001100000100000000000001000000000000000000000010001000010100100010000010000000000000000011000110001000100011000000100011110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AN2" s="2">
         <f>_xll.NCDK_MolecularWeight(B2)</f>
         <v>250.29412142388836</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AO2" s="2">
         <f>_xll.NCDK_ExactMass(B2)</f>
         <v>250.13174243599997</v>
       </c>
-      <c r="AM2">
+      <c r="AP2">
         <f>_xll.NCDK_AcidicGroupCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AQ2" s="4">
         <f>_xll.NCDK_ALogP(B2)</f>
         <v>2.1996999999999991</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AR2" s="4">
         <f>_xll.NCDK_XLogP(B2)</f>
         <v>2.1759999999999997</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AS2" s="4">
         <f>_xll.NCDK_MannholdLogP(B2)</f>
         <v>2.34</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="AT2" s="4">
         <f>_xll.NCDK_JPlogP(B2)</f>
         <v>1.7050260777332682</v>
       </c>
-      <c r="AR2">
+      <c r="AU2">
         <f>_xll.NCDK_AMolarRefractivity(B2)</f>
         <v>66.252700000000004</v>
       </c>
-      <c r="AS2">
+      <c r="AV2">
         <f>_xll.NCDK_APol(B2)</f>
         <v>39.488274000000011</v>
       </c>
-      <c r="AT2">
+      <c r="AW2">
         <f>_xll.NCDK_AromaticAtomsCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AU2">
+      <c r="AX2">
         <f>_xll.NCDK_AromaticBondsCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="AV2">
+      <c r="AY2">
         <f>_xll.NCDK_AtomCount(B2)</f>
         <v>36</v>
       </c>
-      <c r="AW2" t="str">
+      <c r="AZ2" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B2)</f>
         <v>0.482364049323966, -0.239230483102807, 0.193743260003086, -0.422975414094056, 0.245070516996786</v>
       </c>
-      <c r="AX2" t="str">
+      <c r="BA2" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B2)</f>
         <v>21.0433677091758, 20.6610036641195, 30.570374510169, 39.3180113704083, 36.7520657397667</v>
       </c>
-      <c r="AY2" t="str">
+      <c r="BB2" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B2)</f>
         <v>1236.72445709937, 1455.26096710327, 2067.09825744824, 2452.45202784668, 1776.45546782422</v>
       </c>
-      <c r="AZ2">
+      <c r="BC2">
         <f>_xll.NCDK_BasicGroupCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="BA2" t="str">
+      <c r="BD2" t="str">
         <f>_xll.NCDK_BCUT(B2)</f>
         <v>11.89, 15.9969274797474, -0.279527566151374, 0.285306450703295, 4.45516607690972, 12.225254833975</v>
       </c>
-      <c r="BB2">
+      <c r="BE2">
         <f>_xll.NCDK_BondCount(B2)</f>
         <v>0</v>
       </c>
-      <c r="BC2">
+      <c r="BF2">
         <f>_xll.NCDK_BPol(B2)</f>
         <v>23.871725999999995</v>
       </c>
-      <c r="BD2" t="str">
+      <c r="BG2" t="str">
         <f>_xll.NCDK_CarbonTypes(B2)</f>
         <v>0, 0, 2, 1, 1, 1, 6, 0, 1</v>
       </c>
-      <c r="BE2" t="str">
+      <c r="BH2" t="str">
         <f>_xll.NCDK_ChiChain(B2)</f>
         <v>0, 0, 0, 0.0481125224324688, 0.206136035947173, 0, 0, 0, 0.015625, 0.0379976820715334</v>
       </c>
-      <c r="BF2" t="str">
+      <c r="BI2" t="str">
         <f>_xll.NCDK_ChiCluster(B2)</f>
         <v>1.29103942781429, 0.0680413817439772, 0.635379749451514, 0.130245735736926, 0.58282022448487, 0.0441941738241592, 0.195368603605389, 0.0360843918243516</v>
       </c>
-      <c r="BG2" t="str">
+      <c r="BJ2" t="str">
         <f>_xll.NCDK_ChiPathCluster(B2)</f>
         <v>3.75820832838601, 7.24003474940441, 9.47142848690227, 1.60201233255417, 2.48389505922722, 2.76623804293011</v>
       </c>
-      <c r="BH2" t="str">
+      <c r="BK2" t="str">
         <f>_xll.NCDK_ChiPath(B2)</f>
         <v>13.1733621074374, 8.60822612591632, 7.53308445980525, 6.57446305443147, 5.83502554474493, 3.66414268256136, 2.81639208561656, 1.24750715936873, 10.5447358277005, 6.47350942312757, 4.82495377161152, 3.84884458919458, 2.7963481600948, 1.78170696456175, 1.19223951604789, 0.520731228864019</v>
       </c>
-      <c r="BI2" t="str">
+      <c r="BL2" t="str">
         <f>_xll.NCDK_CPSA(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ2">
+      <c r="BM2">
         <f>_xll.NCDK_EccentricConnectivityIndex(B2)</f>
         <v>226</v>
       </c>
-      <c r="BK2">
+      <c r="BN2">
         <f>_xll.NCDK_FMF(B2)</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="BL2">
+      <c r="BO2">
         <f>_xll.NCDK_FractionalPSA(B2)</f>
         <v>0.30092142334124705</v>
       </c>
-      <c r="BM2">
+      <c r="BP2">
         <f>_xll.NCDK_FragmentComplexity(B2)</f>
         <v>1063.05</v>
       </c>
-      <c r="BN2" t="str">
+      <c r="BQ2" t="str">
         <f>_xll.NCDK_GravitationalIndex(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BO2">
+      <c r="BR2">
         <f>_xll.NCDK_HBondAcceptorCount(B2)</f>
         <v>5</v>
       </c>
-      <c r="BP2">
+      <c r="BS2">
         <f>_xll.NCDK_HBondDonorCount(B2)</f>
         <v>2</v>
       </c>
-      <c r="BQ2">
+      <c r="BT2">
         <f>_xll.NCDK_HybridizationRatio(B2)</f>
         <v>0.61538461538461542</v>
       </c>
-      <c r="BR2" t="str">
+      <c r="BU2" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B2)</f>
         <v>14.409972299169, 5.96982167352538, 2.65927977839335</v>
       </c>
-      <c r="BS2" t="str">
+      <c r="BV2" t="str">
         <f>_xll.NCDK_KierHallSmarts(B2)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 6, 0, 1, 0, 0, 0, 0, 4, 0, 0, 1, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BT2">
+      <c r="BW2">
         <f>_xll.NCDK_LargestChain(B2)</f>
         <v>2</v>
       </c>
-      <c r="BU2">
+      <c r="BX2">
         <f>_xll.NCDK_LargestPiSystem(B2)</f>
         <v>8</v>
       </c>
-      <c r="BV2" t="str">
+      <c r="BY2" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BW2">
+      <c r="BZ2">
         <f>_xll.NCDK_LongestAliphaticChain(B2)</f>
         <v>2</v>
       </c>
-      <c r="BX2" t="str">
+      <c r="CA2" t="str">
         <f>_xll.NCDK_MDE(B2)</f>
         <v>0, 1.78256861348341, 1.17348231572452, 0.5, 9.28105720195319, 8.27801156561087, 2.82326712400687, 2.67269615442102, 3.03934274260637, 0, 0.75, 0, 0, 0, 0, 0, 0.5, 0, 0</v>
       </c>
-      <c r="BY2" t="str">
+      <c r="CB2" t="str">
         <f>_xll.NCDK_MomentOfInertia(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="BZ2">
+      <c r="CC2">
         <f>_xll.NCDK_PetitjeanNumber(B2)</f>
         <v>0.5</v>
       </c>
-      <c r="CA2" t="str">
+      <c r="CD2" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="CB2">
+      <c r="CE2">
         <f>_xll.NCDK_RotatableBondsCount(B2)</f>
         <v>2</v>
       </c>
-      <c r="CC2">
+      <c r="CF2">
         <f>_xll.NCDK_RuleOfFive(B2)</f>
         <v>0</v>
       </c>
-      <c r="CD2" t="str">
+      <c r="CG2" t="str">
         <f>_xll.NCDK_SmallRing(B2)</f>
         <v>2, 0, 2, 0, 0, 0, 0, 1, 1, 0, 0</v>
       </c>
-      <c r="CE2">
+      <c r="CH2">
         <f>_xll.NCDK_TPSA(B2)</f>
         <v>75.27000000000001</v>
       </c>
-      <c r="CF2">
+      <c r="CI2">
         <f>_xll.NCDK_VABC(B2)</f>
         <v>246.50970715028382</v>
       </c>
-      <c r="CG2">
+      <c r="CJ2">
         <f>_xll.NCDK_VAdjMa(B2)</f>
         <v>5.2479275134435852</v>
       </c>
-      <c r="CH2" s="2">
+      <c r="CK2" s="2">
         <f>_xll.NCDK_MolecularWeight(B2)</f>
         <v>250.29412142388836</v>
       </c>
-      <c r="CI2" s="3">
+      <c r="CL2" s="3">
         <f>_xll.NCDK_ExactMass(B2)</f>
         <v>250.13174243599997</v>
       </c>
-      <c r="CJ2" t="str">
+      <c r="CM2" t="str">
         <f>_xll.NCDK_WeightedPath(B2)</f>
         <v>35.9822147160759, 1.99901192867088, 13.5466431850826, 7.60403910050065, 5.94260408458194</v>
       </c>
-      <c r="CK2" t="str">
+      <c r="CN2" t="str">
         <f>_xll.NCDK_WHIM(B2)</f>
         <v>#N/A</v>
       </c>
-      <c r="CL2" t="str">
+      <c r="CO2" t="str">
         <f>_xll.NCDK_WienerNumbers(B2)</f>
         <v>537, 35</v>
       </c>
-      <c r="CM2">
+      <c r="CP2">
         <f>_xll.NCDK_ZagrebIndex(B2)</f>
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -3381,7 +3414,7 @@
       <c r="C3" t="str">
         <f>_xll.NCDK_MolText(B3)</f>
         <v xml:space="preserve">
-       CDK0816191021
+       CDK0817191606
   1  0  0  0  0  0  0  0  0  0999 V2000
     0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
 M  END
@@ -3405,347 +3438,359 @@
         <v>C</v>
       </c>
       <c r="G3" t="str">
+        <f>_xll.NCDK_InChI($B3)</f>
+        <v>InChI=1S/CH4/h1H4</v>
+      </c>
+      <c r="H3" t="str">
         <f>_xll.RDKit_InChI(F3)</f>
         <v>InChI=1S/CH4/h1H4</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I11" si="0">($G3=$H3)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" t="str">
+        <f>_xll.NCDK_InChIKey($B3)</f>
+        <v>VNWKTOKETHGBQD-UHFFFAOYSA-N</v>
+      </c>
+      <c r="K3" t="str">
         <f>_xll.RDKit_InChIKey($B3)</f>
         <v>VNWKTOKETHGBQD-UHFFFAOYSA-N</v>
       </c>
-      <c r="I3">
-        <f>_xll.NCDK_Tanimoto($U3,$U4)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" t="str">
-        <f>_xll.NCDK(J$1,$B3)</f>
+      <c r="L3" s="2">
+        <f>_xll.NCDK_Tanimoto($X3,$X4)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" t="str">
+        <f>_xll.NCDK(M$1,$B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
       </c>
-      <c r="K3" t="str">
+      <c r="N3" t="str">
         <f>_xll.RDKit_MACCSFingerprint($B3)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
       </c>
-      <c r="L3" t="b">
-        <f>($J3=MID($K3,2,166))</f>
+      <c r="O3" t="b">
+        <f>($M3=MID($N3,2,166))</f>
         <v>1</v>
       </c>
-      <c r="M3" t="str">
+      <c r="P3" t="str">
         <f>_xll.RDKit_MorganFingerprint($B3, 2)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N3" t="str">
+      <c r="Q3" t="str">
         <f>_xll.RDKit_RDKFingerprint($B3)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O3" t="str">
+      <c r="R3" t="str">
         <f>_xll.RDKit_HashedAtomPairFingerprint($B3)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P3" t="str">
+      <c r="S3" t="str">
         <f>_xll.RDKit_HashedTopologicalTorsionFingerprint($B3)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="T3" t="str">
         <f>_xll.RDKit_LayeredFingerprint($B3)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R3" t="str">
+      <c r="U3" t="str">
         <f>_xll.RDKit_PatternFingerprint($B3)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="S3" t="str">
+      <c r="V3" t="str">
         <f>_xll.NCDK_ECFP0($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T3" t="str">
+      <c r="W3" t="str">
         <f>_xll.NCDK_ECFP2($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U3" t="str">
+      <c r="X3" t="str">
         <f>_xll.NCDK_ECFP4($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V3" t="str">
+      <c r="Y3" t="str">
         <f>_xll.NCDK_ECFP6($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="W3" t="str">
-        <f>_xll.NCDK_FCFP0($B3)</f>
-        <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="X3" t="str">
-        <f>_xll.NCDK_FCFP2($B3)</f>
-        <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="Y3" t="str">
-        <f>_xll.NCDK_FCFP4($B3)</f>
-        <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="Z3" t="str">
         <f>_xll.NCDK_FCFP0($B3)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="AA3" t="str">
+        <f>_xll.NCDK_FCFP2($B3)</f>
+        <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>_xll.NCDK_FCFP4($B3)</f>
+        <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AC3" t="str">
+        <f>_xll.NCDK_FCFP0($B3)</f>
+        <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AD3" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AB3" t="str">
+      <c r="AE3" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AC3" t="str">
+      <c r="AF3" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AD3" t="str">
+      <c r="AG3" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AE3" t="str">
+      <c r="AH3" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B3)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AF3" t="str">
+      <c r="AI3" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AG3" t="str">
+      <c r="AJ3" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000</v>
       </c>
-      <c r="AH3" t="str">
+      <c r="AK3" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AI3" t="str">
+      <c r="AL3" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B3)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AJ3" t="str">
+      <c r="AM3" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B3)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AN3" s="2">
         <f>_xll.NCDK_MolecularWeight(B3)</f>
         <v>16.042498912091162</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AO3" s="2">
         <f>_xll.NCDK_ExactMass(B3)</f>
         <v>16.031300127999998</v>
       </c>
-      <c r="AM3">
+      <c r="AP3">
         <f>_xll.NCDK_AcidicGroupCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AQ3" s="4">
         <f>_xll.NCDK_ALogP(B3)</f>
         <v>0</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AR3" s="4">
         <f>_xll.NCDK_XLogP(B3)</f>
         <v>0.73899999999999999</v>
       </c>
-      <c r="AP3" s="4">
+      <c r="AS3" s="4">
         <f>_xll.NCDK_MannholdLogP(B3)</f>
         <v>1.57</v>
       </c>
-      <c r="AQ3" s="4" t="e">
+      <c r="AT3" s="4" t="e">
         <f>_xll.NCDK_JPlogP(B3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="AR3">
+      <c r="AU3">
         <f>_xll.NCDK_AMolarRefractivity(B3)</f>
         <v>0</v>
       </c>
-      <c r="AS3">
+      <c r="AV3">
         <f>_xll.NCDK_APol(B3)</f>
         <v>4.4271719999999997</v>
       </c>
-      <c r="AT3">
+      <c r="AW3">
         <f>_xll.NCDK_AromaticAtomsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AU3">
+      <c r="AX3">
         <f>_xll.NCDK_AromaticBondsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="AV3">
+      <c r="AY3">
         <f>_xll.NCDK_AtomCount(B3)</f>
         <v>5</v>
       </c>
-      <c r="AW3" t="str">
+      <c r="AZ3" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B3)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AX3" t="str">
+      <c r="BA3" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B3)</f>
         <v>1, 0, 0, 0, 0</v>
       </c>
-      <c r="AY3" t="str">
+      <c r="BB3" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B3)</f>
         <v>6.822544, 0, 0, 0, 0</v>
       </c>
-      <c r="AZ3">
+      <c r="BC3">
         <f>_xll.NCDK_BasicGroupCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="BA3" t="str">
+      <c r="BD3" t="str">
         <f>_xll.NCDK_BCUT(B3)</f>
         <v>12, 12, -0.0779229231460157, -0.0779229231460157, 2.612, 2.612</v>
       </c>
-      <c r="BB3">
+      <c r="BE3">
         <f>_xll.NCDK_BondCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="BC3">
+      <c r="BF3">
         <f>_xll.NCDK_BPol(B3)</f>
         <v>4.3728280000000002</v>
       </c>
-      <c r="BD3" t="str">
+      <c r="BG3" t="str">
         <f>_xll.NCDK_CarbonTypes(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BE3" t="str">
+      <c r="BH3" t="str">
         <f>_xll.NCDK_ChiChain(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BF3" t="str">
+      <c r="BI3" t="str">
         <f>_xll.NCDK_ChiCluster(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG3" t="str">
+      <c r="BJ3" t="str">
         <f>_xll.NCDK_ChiPathCluster(B3)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH3" t="str">
+      <c r="BK3" t="str">
         <f>_xll.NCDK_ChiPath(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BI3" t="str">
+      <c r="BL3" t="str">
         <f>_xll.NCDK_CPSA(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ3">
+      <c r="BM3">
         <f>_xll.NCDK_EccentricConnectivityIndex(B3)</f>
         <v>0</v>
       </c>
-      <c r="BK3">
+      <c r="BN3">
         <f>_xll.NCDK_FMF(B3)</f>
         <v>0</v>
       </c>
-      <c r="BL3">
+      <c r="BO3">
         <f>_xll.NCDK_FractionalPSA(B3)</f>
         <v>0</v>
       </c>
-      <c r="BM3">
+      <c r="BP3">
         <f>_xll.NCDK_FragmentComplexity(B3)</f>
         <v>16</v>
       </c>
-      <c r="BN3" t="str">
+      <c r="BQ3" t="str">
         <f>_xll.NCDK_GravitationalIndex(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BO3">
+      <c r="BR3">
         <f>_xll.NCDK_HBondAcceptorCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="BP3">
+      <c r="BS3">
         <f>_xll.NCDK_HBondDonorCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="BQ3">
+      <c r="BT3">
         <f>_xll.NCDK_HybridizationRatio(B3)</f>
         <v>1</v>
       </c>
-      <c r="BR3" t="str">
+      <c r="BU3" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B3)</f>
         <v>0, 0, 0</v>
       </c>
-      <c r="BS3" t="str">
+      <c r="BV3" t="str">
         <f>_xll.NCDK_KierHallSmarts(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BT3">
+      <c r="BW3">
         <f>_xll.NCDK_LargestChain(B3)</f>
         <v>0</v>
       </c>
-      <c r="BU3">
+      <c r="BX3">
         <f>_xll.NCDK_LargestPiSystem(B3)</f>
         <v>0</v>
       </c>
-      <c r="BV3" t="str">
+      <c r="BY3" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BW3">
+      <c r="BZ3">
         <f>_xll.NCDK_LongestAliphaticChain(B3)</f>
         <v>0</v>
       </c>
-      <c r="BX3" t="str">
+      <c r="CA3" t="str">
         <f>_xll.NCDK_MDE(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BY3" t="str">
+      <c r="CB3" t="str">
         <f>_xll.NCDK_MomentOfInertia(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="BZ3">
+      <c r="CC3">
         <f>_xll.NCDK_PetitjeanNumber(B3)</f>
         <v>0</v>
       </c>
-      <c r="CA3" t="str">
+      <c r="CD3" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="CB3">
+      <c r="CE3">
         <f>_xll.NCDK_RotatableBondsCount(B3)</f>
         <v>0</v>
       </c>
-      <c r="CC3">
+      <c r="CF3">
         <f>_xll.NCDK_RuleOfFive(B3)</f>
         <v>0</v>
       </c>
-      <c r="CD3" t="str">
+      <c r="CG3" t="str">
         <f>_xll.NCDK_SmallRing(B3)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="CE3">
+      <c r="CH3">
         <f>_xll.NCDK_TPSA(B3)</f>
         <v>0</v>
       </c>
-      <c r="CF3">
+      <c r="CI3">
         <f>_xll.NCDK_VABC(B3)</f>
         <v>25.852443326666702</v>
       </c>
-      <c r="CG3">
+      <c r="CJ3">
         <f>_xll.NCDK_VAdjMa(B3)</f>
         <v>0</v>
       </c>
-      <c r="CH3" s="2">
+      <c r="CK3" s="2">
         <f>_xll.NCDK_MolecularWeight(B3)</f>
         <v>16.042498912091162</v>
       </c>
-      <c r="CI3" s="3">
+      <c r="CL3" s="3">
         <f>_xll.NCDK_ExactMass(B3)</f>
         <v>16.031300127999998</v>
       </c>
-      <c r="CJ3" t="str">
+      <c r="CM3" t="str">
         <f>_xll.NCDK_WeightedPath(B3)</f>
         <v>1, 1, 0, 0, 0</v>
       </c>
-      <c r="CK3" t="str">
+      <c r="CN3" t="str">
         <f>_xll.NCDK_WHIM(B3)</f>
         <v>#N/A</v>
       </c>
-      <c r="CL3" t="str">
+      <c r="CO3" t="str">
         <f>_xll.NCDK_WienerNumbers(B3)</f>
         <v>0, 0</v>
       </c>
-      <c r="CM3">
+      <c r="CP3">
         <f>_xll.NCDK_ZagrebIndex(B3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -3755,7 +3800,7 @@
       <c r="C4" t="str">
         <f>_xll.NCDK_MolText(B4)</f>
         <v xml:space="preserve">
-       CDK0816191021
+       CDK0817191606
   4  3  0  0  0  0  0  0  0  0999 V2000
     0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
     0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
@@ -3791,347 +3836,359 @@
         <v>CC(=O)O</v>
       </c>
       <c r="G4" t="str">
+        <f>_xll.NCDK_InChI($B4)</f>
+        <v>InChI=1S/C2H4O2/c1-2(3)4/h1H3,(H,3,4)</v>
+      </c>
+      <c r="H4" t="str">
         <f>_xll.RDKit_InChI(F4)</f>
         <v>InChI=1S/C2H4O2/c1-2(3)4/h1H3,(H,3,4)</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="str">
+        <f>_xll.NCDK_InChIKey($B4)</f>
+        <v>QTBSBXVTEAMEQO-UHFFFAOYSA-N</v>
+      </c>
+      <c r="K4" t="str">
         <f>_xll.RDKit_InChIKey($B4)</f>
         <v>QTBSBXVTEAMEQO-UHFFFAOYSA-N</v>
       </c>
-      <c r="I4">
-        <f>_xll.NCDK_Tanimoto($U4,$U5)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" t="str">
-        <f>_xll.NCDK(J$1,$B4)</f>
+      <c r="L4" s="2">
+        <f>_xll.NCDK_Tanimoto($X4,$X5)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" t="str">
+        <f>_xll.NCDK(M$1,$B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000000000001001011000100</v>
       </c>
-      <c r="K4" t="str">
+      <c r="N4" t="str">
         <f>_xll.RDKit_MACCSFingerprint($B4)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000000000001001011000100</v>
       </c>
-      <c r="L4" t="b">
-        <f>($J4=MID($K4,2,166))</f>
+      <c r="O4" t="b">
+        <f>($M4=MID($N4,2,166))</f>
         <v>1</v>
       </c>
-      <c r="M4" t="str">
+      <c r="P4" t="str">
         <f>_xll.RDKit_MorganFingerprint($B4, 2)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N4" t="str">
+      <c r="Q4" t="str">
         <f>_xll.RDKit_RDKFingerprint($B4)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000100010000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O4" t="str">
+      <c r="R4" t="str">
         <f>_xll.RDKit_HashedAtomPairFingerprint($B4)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P4" t="str">
+      <c r="S4" t="str">
         <f>_xll.RDKit_HashedTopologicalTorsionFingerprint($B4)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="T4" t="str">
         <f>_xll.RDKit_LayeredFingerprint($B4)</f>
         <v>00000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000001100000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R4" t="str">
+      <c r="U4" t="str">
         <f>_xll.RDKit_PatternFingerprint($B4)</f>
         <v>00000000000000000000000000000000000000000000000000000110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000010000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000100001000000001000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000010010000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000001000000000000000000000000000000000000000000000000000000000000000000100011000000000000000000001000000000000000000000000000000000001000000000000000000100000000001000100000000000000000000000100000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000010010000000100000000000000000000000000000000000100000010000000000000000000000000000000000000000000000000000100000100000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000</v>
       </c>
-      <c r="S4" t="str">
+      <c r="V4" t="str">
         <f>_xll.NCDK_ECFP0($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T4" t="str">
+      <c r="W4" t="str">
         <f>_xll.NCDK_ECFP2($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U4" t="str">
+      <c r="X4" t="str">
         <f>_xll.NCDK_ECFP4($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V4" t="str">
+      <c r="Y4" t="str">
         <f>_xll.NCDK_ECFP6($B4)</f>
         <v>0000000000000000000100000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="W4" t="str">
-        <f>_xll.NCDK_FCFP0($B4)</f>
-        <v>1010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="X4" t="str">
-        <f>_xll.NCDK_FCFP2($B4)</f>
-        <v>1010000010000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="Y4" t="str">
-        <f>_xll.NCDK_FCFP4($B4)</f>
-        <v>1010000010000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="Z4" t="str">
         <f>_xll.NCDK_FCFP0($B4)</f>
         <v>1010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="AA4" t="str">
+        <f>_xll.NCDK_FCFP2($B4)</f>
+        <v>1010000010000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AB4" t="str">
+        <f>_xll.NCDK_FCFP4($B4)</f>
+        <v>1010000010000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AC4" t="str">
+        <f>_xll.NCDK_FCFP0($B4)</f>
+        <v>1010000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AD4" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B4)</f>
         <v>101000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AB4" t="str">
+      <c r="AE4" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B4)</f>
         <v>0000001000000001000000000000000001100000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AC4" t="str">
+      <c r="AF4" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B4)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010010000000000000000000000000000000000000000001000</v>
       </c>
-      <c r="AD4" t="str">
+      <c r="AG4" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000001010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AE4" t="str">
+      <c r="AH4" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B4)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000010000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AF4" t="str">
+      <c r="AI4" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B4)</f>
         <v>0000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AG4" t="str">
+      <c r="AJ4" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000001000000000000001001011000100</v>
       </c>
-      <c r="AH4" t="str">
+      <c r="AK4" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B4)</f>
         <v>0000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000100000000100000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000010000000000000001000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000</v>
       </c>
-      <c r="AI4" t="str">
+      <c r="AL4" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B4)</f>
         <v>1000000000000000000000000000000000000000000000000000000000000000000000000000000000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000010000000</v>
       </c>
-      <c r="AJ4" t="str">
+      <c r="AM4" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B4)</f>
         <v>00000000010000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001101000000000000000000000100000000000000000000000000000000000100000001000000000000000000000100000100000000000000000000000001000000000000010000000000000000000100100000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AN4" s="2">
         <f>_xll.NCDK_MolecularWeight(B4)</f>
         <v>60.052044664017956</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AO4" s="2">
         <f>_xll.NCDK_ExactMass(B4)</f>
         <v>60.021129367999997</v>
       </c>
-      <c r="AM4">
+      <c r="AP4">
         <f>_xll.NCDK_AcidicGroupCount(B4)</f>
         <v>1</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AQ4" s="4">
         <f>_xll.NCDK_ALogP(B4)</f>
         <v>-0.22990000000000016</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AR4" s="4">
         <f>_xll.NCDK_XLogP(B4)</f>
         <v>-0.08</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AS4" s="4">
         <f>_xll.NCDK_MannholdLogP(B4)</f>
         <v>1.46</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="AT4" s="4">
         <f>_xll.NCDK_JPlogP(B4)</f>
         <v>-0.27735415884610526</v>
       </c>
-      <c r="AR4">
+      <c r="AU4">
         <f>_xll.NCDK_AMolarRefractivity(B4)</f>
         <v>12.643699999999999</v>
       </c>
-      <c r="AS4">
+      <c r="AV4">
         <f>_xll.NCDK_APol(B4)</f>
         <v>7.7911719999999995</v>
       </c>
-      <c r="AT4">
+      <c r="AW4">
         <f>_xll.NCDK_AromaticAtomsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AU4">
+      <c r="AX4">
         <f>_xll.NCDK_AromaticBondsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="AV4">
+      <c r="AY4">
         <f>_xll.NCDK_AtomCount(B4)</f>
         <v>8</v>
       </c>
-      <c r="AW4" t="str">
+      <c r="AZ4" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B4)</f>
         <v>0.194598407923705, -0.0910121789036757, -0.00628702505817703, 0, 0</v>
       </c>
-      <c r="AX4" t="str">
+      <c r="BA4" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B4)</f>
         <v>5.54893807108189, 3.66418395426513, 4.43865298980608, 0, 0</v>
       </c>
-      <c r="AY4" t="str">
+      <c r="BB4" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B4)</f>
         <v>58.780575625, 47.106336, 38.8410481875, 0, 0</v>
       </c>
-      <c r="AZ4">
+      <c r="BC4">
         <f>_xll.NCDK_BasicGroupCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="BA4" t="str">
+      <c r="BD4" t="str">
         <f>_xll.NCDK_BCUT(B4)</f>
         <v>11.9966879762366, 15.9982572603197, -0.351666803410558, 0.275648439067482, 3.09299617864267, 4.35788090208676</v>
       </c>
-      <c r="BB4">
+      <c r="BE4">
         <f>_xll.NCDK_BondCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="BC4">
+      <c r="BF4">
         <f>_xll.NCDK_BPol(B4)</f>
         <v>5.3308280000000003</v>
       </c>
-      <c r="BD4" t="str">
+      <c r="BG4" t="str">
         <f>_xll.NCDK_CarbonTypes(B4)</f>
         <v>0, 0, 1, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="BE4" t="str">
+      <c r="BH4" t="str">
         <f>_xll.NCDK_ChiChain(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BF4" t="str">
+      <c r="BI4" t="str">
         <f>_xll.NCDK_ChiCluster(B4)</f>
         <v>0.577350269189626, 0, 0, 0, 0.0912870929175277, 0, 0, 0</v>
       </c>
-      <c r="BG4" t="str">
+      <c r="BJ4" t="str">
         <f>_xll.NCDK_ChiPathCluster(B4)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH4" t="str">
+      <c r="BK4" t="str">
         <f>_xll.NCDK_ChiPath(B4)</f>
         <v>3.57735026918963, 1.73205080756888, 1.73205080756888, 0, 0, 0, 0, 0, 2.35546188596382, 0.927730942981911, 0.519018035899438, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BI4" t="str">
+      <c r="BL4" t="str">
         <f>_xll.NCDK_CPSA(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ4">
+      <c r="BM4">
         <f>_xll.NCDK_EccentricConnectivityIndex(B4)</f>
         <v>9</v>
       </c>
-      <c r="BK4">
+      <c r="BN4">
         <f>_xll.NCDK_FMF(B4)</f>
         <v>0</v>
       </c>
-      <c r="BL4">
+      <c r="BO4">
         <f>_xll.NCDK_FractionalPSA(B4)</f>
         <v>0.62144781967398288</v>
       </c>
-      <c r="BM4">
+      <c r="BP4">
         <f>_xll.NCDK_FragmentComplexity(B4)</f>
         <v>37.020000000000003</v>
       </c>
-      <c r="BN4" t="str">
+      <c r="BQ4" t="str">
         <f>_xll.NCDK_GravitationalIndex(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BO4">
+      <c r="BR4">
         <f>_xll.NCDK_HBondAcceptorCount(B4)</f>
         <v>2</v>
       </c>
-      <c r="BP4">
+      <c r="BS4">
         <f>_xll.NCDK_HBondDonorCount(B4)</f>
         <v>1</v>
       </c>
-      <c r="BQ4">
+      <c r="BT4">
         <f>_xll.NCDK_HybridizationRatio(B4)</f>
         <v>0.5</v>
       </c>
-      <c r="BR4" t="str">
+      <c r="BU4" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B4)</f>
         <v>4, 1.33333333333333, #N/A</v>
       </c>
-      <c r="BS4" t="str">
+      <c r="BV4" t="str">
         <f>_xll.NCDK_KierHallSmarts(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BT4">
+      <c r="BW4">
         <f>_xll.NCDK_LargestChain(B4)</f>
         <v>3</v>
       </c>
-      <c r="BU4">
+      <c r="BX4">
         <f>_xll.NCDK_LargestPiSystem(B4)</f>
         <v>2</v>
       </c>
-      <c r="BV4" t="str">
+      <c r="BY4" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BW4">
+      <c r="BZ4">
         <f>_xll.NCDK_LongestAliphaticChain(B4)</f>
         <v>2</v>
       </c>
-      <c r="BX4" t="str">
+      <c r="CA4" t="str">
         <f>_xll.NCDK_MDE(B4)</f>
         <v>0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0.5, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BY4" t="str">
+      <c r="CB4" t="str">
         <f>_xll.NCDK_MomentOfInertia(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="BZ4">
+      <c r="CC4">
         <f>_xll.NCDK_PetitjeanNumber(B4)</f>
         <v>0.5</v>
       </c>
-      <c r="CA4" t="str">
+      <c r="CD4" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="CB4">
+      <c r="CE4">
         <f>_xll.NCDK_RotatableBondsCount(B4)</f>
         <v>0</v>
       </c>
-      <c r="CC4">
+      <c r="CF4">
         <f>_xll.NCDK_RuleOfFive(B4)</f>
         <v>0</v>
       </c>
-      <c r="CD4" t="str">
+      <c r="CG4" t="str">
         <f>_xll.NCDK_SmallRing(B4)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="CE4">
+      <c r="CH4">
         <f>_xll.NCDK_TPSA(B4)</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="CF4">
+      <c r="CI4">
         <f>_xll.NCDK_VABC(B4)</f>
         <v>58.092422652855603</v>
       </c>
-      <c r="CG4">
+      <c r="CJ4">
         <f>_xll.NCDK_VAdjMa(B4)</f>
         <v>2.5849625007211561</v>
       </c>
-      <c r="CH4" s="2">
+      <c r="CK4" s="2">
         <f>_xll.NCDK_MolecularWeight(B4)</f>
         <v>60.052044664017956</v>
       </c>
-      <c r="CI4" s="3">
+      <c r="CL4" s="3">
         <f>_xll.NCDK_ExactMass(B4)</f>
         <v>60.021129367999997</v>
       </c>
-      <c r="CJ4" t="str">
+      <c r="CM4" t="str">
         <f>_xll.NCDK_WeightedPath(B4)</f>
         <v>6.73205080756888, 1.68301270189222, 4.48803387171259, 4.48803387171259, 0</v>
       </c>
-      <c r="CK4" t="str">
+      <c r="CN4" t="str">
         <f>_xll.NCDK_WHIM(B4)</f>
         <v>#N/A</v>
       </c>
-      <c r="CL4" t="str">
+      <c r="CO4" t="str">
         <f>_xll.NCDK_WienerNumbers(B4)</f>
         <v>9, 0</v>
       </c>
-      <c r="CM4">
+      <c r="CP4">
         <f>_xll.NCDK_ZagrebIndex(B4)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -4141,7 +4198,7 @@
       <c r="C5" t="str">
         <f>_xll.NCDK_MolText(B5)</f>
         <v xml:space="preserve">
-       CDK0816191021
+       CDK0817191606
   6  6  0  0  0  0  0  0  0  0999 V2000
     0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
     0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
@@ -4187,347 +4244,359 @@
         <v>C1=CC=CC=C1</v>
       </c>
       <c r="G5" t="str">
+        <f>_xll.NCDK_InChI($B5)</f>
+        <v>InChI=1S/C6H6/c1-2-4-6-5-3-1/h1-6H</v>
+      </c>
+      <c r="H5" t="str">
         <f>_xll.RDKit_InChI(F5)</f>
         <v>InChI=1S/C6H6/c1-2-4-6-5-3-1/h1-6H</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xll.NCDK_InChIKey($B5)</f>
+        <v>UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
+      </c>
+      <c r="K5" t="str">
         <f>_xll.RDKit_InChIKey($B5)</f>
         <v>UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
       </c>
-      <c r="I5">
-        <f>_xll.NCDK_Tanimoto($U5,$U6)</f>
+      <c r="L5" s="2">
+        <f>_xll.NCDK_Tanimoto($X5,$X6)</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="J5" t="str">
-        <f>_xll.NCDK(J$1,$B5)</f>
+      <c r="M5" t="str">
+        <f>_xll.NCDK(M$1,$B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
       </c>
-      <c r="K5" t="str">
+      <c r="N5" t="str">
         <f>_xll.RDKit_MACCSFingerprint($B5)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
       </c>
-      <c r="L5" t="b">
-        <f>($J5=MID($K5,2,166))</f>
+      <c r="O5" t="b">
+        <f>($M5=MID($N5,2,166))</f>
         <v>1</v>
       </c>
-      <c r="M5" t="str">
+      <c r="P5" t="str">
         <f>_xll.RDKit_MorganFingerprint($B5, 2)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="N5" t="str">
+      <c r="Q5" t="str">
         <f>_xll.RDKit_RDKFingerprint($B5)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="O5" t="str">
+      <c r="R5" t="str">
         <f>_xll.RDKit_HashedAtomPairFingerprint($B5)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="P5" t="str">
+      <c r="S5" t="str">
         <f>_xll.RDKit_HashedTopologicalTorsionFingerprint($B5)</f>
         <v>00000000000011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="T5" t="str">
         <f>_xll.RDKit_LayeredFingerprint($B5)</f>
         <v>00000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000100000000000000000010000100000000000010000000100000000000000000000000000000000000000000000000000000000000000000000000000000010000000100010000000000000000010000100000000000000010000110000010001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000001000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000001000000000000000000001000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="R5" t="str">
+      <c r="U5" t="str">
         <f>_xll.RDKit_PatternFingerprint($B5)</f>
         <v>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000001000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100001000000000000000100000000000000000010000100000000000000000000000000000010001000000000000000000000000000000000000000000000000000001000100000000000000000000001000000000000000000000000000000000000000000000000000000000000000000100001000000000000000000000000000000000000000010000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000100000000000000000000000000000000000000010001000010000000000000000000000000000001000100000000000000100000000001000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000011000000000000000010000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000001011000000000000000000000000000000010000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000010000000000000000000000000000</v>
       </c>
-      <c r="S5" t="str">
+      <c r="V5" t="str">
         <f>_xll.NCDK_ECFP0($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="T5" t="str">
+      <c r="W5" t="str">
         <f>_xll.NCDK_ECFP2($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="U5" t="str">
+      <c r="X5" t="str">
         <f>_xll.NCDK_ECFP4($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="V5" t="str">
+      <c r="Y5" t="str">
         <f>_xll.NCDK_ECFP6($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="W5" t="str">
-        <f>_xll.NCDK_FCFP0($B5)</f>
-        <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="X5" t="str">
-        <f>_xll.NCDK_FCFP2($B5)</f>
-        <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="Y5" t="str">
-        <f>_xll.NCDK_FCFP4($B5)</f>
-        <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="Z5" t="str">
         <f>_xll.NCDK_FCFP0($B5)</f>
         <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="AA5" t="str">
+        <f>_xll.NCDK_FCFP2($B5)</f>
+        <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AB5" t="str">
+        <f>_xll.NCDK_FCFP4($B5)</f>
+        <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AC5" t="str">
+        <f>_xll.NCDK_FCFP0($B5)</f>
+        <v>0000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="AD5" t="str">
         <f>_xll.NCDK_AtomPairs2DFingerprinter($B5)</f>
         <v>100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AB5" t="str">
+      <c r="AE5" t="str">
         <f>_xll.NCDK_EStateFingerprinter($B5)</f>
         <v>0000000000010000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AC5" t="str">
+      <c r="AF5" t="str">
         <f>_xll.NCDK_ExtendedFingerprinter($B5)</f>
         <v>000000000000000000000000000000000000000000000000000001000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000010000000000000000000000000000000000000000000000000000000000010001</v>
       </c>
-      <c r="AD5" t="str">
+      <c r="AG5" t="str">
         <f>_xll.NCDK_CDKFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AE5" t="str">
+      <c r="AH5" t="str">
         <f>_xll.NCDK_KlekotaRothFingerprinter($B5)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AF5" t="str">
+      <c r="AI5" t="str">
         <f>_xll.NCDK_LingoFingerprinter($B5)</f>
         <v>0000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000</v>
       </c>
-      <c r="AG5" t="str">
+      <c r="AJ5" t="str">
         <f>_xll.NCDK_MACCSFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011010</v>
       </c>
-      <c r="AH5" t="str">
+      <c r="AK5" t="str">
         <f>_xll.NCDK_ShortestPathFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001</v>
       </c>
-      <c r="AI5" t="str">
+      <c r="AL5" t="str">
         <f>_xll.NCDK_SubstructureFingerprinter($B5)</f>
         <v>0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001000000000000000000000000000000001</v>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AM5" t="str">
         <f>_xll.NCDK_PubchemFingerprinter($B5)</f>
         <v>00000000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001100000000000000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000001100000000000000000000000000000000000000000000000100000000000100000000001000000000000001100000000000010000000000000000000000000000000100000000000000000100000010000100000000000000000000000100000000000000000001000000000000000000000000010001000100000000000000000000000000010001000000010000010000000100010100000000001000100010000100000000010000000000000001000001000000000000000000010001000100000000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AN5" s="2">
         <f>_xll.NCDK_MolecularWeight(B5)</f>
         <v>78.112059903682749</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AO5" s="2">
         <f>_xll.NCDK_ExactMass(B5)</f>
         <v>78.046950191999997</v>
       </c>
-      <c r="AM5">
+      <c r="AP5">
         <f>_xll.NCDK_AcidicGroupCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AQ5" s="4">
         <f>_xll.NCDK_ALogP(B5)</f>
         <v>1.8299999999999996</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="AR5" s="4">
         <f>_xll.NCDK_XLogP(B5)</f>
         <v>2.0220000000000002</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="AS5" s="4">
         <f>_xll.NCDK_MannholdLogP(B5)</f>
         <v>2.12</v>
       </c>
-      <c r="AQ5" s="4">
+      <c r="AT5" s="4">
         <f>_xll.NCDK_JPlogP(B5)</f>
         <v>1.8466303941078017</v>
       </c>
-      <c r="AR5">
+      <c r="AU5">
         <f>_xll.NCDK_AMolarRefractivity(B5)</f>
         <v>26.058</v>
       </c>
-      <c r="AS5">
+      <c r="AV5">
         <f>_xll.NCDK_APol(B5)</f>
         <v>14.560758</v>
       </c>
-      <c r="AT5">
+      <c r="AW5">
         <f>_xll.NCDK_AromaticAtomsCount(B5)</f>
         <v>6</v>
       </c>
-      <c r="AU5">
+      <c r="AX5">
         <f>_xll.NCDK_AromaticBondsCount(B5)</f>
         <v>6</v>
       </c>
-      <c r="AV5">
+      <c r="AY5">
         <f>_xll.NCDK_AtomCount(B5)</f>
         <v>12</v>
       </c>
-      <c r="AW5" t="str">
+      <c r="AZ5" t="str">
         <f>_xll.NCDK_AutocorrelationCharge(B5)</f>
         <v>0, 0, 0, 0, 0</v>
       </c>
-      <c r="AX5" t="str">
+      <c r="BA5" t="str">
         <f>_xll.NCDK_AutocorrelationMass(B5)</f>
         <v>6, 6, 6, 3, 0</v>
       </c>
-      <c r="AY5" t="str">
+      <c r="BB5" t="str">
         <f>_xll.NCDK_AutocorrelationPolarizability(B5)</f>
         <v>233.87838834375, 233.87838834375, 233.87838834375, 116.939194171875, 0</v>
       </c>
-      <c r="AZ5">
+      <c r="BC5">
         <f>_xll.NCDK_BasicGroupCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="BA5" t="str">
+      <c r="BD5" t="str">
         <f>_xll.NCDK_BCUT(B5)</f>
         <v>11.85, 12.1500544016358, -0.211758152069243, 0.0882962495665529, 6.093375, 6.3934294016358</v>
       </c>
-      <c r="BB5">
+      <c r="BE5">
         <f>_xll.NCDK_BondCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="BC5">
+      <c r="BF5">
         <f>_xll.NCDK_BPol(B5)</f>
         <v>6.5592419999999994</v>
       </c>
-      <c r="BD5" t="str">
+      <c r="BG5" t="str">
         <f>_xll.NCDK_CarbonTypes(B5)</f>
         <v>0, 0, 0, 6, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BE5" t="str">
+      <c r="BH5" t="str">
         <f>_xll.NCDK_ChiChain(B5)</f>
         <v>0, 0, 0, 0.125, 0, 0, 0, 0, 0.037037037037037, 0</v>
       </c>
-      <c r="BF5" t="str">
+      <c r="BI5" t="str">
         <f>_xll.NCDK_ChiCluster(B5)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BG5" t="str">
+      <c r="BJ5" t="str">
         <f>_xll.NCDK_ChiPathCluster(B5)</f>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BH5" t="str">
+      <c r="BK5" t="str">
         <f>_xll.NCDK_ChiPath(B5)</f>
         <v>4.24264068711928, 3, 2.12132034355964, 1.5, 1.06066017177982, 0.75, 0, 0, 3.46410161513775, 2, 1.15470053837925, 0.666666666666667, 0.384900179459751, 0.222222222222222, 0, 0</v>
       </c>
-      <c r="BI5" t="str">
+      <c r="BL5" t="str">
         <f>_xll.NCDK_CPSA(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ5">
+      <c r="BM5">
         <f>_xll.NCDK_EccentricConnectivityIndex(B5)</f>
         <v>36</v>
       </c>
-      <c r="BK5">
+      <c r="BN5">
         <f>_xll.NCDK_FMF(B5)</f>
         <v>1</v>
       </c>
-      <c r="BL5">
+      <c r="BO5">
         <f>_xll.NCDK_FractionalPSA(B5)</f>
         <v>0</v>
       </c>
-      <c r="BM5">
+      <c r="BP5">
         <f>_xll.NCDK_FragmentComplexity(B5)</f>
         <v>114</v>
       </c>
-      <c r="BN5" t="str">
+      <c r="BQ5" t="str">
         <f>_xll.NCDK_GravitationalIndex(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BO5">
+      <c r="BR5">
         <f>_xll.NCDK_HBondAcceptorCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="BP5">
+      <c r="BS5">
         <f>_xll.NCDK_HBondDonorCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="BQ5">
+      <c r="BT5">
         <f>_xll.NCDK_HybridizationRatio(B5)</f>
         <v>0</v>
       </c>
-      <c r="BR5" t="str">
+      <c r="BU5" t="str">
         <f>_xll.NCDK_KappaShapeIndices(B5)</f>
         <v>4.16666666666667, 2.22222222222222, 1.33333333333333</v>
       </c>
-      <c r="BS5" t="str">
+      <c r="BV5" t="str">
         <f>_xll.NCDK_KierHallSmarts(B5)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BT5">
+      <c r="BW5">
         <f>_xll.NCDK_LargestChain(B5)</f>
         <v>4</v>
       </c>
-      <c r="BU5">
+      <c r="BX5">
         <f>_xll.NCDK_LargestPiSystem(B5)</f>
         <v>6</v>
       </c>
-      <c r="BV5" t="str">
+      <c r="BY5" t="str">
         <f>_xll.NCDK_LengthOverBreadth(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BW5">
+      <c r="BZ5">
         <f>_xll.NCDK_LongestAliphaticChain(B5)</f>
         <v>0</v>
       </c>
-      <c r="BX5" t="str">
+      <c r="CA5" t="str">
         <f>_xll.NCDK_MDE(B5)</f>
         <v>0, 0, 0, 0, 9.12546512839809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="BY5" t="str">
+      <c r="CB5" t="str">
         <f>_xll.NCDK_MomentOfInertia(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="BZ5">
+      <c r="CC5">
         <f>_xll.NCDK_PetitjeanNumber(B5)</f>
         <v>0</v>
       </c>
-      <c r="CA5" t="str">
+      <c r="CD5" t="str">
         <f>_xll.NCDK_PetitjeanShapeIndex(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="CB5">
+      <c r="CE5">
         <f>_xll.NCDK_RotatableBondsCount(B5)</f>
         <v>0</v>
       </c>
-      <c r="CC5">
+      <c r="CF5">
         <f>_xll.NCDK_RuleOfFive(B5)</f>
         <v>0</v>
       </c>
-      <c r="CD5" t="str">
+      <c r="CG5" t="str">
         <f>_xll.NCDK_SmallRing(B5)</f>
         <v>1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
-      <c r="CE5">
+      <c r="CH5">
         <f>_xll.NCDK_TPSA(B5)</f>
         <v>0</v>
       </c>
-      <c r="CF5">
+      <c r="CI5">
         <f>_xll.NCDK_VABC(B5)</f>
         <v>81.166531652800174</v>
       </c>
-      <c r="CG5">
+      <c r="CJ5">
         <f>_xll.NCDK_VAdjMa(B5)</f>
         <v>3.5849625007211561</v>
       </c>
-      <c r="CH5" s="2">
+      <c r="CK5" s="2">
         <f>_xll.NCDK_MolecularWeight(B5)</f>
         <v>78.112059903682749</v>
       </c>
-      <c r="CI5" s="3">
+      <c r="CL5" s="3">
         <f>_xll.NCDK_ExactMass(B5)</f>
         <v>78.046950191999997</v>
       </c>
-      <c r="CJ5" t="str">
+      <c r="CM5" t="str">
         <f>_xll.NCDK_WeightedPath(B5)</f>
         <v>11.8125, 1.96875, 0, 0, 0</v>
       </c>
-      <c r="CK5" t="str">
+      <c r="CN5" t="str">
         <f>_xll.NCDK_WHIM(B5)</f>
         <v>#N/A</v>
       </c>
-      <c r="CL5" t="str">
+      <c r="CO5" t="str">
         <f>_xll.NCDK_WienerNumbers(B5)</f>
         <v>27, 3</v>
       </c>
-      <c r="CM5">
+      <c r="CP5">
         <f>_xll.NCDK_ZagrebIndex(B5)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -4537,7 +4606,7 @@
       <c r="C6" t="str">
         <f>_xll.NCDK_MolText(B6)</f>
         <v xml:space="preserve">
-       CDK0816191021
+       CDK0817191606
   7  7  0  0  0  0  0  0  0  0999 V2000
     0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
     0.0000    0.0000    0.0000 C   0  0  0  0  0  0  0  0  0  0  0  0
@@ -4587,347 +4656,359 @@
         <v>CC1=CC=CC=C1</v>
       </c>
       <c r="G6" t="str">
+        <f>_xll.NCDK_InChI($B6)</f>
+        <v>InChI=1S/C7H8/c1-7-5-3-2-4-6-7/h2-6H,1H3</v>
+      </c>
+      <c r="H6" t="str">
         <f>_xll.RDKit_InChI(F6)</f>
         <v>InChI=1S/C7H8/c1-7-5-3-2-4-6-7/h2-6H,1H3</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xll.NCDK_InChIKey($B6)</f>
+        <v>YXFVVABEGXRONW-UHFFFAOYSA-N</v>
+      </c>
+      <c r="K6" t="str">
         <f>_xll.RDKit_InChIKey($B6)</f>
         <v>YXFVVABEGXRONW-UHFFFAOYSA-N</v>
       </c>
-      <c r="I6">
-        <f>_xll.NCDK_Tanimoto($U6,$U7)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" t="str">
-        <f>_xll.NCDK(J$1,$B6)</f>
+      <c r="L6" s="2">
+        <f>_xll.NCDK_Tanimoto($X6,$X7)</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="M6" t="str">
+        <f>_xll.NCDK(M$1,$B6)</f>
         <v>000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101